--- a/Jeu d'essai (Valeurs).xlsx
+++ b/Jeu d'essai (Valeurs).xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="765" documentId="14_{E952B2A6-1070-47AA-ABAD-4591E8C72938}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{891AB183-7608-4FD5-8341-8C0FC5792962}"/>
+  <xr:revisionPtr revIDLastSave="860" documentId="14_{E952B2A6-1070-47AA-ABAD-4591E8C72938}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{DED8041D-CD7C-4D8F-B501-4784787C264F}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PPVendeurs" sheetId="13" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="368">
   <si>
     <t>NULL</t>
   </si>
@@ -742,6 +742,422 @@
   </si>
   <si>
     <t>motDePasse</t>
+  </si>
+  <si>
+    <t>Djembé</t>
+  </si>
+  <si>
+    <t>Djembé, un an d'usure.  A très peu servi.  Construction solide.  Finition bois clair.  payé 500.00$.</t>
+  </si>
+  <si>
+    <t>1000010.jpg</t>
+  </si>
+  <si>
+    <t>35.0</t>
+  </si>
+  <si>
+    <t>Lit d'enfant</t>
+  </si>
+  <si>
+    <t>Lit jumeau superposé.  Echelle placable à chaque bout.  Bureau intégré.  Chaise fourni.  Bois verni.  Aucun matelas fourni.</t>
+  </si>
+  <si>
+    <t>1000020.jpg</t>
+  </si>
+  <si>
+    <t>150.0</t>
+  </si>
+  <si>
+    <t>Aspirateur central</t>
+  </si>
+  <si>
+    <t>Aspirateur Allegro.  Comme neuf.  Vient avec tous les accessoires.  Bon état.</t>
+  </si>
+  <si>
+    <t>1000030.jpg</t>
+  </si>
+  <si>
+    <t>30.0</t>
+  </si>
+  <si>
+    <t>Imprimante</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Imprimante Epson serie i560. Ecore en bon état.  Vendue sans garantie. </t>
+  </si>
+  <si>
+    <t>1000040.jpg</t>
+  </si>
+  <si>
+    <t>7.5</t>
+  </si>
+  <si>
+    <t>Guitare</t>
+  </si>
+  <si>
+    <t>Guitare électrique avec étui.  Utilisé très peu.  Comme neuve.  Pas d'amplificateur.</t>
+  </si>
+  <si>
+    <t>1000050.jpg</t>
+  </si>
+  <si>
+    <t>22.0</t>
+  </si>
+  <si>
+    <t>Piano</t>
+  </si>
+  <si>
+    <t>Piano d'appartement.  En cerisier. Vieux de plus de 40 ans.  Encore en tr`s bon état. Besoin d'être accordé.</t>
+  </si>
+  <si>
+    <t>2000010.jpg</t>
+  </si>
+  <si>
+    <t>450.0</t>
+  </si>
+  <si>
+    <t>Chaise ordinateur</t>
+  </si>
+  <si>
+    <t>Couleur bleue. 5 roulettes.  Hauteur ajustable.</t>
+  </si>
+  <si>
+    <t>2000020.jpg</t>
+  </si>
+  <si>
+    <t>10.0</t>
+  </si>
+  <si>
+    <t>Laptop</t>
+  </si>
+  <si>
+    <t>Acer, AMD Turion, 1600 MH, disque 120 Go, écran 15 pouces DVD RW</t>
+  </si>
+  <si>
+    <t>2000030.jpg</t>
+  </si>
+  <si>
+    <t>6.5</t>
+  </si>
+  <si>
+    <t>Bottes de ski</t>
+  </si>
+  <si>
+    <t>Couleur vertes, Comme neuves. Payé 250.00$.</t>
+  </si>
+  <si>
+    <t>2000040.jpg</t>
+  </si>
+  <si>
+    <t>15.0</t>
+  </si>
+  <si>
+    <t>Scanner FUTJITSU</t>
+  </si>
+  <si>
+    <t>Scanner pour long document.  Couleur noire.  Encore en bonne condition.  Cable fourni.  Driver soumis.</t>
+  </si>
+  <si>
+    <t>3000010.jpg</t>
+  </si>
+  <si>
+    <t>Imprimantes pour les pièces</t>
+  </si>
+  <si>
+    <t>Vendues seule ou en lot (5).  Marques variées.  Certaines en état de marche</t>
+  </si>
+  <si>
+    <t>3000020.jpg</t>
+  </si>
+  <si>
+    <t>Humidificateur</t>
+  </si>
+  <si>
+    <t>Humidificateur de chambre. Idéal pour humidifier une chambre d'enfant.  Comme neuf.  Utilisé une saison.</t>
+  </si>
+  <si>
+    <t>3000030.jpg</t>
+  </si>
+  <si>
+    <t>12.0</t>
+  </si>
+  <si>
+    <t>Petite théière japonaise</t>
+  </si>
+  <si>
+    <t>Il fait froid! Réchauffez-vous avec un thé! Toute petite théière en fonte. Bleue et noire. Contient 10 oz, 1 1/4 tasse. Neuve, servait d'objet décoratif Départ en résidence</t>
+  </si>
+  <si>
+    <t>1000060.JPG</t>
+  </si>
+  <si>
+    <t>3.0</t>
+  </si>
+  <si>
+    <t>Verre taillé</t>
+  </si>
+  <si>
+    <t>Verre taillé comprenant ensemble de parfumeuse en parfaite condition.</t>
+  </si>
+  <si>
+    <t>2000050.JPG</t>
+  </si>
+  <si>
+    <t>0.5</t>
+  </si>
+  <si>
+    <t>Couverture requin</t>
+  </si>
+  <si>
+    <t>Petite couverture en polar pour enfants en forme de requin. Insertion par la bouche du requin.</t>
+  </si>
+  <si>
+    <t>3000040.JPG</t>
+  </si>
+  <si>
+    <t>1.0</t>
+  </si>
+  <si>
+    <t>Table de cuisine style scandinave</t>
+  </si>
+  <si>
+    <t>Table de 48’’ x 96’’ en frêne massif Épaisseur 2’’ avec insertions en érable torréfier Pattes en acier , cornière en L 4’’ x 4’’ aux extrémités, donc aucune pattes au milieu Peut assoir 12 personnes Pièce unique faite à la main Valeur 2000$ Liquidation à 800$</t>
+  </si>
+  <si>
+    <t>1000070.JPG</t>
+  </si>
+  <si>
+    <t>45.0</t>
+  </si>
+  <si>
+    <t>Meuble foyer</t>
+  </si>
+  <si>
+    <t>Meuble avec foyer intégré acheté sur costco.ca Manuel d’instruction et télécommande.</t>
+  </si>
+  <si>
+    <t>2000060.JPG</t>
+  </si>
+  <si>
+    <t>116.0</t>
+  </si>
+  <si>
+    <t>Bureau en U</t>
+  </si>
+  <si>
+    <t>Très grand bureau en forme de U. Facile à démontrer pour le transport. extérieur: 60'' x 90'' Intérieur: 40'' x 42''</t>
+  </si>
+  <si>
+    <t>3000050.JPG</t>
+  </si>
+  <si>
+    <t>323.0</t>
+  </si>
+  <si>
+    <t>Vidéotron illico términal enregistreur</t>
+  </si>
+  <si>
+    <t>Términal illico enregistreur haute définition modèle Samsung smt-c8340 pvr récente génération</t>
+  </si>
+  <si>
+    <t>1000080.JPG</t>
+  </si>
+  <si>
+    <t>4.5</t>
+  </si>
+  <si>
+    <t>Console PlayStation 1</t>
+  </si>
+  <si>
+    <t>Console PlayStation 1 en excellente condition, fourni avec manette et filages</t>
+  </si>
+  <si>
+    <t>2000070.JPG</t>
+  </si>
+  <si>
+    <t>Nikon 24-85</t>
+  </si>
+  <si>
+    <t>Nikon AF-S Nikkor 24-85mm f/3.5-4.5G ED</t>
+  </si>
+  <si>
+    <t>3000060.JPG</t>
+  </si>
+  <si>
+    <t>Habit de neige North Face bébé 0-3 mois</t>
+  </si>
+  <si>
+    <t>habit de neige pour bébé North Face 0-3 mois Porté quelques fois Raison de la vente: trop petit environnement non fumeur Avec Tuque perlimpinpin</t>
+  </si>
+  <si>
+    <t>1000090.JPG</t>
+  </si>
+  <si>
+    <t>13.0</t>
+  </si>
+  <si>
+    <t>Barrière de sécurité pour bébé</t>
+  </si>
+  <si>
+    <t>Barrière de sécurité double pour bébé, en bois, s'installe sur tous types d'ouvertures. Idéale pour escalier. Vendue avec manuel d'installation.</t>
+  </si>
+  <si>
+    <t>2000080.JPG</t>
+  </si>
+  <si>
+    <t>Poussette Graco</t>
+  </si>
+  <si>
+    <t>Poussette Graco avec plateau avant amovible Dessus baldaquin dont le siège et repose pied s'abaisse 3 positons Roulettes pivotantes avec freins.</t>
+  </si>
+  <si>
+    <t>3000070.JPG</t>
+  </si>
+  <si>
+    <t>37.5</t>
+  </si>
+  <si>
+    <t>2 x Roulette pivotante en polyoléfine</t>
+  </si>
+  <si>
+    <t>Diamètre de roue: 4" (100 mm) Type de roulette: Pivotant Matériau du cadre: Acier Distance entre les trous de boulon (centre-centre): 55 mm x 80 mm Dimensions de la plaque: 78 mm x 102 mm Hauteur hors tout: 5"</t>
+  </si>
+  <si>
+    <t>1000100.JPG</t>
+  </si>
+  <si>
+    <t>2.0</t>
+  </si>
+  <si>
+    <t>Cles Craftman</t>
+  </si>
+  <si>
+    <t>set de cles Craftman 8 cles</t>
+  </si>
+  <si>
+    <t>2000090.JPG</t>
+  </si>
+  <si>
+    <t>2.5</t>
+  </si>
+  <si>
+    <t>scie onglet 12"</t>
+  </si>
+  <si>
+    <t>scie a onglet 12" mastercraft maximum avec lazer</t>
+  </si>
+  <si>
+    <t>3000080.JPG</t>
+  </si>
+  <si>
+    <t>56.0</t>
+  </si>
+  <si>
+    <t>Ski ELAN 144 cm</t>
+  </si>
+  <si>
+    <t>A vendre ensemble de ski alpin: Ski ELAN 144 cm avec bottes pointure 26, plus bâtons.</t>
+  </si>
+  <si>
+    <t>1000110.JPG</t>
+  </si>
+  <si>
+    <t>7.0</t>
+  </si>
+  <si>
+    <t>Patin grandeur 2</t>
+  </si>
+  <si>
+    <t>Patin hockey gr 2 CCM SL-100 220mm</t>
+  </si>
+  <si>
+    <t>2000100.JPG</t>
+  </si>
+  <si>
+    <t>Bâton Bauer Junior Nexus 1N</t>
+  </si>
+  <si>
+    <t>Bâton Bauer Junior Nexus 1N - Kane P88 Flex 47 Lie 5 Bâton haut de gamme. Pour joueur de catégorie Atome et Peewee. Excellent état. Peu utilisé (mon garçon a grandi rapidement ). A été coupé légèrement (longueur 48 po du talon )</t>
+  </si>
+  <si>
+    <t>3000090.JPG</t>
+  </si>
+  <si>
+    <t>1600002.jpg</t>
+  </si>
+  <si>
+    <t>KitchenAid Mini robot de cuisine rouge</t>
+  </si>
+  <si>
+    <t>49.99</t>
+  </si>
+  <si>
+    <t>2.7</t>
+  </si>
+  <si>
+    <t>Honeywell Hz-1350 C Chauffage en céramique</t>
+  </si>
+  <si>
+    <t>1600003.jpg</t>
+  </si>
+  <si>
+    <t>Efficace en céramique de chauffage avec thermostat réglable maintient la chaleur souhaitée
+Arrêt automatique et sécurité pointe sur commutateur pour plus de sécurité et de la protection
+Commandes manuelles sur le dessus pour la facilité d'utilisation
+Fabriqué avec vo classé en plastique qui se trouve au-dessus et au-delà des standards de l'industrie
+Élément chauffant en céramique pour plus de sûreté, 3 réglages de vitesse élevée, faible plus de ventilateur</t>
+  </si>
+  <si>
+    <t>3.5-cup Chopper bol avec couvercle, verser le bec, les graduations et poignée souple
+Deux vitesses : Chop et purées
+Ingrédient liquide adder
+Lave-vaisselle bol de travail sûr, lame et couvercle dentelé lame en acier inoxydable</t>
+  </si>
+  <si>
+    <t>44.99</t>
+  </si>
+  <si>
+    <t>39.99</t>
+  </si>
+  <si>
+    <t>4.0</t>
+  </si>
+  <si>
+    <t>1600004.jpg</t>
+  </si>
+  <si>
+    <t>Tapis de baignoire antidérapant antibactérien</t>
+  </si>
+  <si>
+    <t>Le tapis a une taille généreuse de 40,6 x 96,5 cm ; fabriqué en matériau respectueux de l'environnement PVC
+Poignée solide recouvert de ventouses qui, une fois pressé en place adhèrent fermement au sol de la baignoire ou cabine de douche et ne seront pas déplacer ou glisser lorsque vous étape sous ou hors tension ; la partie supérieure du tapis est texturée, donnant à vos pieds plus de traction et de confort qui apaise et doucement massages les pieds fatigués
+Idéal pour un usage intensif des situations telles que maisons hôtels hôpitaux Assisted Living installations gymnases saunas spas et beaucoup d'autres endroits ainsi que des maisons avec de petits enfants, les personnes âgées ou toute personne qui exige les plus hauts standards de sécurité et de qualité
+contenir les bactéries et les dépôts de savon résister des microbes pathogènes et bactéries vous permet de remplir la baignoire ; ils sont sans latex non toxique odeur et résiste à la croissance de la tache et responsables des mauvaises odeurs et moisissures sur le tapis de baignoire ; également repousse les résidus de savon qui peuvent causer des glissements
+Beau design extra long avec Crystal Clear couleur design compliments tous les styles ; lavable en machine</t>
+  </si>
+  <si>
+    <t>15.99</t>
+  </si>
+  <si>
+    <t>1.8</t>
+  </si>
+  <si>
+    <t>Cellier silencieux 12 bouteilles argent</t>
+  </si>
+  <si>
+    <t>Capacité pour 12
+Plage de température réglable : 50–66 degreef
+Extérieur avec écran tactile numérique avec affichage de la température
+Autonome uniquement</t>
+  </si>
+  <si>
+    <t>1600005.jpg</t>
+  </si>
+  <si>
+    <t>238.88</t>
+  </si>
+  <si>
+    <t>34.0</t>
   </si>
 </sst>
 </file>
@@ -777,9 +1193,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1062,7 +1484,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68577903-7E23-4CEF-B0E9-4DD8C1CA3581}">
   <dimension ref="A1:U8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2287,7 +2709,7 @@
         <v>AdresseEmail101</v>
       </c>
       <c r="C2" t="str">
-        <f t="shared" ref="C2:Q2" si="0">C$1&amp;$A2</f>
+        <f t="shared" ref="C2:P2" si="0">C$1&amp;$A2</f>
         <v>MotDePasse101</v>
       </c>
       <c r="D2" t="str">
@@ -2351,7 +2773,7 @@
         <v>102</v>
       </c>
       <c r="B3" t="str">
-        <f t="shared" ref="B3:Q21" si="1">B$1&amp;$A3</f>
+        <f t="shared" ref="B3:P21" si="1">B$1&amp;$A3</f>
         <v>AdresseEmail102</v>
       </c>
       <c r="C3" t="str">
@@ -2943,7 +3365,7 @@
         <v>DateCreation117</v>
       </c>
       <c r="O18" t="str">
-        <f t="shared" ref="C18:Q21" si="3">O$1&amp;$A18</f>
+        <f t="shared" ref="C18:P21" si="3">O$1&amp;$A18</f>
         <v>NbConnexions117</v>
       </c>
       <c r="P18" t="str">
@@ -3284,15 +3706,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N105"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="42.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="227.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="20.140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="20.42578125" bestFit="1" customWidth="1"/>
@@ -3305,5767 +3727,5391 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="2" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="A2" s="2">
         <v>1100001</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="2">
         <v>11</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="2">
         <v>1001</v>
       </c>
-      <c r="D2" t="str">
-        <f>D$1&amp;$A2</f>
-        <v>Nom1100001</v>
-      </c>
-      <c r="E2" t="str">
-        <f t="shared" ref="E2:N2" si="0">E$1&amp;$A2</f>
-        <v>Description1100001</v>
-      </c>
-      <c r="F2" t="str">
-        <f t="shared" si="0"/>
-        <v>Photo1100001</v>
-      </c>
-      <c r="G2" t="str">
-        <f t="shared" si="0"/>
-        <v>PrixDemande1100001</v>
-      </c>
-      <c r="H2" t="str">
-        <f t="shared" si="0"/>
-        <v>NombreItems1100001</v>
-      </c>
-      <c r="I2" t="str">
-        <f t="shared" si="0"/>
-        <v>Disponibilité1100001</v>
-      </c>
-      <c r="J2" t="str">
-        <f t="shared" si="0"/>
+      <c r="D2" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="G2" s="2">
+        <v>100</v>
+      </c>
+      <c r="H2" s="2">
+        <v>1</v>
+      </c>
+      <c r="I2" s="2">
+        <v>1</v>
+      </c>
+      <c r="J2" s="2" t="str">
+        <f t="shared" ref="D2:N66" si="0">J$1&amp;$A2</f>
         <v>DateVente1100001</v>
       </c>
-      <c r="K2" t="str">
-        <f t="shared" si="0"/>
-        <v>PrixVente1100001</v>
-      </c>
-      <c r="L2" t="str">
-        <f t="shared" si="0"/>
-        <v>Poids1100001</v>
-      </c>
-      <c r="M2" t="str">
+      <c r="K2" s="2">
+        <v>100</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="M2" s="2" t="str">
         <f t="shared" si="0"/>
         <v>DateCreation1100001</v>
       </c>
-      <c r="N2" t="str">
-        <f t="shared" si="0"/>
-        <v>DateMAJ1100001</v>
+      <c r="N2" s="2" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="A3" s="2">
         <v>1400001</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="2">
         <v>14</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="2">
         <v>1001</v>
       </c>
-      <c r="D3" t="str">
-        <f t="shared" ref="D3:N66" si="1">D$1&amp;$A3</f>
-        <v>Nom1400001</v>
-      </c>
-      <c r="E3" t="str">
-        <f t="shared" si="1"/>
-        <v>Description1400001</v>
-      </c>
-      <c r="F3" t="str">
-        <f t="shared" si="1"/>
-        <v>Photo1400001</v>
-      </c>
-      <c r="G3" t="str">
-        <f t="shared" si="1"/>
-        <v>PrixDemande1400001</v>
-      </c>
-      <c r="H3" t="str">
-        <f t="shared" si="1"/>
-        <v>NombreItems1400001</v>
-      </c>
-      <c r="I3" t="str">
-        <f t="shared" si="1"/>
-        <v>Disponibilité1400001</v>
-      </c>
-      <c r="J3" t="str">
-        <f t="shared" si="1"/>
+      <c r="D3" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="G3" s="2">
+        <v>20</v>
+      </c>
+      <c r="H3" s="2">
+        <v>1</v>
+      </c>
+      <c r="I3" s="2">
+        <v>1</v>
+      </c>
+      <c r="J3" s="2" t="str">
+        <f t="shared" si="0"/>
         <v>DateVente1400001</v>
       </c>
-      <c r="K3" t="str">
-        <f t="shared" si="1"/>
-        <v>PrixVente1400001</v>
-      </c>
-      <c r="L3" t="str">
-        <f t="shared" si="1"/>
-        <v>Poids1400001</v>
-      </c>
-      <c r="M3" t="str">
-        <f t="shared" si="1"/>
+      <c r="K3" s="2">
+        <v>20</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="M3" s="2" t="str">
+        <f t="shared" si="0"/>
         <v>DateCreation1400001</v>
       </c>
-      <c r="N3" t="str">
-        <f t="shared" si="1"/>
-        <v>DateMAJ1400001</v>
+      <c r="N3" s="2" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="A4" s="2">
         <v>1400002</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="2">
         <v>14</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="2">
         <v>1001</v>
       </c>
-      <c r="D4" t="str">
-        <f t="shared" si="1"/>
-        <v>Nom1400002</v>
-      </c>
-      <c r="E4" t="str">
-        <f t="shared" si="1"/>
-        <v>Description1400002</v>
-      </c>
-      <c r="F4" t="str">
-        <f t="shared" si="1"/>
-        <v>Photo1400002</v>
-      </c>
-      <c r="G4" t="str">
-        <f t="shared" si="1"/>
-        <v>PrixDemande1400002</v>
-      </c>
-      <c r="H4" t="str">
-        <f t="shared" si="1"/>
-        <v>NombreItems1400002</v>
-      </c>
-      <c r="I4" t="str">
-        <f t="shared" si="1"/>
-        <v>Disponibilité1400002</v>
-      </c>
-      <c r="J4" t="str">
-        <f t="shared" si="1"/>
+      <c r="D4" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="G4" s="2">
+        <v>20</v>
+      </c>
+      <c r="H4" s="2">
+        <v>1</v>
+      </c>
+      <c r="I4" s="2">
+        <v>1</v>
+      </c>
+      <c r="J4" s="2" t="str">
+        <f t="shared" si="0"/>
         <v>DateVente1400002</v>
       </c>
-      <c r="K4" t="str">
-        <f t="shared" si="1"/>
-        <v>PrixVente1400002</v>
-      </c>
-      <c r="L4" t="str">
-        <f t="shared" si="1"/>
-        <v>Poids1400002</v>
-      </c>
-      <c r="M4" t="str">
-        <f t="shared" si="1"/>
+      <c r="K4" s="2">
+        <v>20</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="M4" s="2" t="str">
+        <f t="shared" si="0"/>
         <v>DateCreation1400002</v>
       </c>
-      <c r="N4" t="str">
-        <f t="shared" si="1"/>
-        <v>DateMAJ1400002</v>
+      <c r="N4" s="2" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="A5" s="2">
         <v>1600001</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="2">
         <v>16</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="2">
         <v>1001</v>
       </c>
-      <c r="D5" t="str">
-        <f t="shared" si="1"/>
-        <v>Nom1600001</v>
-      </c>
-      <c r="E5" t="str">
-        <f t="shared" si="1"/>
-        <v>Description1600001</v>
-      </c>
-      <c r="F5" t="str">
-        <f t="shared" si="1"/>
-        <v>Photo1600001</v>
-      </c>
-      <c r="G5" t="str">
-        <f t="shared" si="1"/>
-        <v>PrixDemande1600001</v>
-      </c>
-      <c r="H5" t="str">
-        <f t="shared" si="1"/>
-        <v>NombreItems1600001</v>
-      </c>
-      <c r="I5" t="str">
-        <f t="shared" si="1"/>
-        <v>Disponibilité1600001</v>
-      </c>
-      <c r="J5" t="str">
-        <f t="shared" si="1"/>
+      <c r="D5" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="G5" s="2">
+        <v>5</v>
+      </c>
+      <c r="H5" s="2">
+        <v>1</v>
+      </c>
+      <c r="I5" s="2">
+        <v>1</v>
+      </c>
+      <c r="J5" s="2" t="str">
+        <f t="shared" si="0"/>
         <v>DateVente1600001</v>
       </c>
-      <c r="K5" t="str">
-        <f t="shared" si="1"/>
-        <v>PrixVente1600001</v>
-      </c>
-      <c r="L5" t="str">
-        <f t="shared" si="1"/>
-        <v>Poids1600001</v>
-      </c>
-      <c r="M5" t="str">
-        <f t="shared" si="1"/>
+      <c r="K5" s="2">
+        <v>5</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="M5" s="2" t="str">
+        <f t="shared" si="0"/>
         <v>DateCreation1600001</v>
       </c>
-      <c r="N5" t="str">
-        <f t="shared" si="1"/>
-        <v>DateMAJ1600001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="N5" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="60" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
         <v>1600002</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="2">
         <v>16</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="2">
         <v>1001</v>
       </c>
-      <c r="D6" t="str">
-        <f t="shared" si="1"/>
-        <v>Nom1600002</v>
-      </c>
-      <c r="E6" t="str">
-        <f t="shared" si="1"/>
-        <v>Description1600002</v>
-      </c>
-      <c r="F6" t="str">
-        <f t="shared" si="1"/>
-        <v>Photo1600002</v>
-      </c>
-      <c r="G6" t="str">
-        <f t="shared" si="1"/>
-        <v>PrixDemande1600002</v>
-      </c>
-      <c r="H6" t="str">
-        <f t="shared" si="1"/>
-        <v>NombreItems1600002</v>
-      </c>
-      <c r="I6" t="str">
-        <f t="shared" si="1"/>
-        <v>Disponibilité1600002</v>
-      </c>
-      <c r="J6" t="str">
-        <f t="shared" si="1"/>
+      <c r="D6" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="H6" s="2">
+        <v>2</v>
+      </c>
+      <c r="I6" s="2">
+        <v>1</v>
+      </c>
+      <c r="J6" s="2" t="str">
+        <f t="shared" si="0"/>
         <v>DateVente1600002</v>
       </c>
-      <c r="K6" t="str">
-        <f t="shared" si="1"/>
-        <v>PrixVente1600002</v>
-      </c>
-      <c r="L6" t="str">
-        <f t="shared" si="1"/>
-        <v>Poids1600002</v>
-      </c>
-      <c r="M6" t="str">
-        <f t="shared" si="1"/>
+      <c r="K6" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="M6" s="2" t="str">
+        <f t="shared" si="0"/>
         <v>DateCreation1600002</v>
       </c>
-      <c r="N6" t="str">
-        <f t="shared" si="1"/>
-        <v>DateMAJ1600002</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7">
+      <c r="N6" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="75" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
         <v>1600003</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="2">
         <v>16</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="2">
         <v>1001</v>
       </c>
-      <c r="D7" t="str">
-        <f t="shared" si="1"/>
-        <v>Nom1600003</v>
-      </c>
-      <c r="E7" t="str">
-        <f t="shared" si="1"/>
-        <v>Description1600003</v>
-      </c>
-      <c r="F7" t="str">
-        <f t="shared" si="1"/>
-        <v>Photo1600003</v>
-      </c>
-      <c r="G7" t="str">
-        <f t="shared" si="1"/>
-        <v>PrixDemande1600003</v>
-      </c>
-      <c r="H7" t="str">
-        <f t="shared" si="1"/>
-        <v>NombreItems1600003</v>
-      </c>
-      <c r="I7" t="str">
-        <f t="shared" si="1"/>
-        <v>Disponibilité1600003</v>
-      </c>
-      <c r="J7" t="str">
-        <f t="shared" si="1"/>
+      <c r="D7" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="H7" s="2">
+        <v>2</v>
+      </c>
+      <c r="I7" s="2">
+        <v>1</v>
+      </c>
+      <c r="J7" s="2" t="str">
+        <f t="shared" si="0"/>
         <v>DateVente1600003</v>
       </c>
-      <c r="K7" t="str">
-        <f t="shared" si="1"/>
-        <v>PrixVente1600003</v>
-      </c>
-      <c r="L7" t="str">
-        <f t="shared" si="1"/>
-        <v>Poids1600003</v>
-      </c>
-      <c r="M7" t="str">
-        <f t="shared" si="1"/>
+      <c r="K7" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="M7" s="2" t="str">
+        <f t="shared" si="0"/>
         <v>DateCreation1600003</v>
       </c>
-      <c r="N7" t="str">
-        <f t="shared" si="1"/>
-        <v>DateMAJ1600003</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8">
+      <c r="N7" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="120" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
         <v>1600004</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="2">
         <v>16</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="2">
         <v>1001</v>
       </c>
-      <c r="D8" t="str">
-        <f t="shared" si="1"/>
-        <v>Nom1600004</v>
-      </c>
-      <c r="E8" t="str">
-        <f t="shared" si="1"/>
-        <v>Description1600004</v>
-      </c>
-      <c r="F8" t="str">
-        <f t="shared" si="1"/>
-        <v>Photo1600004</v>
-      </c>
-      <c r="G8" t="str">
-        <f t="shared" si="1"/>
-        <v>PrixDemande1600004</v>
-      </c>
-      <c r="H8" t="str">
-        <f t="shared" si="1"/>
-        <v>NombreItems1600004</v>
-      </c>
-      <c r="I8" t="str">
-        <f t="shared" si="1"/>
-        <v>Disponibilité1600004</v>
-      </c>
-      <c r="J8" t="str">
-        <f t="shared" si="1"/>
+      <c r="D8" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="H8" s="2">
+        <v>3</v>
+      </c>
+      <c r="I8" s="2">
+        <v>1</v>
+      </c>
+      <c r="J8" s="2" t="str">
+        <f t="shared" si="0"/>
         <v>DateVente1600004</v>
       </c>
-      <c r="K8" t="str">
-        <f t="shared" si="1"/>
-        <v>PrixVente1600004</v>
-      </c>
-      <c r="L8" t="str">
-        <f t="shared" si="1"/>
-        <v>Poids1600004</v>
-      </c>
-      <c r="M8" t="str">
-        <f t="shared" si="1"/>
+      <c r="K8" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="M8" s="2" t="str">
+        <f t="shared" si="0"/>
         <v>DateCreation1600004</v>
       </c>
-      <c r="N8" t="str">
-        <f t="shared" si="1"/>
-        <v>DateMAJ1600004</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9">
+      <c r="N8" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="60" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
         <v>1600005</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="2">
         <v>16</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="2">
         <v>1001</v>
       </c>
-      <c r="D9" t="str">
-        <f t="shared" si="1"/>
-        <v>Nom1600005</v>
-      </c>
-      <c r="E9" t="str">
-        <f t="shared" si="1"/>
-        <v>Description1600005</v>
-      </c>
-      <c r="F9" t="str">
-        <f t="shared" si="1"/>
-        <v>Photo1600005</v>
-      </c>
-      <c r="G9" t="str">
-        <f t="shared" si="1"/>
-        <v>PrixDemande1600005</v>
-      </c>
-      <c r="H9" t="str">
-        <f t="shared" si="1"/>
-        <v>NombreItems1600005</v>
-      </c>
-      <c r="I9" t="str">
-        <f t="shared" si="1"/>
-        <v>Disponibilité1600005</v>
-      </c>
-      <c r="J9" t="str">
-        <f t="shared" si="1"/>
+      <c r="D9" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>364</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="H9" s="2">
+        <v>1</v>
+      </c>
+      <c r="I9" s="2">
+        <v>1</v>
+      </c>
+      <c r="J9" s="2" t="str">
+        <f t="shared" si="0"/>
         <v>DateVente1600005</v>
       </c>
-      <c r="K9" t="str">
-        <f t="shared" si="1"/>
-        <v>PrixVente1600005</v>
-      </c>
-      <c r="L9" t="str">
-        <f t="shared" si="1"/>
-        <v>Poids1600005</v>
-      </c>
-      <c r="M9" t="str">
-        <f t="shared" si="1"/>
+      <c r="K9" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="M9" s="2" t="str">
+        <f t="shared" si="0"/>
         <v>DateCreation1600005</v>
       </c>
-      <c r="N9" t="str">
-        <f t="shared" si="1"/>
-        <v>DateMAJ1600005</v>
+      <c r="N9" s="2" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10">
+      <c r="A10" s="2">
         <v>1600006</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="2">
         <v>16</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="2">
         <v>1001</v>
       </c>
-      <c r="D10" t="str">
-        <f t="shared" si="1"/>
+      <c r="D10" s="2" t="str">
+        <f t="shared" si="0"/>
         <v>Nom1600006</v>
       </c>
-      <c r="E10" t="str">
-        <f t="shared" si="1"/>
+      <c r="E10" s="2" t="str">
+        <f t="shared" si="0"/>
         <v>Description1600006</v>
       </c>
-      <c r="F10" t="str">
-        <f t="shared" si="1"/>
+      <c r="F10" s="2" t="str">
+        <f t="shared" si="0"/>
         <v>Photo1600006</v>
       </c>
-      <c r="G10" t="str">
-        <f t="shared" si="1"/>
+      <c r="G10" s="2" t="str">
+        <f t="shared" si="0"/>
         <v>PrixDemande1600006</v>
       </c>
-      <c r="H10" t="str">
-        <f t="shared" si="1"/>
+      <c r="H10" s="2" t="str">
+        <f t="shared" si="0"/>
         <v>NombreItems1600006</v>
       </c>
-      <c r="I10" t="str">
-        <f t="shared" si="1"/>
+      <c r="I10" s="2" t="str">
+        <f t="shared" si="0"/>
         <v>Disponibilité1600006</v>
       </c>
-      <c r="J10" t="str">
-        <f t="shared" si="1"/>
+      <c r="J10" s="2" t="str">
+        <f t="shared" si="0"/>
         <v>DateVente1600006</v>
       </c>
-      <c r="K10" t="str">
-        <f t="shared" si="1"/>
+      <c r="K10" s="2" t="str">
+        <f t="shared" si="0"/>
         <v>PrixVente1600006</v>
       </c>
-      <c r="L10" t="str">
-        <f t="shared" si="1"/>
+      <c r="L10" s="2" t="str">
+        <f t="shared" si="0"/>
         <v>Poids1600006</v>
       </c>
-      <c r="M10" t="str">
-        <f t="shared" si="1"/>
+      <c r="M10" s="2" t="str">
+        <f t="shared" si="0"/>
         <v>DateCreation1600006</v>
       </c>
-      <c r="N10" t="str">
-        <f t="shared" si="1"/>
-        <v>DateMAJ1600006</v>
+      <c r="N10" s="2" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11">
+      <c r="A11" s="2">
         <v>1600007</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="2">
         <v>16</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="2">
         <v>1001</v>
       </c>
-      <c r="D11" t="str">
-        <f t="shared" si="1"/>
+      <c r="D11" s="2" t="str">
+        <f t="shared" si="0"/>
         <v>Nom1600007</v>
       </c>
-      <c r="E11" t="str">
-        <f t="shared" si="1"/>
+      <c r="E11" s="2" t="str">
+        <f t="shared" si="0"/>
         <v>Description1600007</v>
       </c>
-      <c r="F11" t="str">
-        <f t="shared" si="1"/>
+      <c r="F11" s="2" t="str">
+        <f t="shared" si="0"/>
         <v>Photo1600007</v>
       </c>
-      <c r="G11" t="str">
-        <f t="shared" si="1"/>
+      <c r="G11" s="2" t="str">
+        <f t="shared" si="0"/>
         <v>PrixDemande1600007</v>
       </c>
-      <c r="H11" t="str">
-        <f t="shared" si="1"/>
+      <c r="H11" s="2" t="str">
+        <f t="shared" si="0"/>
         <v>NombreItems1600007</v>
       </c>
-      <c r="I11" t="str">
-        <f t="shared" si="1"/>
+      <c r="I11" s="2" t="str">
+        <f t="shared" si="0"/>
         <v>Disponibilité1600007</v>
       </c>
-      <c r="J11" t="str">
-        <f t="shared" si="1"/>
+      <c r="J11" s="2" t="str">
+        <f t="shared" si="0"/>
         <v>DateVente1600007</v>
       </c>
-      <c r="K11" t="str">
-        <f t="shared" si="1"/>
+      <c r="K11" s="2" t="str">
+        <f t="shared" si="0"/>
         <v>PrixVente1600007</v>
       </c>
-      <c r="L11" t="str">
-        <f t="shared" si="1"/>
+      <c r="L11" s="2" t="str">
+        <f t="shared" si="0"/>
         <v>Poids1600007</v>
       </c>
-      <c r="M11" t="str">
-        <f t="shared" si="1"/>
+      <c r="M11" s="2" t="str">
+        <f t="shared" si="0"/>
         <v>DateCreation1600007</v>
       </c>
-      <c r="N11" t="str">
-        <f t="shared" si="1"/>
-        <v>DateMAJ1600007</v>
+      <c r="N11" s="2" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12">
+      <c r="A12" s="2">
         <v>1200001</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="2">
         <v>12</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="2">
         <v>1002</v>
       </c>
-      <c r="D12" t="str">
-        <f t="shared" si="1"/>
-        <v>Nom1200001</v>
-      </c>
-      <c r="E12" t="str">
-        <f t="shared" si="1"/>
-        <v>Description1200001</v>
-      </c>
-      <c r="F12" t="str">
-        <f t="shared" si="1"/>
-        <v>Photo1200001</v>
-      </c>
-      <c r="G12" t="str">
-        <f t="shared" si="1"/>
-        <v>PrixDemande1200001</v>
-      </c>
-      <c r="H12" t="str">
-        <f t="shared" si="1"/>
-        <v>NombreItems1200001</v>
-      </c>
-      <c r="I12" t="str">
-        <f t="shared" si="1"/>
-        <v>Disponibilité1200001</v>
-      </c>
-      <c r="J12" t="str">
-        <f t="shared" si="1"/>
+      <c r="D12" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="G12" s="2">
+        <v>35</v>
+      </c>
+      <c r="H12" s="2">
+        <v>1</v>
+      </c>
+      <c r="I12" s="2">
+        <v>1</v>
+      </c>
+      <c r="J12" s="2" t="str">
+        <f t="shared" si="0"/>
         <v>DateVente1200001</v>
       </c>
-      <c r="K12" t="str">
-        <f t="shared" si="1"/>
-        <v>PrixVente1200001</v>
-      </c>
-      <c r="L12" t="str">
-        <f t="shared" si="1"/>
-        <v>Poids1200001</v>
-      </c>
-      <c r="M12" t="str">
-        <f t="shared" si="1"/>
+      <c r="K12" s="2">
+        <v>35</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="M12" s="2" t="str">
+        <f t="shared" si="0"/>
         <v>DateCreation1200001</v>
       </c>
-      <c r="N12" t="str">
-        <f t="shared" si="1"/>
-        <v>DateMAJ1200001</v>
+      <c r="N12" s="2" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13">
+      <c r="A13" s="2">
         <v>1200002</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="2">
         <v>12</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="2">
         <v>1002</v>
       </c>
-      <c r="D13" t="str">
-        <f t="shared" si="1"/>
-        <v>Nom1200002</v>
-      </c>
-      <c r="E13" t="str">
-        <f t="shared" si="1"/>
-        <v>Description1200002</v>
-      </c>
-      <c r="F13" t="str">
-        <f t="shared" si="1"/>
-        <v>Photo1200002</v>
-      </c>
-      <c r="G13" t="str">
-        <f t="shared" si="1"/>
-        <v>PrixDemande1200002</v>
-      </c>
-      <c r="H13" t="str">
-        <f t="shared" si="1"/>
-        <v>NombreItems1200002</v>
-      </c>
-      <c r="I13" t="str">
-        <f t="shared" si="1"/>
-        <v>Disponibilité1200002</v>
-      </c>
-      <c r="J13" t="str">
-        <f t="shared" si="1"/>
+      <c r="D13" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="G13" s="2">
+        <v>500</v>
+      </c>
+      <c r="H13" s="2">
+        <v>1</v>
+      </c>
+      <c r="I13" s="2">
+        <v>1</v>
+      </c>
+      <c r="J13" s="2" t="str">
+        <f t="shared" si="0"/>
         <v>DateVente1200002</v>
       </c>
-      <c r="K13" t="str">
-        <f t="shared" si="1"/>
-        <v>PrixVente1200002</v>
-      </c>
-      <c r="L13" t="str">
-        <f t="shared" si="1"/>
-        <v>Poids1200002</v>
-      </c>
-      <c r="M13" t="str">
-        <f t="shared" si="1"/>
+      <c r="K13" s="2">
+        <v>500</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="M13" s="2" t="str">
+        <f t="shared" si="0"/>
         <v>DateCreation1200002</v>
       </c>
-      <c r="N13" t="str">
-        <f t="shared" si="1"/>
-        <v>DateMAJ1200002</v>
+      <c r="N13" s="2" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14">
+      <c r="A14" s="2">
         <v>1200003</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="2">
         <v>12</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="2">
         <v>1002</v>
       </c>
-      <c r="D14" t="str">
-        <f t="shared" si="1"/>
-        <v>Nom1200003</v>
-      </c>
-      <c r="E14" t="str">
-        <f t="shared" si="1"/>
-        <v>Description1200003</v>
-      </c>
-      <c r="F14" t="str">
-        <f t="shared" si="1"/>
-        <v>Photo1200003</v>
-      </c>
-      <c r="G14" t="str">
-        <f t="shared" si="1"/>
-        <v>PrixDemande1200003</v>
-      </c>
-      <c r="H14" t="str">
-        <f t="shared" si="1"/>
-        <v>NombreItems1200003</v>
-      </c>
-      <c r="I14" t="str">
-        <f t="shared" si="1"/>
-        <v>Disponibilité1200003</v>
-      </c>
-      <c r="J14" t="str">
-        <f t="shared" si="1"/>
+      <c r="D14" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="G14" s="2">
+        <v>275</v>
+      </c>
+      <c r="H14" s="2">
+        <v>1</v>
+      </c>
+      <c r="I14" s="2">
+        <v>1</v>
+      </c>
+      <c r="J14" s="2" t="str">
+        <f t="shared" si="0"/>
         <v>DateVente1200003</v>
       </c>
-      <c r="K14" t="str">
-        <f t="shared" si="1"/>
-        <v>PrixVente1200003</v>
-      </c>
-      <c r="L14" t="str">
-        <f t="shared" si="1"/>
-        <v>Poids1200003</v>
-      </c>
-      <c r="M14" t="str">
-        <f t="shared" si="1"/>
+      <c r="K14" s="2">
+        <v>275</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="M14" s="2" t="str">
+        <f t="shared" si="0"/>
         <v>DateCreation1200003</v>
       </c>
-      <c r="N14" t="str">
-        <f t="shared" si="1"/>
-        <v>DateMAJ1200003</v>
+      <c r="N14" s="2" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15">
+      <c r="A15" s="2">
         <v>1200004</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="2">
         <v>12</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="2">
         <v>1002</v>
       </c>
-      <c r="D15" t="str">
-        <f t="shared" si="1"/>
-        <v>Nom1200004</v>
-      </c>
-      <c r="E15" t="str">
-        <f t="shared" si="1"/>
-        <v>Description1200004</v>
-      </c>
-      <c r="F15" t="str">
-        <f t="shared" si="1"/>
-        <v>Photo1200004</v>
-      </c>
-      <c r="G15" t="str">
-        <f t="shared" si="1"/>
-        <v>PrixDemande1200004</v>
-      </c>
-      <c r="H15" t="str">
-        <f t="shared" si="1"/>
-        <v>NombreItems1200004</v>
-      </c>
-      <c r="I15" t="str">
-        <f t="shared" si="1"/>
-        <v>Disponibilité1200004</v>
-      </c>
-      <c r="J15" t="str">
-        <f t="shared" si="1"/>
+      <c r="D15" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="G15" s="2">
+        <v>50</v>
+      </c>
+      <c r="H15" s="2">
+        <v>1</v>
+      </c>
+      <c r="I15" s="2">
+        <v>1</v>
+      </c>
+      <c r="J15" s="2" t="str">
+        <f t="shared" si="0"/>
         <v>DateVente1200004</v>
       </c>
-      <c r="K15" t="str">
-        <f t="shared" si="1"/>
-        <v>PrixVente1200004</v>
-      </c>
-      <c r="L15" t="str">
-        <f t="shared" si="1"/>
-        <v>Poids1200004</v>
-      </c>
-      <c r="M15" t="str">
-        <f t="shared" si="1"/>
+      <c r="K15" s="2">
+        <v>50</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="M15" s="2" t="str">
+        <f t="shared" si="0"/>
         <v>DateCreation1200004</v>
       </c>
-      <c r="N15" t="str">
-        <f t="shared" si="1"/>
-        <v>DateMAJ1200004</v>
+      <c r="N15" s="2" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16">
+      <c r="A16" s="2">
         <v>1200005</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="2">
         <v>12</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="2">
         <v>1002</v>
       </c>
-      <c r="D16" t="str">
-        <f t="shared" si="1"/>
+      <c r="D16" s="2" t="str">
+        <f t="shared" si="0"/>
         <v>Nom1200005</v>
       </c>
-      <c r="E16" t="str">
-        <f t="shared" si="1"/>
+      <c r="E16" s="2" t="str">
+        <f t="shared" si="0"/>
         <v>Description1200005</v>
       </c>
-      <c r="F16" t="str">
-        <f t="shared" si="1"/>
+      <c r="F16" s="2" t="str">
+        <f t="shared" si="0"/>
         <v>Photo1200005</v>
       </c>
-      <c r="G16" t="str">
-        <f t="shared" si="1"/>
+      <c r="G16" s="2" t="str">
+        <f t="shared" si="0"/>
         <v>PrixDemande1200005</v>
       </c>
-      <c r="H16" t="str">
-        <f t="shared" si="1"/>
+      <c r="H16" s="2" t="str">
+        <f t="shared" si="0"/>
         <v>NombreItems1200005</v>
       </c>
-      <c r="I16" t="str">
-        <f t="shared" si="1"/>
+      <c r="I16" s="2" t="str">
+        <f t="shared" si="0"/>
         <v>Disponibilité1200005</v>
       </c>
-      <c r="J16" t="str">
-        <f t="shared" si="1"/>
+      <c r="J16" s="2" t="str">
+        <f t="shared" si="0"/>
         <v>DateVente1200005</v>
       </c>
-      <c r="K16" t="str">
-        <f t="shared" si="1"/>
+      <c r="K16" s="2" t="str">
+        <f t="shared" si="0"/>
         <v>PrixVente1200005</v>
       </c>
-      <c r="L16" t="str">
-        <f t="shared" si="1"/>
+      <c r="L16" s="2" t="str">
+        <f t="shared" si="0"/>
         <v>Poids1200005</v>
       </c>
-      <c r="M16" t="str">
-        <f t="shared" si="1"/>
+      <c r="M16" s="2" t="str">
+        <f t="shared" si="0"/>
         <v>DateCreation1200005</v>
       </c>
-      <c r="N16" t="str">
-        <f t="shared" si="1"/>
-        <v>DateMAJ1200005</v>
+      <c r="N16" s="2" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17">
+      <c r="A17" s="2">
         <v>1200006</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="2">
         <v>12</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="2">
         <v>1002</v>
       </c>
-      <c r="D17" t="str">
-        <f t="shared" si="1"/>
+      <c r="D17" s="2" t="str">
+        <f t="shared" si="0"/>
         <v>Nom1200006</v>
       </c>
-      <c r="E17" t="str">
-        <f t="shared" si="1"/>
+      <c r="E17" s="2" t="str">
+        <f t="shared" si="0"/>
         <v>Description1200006</v>
       </c>
-      <c r="F17" t="str">
-        <f t="shared" si="1"/>
+      <c r="F17" s="2" t="str">
+        <f t="shared" si="0"/>
         <v>Photo1200006</v>
       </c>
-      <c r="G17" t="str">
-        <f t="shared" si="1"/>
+      <c r="G17" s="2" t="str">
+        <f t="shared" si="0"/>
         <v>PrixDemande1200006</v>
       </c>
-      <c r="H17" t="str">
-        <f t="shared" si="1"/>
+      <c r="H17" s="2" t="str">
+        <f t="shared" si="0"/>
         <v>NombreItems1200006</v>
       </c>
-      <c r="I17" t="str">
-        <f t="shared" si="1"/>
+      <c r="I17" s="2" t="str">
+        <f t="shared" si="0"/>
         <v>Disponibilité1200006</v>
       </c>
-      <c r="J17" t="str">
-        <f t="shared" si="1"/>
+      <c r="J17" s="2" t="str">
+        <f t="shared" si="0"/>
         <v>DateVente1200006</v>
       </c>
-      <c r="K17" t="str">
-        <f t="shared" si="1"/>
+      <c r="K17" s="2" t="str">
+        <f t="shared" si="0"/>
         <v>PrixVente1200006</v>
       </c>
-      <c r="L17" t="str">
-        <f t="shared" si="1"/>
+      <c r="L17" s="2" t="str">
+        <f t="shared" si="0"/>
         <v>Poids1200006</v>
       </c>
-      <c r="M17" t="str">
-        <f t="shared" si="1"/>
+      <c r="M17" s="2" t="str">
+        <f t="shared" si="0"/>
         <v>DateCreation1200006</v>
       </c>
-      <c r="N17" t="str">
-        <f t="shared" si="1"/>
-        <v>DateMAJ1200006</v>
+      <c r="N17" s="2" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18">
+      <c r="A18" s="2">
         <v>1200007</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="2">
         <v>12</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="2">
         <v>1002</v>
       </c>
-      <c r="D18" t="str">
-        <f t="shared" si="1"/>
+      <c r="D18" s="2" t="str">
+        <f t="shared" si="0"/>
         <v>Nom1200007</v>
       </c>
-      <c r="E18" t="str">
-        <f t="shared" si="1"/>
+      <c r="E18" s="2" t="str">
+        <f t="shared" si="0"/>
         <v>Description1200007</v>
       </c>
-      <c r="F18" t="str">
-        <f t="shared" si="1"/>
+      <c r="F18" s="2" t="str">
+        <f t="shared" si="0"/>
         <v>Photo1200007</v>
       </c>
-      <c r="G18" t="str">
-        <f t="shared" si="1"/>
+      <c r="G18" s="2" t="str">
+        <f t="shared" si="0"/>
         <v>PrixDemande1200007</v>
       </c>
-      <c r="H18" t="str">
-        <f t="shared" si="1"/>
+      <c r="H18" s="2" t="str">
+        <f t="shared" si="0"/>
         <v>NombreItems1200007</v>
       </c>
-      <c r="I18" t="str">
-        <f t="shared" si="1"/>
+      <c r="I18" s="2" t="str">
+        <f t="shared" si="0"/>
         <v>Disponibilité1200007</v>
       </c>
-      <c r="J18" t="str">
-        <f t="shared" si="1"/>
+      <c r="J18" s="2" t="str">
+        <f t="shared" si="0"/>
         <v>DateVente1200007</v>
       </c>
-      <c r="K18" t="str">
-        <f t="shared" si="1"/>
+      <c r="K18" s="2" t="str">
+        <f t="shared" si="0"/>
         <v>PrixVente1200007</v>
       </c>
-      <c r="L18" t="str">
-        <f t="shared" si="1"/>
+      <c r="L18" s="2" t="str">
+        <f t="shared" si="0"/>
         <v>Poids1200007</v>
       </c>
-      <c r="M18" t="str">
-        <f t="shared" si="1"/>
+      <c r="M18" s="2" t="str">
+        <f t="shared" si="0"/>
         <v>DateCreation1200007</v>
       </c>
-      <c r="N18" t="str">
-        <f t="shared" si="1"/>
-        <v>DateMAJ1200007</v>
+      <c r="N18" s="2" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19">
+      <c r="A19" s="2">
         <v>1200008</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="2">
         <v>12</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="2">
         <v>1002</v>
       </c>
-      <c r="D19" t="str">
-        <f t="shared" si="1"/>
+      <c r="D19" s="2" t="str">
+        <f t="shared" si="0"/>
         <v>Nom1200008</v>
       </c>
-      <c r="E19" t="str">
-        <f t="shared" si="1"/>
+      <c r="E19" s="2" t="str">
+        <f t="shared" si="0"/>
         <v>Description1200008</v>
       </c>
-      <c r="F19" t="str">
-        <f t="shared" si="1"/>
+      <c r="F19" s="2" t="str">
+        <f t="shared" si="0"/>
         <v>Photo1200008</v>
       </c>
-      <c r="G19" t="str">
-        <f t="shared" si="1"/>
+      <c r="G19" s="2" t="str">
+        <f t="shared" si="0"/>
         <v>PrixDemande1200008</v>
       </c>
-      <c r="H19" t="str">
-        <f t="shared" si="1"/>
+      <c r="H19" s="2" t="str">
+        <f t="shared" si="0"/>
         <v>NombreItems1200008</v>
       </c>
-      <c r="I19" t="str">
-        <f t="shared" si="1"/>
+      <c r="I19" s="2" t="str">
+        <f t="shared" si="0"/>
         <v>Disponibilité1200008</v>
       </c>
-      <c r="J19" t="str">
-        <f t="shared" si="1"/>
+      <c r="J19" s="2" t="str">
+        <f t="shared" si="0"/>
         <v>DateVente1200008</v>
       </c>
-      <c r="K19" t="str">
-        <f t="shared" si="1"/>
+      <c r="K19" s="2" t="str">
+        <f t="shared" si="0"/>
         <v>PrixVente1200008</v>
       </c>
-      <c r="L19" t="str">
-        <f t="shared" si="1"/>
+      <c r="L19" s="2" t="str">
+        <f t="shared" si="0"/>
         <v>Poids1200008</v>
       </c>
-      <c r="M19" t="str">
-        <f t="shared" si="1"/>
+      <c r="M19" s="2" t="str">
+        <f t="shared" si="0"/>
         <v>DateCreation1200008</v>
       </c>
-      <c r="N19" t="str">
-        <f t="shared" si="1"/>
-        <v>DateMAJ1200008</v>
+      <c r="N19" s="2" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20">
+      <c r="A20" s="2">
         <v>1200009</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="2">
         <v>12</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="2">
         <v>1002</v>
       </c>
-      <c r="D20" t="str">
-        <f t="shared" si="1"/>
+      <c r="D20" s="2" t="str">
+        <f t="shared" si="0"/>
         <v>Nom1200009</v>
       </c>
-      <c r="E20" t="str">
-        <f t="shared" si="1"/>
+      <c r="E20" s="2" t="str">
+        <f t="shared" si="0"/>
         <v>Description1200009</v>
       </c>
-      <c r="F20" t="str">
-        <f t="shared" si="1"/>
+      <c r="F20" s="2" t="str">
+        <f t="shared" si="0"/>
         <v>Photo1200009</v>
       </c>
-      <c r="G20" t="str">
-        <f t="shared" si="1"/>
+      <c r="G20" s="2" t="str">
+        <f t="shared" si="0"/>
         <v>PrixDemande1200009</v>
       </c>
-      <c r="H20" t="str">
-        <f t="shared" si="1"/>
+      <c r="H20" s="2" t="str">
+        <f t="shared" si="0"/>
         <v>NombreItems1200009</v>
       </c>
-      <c r="I20" t="str">
-        <f t="shared" si="1"/>
+      <c r="I20" s="2" t="str">
+        <f t="shared" si="0"/>
         <v>Disponibilité1200009</v>
       </c>
-      <c r="J20" t="str">
-        <f t="shared" si="1"/>
+      <c r="J20" s="2" t="str">
+        <f t="shared" si="0"/>
         <v>DateVente1200009</v>
       </c>
-      <c r="K20" t="str">
-        <f t="shared" si="1"/>
+      <c r="K20" s="2" t="str">
+        <f t="shared" si="0"/>
         <v>PrixVente1200009</v>
       </c>
-      <c r="L20" t="str">
-        <f t="shared" si="1"/>
+      <c r="L20" s="2" t="str">
+        <f t="shared" si="0"/>
         <v>Poids1200009</v>
       </c>
-      <c r="M20" t="str">
-        <f t="shared" si="1"/>
+      <c r="M20" s="2" t="str">
+        <f t="shared" si="0"/>
         <v>DateCreation1200009</v>
       </c>
-      <c r="N20" t="str">
-        <f t="shared" si="1"/>
-        <v>DateMAJ1200009</v>
+      <c r="N20" s="2" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21">
+      <c r="A21" s="2">
         <v>1200010</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="2">
         <v>12</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="2">
         <v>1002</v>
       </c>
-      <c r="D21" t="str">
-        <f t="shared" si="1"/>
+      <c r="D21" s="2" t="str">
+        <f t="shared" si="0"/>
         <v>Nom1200010</v>
       </c>
-      <c r="E21" t="str">
-        <f t="shared" si="1"/>
+      <c r="E21" s="2" t="str">
+        <f t="shared" si="0"/>
         <v>Description1200010</v>
       </c>
-      <c r="F21" t="str">
-        <f t="shared" si="1"/>
+      <c r="F21" s="2" t="str">
+        <f t="shared" si="0"/>
         <v>Photo1200010</v>
       </c>
-      <c r="G21" t="str">
-        <f t="shared" si="1"/>
+      <c r="G21" s="2" t="str">
+        <f t="shared" si="0"/>
         <v>PrixDemande1200010</v>
       </c>
-      <c r="H21" t="str">
-        <f t="shared" si="1"/>
+      <c r="H21" s="2" t="str">
+        <f t="shared" si="0"/>
         <v>NombreItems1200010</v>
       </c>
-      <c r="I21" t="str">
-        <f t="shared" si="1"/>
+      <c r="I21" s="2" t="str">
+        <f t="shared" si="0"/>
         <v>Disponibilité1200010</v>
       </c>
-      <c r="J21" t="str">
-        <f t="shared" si="1"/>
+      <c r="J21" s="2" t="str">
+        <f t="shared" si="0"/>
         <v>DateVente1200010</v>
       </c>
-      <c r="K21" t="str">
-        <f t="shared" si="1"/>
+      <c r="K21" s="2" t="str">
+        <f t="shared" si="0"/>
         <v>PrixVente1200010</v>
       </c>
-      <c r="L21" t="str">
-        <f t="shared" si="1"/>
+      <c r="L21" s="2" t="str">
+        <f t="shared" si="0"/>
         <v>Poids1200010</v>
       </c>
-      <c r="M21" t="str">
-        <f t="shared" si="1"/>
+      <c r="M21" s="2" t="str">
+        <f t="shared" si="0"/>
         <v>DateCreation1200010</v>
       </c>
-      <c r="N21" t="str">
-        <f t="shared" si="1"/>
-        <v>DateMAJ1200010</v>
+      <c r="N21" s="2" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22">
+      <c r="A22" s="2">
         <v>1200011</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="2">
         <v>12</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="2">
         <v>1002</v>
       </c>
-      <c r="D22" t="str">
-        <f t="shared" si="1"/>
+      <c r="D22" s="2" t="str">
+        <f t="shared" si="0"/>
         <v>Nom1200011</v>
       </c>
-      <c r="E22" t="str">
-        <f t="shared" si="1"/>
+      <c r="E22" s="2" t="str">
+        <f t="shared" si="0"/>
         <v>Description1200011</v>
       </c>
-      <c r="F22" t="str">
-        <f t="shared" ref="E22:N37" si="2">F$1&amp;$A22</f>
+      <c r="F22" s="2" t="str">
+        <f t="shared" ref="E22:N37" si="1">F$1&amp;$A22</f>
         <v>Photo1200011</v>
       </c>
-      <c r="G22" t="str">
-        <f t="shared" si="2"/>
+      <c r="G22" s="2" t="str">
+        <f t="shared" si="1"/>
         <v>PrixDemande1200011</v>
       </c>
-      <c r="H22" t="str">
-        <f t="shared" si="2"/>
+      <c r="H22" s="2" t="str">
+        <f t="shared" si="1"/>
         <v>NombreItems1200011</v>
       </c>
-      <c r="I22" t="str">
-        <f t="shared" si="2"/>
+      <c r="I22" s="2" t="str">
+        <f t="shared" si="1"/>
         <v>Disponibilité1200011</v>
       </c>
-      <c r="J22" t="str">
-        <f t="shared" si="2"/>
+      <c r="J22" s="2" t="str">
+        <f t="shared" si="0"/>
         <v>DateVente1200011</v>
       </c>
-      <c r="K22" t="str">
-        <f t="shared" si="2"/>
+      <c r="K22" s="2" t="str">
+        <f t="shared" si="1"/>
         <v>PrixVente1200011</v>
       </c>
-      <c r="L22" t="str">
-        <f t="shared" si="2"/>
+      <c r="L22" s="2" t="str">
+        <f t="shared" si="1"/>
         <v>Poids1200011</v>
       </c>
-      <c r="M22" t="str">
-        <f t="shared" si="2"/>
+      <c r="M22" s="2" t="str">
+        <f t="shared" si="0"/>
         <v>DateCreation1200011</v>
       </c>
-      <c r="N22" t="str">
-        <f t="shared" si="2"/>
-        <v>DateMAJ1200011</v>
+      <c r="N22" s="2" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23">
+      <c r="A23" s="2">
         <v>1200012</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="2">
         <v>12</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="2">
         <v>1002</v>
       </c>
-      <c r="D23" t="str">
-        <f t="shared" si="1"/>
+      <c r="D23" s="2" t="str">
+        <f t="shared" si="0"/>
         <v>Nom1200012</v>
       </c>
-      <c r="E23" t="str">
-        <f t="shared" si="2"/>
+      <c r="E23" s="2" t="str">
+        <f t="shared" si="1"/>
         <v>Description1200012</v>
       </c>
-      <c r="F23" t="str">
-        <f t="shared" si="2"/>
+      <c r="F23" s="2" t="str">
+        <f t="shared" si="1"/>
         <v>Photo1200012</v>
       </c>
-      <c r="G23" t="str">
-        <f t="shared" si="2"/>
+      <c r="G23" s="2" t="str">
+        <f t="shared" si="1"/>
         <v>PrixDemande1200012</v>
       </c>
-      <c r="H23" t="str">
-        <f t="shared" si="2"/>
+      <c r="H23" s="2" t="str">
+        <f t="shared" si="1"/>
         <v>NombreItems1200012</v>
       </c>
-      <c r="I23" t="str">
-        <f t="shared" si="2"/>
+      <c r="I23" s="2" t="str">
+        <f t="shared" si="1"/>
         <v>Disponibilité1200012</v>
       </c>
-      <c r="J23" t="str">
-        <f t="shared" si="2"/>
+      <c r="J23" s="2" t="str">
+        <f t="shared" si="1"/>
         <v>DateVente1200012</v>
       </c>
-      <c r="K23" t="str">
-        <f t="shared" si="2"/>
+      <c r="K23" s="2" t="str">
+        <f t="shared" si="1"/>
         <v>PrixVente1200012</v>
       </c>
-      <c r="L23" t="str">
-        <f t="shared" si="2"/>
+      <c r="L23" s="2" t="str">
+        <f t="shared" si="1"/>
         <v>Poids1200012</v>
       </c>
-      <c r="M23" t="str">
-        <f t="shared" si="2"/>
+      <c r="M23" s="2" t="str">
+        <f t="shared" si="0"/>
         <v>DateCreation1200012</v>
       </c>
-      <c r="N23" t="str">
-        <f t="shared" si="2"/>
-        <v>DateMAJ1200012</v>
+      <c r="N23" s="2" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24">
+      <c r="A24" s="2">
         <v>1400003</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="2">
         <v>14</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="2">
         <v>1002</v>
       </c>
-      <c r="D24" t="str">
-        <f t="shared" si="1"/>
+      <c r="D24" s="2" t="str">
+        <f t="shared" si="0"/>
         <v>Nom1400003</v>
       </c>
-      <c r="E24" t="str">
-        <f t="shared" si="2"/>
+      <c r="E24" s="2" t="str">
+        <f t="shared" si="1"/>
         <v>Description1400003</v>
       </c>
-      <c r="F24" t="str">
-        <f t="shared" si="2"/>
+      <c r="F24" s="2" t="str">
+        <f t="shared" si="1"/>
         <v>Photo1400003</v>
       </c>
-      <c r="G24" t="str">
-        <f t="shared" si="2"/>
+      <c r="G24" s="2" t="str">
+        <f t="shared" si="1"/>
         <v>PrixDemande1400003</v>
       </c>
-      <c r="H24" t="str">
-        <f t="shared" si="2"/>
+      <c r="H24" s="2" t="str">
+        <f t="shared" si="1"/>
         <v>NombreItems1400003</v>
       </c>
-      <c r="I24" t="str">
-        <f t="shared" si="2"/>
+      <c r="I24" s="2" t="str">
+        <f t="shared" si="1"/>
         <v>Disponibilité1400003</v>
       </c>
-      <c r="J24" t="str">
-        <f t="shared" si="2"/>
+      <c r="J24" s="2" t="str">
+        <f t="shared" si="1"/>
         <v>DateVente1400003</v>
       </c>
-      <c r="K24" t="str">
-        <f t="shared" si="2"/>
+      <c r="K24" s="2" t="str">
+        <f t="shared" si="1"/>
         <v>PrixVente1400003</v>
       </c>
-      <c r="L24" t="str">
-        <f t="shared" si="2"/>
+      <c r="L24" s="2" t="str">
+        <f t="shared" si="1"/>
         <v>Poids1400003</v>
       </c>
-      <c r="M24" t="str">
-        <f t="shared" si="2"/>
+      <c r="M24" s="2" t="str">
+        <f t="shared" si="0"/>
         <v>DateCreation1400003</v>
       </c>
-      <c r="N24" t="str">
-        <f t="shared" si="2"/>
-        <v>DateMAJ1400003</v>
+      <c r="N24" s="2" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25">
+      <c r="A25" s="2">
         <v>1600008</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="2">
         <v>16</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="2">
         <v>1002</v>
       </c>
-      <c r="D25" t="str">
-        <f t="shared" si="1"/>
+      <c r="D25" s="2" t="str">
+        <f t="shared" si="0"/>
         <v>Nom1600008</v>
       </c>
-      <c r="E25" t="str">
-        <f t="shared" si="2"/>
+      <c r="E25" s="2" t="str">
+        <f t="shared" si="1"/>
         <v>Description1600008</v>
       </c>
-      <c r="F25" t="str">
-        <f t="shared" si="2"/>
+      <c r="F25" s="2" t="str">
+        <f t="shared" si="1"/>
         <v>Photo1600008</v>
       </c>
-      <c r="G25" t="str">
-        <f t="shared" si="2"/>
+      <c r="G25" s="2" t="str">
+        <f t="shared" si="1"/>
         <v>PrixDemande1600008</v>
       </c>
-      <c r="H25" t="str">
-        <f t="shared" si="2"/>
+      <c r="H25" s="2" t="str">
+        <f t="shared" si="1"/>
         <v>NombreItems1600008</v>
       </c>
-      <c r="I25" t="str">
-        <f t="shared" si="2"/>
+      <c r="I25" s="2" t="str">
+        <f t="shared" si="1"/>
         <v>Disponibilité1600008</v>
       </c>
-      <c r="J25" t="str">
-        <f t="shared" si="2"/>
+      <c r="J25" s="2" t="str">
+        <f t="shared" si="1"/>
         <v>DateVente1600008</v>
       </c>
-      <c r="K25" t="str">
-        <f t="shared" si="2"/>
+      <c r="K25" s="2" t="str">
+        <f t="shared" si="1"/>
         <v>PrixVente1600008</v>
       </c>
-      <c r="L25" t="str">
-        <f t="shared" si="2"/>
+      <c r="L25" s="2" t="str">
+        <f t="shared" si="1"/>
         <v>Poids1600008</v>
       </c>
-      <c r="M25" t="str">
-        <f t="shared" si="2"/>
+      <c r="M25" s="2" t="str">
+        <f t="shared" si="0"/>
         <v>DateCreation1600008</v>
       </c>
-      <c r="N25" t="str">
-        <f t="shared" si="2"/>
-        <v>DateMAJ1600008</v>
+      <c r="N25" s="2" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26">
+      <c r="A26" s="2">
         <v>1600009</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="2">
         <v>16</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="2">
         <v>1002</v>
       </c>
-      <c r="D26" t="str">
-        <f t="shared" si="1"/>
+      <c r="D26" s="2" t="str">
+        <f t="shared" si="0"/>
         <v>Nom1600009</v>
       </c>
-      <c r="E26" t="str">
-        <f t="shared" si="2"/>
+      <c r="E26" s="2" t="str">
+        <f t="shared" si="1"/>
         <v>Description1600009</v>
       </c>
-      <c r="F26" t="str">
-        <f t="shared" si="2"/>
+      <c r="F26" s="2" t="str">
+        <f t="shared" si="1"/>
         <v>Photo1600009</v>
       </c>
-      <c r="G26" t="str">
-        <f t="shared" si="2"/>
+      <c r="G26" s="2" t="str">
+        <f t="shared" si="1"/>
         <v>PrixDemande1600009</v>
       </c>
-      <c r="H26" t="str">
-        <f t="shared" si="2"/>
+      <c r="H26" s="2" t="str">
+        <f t="shared" si="1"/>
         <v>NombreItems1600009</v>
       </c>
-      <c r="I26" t="str">
-        <f t="shared" si="2"/>
+      <c r="I26" s="2" t="str">
+        <f t="shared" si="1"/>
         <v>Disponibilité1600009</v>
       </c>
-      <c r="J26" t="str">
-        <f t="shared" si="2"/>
+      <c r="J26" s="2" t="str">
+        <f t="shared" si="1"/>
         <v>DateVente1600009</v>
       </c>
-      <c r="K26" t="str">
-        <f t="shared" si="2"/>
+      <c r="K26" s="2" t="str">
+        <f t="shared" si="1"/>
         <v>PrixVente1600009</v>
       </c>
-      <c r="L26" t="str">
-        <f t="shared" si="2"/>
+      <c r="L26" s="2" t="str">
+        <f t="shared" si="1"/>
         <v>Poids1600009</v>
       </c>
-      <c r="M26" t="str">
-        <f t="shared" si="2"/>
+      <c r="M26" s="2" t="str">
+        <f t="shared" si="0"/>
         <v>DateCreation1600009</v>
       </c>
-      <c r="N26" t="str">
-        <f t="shared" si="2"/>
-        <v>DateMAJ1600009</v>
+      <c r="N26" s="2" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27">
+      <c r="A27" s="2">
         <v>1600010</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="2">
         <v>16</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="2">
         <v>1002</v>
       </c>
-      <c r="D27" t="str">
-        <f t="shared" si="1"/>
+      <c r="D27" s="2" t="str">
+        <f t="shared" si="0"/>
         <v>Nom1600010</v>
       </c>
-      <c r="E27" t="str">
-        <f t="shared" si="2"/>
+      <c r="E27" s="2" t="str">
+        <f t="shared" si="1"/>
         <v>Description1600010</v>
       </c>
-      <c r="F27" t="str">
-        <f t="shared" si="2"/>
+      <c r="F27" s="2" t="str">
+        <f t="shared" si="1"/>
         <v>Photo1600010</v>
       </c>
-      <c r="G27" t="str">
-        <f t="shared" si="2"/>
+      <c r="G27" s="2" t="str">
+        <f t="shared" si="1"/>
         <v>PrixDemande1600010</v>
       </c>
-      <c r="H27" t="str">
-        <f t="shared" si="2"/>
+      <c r="H27" s="2" t="str">
+        <f t="shared" si="1"/>
         <v>NombreItems1600010</v>
       </c>
-      <c r="I27" t="str">
-        <f t="shared" si="2"/>
+      <c r="I27" s="2" t="str">
+        <f t="shared" si="1"/>
         <v>Disponibilité1600010</v>
       </c>
-      <c r="J27" t="str">
-        <f t="shared" si="2"/>
+      <c r="J27" s="2" t="str">
+        <f t="shared" si="1"/>
         <v>DateVente1600010</v>
       </c>
-      <c r="K27" t="str">
-        <f t="shared" si="2"/>
+      <c r="K27" s="2" t="str">
+        <f t="shared" si="1"/>
         <v>PrixVente1600010</v>
       </c>
-      <c r="L27" t="str">
-        <f t="shared" si="2"/>
+      <c r="L27" s="2" t="str">
+        <f t="shared" si="1"/>
         <v>Poids1600010</v>
       </c>
-      <c r="M27" t="str">
-        <f t="shared" si="2"/>
+      <c r="M27" s="2" t="str">
+        <f t="shared" si="0"/>
         <v>DateCreation1600010</v>
       </c>
-      <c r="N27" t="str">
-        <f t="shared" si="2"/>
-        <v>DateMAJ1600010</v>
+      <c r="N27" s="2" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A28">
+      <c r="A28" s="2">
         <v>1600011</v>
       </c>
-      <c r="B28">
+      <c r="B28" s="2">
         <v>16</v>
       </c>
-      <c r="C28">
+      <c r="C28" s="2">
         <v>1002</v>
       </c>
-      <c r="D28" t="str">
-        <f t="shared" si="1"/>
+      <c r="D28" s="2" t="str">
+        <f t="shared" si="0"/>
         <v>Nom1600011</v>
       </c>
-      <c r="E28" t="str">
-        <f t="shared" si="2"/>
+      <c r="E28" s="2" t="str">
+        <f t="shared" si="1"/>
         <v>Description1600011</v>
       </c>
-      <c r="F28" t="str">
-        <f t="shared" si="2"/>
+      <c r="F28" s="2" t="str">
+        <f t="shared" si="1"/>
         <v>Photo1600011</v>
       </c>
-      <c r="G28" t="str">
-        <f t="shared" si="2"/>
+      <c r="G28" s="2" t="str">
+        <f t="shared" si="1"/>
         <v>PrixDemande1600011</v>
       </c>
-      <c r="H28" t="str">
-        <f t="shared" si="2"/>
+      <c r="H28" s="2" t="str">
+        <f t="shared" si="1"/>
         <v>NombreItems1600011</v>
       </c>
-      <c r="I28" t="str">
-        <f t="shared" si="2"/>
+      <c r="I28" s="2" t="str">
+        <f t="shared" si="1"/>
         <v>Disponibilité1600011</v>
       </c>
-      <c r="J28" t="str">
-        <f t="shared" si="2"/>
+      <c r="J28" s="2" t="str">
+        <f t="shared" si="1"/>
         <v>DateVente1600011</v>
       </c>
-      <c r="K28" t="str">
-        <f t="shared" si="2"/>
+      <c r="K28" s="2" t="str">
+        <f t="shared" si="1"/>
         <v>PrixVente1600011</v>
       </c>
-      <c r="L28" t="str">
-        <f t="shared" si="2"/>
+      <c r="L28" s="2" t="str">
+        <f t="shared" si="1"/>
         <v>Poids1600011</v>
       </c>
-      <c r="M28" t="str">
-        <f t="shared" si="2"/>
+      <c r="M28" s="2" t="str">
+        <f t="shared" si="0"/>
         <v>DateCreation1600011</v>
       </c>
-      <c r="N28" t="str">
-        <f t="shared" si="2"/>
-        <v>DateMAJ1600011</v>
+      <c r="N28" s="2" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29">
+      <c r="A29" s="2">
         <v>1600012</v>
       </c>
-      <c r="B29">
+      <c r="B29" s="2">
         <v>16</v>
       </c>
-      <c r="C29">
+      <c r="C29" s="2">
         <v>1002</v>
       </c>
-      <c r="D29" t="str">
-        <f t="shared" si="1"/>
+      <c r="D29" s="2" t="str">
+        <f t="shared" si="0"/>
         <v>Nom1600012</v>
       </c>
-      <c r="E29" t="str">
-        <f t="shared" si="2"/>
+      <c r="E29" s="2" t="str">
+        <f t="shared" si="1"/>
         <v>Description1600012</v>
       </c>
-      <c r="F29" t="str">
-        <f t="shared" si="2"/>
+      <c r="F29" s="2" t="str">
+        <f t="shared" si="1"/>
         <v>Photo1600012</v>
       </c>
-      <c r="G29" t="str">
-        <f t="shared" si="2"/>
+      <c r="G29" s="2" t="str">
+        <f t="shared" si="1"/>
         <v>PrixDemande1600012</v>
       </c>
-      <c r="H29" t="str">
-        <f t="shared" si="2"/>
+      <c r="H29" s="2" t="str">
+        <f t="shared" si="1"/>
         <v>NombreItems1600012</v>
       </c>
-      <c r="I29" t="str">
-        <f t="shared" si="2"/>
+      <c r="I29" s="2" t="str">
+        <f t="shared" si="1"/>
         <v>Disponibilité1600012</v>
       </c>
-      <c r="J29" t="str">
-        <f t="shared" si="2"/>
+      <c r="J29" s="2" t="str">
+        <f t="shared" si="1"/>
         <v>DateVente1600012</v>
       </c>
-      <c r="K29" t="str">
-        <f t="shared" si="2"/>
+      <c r="K29" s="2" t="str">
+        <f t="shared" si="1"/>
         <v>PrixVente1600012</v>
       </c>
-      <c r="L29" t="str">
-        <f t="shared" si="2"/>
+      <c r="L29" s="2" t="str">
+        <f t="shared" si="1"/>
         <v>Poids1600012</v>
       </c>
-      <c r="M29" t="str">
-        <f t="shared" si="2"/>
+      <c r="M29" s="2" t="str">
+        <f t="shared" si="0"/>
         <v>DateCreation1600012</v>
       </c>
-      <c r="N29" t="str">
-        <f t="shared" si="2"/>
-        <v>DateMAJ1600012</v>
+      <c r="N29" s="2" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A30">
+      <c r="A30" s="2">
         <v>1600013</v>
       </c>
-      <c r="B30">
+      <c r="B30" s="2">
         <v>16</v>
       </c>
-      <c r="C30">
+      <c r="C30" s="2">
         <v>1002</v>
       </c>
-      <c r="D30" t="str">
-        <f t="shared" si="1"/>
+      <c r="D30" s="2" t="str">
+        <f t="shared" si="0"/>
         <v>Nom1600013</v>
       </c>
-      <c r="E30" t="str">
-        <f t="shared" si="2"/>
+      <c r="E30" s="2" t="str">
+        <f t="shared" si="1"/>
         <v>Description1600013</v>
       </c>
-      <c r="F30" t="str">
-        <f t="shared" si="2"/>
+      <c r="F30" s="2" t="str">
+        <f t="shared" si="1"/>
         <v>Photo1600013</v>
       </c>
-      <c r="G30" t="str">
-        <f t="shared" si="2"/>
+      <c r="G30" s="2" t="str">
+        <f t="shared" si="1"/>
         <v>PrixDemande1600013</v>
       </c>
-      <c r="H30" t="str">
-        <f t="shared" si="2"/>
+      <c r="H30" s="2" t="str">
+        <f t="shared" si="1"/>
         <v>NombreItems1600013</v>
       </c>
-      <c r="I30" t="str">
-        <f t="shared" si="2"/>
+      <c r="I30" s="2" t="str">
+        <f t="shared" si="1"/>
         <v>Disponibilité1600013</v>
       </c>
-      <c r="J30" t="str">
-        <f t="shared" si="2"/>
+      <c r="J30" s="2" t="str">
+        <f t="shared" si="1"/>
         <v>DateVente1600013</v>
       </c>
-      <c r="K30" t="str">
-        <f t="shared" si="2"/>
+      <c r="K30" s="2" t="str">
+        <f t="shared" si="1"/>
         <v>PrixVente1600013</v>
       </c>
-      <c r="L30" t="str">
-        <f t="shared" si="2"/>
+      <c r="L30" s="2" t="str">
+        <f t="shared" si="1"/>
         <v>Poids1600013</v>
       </c>
-      <c r="M30" t="str">
-        <f t="shared" si="2"/>
+      <c r="M30" s="2" t="str">
+        <f t="shared" si="0"/>
         <v>DateCreation1600013</v>
       </c>
-      <c r="N30" t="str">
-        <f t="shared" si="2"/>
-        <v>DateMAJ1600013</v>
+      <c r="N30" s="2" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A31">
+      <c r="A31" s="2">
         <v>1100002</v>
       </c>
-      <c r="B31">
+      <c r="B31" s="2">
         <v>11</v>
       </c>
-      <c r="C31">
+      <c r="C31" s="2">
         <v>1003</v>
       </c>
-      <c r="D31" t="str">
-        <f t="shared" si="1"/>
-        <v>Nom1100002</v>
-      </c>
-      <c r="E31" t="str">
-        <f t="shared" si="2"/>
-        <v>Description1100002</v>
-      </c>
-      <c r="F31" t="str">
-        <f t="shared" si="2"/>
-        <v>Photo1100002</v>
-      </c>
-      <c r="G31" t="str">
-        <f t="shared" si="2"/>
-        <v>PrixDemande1100002</v>
-      </c>
-      <c r="H31" t="str">
-        <f t="shared" si="2"/>
-        <v>NombreItems1100002</v>
-      </c>
-      <c r="I31" t="str">
-        <f t="shared" si="2"/>
-        <v>Disponibilité1100002</v>
-      </c>
-      <c r="J31" t="str">
-        <f t="shared" si="2"/>
+      <c r="D31" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="G31" s="2">
+        <v>45</v>
+      </c>
+      <c r="H31" s="2">
+        <v>1</v>
+      </c>
+      <c r="I31" s="2">
+        <v>1</v>
+      </c>
+      <c r="J31" s="2" t="str">
+        <f t="shared" si="1"/>
         <v>DateVente1100002</v>
       </c>
-      <c r="K31" t="str">
-        <f t="shared" si="2"/>
-        <v>PrixVente1100002</v>
-      </c>
-      <c r="L31" t="str">
-        <f t="shared" si="2"/>
-        <v>Poids1100002</v>
-      </c>
-      <c r="M31" t="str">
-        <f t="shared" si="2"/>
+      <c r="K31" s="2">
+        <v>45</v>
+      </c>
+      <c r="L31" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="M31" s="2" t="str">
+        <f t="shared" si="0"/>
         <v>DateCreation1100002</v>
       </c>
-      <c r="N31" t="str">
-        <f t="shared" si="2"/>
-        <v>DateMAJ1100002</v>
+      <c r="N31" s="2" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A32">
+      <c r="A32" s="2">
         <v>1100003</v>
       </c>
-      <c r="B32">
+      <c r="B32" s="2">
         <v>11</v>
       </c>
-      <c r="C32">
+      <c r="C32" s="2">
         <v>1003</v>
       </c>
-      <c r="D32" t="str">
-        <f t="shared" si="1"/>
-        <v>Nom1100003</v>
-      </c>
-      <c r="E32" t="str">
-        <f t="shared" si="2"/>
-        <v>Description1100003</v>
-      </c>
-      <c r="F32" t="str">
-        <f t="shared" si="2"/>
-        <v>Photo1100003</v>
-      </c>
-      <c r="G32" t="str">
-        <f t="shared" si="2"/>
-        <v>PrixDemande1100003</v>
-      </c>
-      <c r="H32" t="str">
-        <f t="shared" si="2"/>
-        <v>NombreItems1100003</v>
-      </c>
-      <c r="I32" t="str">
-        <f t="shared" si="2"/>
-        <v>Disponibilité1100003</v>
-      </c>
-      <c r="J32" t="str">
-        <f t="shared" si="2"/>
+      <c r="D32" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="G32" s="2">
+        <v>10</v>
+      </c>
+      <c r="H32" s="2">
+        <v>1</v>
+      </c>
+      <c r="I32" s="2">
+        <v>1</v>
+      </c>
+      <c r="J32" s="2" t="str">
+        <f t="shared" si="1"/>
         <v>DateVente1100003</v>
       </c>
-      <c r="K32" t="str">
-        <f t="shared" si="2"/>
-        <v>PrixVente1100003</v>
-      </c>
-      <c r="L32" t="str">
-        <f t="shared" si="2"/>
-        <v>Poids1100003</v>
-      </c>
-      <c r="M32" t="str">
-        <f t="shared" si="2"/>
+      <c r="K32" s="2">
+        <v>10</v>
+      </c>
+      <c r="L32" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="M32" s="2" t="str">
+        <f t="shared" si="0"/>
         <v>DateCreation1100003</v>
       </c>
-      <c r="N32" t="str">
-        <f t="shared" si="2"/>
-        <v>DateMAJ1100003</v>
+      <c r="N32" s="2" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A33">
+      <c r="A33" s="2">
         <v>1100004</v>
       </c>
-      <c r="B33">
+      <c r="B33" s="2">
         <v>11</v>
       </c>
-      <c r="C33">
+      <c r="C33" s="2">
         <v>1003</v>
       </c>
-      <c r="D33" t="str">
-        <f t="shared" si="1"/>
-        <v>Nom1100004</v>
-      </c>
-      <c r="E33" t="str">
-        <f t="shared" si="2"/>
-        <v>Description1100004</v>
-      </c>
-      <c r="F33" t="str">
-        <f t="shared" si="2"/>
-        <v>Photo1100004</v>
-      </c>
-      <c r="G33" t="str">
-        <f t="shared" si="2"/>
-        <v>PrixDemande1100004</v>
-      </c>
-      <c r="H33" t="str">
-        <f t="shared" si="2"/>
-        <v>NombreItems1100004</v>
-      </c>
-      <c r="I33" t="str">
-        <f t="shared" si="2"/>
-        <v>Disponibilité1100004</v>
-      </c>
-      <c r="J33" t="str">
-        <f t="shared" si="2"/>
+      <c r="D33" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="G33" s="2">
+        <v>1300</v>
+      </c>
+      <c r="H33" s="2">
+        <v>1</v>
+      </c>
+      <c r="I33" s="2">
+        <v>1</v>
+      </c>
+      <c r="J33" s="2" t="str">
+        <f t="shared" si="1"/>
         <v>DateVente1100004</v>
       </c>
-      <c r="K33" t="str">
-        <f t="shared" si="2"/>
-        <v>PrixVente1100004</v>
-      </c>
-      <c r="L33" t="str">
-        <f t="shared" si="2"/>
-        <v>Poids1100004</v>
-      </c>
-      <c r="M33" t="str">
-        <f t="shared" si="2"/>
+      <c r="K33" s="2">
+        <v>1300</v>
+      </c>
+      <c r="L33" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="M33" s="2" t="str">
+        <f t="shared" si="0"/>
         <v>DateCreation1100004</v>
       </c>
-      <c r="N33" t="str">
-        <f t="shared" si="2"/>
-        <v>DateMAJ1100004</v>
+      <c r="N33" s="2" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A34">
+      <c r="A34" s="2">
         <v>1100005</v>
       </c>
-      <c r="B34">
+      <c r="B34" s="2">
         <v>11</v>
       </c>
-      <c r="C34">
+      <c r="C34" s="2">
         <v>1003</v>
       </c>
-      <c r="D34" t="str">
-        <f t="shared" si="1"/>
-        <v>Nom1100005</v>
-      </c>
-      <c r="E34" t="str">
-        <f t="shared" si="2"/>
-        <v>Description1100005</v>
-      </c>
-      <c r="F34" t="str">
-        <f t="shared" si="2"/>
-        <v>Photo1100005</v>
-      </c>
-      <c r="G34" t="str">
-        <f t="shared" si="2"/>
-        <v>PrixDemande1100005</v>
-      </c>
-      <c r="H34" t="str">
-        <f t="shared" si="2"/>
-        <v>NombreItems1100005</v>
-      </c>
-      <c r="I34" t="str">
-        <f t="shared" si="2"/>
-        <v>Disponibilité1100005</v>
-      </c>
-      <c r="J34" t="str">
-        <f t="shared" si="2"/>
+      <c r="D34" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="G34" s="2">
+        <v>5</v>
+      </c>
+      <c r="H34" s="2">
+        <v>1</v>
+      </c>
+      <c r="I34" s="2">
+        <v>1</v>
+      </c>
+      <c r="J34" s="2" t="str">
+        <f t="shared" si="1"/>
         <v>DateVente1100005</v>
       </c>
-      <c r="K34" t="str">
-        <f t="shared" si="2"/>
-        <v>PrixVente1100005</v>
-      </c>
-      <c r="L34" t="str">
-        <f t="shared" si="2"/>
-        <v>Poids1100005</v>
-      </c>
-      <c r="M34" t="str">
-        <f t="shared" si="2"/>
+      <c r="K34" s="2">
+        <v>5</v>
+      </c>
+      <c r="L34" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="M34" s="2" t="str">
+        <f t="shared" si="0"/>
         <v>DateCreation1100005</v>
       </c>
-      <c r="N34" t="str">
-        <f t="shared" si="2"/>
-        <v>DateMAJ1100005</v>
+      <c r="N34" s="2" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A35">
+      <c r="A35" s="2">
         <v>1100006</v>
       </c>
-      <c r="B35">
+      <c r="B35" s="2">
         <v>11</v>
       </c>
-      <c r="C35">
+      <c r="C35" s="2">
         <v>1003</v>
       </c>
-      <c r="D35" t="str">
-        <f t="shared" si="1"/>
-        <v>Nom1100006</v>
-      </c>
-      <c r="E35" t="str">
-        <f t="shared" si="2"/>
-        <v>Description1100006</v>
-      </c>
-      <c r="F35" t="str">
-        <f t="shared" si="2"/>
-        <v>Photo1100006</v>
-      </c>
-      <c r="G35" t="str">
-        <f t="shared" si="2"/>
-        <v>PrixDemande1100006</v>
-      </c>
-      <c r="H35" t="str">
-        <f t="shared" si="2"/>
-        <v>NombreItems1100006</v>
-      </c>
-      <c r="I35" t="str">
-        <f t="shared" si="2"/>
-        <v>Disponibilité1100006</v>
-      </c>
-      <c r="J35" t="str">
-        <f t="shared" si="2"/>
+      <c r="D35" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="G35" s="2">
+        <v>5</v>
+      </c>
+      <c r="H35" s="2">
+        <v>5</v>
+      </c>
+      <c r="I35" s="2">
+        <v>1</v>
+      </c>
+      <c r="J35" s="2" t="str">
+        <f t="shared" si="1"/>
         <v>DateVente1100006</v>
       </c>
-      <c r="K35" t="str">
-        <f t="shared" si="2"/>
-        <v>PrixVente1100006</v>
-      </c>
-      <c r="L35" t="str">
-        <f t="shared" si="2"/>
-        <v>Poids1100006</v>
-      </c>
-      <c r="M35" t="str">
-        <f t="shared" si="2"/>
+      <c r="K35" s="2">
+        <v>5</v>
+      </c>
+      <c r="L35" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="M35" s="2" t="str">
+        <f t="shared" si="0"/>
         <v>DateCreation1100006</v>
       </c>
-      <c r="N35" t="str">
-        <f t="shared" si="2"/>
-        <v>DateMAJ1100006</v>
+      <c r="N35" s="2" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A36">
+      <c r="A36" s="2">
         <v>1600014</v>
       </c>
-      <c r="B36">
+      <c r="B36" s="2">
         <v>16</v>
       </c>
-      <c r="C36">
+      <c r="C36" s="2">
         <v>1003</v>
       </c>
-      <c r="D36" t="str">
-        <f t="shared" si="1"/>
-        <v>Nom1600014</v>
-      </c>
-      <c r="E36" t="str">
-        <f t="shared" si="2"/>
-        <v>Description1600014</v>
-      </c>
-      <c r="F36" t="str">
-        <f t="shared" si="2"/>
-        <v>Photo1600014</v>
-      </c>
-      <c r="G36" t="str">
-        <f t="shared" si="2"/>
-        <v>PrixDemande1600014</v>
-      </c>
-      <c r="H36" t="str">
-        <f t="shared" si="2"/>
-        <v>NombreItems1600014</v>
-      </c>
-      <c r="I36" t="str">
-        <f t="shared" si="2"/>
-        <v>Disponibilité1600014</v>
-      </c>
-      <c r="J36" t="str">
-        <f t="shared" si="2"/>
+      <c r="D36" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="G36" s="2">
+        <v>150</v>
+      </c>
+      <c r="H36" s="2">
+        <v>1</v>
+      </c>
+      <c r="I36" s="2">
+        <v>1</v>
+      </c>
+      <c r="J36" s="2" t="str">
+        <f t="shared" si="1"/>
         <v>DateVente1600014</v>
       </c>
-      <c r="K36" t="str">
-        <f t="shared" si="2"/>
-        <v>PrixVente1600014</v>
-      </c>
-      <c r="L36" t="str">
-        <f t="shared" si="2"/>
-        <v>Poids1600014</v>
-      </c>
-      <c r="M36" t="str">
-        <f t="shared" si="2"/>
+      <c r="K36" s="2">
+        <v>150</v>
+      </c>
+      <c r="L36" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="M36" s="2" t="str">
+        <f t="shared" si="0"/>
         <v>DateCreation1600014</v>
       </c>
-      <c r="N36" t="str">
-        <f t="shared" si="2"/>
-        <v>DateMAJ1600014</v>
+      <c r="N36" s="2" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A37">
+      <c r="A37" s="2">
         <v>1600015</v>
       </c>
-      <c r="B37">
+      <c r="B37" s="2">
         <v>16</v>
       </c>
-      <c r="C37">
+      <c r="C37" s="2">
         <v>1003</v>
       </c>
-      <c r="D37" t="str">
-        <f t="shared" si="1"/>
-        <v>Nom1600015</v>
-      </c>
-      <c r="E37" t="str">
-        <f t="shared" si="2"/>
-        <v>Description1600015</v>
-      </c>
-      <c r="F37" t="str">
-        <f t="shared" si="2"/>
-        <v>Photo1600015</v>
-      </c>
-      <c r="G37" t="str">
-        <f t="shared" si="2"/>
-        <v>PrixDemande1600015</v>
-      </c>
-      <c r="H37" t="str">
-        <f t="shared" si="2"/>
-        <v>NombreItems1600015</v>
-      </c>
-      <c r="I37" t="str">
-        <f t="shared" si="2"/>
-        <v>Disponibilité1600015</v>
-      </c>
-      <c r="J37" t="str">
-        <f t="shared" si="2"/>
+      <c r="D37" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="G37" s="2">
+        <v>40</v>
+      </c>
+      <c r="H37" s="2">
+        <v>1</v>
+      </c>
+      <c r="I37" s="2">
+        <v>1</v>
+      </c>
+      <c r="J37" s="2" t="str">
+        <f t="shared" si="1"/>
         <v>DateVente1600015</v>
       </c>
-      <c r="K37" t="str">
-        <f t="shared" si="2"/>
-        <v>PrixVente1600015</v>
-      </c>
-      <c r="L37" t="str">
-        <f t="shared" si="2"/>
-        <v>Poids1600015</v>
-      </c>
-      <c r="M37" t="str">
-        <f t="shared" si="2"/>
+      <c r="K37" s="2">
+        <v>40</v>
+      </c>
+      <c r="L37" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="M37" s="2" t="str">
+        <f t="shared" si="0"/>
         <v>DateCreation1600015</v>
       </c>
-      <c r="N37" t="str">
-        <f t="shared" si="2"/>
-        <v>DateMAJ1600015</v>
+      <c r="N37" s="2" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A38">
+      <c r="A38" s="2">
         <v>1600016</v>
       </c>
-      <c r="B38">
+      <c r="B38" s="2">
         <v>16</v>
       </c>
-      <c r="C38">
+      <c r="C38" s="2">
         <v>1003</v>
       </c>
-      <c r="D38" t="str">
-        <f t="shared" si="1"/>
-        <v>Nom1600016</v>
-      </c>
-      <c r="E38" t="str">
-        <f t="shared" ref="E38:N53" si="3">E$1&amp;$A38</f>
-        <v>Description1600016</v>
-      </c>
-      <c r="F38" t="str">
-        <f t="shared" si="3"/>
-        <v>Photo1600016</v>
-      </c>
-      <c r="G38" t="str">
-        <f t="shared" si="3"/>
-        <v>PrixDemande1600016</v>
-      </c>
-      <c r="H38" t="str">
-        <f t="shared" si="3"/>
-        <v>NombreItems1600016</v>
-      </c>
-      <c r="I38" t="str">
-        <f t="shared" si="3"/>
-        <v>Disponibilité1600016</v>
-      </c>
-      <c r="J38" t="str">
-        <f t="shared" si="3"/>
+      <c r="D38" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="G38" s="2">
+        <v>100</v>
+      </c>
+      <c r="H38" s="2">
+        <v>1</v>
+      </c>
+      <c r="I38" s="2">
+        <v>1</v>
+      </c>
+      <c r="J38" s="2" t="str">
+        <f t="shared" ref="J38:J99" si="2">J$1&amp;$A38</f>
         <v>DateVente1600016</v>
       </c>
-      <c r="K38" t="str">
-        <f t="shared" si="3"/>
-        <v>PrixVente1600016</v>
-      </c>
-      <c r="L38" t="str">
-        <f t="shared" si="3"/>
-        <v>Poids1600016</v>
-      </c>
-      <c r="M38" t="str">
-        <f t="shared" si="3"/>
+      <c r="K38" s="2">
+        <v>100</v>
+      </c>
+      <c r="L38" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="M38" s="2" t="str">
+        <f t="shared" si="0"/>
         <v>DateCreation1600016</v>
       </c>
-      <c r="N38" t="str">
-        <f t="shared" si="3"/>
-        <v>DateMAJ1600016</v>
+      <c r="N38" s="2" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A39">
+      <c r="A39" s="2">
         <v>1600017</v>
       </c>
-      <c r="B39">
+      <c r="B39" s="2">
         <v>16</v>
       </c>
-      <c r="C39">
+      <c r="C39" s="2">
         <v>1003</v>
       </c>
-      <c r="D39" t="str">
-        <f t="shared" si="1"/>
+      <c r="D39" s="2" t="str">
+        <f t="shared" si="0"/>
         <v>Nom1600017</v>
       </c>
-      <c r="E39" t="str">
-        <f t="shared" si="3"/>
+      <c r="E39" s="2" t="str">
+        <f t="shared" ref="E38:N53" si="3">E$1&amp;$A39</f>
         <v>Description1600017</v>
       </c>
-      <c r="F39" t="str">
+      <c r="F39" s="2" t="str">
         <f t="shared" si="3"/>
         <v>Photo1600017</v>
       </c>
-      <c r="G39" t="str">
+      <c r="G39" s="2" t="str">
         <f t="shared" si="3"/>
         <v>PrixDemande1600017</v>
       </c>
-      <c r="H39" t="str">
+      <c r="H39" s="2" t="str">
         <f t="shared" si="3"/>
         <v>NombreItems1600017</v>
       </c>
-      <c r="I39" t="str">
+      <c r="I39" s="2" t="str">
         <f t="shared" si="3"/>
         <v>Disponibilité1600017</v>
       </c>
-      <c r="J39" t="str">
-        <f t="shared" si="3"/>
+      <c r="J39" s="2" t="str">
+        <f t="shared" si="2"/>
         <v>DateVente1600017</v>
       </c>
-      <c r="K39" t="str">
+      <c r="K39" s="2" t="str">
         <f t="shared" si="3"/>
         <v>PrixVente1600017</v>
       </c>
-      <c r="L39" t="str">
+      <c r="L39" s="2" t="str">
         <f t="shared" si="3"/>
         <v>Poids1600017</v>
       </c>
-      <c r="M39" t="str">
-        <f t="shared" si="3"/>
+      <c r="M39" s="2" t="str">
+        <f t="shared" si="0"/>
         <v>DateCreation1600017</v>
       </c>
-      <c r="N39" t="str">
-        <f t="shared" si="3"/>
-        <v>DateMAJ1600017</v>
+      <c r="N39" s="2" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A40">
+      <c r="A40" s="2">
         <v>1100007</v>
       </c>
-      <c r="B40">
+      <c r="B40" s="2">
         <v>11</v>
       </c>
-      <c r="C40">
+      <c r="C40" s="2">
         <v>1004</v>
       </c>
-      <c r="D40" t="str">
-        <f t="shared" si="1"/>
-        <v>Nom1100007</v>
-      </c>
-      <c r="E40" t="str">
-        <f t="shared" si="3"/>
-        <v>Description1100007</v>
-      </c>
-      <c r="F40" t="str">
-        <f t="shared" si="3"/>
-        <v>Photo1100007</v>
-      </c>
-      <c r="G40" t="str">
-        <f t="shared" si="3"/>
-        <v>PrixDemande1100007</v>
-      </c>
-      <c r="H40" t="str">
-        <f t="shared" si="3"/>
-        <v>NombreItems1100007</v>
-      </c>
-      <c r="I40" t="str">
-        <f t="shared" si="3"/>
-        <v>Disponibilité1100007</v>
-      </c>
-      <c r="J40" t="str">
-        <f t="shared" si="3"/>
+      <c r="D40" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="G40" s="2">
+        <v>70</v>
+      </c>
+      <c r="H40" s="2">
+        <v>1</v>
+      </c>
+      <c r="I40" s="2">
+        <v>1</v>
+      </c>
+      <c r="J40" s="2" t="str">
+        <f t="shared" si="2"/>
         <v>DateVente1100007</v>
       </c>
-      <c r="K40" t="str">
-        <f t="shared" si="3"/>
-        <v>PrixVente1100007</v>
-      </c>
-      <c r="L40" t="str">
-        <f t="shared" si="3"/>
-        <v>Poids1100007</v>
-      </c>
-      <c r="M40" t="str">
-        <f t="shared" si="3"/>
+      <c r="K40" s="2">
+        <v>70</v>
+      </c>
+      <c r="L40" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="M40" s="2" t="str">
+        <f t="shared" si="0"/>
         <v>DateCreation1100007</v>
       </c>
-      <c r="N40" t="str">
-        <f t="shared" si="3"/>
-        <v>DateMAJ1100007</v>
+      <c r="N40" s="2" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A41">
+      <c r="A41" s="2">
         <v>1100008</v>
       </c>
-      <c r="B41">
+      <c r="B41" s="2">
         <v>11</v>
       </c>
-      <c r="C41">
+      <c r="C41" s="2">
         <v>1004</v>
       </c>
-      <c r="D41" t="str">
-        <f t="shared" si="1"/>
-        <v>Nom1100008</v>
-      </c>
-      <c r="E41" t="str">
-        <f t="shared" si="3"/>
-        <v>Description1100008</v>
-      </c>
-      <c r="F41" t="str">
-        <f t="shared" si="3"/>
-        <v>Photo1100008</v>
-      </c>
-      <c r="G41" t="str">
-        <f t="shared" si="3"/>
-        <v>PrixDemande1100008</v>
-      </c>
-      <c r="H41" t="str">
-        <f t="shared" si="3"/>
-        <v>NombreItems1100008</v>
-      </c>
-      <c r="I41" t="str">
-        <f t="shared" si="3"/>
-        <v>Disponibilité1100008</v>
-      </c>
-      <c r="J41" t="str">
-        <f t="shared" si="3"/>
+      <c r="D41" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="G41" s="2">
+        <v>60</v>
+      </c>
+      <c r="H41" s="2">
+        <v>1</v>
+      </c>
+      <c r="I41" s="2">
+        <v>1</v>
+      </c>
+      <c r="J41" s="2" t="str">
+        <f t="shared" si="2"/>
         <v>DateVente1100008</v>
       </c>
-      <c r="K41" t="str">
-        <f t="shared" si="3"/>
-        <v>PrixVente1100008</v>
-      </c>
-      <c r="L41" t="str">
-        <f t="shared" si="3"/>
-        <v>Poids1100008</v>
-      </c>
-      <c r="M41" t="str">
-        <f t="shared" si="3"/>
+      <c r="K41" s="2">
+        <v>60</v>
+      </c>
+      <c r="L41" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="M41" s="2" t="str">
+        <f t="shared" si="0"/>
         <v>DateCreation1100008</v>
       </c>
-      <c r="N41" t="str">
-        <f t="shared" si="3"/>
-        <v>DateMAJ1100008</v>
+      <c r="N41" s="2" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A42">
+      <c r="A42" s="2">
         <v>1100009</v>
       </c>
-      <c r="B42">
+      <c r="B42" s="2">
         <v>11</v>
       </c>
-      <c r="C42">
+      <c r="C42" s="2">
         <v>1004</v>
       </c>
-      <c r="D42" t="str">
-        <f t="shared" si="1"/>
-        <v>Nom1100009</v>
-      </c>
-      <c r="E42" t="str">
-        <f t="shared" si="3"/>
-        <v>Description1100009</v>
-      </c>
-      <c r="F42" t="str">
-        <f t="shared" si="3"/>
-        <v>Photo1100009</v>
-      </c>
-      <c r="G42" t="str">
-        <f t="shared" si="3"/>
-        <v>PrixDemande1100009</v>
-      </c>
-      <c r="H42" t="str">
-        <f t="shared" si="3"/>
-        <v>NombreItems1100009</v>
-      </c>
-      <c r="I42" t="str">
-        <f t="shared" si="3"/>
-        <v>Disponibilité1100009</v>
-      </c>
-      <c r="J42" t="str">
-        <f t="shared" si="3"/>
+      <c r="D42" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="G42" s="2">
+        <v>150</v>
+      </c>
+      <c r="H42" s="2">
+        <v>1</v>
+      </c>
+      <c r="I42" s="2">
+        <v>1</v>
+      </c>
+      <c r="J42" s="2" t="str">
+        <f t="shared" si="2"/>
         <v>DateVente1100009</v>
       </c>
-      <c r="K42" t="str">
-        <f t="shared" si="3"/>
-        <v>PrixVente1100009</v>
-      </c>
-      <c r="L42" t="str">
-        <f t="shared" si="3"/>
-        <v>Poids1100009</v>
-      </c>
-      <c r="M42" t="str">
-        <f t="shared" si="3"/>
+      <c r="K42" s="2">
+        <v>150</v>
+      </c>
+      <c r="L42" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="M42" s="2" t="str">
+        <f t="shared" si="0"/>
         <v>DateCreation1100009</v>
       </c>
-      <c r="N42" t="str">
-        <f t="shared" si="3"/>
-        <v>DateMAJ1100009</v>
+      <c r="N42" s="2" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A43">
+      <c r="A43" s="2">
         <v>1400004</v>
       </c>
-      <c r="B43">
+      <c r="B43" s="2">
         <v>14</v>
       </c>
-      <c r="C43">
+      <c r="C43" s="2">
         <v>1004</v>
       </c>
-      <c r="D43" t="str">
-        <f t="shared" si="1"/>
+      <c r="D43" s="2" t="str">
+        <f t="shared" si="0"/>
         <v>Nom1400004</v>
       </c>
-      <c r="E43" t="str">
+      <c r="E43" s="2" t="str">
         <f t="shared" si="3"/>
         <v>Description1400004</v>
       </c>
-      <c r="F43" t="str">
+      <c r="F43" s="2" t="str">
         <f t="shared" si="3"/>
         <v>Photo1400004</v>
       </c>
-      <c r="G43" t="str">
+      <c r="G43" s="2" t="str">
         <f t="shared" si="3"/>
         <v>PrixDemande1400004</v>
       </c>
-      <c r="H43" t="str">
+      <c r="H43" s="2" t="str">
         <f t="shared" si="3"/>
         <v>NombreItems1400004</v>
       </c>
-      <c r="I43" t="str">
+      <c r="I43" s="2" t="str">
         <f t="shared" si="3"/>
         <v>Disponibilité1400004</v>
       </c>
-      <c r="J43" t="str">
-        <f t="shared" si="3"/>
+      <c r="J43" s="2" t="str">
+        <f t="shared" si="2"/>
         <v>DateVente1400004</v>
       </c>
-      <c r="K43" t="str">
+      <c r="K43" s="2" t="str">
         <f t="shared" si="3"/>
         <v>PrixVente1400004</v>
       </c>
-      <c r="L43" t="str">
+      <c r="L43" s="2" t="str">
         <f t="shared" si="3"/>
         <v>Poids1400004</v>
       </c>
-      <c r="M43" t="str">
-        <f t="shared" si="3"/>
+      <c r="M43" s="2" t="str">
+        <f t="shared" si="0"/>
         <v>DateCreation1400004</v>
       </c>
-      <c r="N43" t="str">
-        <f t="shared" si="3"/>
-        <v>DateMAJ1400004</v>
+      <c r="N43" s="2" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A44">
+      <c r="A44" s="2">
         <v>1400005</v>
       </c>
-      <c r="B44">
+      <c r="B44" s="2">
         <v>14</v>
       </c>
-      <c r="C44">
+      <c r="C44" s="2">
         <v>1004</v>
       </c>
-      <c r="D44" t="str">
-        <f t="shared" si="1"/>
+      <c r="D44" s="2" t="str">
+        <f t="shared" si="0"/>
         <v>Nom1400005</v>
       </c>
-      <c r="E44" t="str">
+      <c r="E44" s="2" t="str">
         <f t="shared" si="3"/>
         <v>Description1400005</v>
       </c>
-      <c r="F44" t="str">
+      <c r="F44" s="2" t="str">
         <f t="shared" si="3"/>
         <v>Photo1400005</v>
       </c>
-      <c r="G44" t="str">
+      <c r="G44" s="2" t="str">
         <f t="shared" si="3"/>
         <v>PrixDemande1400005</v>
       </c>
-      <c r="H44" t="str">
+      <c r="H44" s="2" t="str">
         <f t="shared" si="3"/>
         <v>NombreItems1400005</v>
       </c>
-      <c r="I44" t="str">
+      <c r="I44" s="2" t="str">
         <f t="shared" si="3"/>
         <v>Disponibilité1400005</v>
       </c>
-      <c r="J44" t="str">
-        <f t="shared" si="3"/>
+      <c r="J44" s="2" t="str">
+        <f t="shared" si="2"/>
         <v>DateVente1400005</v>
       </c>
-      <c r="K44" t="str">
+      <c r="K44" s="2" t="str">
         <f t="shared" si="3"/>
         <v>PrixVente1400005</v>
       </c>
-      <c r="L44" t="str">
+      <c r="L44" s="2" t="str">
         <f t="shared" si="3"/>
         <v>Poids1400005</v>
       </c>
-      <c r="M44" t="str">
-        <f t="shared" si="3"/>
+      <c r="M44" s="2" t="str">
+        <f t="shared" si="0"/>
         <v>DateCreation1400005</v>
       </c>
-      <c r="N44" t="str">
-        <f t="shared" si="3"/>
-        <v>DateMAJ1400005</v>
+      <c r="N44" s="2" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A45">
+      <c r="A45" s="2">
         <v>1400006</v>
       </c>
-      <c r="B45">
+      <c r="B45" s="2">
         <v>14</v>
       </c>
-      <c r="C45">
+      <c r="C45" s="2">
         <v>1004</v>
       </c>
-      <c r="D45" t="str">
-        <f t="shared" si="1"/>
+      <c r="D45" s="2" t="str">
+        <f t="shared" si="0"/>
         <v>Nom1400006</v>
       </c>
-      <c r="E45" t="str">
+      <c r="E45" s="2" t="str">
         <f t="shared" si="3"/>
         <v>Description1400006</v>
       </c>
-      <c r="F45" t="str">
+      <c r="F45" s="2" t="str">
         <f t="shared" si="3"/>
         <v>Photo1400006</v>
       </c>
-      <c r="G45" t="str">
+      <c r="G45" s="2" t="str">
         <f t="shared" si="3"/>
         <v>PrixDemande1400006</v>
       </c>
-      <c r="H45" t="str">
+      <c r="H45" s="2" t="str">
         <f t="shared" si="3"/>
         <v>NombreItems1400006</v>
       </c>
-      <c r="I45" t="str">
+      <c r="I45" s="2" t="str">
         <f t="shared" si="3"/>
         <v>Disponibilité1400006</v>
       </c>
-      <c r="J45" t="str">
-        <f t="shared" si="3"/>
+      <c r="J45" s="2" t="str">
+        <f t="shared" si="2"/>
         <v>DateVente1400006</v>
       </c>
-      <c r="K45" t="str">
+      <c r="K45" s="2" t="str">
         <f t="shared" si="3"/>
         <v>PrixVente1400006</v>
       </c>
-      <c r="L45" t="str">
+      <c r="L45" s="2" t="str">
         <f t="shared" si="3"/>
         <v>Poids1400006</v>
       </c>
-      <c r="M45" t="str">
-        <f t="shared" si="3"/>
+      <c r="M45" s="2" t="str">
+        <f t="shared" si="0"/>
         <v>DateCreation1400006</v>
       </c>
-      <c r="N45" t="str">
-        <f t="shared" si="3"/>
-        <v>DateMAJ1400006</v>
+      <c r="N45" s="2" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A46">
+      <c r="A46" s="2">
         <v>1400007</v>
       </c>
-      <c r="B46">
+      <c r="B46" s="2">
         <v>14</v>
       </c>
-      <c r="C46">
+      <c r="C46" s="2">
         <v>1004</v>
       </c>
-      <c r="D46" t="str">
-        <f t="shared" si="1"/>
+      <c r="D46" s="2" t="str">
+        <f t="shared" si="0"/>
         <v>Nom1400007</v>
       </c>
-      <c r="E46" t="str">
+      <c r="E46" s="2" t="str">
         <f t="shared" si="3"/>
         <v>Description1400007</v>
       </c>
-      <c r="F46" t="str">
+      <c r="F46" s="2" t="str">
         <f t="shared" si="3"/>
         <v>Photo1400007</v>
       </c>
-      <c r="G46" t="str">
+      <c r="G46" s="2" t="str">
         <f t="shared" si="3"/>
         <v>PrixDemande1400007</v>
       </c>
-      <c r="H46" t="str">
+      <c r="H46" s="2" t="str">
         <f t="shared" si="3"/>
         <v>NombreItems1400007</v>
       </c>
-      <c r="I46" t="str">
+      <c r="I46" s="2" t="str">
         <f t="shared" si="3"/>
         <v>Disponibilité1400007</v>
       </c>
-      <c r="J46" t="str">
-        <f t="shared" si="3"/>
+      <c r="J46" s="2" t="str">
+        <f t="shared" si="2"/>
         <v>DateVente1400007</v>
       </c>
-      <c r="K46" t="str">
+      <c r="K46" s="2" t="str">
         <f t="shared" si="3"/>
         <v>PrixVente1400007</v>
       </c>
-      <c r="L46" t="str">
+      <c r="L46" s="2" t="str">
         <f t="shared" si="3"/>
         <v>Poids1400007</v>
       </c>
-      <c r="M46" t="str">
-        <f t="shared" si="3"/>
+      <c r="M46" s="2" t="str">
+        <f t="shared" si="0"/>
         <v>DateCreation1400007</v>
       </c>
-      <c r="N46" t="str">
-        <f t="shared" si="3"/>
-        <v>DateMAJ1400007</v>
+      <c r="N46" s="2" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A47">
+      <c r="A47" s="2">
         <v>1600018</v>
       </c>
-      <c r="B47">
+      <c r="B47" s="2">
         <v>16</v>
       </c>
-      <c r="C47">
+      <c r="C47" s="2">
         <v>1004</v>
       </c>
-      <c r="D47" t="str">
-        <f t="shared" si="1"/>
+      <c r="D47" s="2" t="str">
+        <f t="shared" si="0"/>
         <v>Nom1600018</v>
       </c>
-      <c r="E47" t="str">
+      <c r="E47" s="2" t="str">
         <f t="shared" si="3"/>
         <v>Description1600018</v>
       </c>
-      <c r="F47" t="str">
+      <c r="F47" s="2" t="str">
         <f t="shared" si="3"/>
         <v>Photo1600018</v>
       </c>
-      <c r="G47" t="str">
+      <c r="G47" s="2" t="str">
         <f t="shared" si="3"/>
         <v>PrixDemande1600018</v>
       </c>
-      <c r="H47" t="str">
+      <c r="H47" s="2" t="str">
         <f t="shared" si="3"/>
         <v>NombreItems1600018</v>
       </c>
-      <c r="I47" t="str">
+      <c r="I47" s="2" t="str">
         <f t="shared" si="3"/>
         <v>Disponibilité1600018</v>
       </c>
-      <c r="J47" t="str">
-        <f t="shared" si="3"/>
+      <c r="J47" s="2" t="str">
+        <f t="shared" si="2"/>
         <v>DateVente1600018</v>
       </c>
-      <c r="K47" t="str">
+      <c r="K47" s="2" t="str">
         <f t="shared" si="3"/>
         <v>PrixVente1600018</v>
       </c>
-      <c r="L47" t="str">
+      <c r="L47" s="2" t="str">
         <f t="shared" si="3"/>
         <v>Poids1600018</v>
       </c>
-      <c r="M47" t="str">
-        <f t="shared" si="3"/>
+      <c r="M47" s="2" t="str">
+        <f t="shared" si="0"/>
         <v>DateCreation1600018</v>
       </c>
-      <c r="N47" t="str">
-        <f t="shared" si="3"/>
-        <v>DateMAJ1600018</v>
+      <c r="N47" s="2" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A48">
+      <c r="A48" s="2">
         <v>1600019</v>
       </c>
-      <c r="B48">
+      <c r="B48" s="2">
         <v>16</v>
       </c>
-      <c r="C48">
+      <c r="C48" s="2">
         <v>1004</v>
       </c>
-      <c r="D48" t="str">
-        <f t="shared" si="1"/>
+      <c r="D48" s="2" t="str">
+        <f t="shared" si="0"/>
         <v>Nom1600019</v>
       </c>
-      <c r="E48" t="str">
+      <c r="E48" s="2" t="str">
         <f t="shared" si="3"/>
         <v>Description1600019</v>
       </c>
-      <c r="F48" t="str">
+      <c r="F48" s="2" t="str">
         <f t="shared" si="3"/>
         <v>Photo1600019</v>
       </c>
-      <c r="G48" t="str">
+      <c r="G48" s="2" t="str">
         <f t="shared" si="3"/>
         <v>PrixDemande1600019</v>
       </c>
-      <c r="H48" t="str">
+      <c r="H48" s="2" t="str">
         <f t="shared" si="3"/>
         <v>NombreItems1600019</v>
       </c>
-      <c r="I48" t="str">
+      <c r="I48" s="2" t="str">
         <f t="shared" si="3"/>
         <v>Disponibilité1600019</v>
       </c>
-      <c r="J48" t="str">
-        <f t="shared" si="3"/>
+      <c r="J48" s="2" t="str">
+        <f t="shared" si="2"/>
         <v>DateVente1600019</v>
       </c>
-      <c r="K48" t="str">
+      <c r="K48" s="2" t="str">
         <f t="shared" si="3"/>
         <v>PrixVente1600019</v>
       </c>
-      <c r="L48" t="str">
+      <c r="L48" s="2" t="str">
         <f t="shared" si="3"/>
         <v>Poids1600019</v>
       </c>
-      <c r="M48" t="str">
-        <f t="shared" si="3"/>
+      <c r="M48" s="2" t="str">
+        <f t="shared" si="0"/>
         <v>DateCreation1600019</v>
       </c>
-      <c r="N48" t="str">
-        <f t="shared" si="3"/>
-        <v>DateMAJ1600019</v>
+      <c r="N48" s="2" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A49">
+      <c r="A49" s="2">
         <v>1600020</v>
       </c>
-      <c r="B49">
+      <c r="B49" s="2">
         <v>16</v>
       </c>
-      <c r="C49">
+      <c r="C49" s="2">
         <v>1004</v>
       </c>
-      <c r="D49" t="str">
-        <f t="shared" si="1"/>
+      <c r="D49" s="2" t="str">
+        <f t="shared" si="0"/>
         <v>Nom1600020</v>
       </c>
-      <c r="E49" t="str">
+      <c r="E49" s="2" t="str">
         <f t="shared" si="3"/>
         <v>Description1600020</v>
       </c>
-      <c r="F49" t="str">
+      <c r="F49" s="2" t="str">
         <f t="shared" si="3"/>
         <v>Photo1600020</v>
       </c>
-      <c r="G49" t="str">
+      <c r="G49" s="2" t="str">
         <f t="shared" si="3"/>
         <v>PrixDemande1600020</v>
       </c>
-      <c r="H49" t="str">
+      <c r="H49" s="2" t="str">
         <f t="shared" si="3"/>
         <v>NombreItems1600020</v>
       </c>
-      <c r="I49" t="str">
+      <c r="I49" s="2" t="str">
         <f t="shared" si="3"/>
         <v>Disponibilité1600020</v>
       </c>
-      <c r="J49" t="str">
-        <f t="shared" si="3"/>
+      <c r="J49" s="2" t="str">
+        <f t="shared" si="2"/>
         <v>DateVente1600020</v>
       </c>
-      <c r="K49" t="str">
+      <c r="K49" s="2" t="str">
         <f t="shared" si="3"/>
         <v>PrixVente1600020</v>
       </c>
-      <c r="L49" t="str">
+      <c r="L49" s="2" t="str">
         <f t="shared" si="3"/>
         <v>Poids1600020</v>
       </c>
-      <c r="M49" t="str">
-        <f t="shared" si="3"/>
+      <c r="M49" s="2" t="str">
+        <f t="shared" si="0"/>
         <v>DateCreation1600020</v>
       </c>
-      <c r="N49" t="str">
-        <f t="shared" si="3"/>
-        <v>DateMAJ1600020</v>
+      <c r="N49" s="2" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A50">
+      <c r="A50" s="2">
         <v>1600021</v>
       </c>
-      <c r="B50">
+      <c r="B50" s="2">
         <v>16</v>
       </c>
-      <c r="C50">
+      <c r="C50" s="2">
         <v>1004</v>
       </c>
-      <c r="D50" t="str">
-        <f t="shared" si="1"/>
+      <c r="D50" s="2" t="str">
+        <f t="shared" si="0"/>
         <v>Nom1600021</v>
       </c>
-      <c r="E50" t="str">
+      <c r="E50" s="2" t="str">
         <f t="shared" si="3"/>
         <v>Description1600021</v>
       </c>
-      <c r="F50" t="str">
+      <c r="F50" s="2" t="str">
         <f t="shared" si="3"/>
         <v>Photo1600021</v>
       </c>
-      <c r="G50" t="str">
+      <c r="G50" s="2" t="str">
         <f t="shared" si="3"/>
         <v>PrixDemande1600021</v>
       </c>
-      <c r="H50" t="str">
+      <c r="H50" s="2" t="str">
         <f t="shared" si="3"/>
         <v>NombreItems1600021</v>
       </c>
-      <c r="I50" t="str">
+      <c r="I50" s="2" t="str">
         <f t="shared" si="3"/>
         <v>Disponibilité1600021</v>
       </c>
-      <c r="J50" t="str">
-        <f t="shared" si="3"/>
+      <c r="J50" s="2" t="str">
+        <f t="shared" si="2"/>
         <v>DateVente1600021</v>
       </c>
-      <c r="K50" t="str">
+      <c r="K50" s="2" t="str">
         <f t="shared" si="3"/>
         <v>PrixVente1600021</v>
       </c>
-      <c r="L50" t="str">
+      <c r="L50" s="2" t="str">
         <f t="shared" si="3"/>
         <v>Poids1600021</v>
       </c>
-      <c r="M50" t="str">
-        <f t="shared" si="3"/>
+      <c r="M50" s="2" t="str">
+        <f t="shared" si="0"/>
         <v>DateCreation1600021</v>
       </c>
-      <c r="N50" t="str">
-        <f t="shared" si="3"/>
-        <v>DateMAJ1600021</v>
+      <c r="N50" s="2" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A51">
+      <c r="A51" s="2">
         <v>1600022</v>
       </c>
-      <c r="B51">
+      <c r="B51" s="2">
         <v>16</v>
       </c>
-      <c r="C51">
+      <c r="C51" s="2">
         <v>1004</v>
       </c>
-      <c r="D51" t="str">
-        <f t="shared" si="1"/>
+      <c r="D51" s="2" t="str">
+        <f t="shared" si="0"/>
         <v>Nom1600022</v>
       </c>
-      <c r="E51" t="str">
+      <c r="E51" s="2" t="str">
         <f t="shared" si="3"/>
         <v>Description1600022</v>
       </c>
-      <c r="F51" t="str">
+      <c r="F51" s="2" t="str">
         <f t="shared" si="3"/>
         <v>Photo1600022</v>
       </c>
-      <c r="G51" t="str">
+      <c r="G51" s="2" t="str">
         <f t="shared" si="3"/>
         <v>PrixDemande1600022</v>
       </c>
-      <c r="H51" t="str">
+      <c r="H51" s="2" t="str">
         <f t="shared" si="3"/>
         <v>NombreItems1600022</v>
       </c>
-      <c r="I51" t="str">
+      <c r="I51" s="2" t="str">
         <f t="shared" si="3"/>
         <v>Disponibilité1600022</v>
       </c>
-      <c r="J51" t="str">
-        <f t="shared" si="3"/>
+      <c r="J51" s="2" t="str">
+        <f t="shared" si="2"/>
         <v>DateVente1600022</v>
       </c>
-      <c r="K51" t="str">
+      <c r="K51" s="2" t="str">
         <f t="shared" si="3"/>
         <v>PrixVente1600022</v>
       </c>
-      <c r="L51" t="str">
+      <c r="L51" s="2" t="str">
         <f t="shared" si="3"/>
         <v>Poids1600022</v>
       </c>
-      <c r="M51" t="str">
-        <f t="shared" si="3"/>
+      <c r="M51" s="2" t="str">
+        <f t="shared" si="0"/>
         <v>DateCreation1600022</v>
       </c>
-      <c r="N51" t="str">
-        <f t="shared" si="3"/>
-        <v>DateMAJ1600022</v>
+      <c r="N51" s="2" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A52">
+      <c r="A52" s="2">
         <v>1600023</v>
       </c>
-      <c r="B52">
+      <c r="B52" s="2">
         <v>16</v>
       </c>
-      <c r="C52">
+      <c r="C52" s="2">
         <v>1004</v>
       </c>
-      <c r="D52" t="str">
-        <f t="shared" si="1"/>
+      <c r="D52" s="2" t="str">
+        <f t="shared" si="0"/>
         <v>Nom1600023</v>
       </c>
-      <c r="E52" t="str">
+      <c r="E52" s="2" t="str">
         <f t="shared" si="3"/>
         <v>Description1600023</v>
       </c>
-      <c r="F52" t="str">
+      <c r="F52" s="2" t="str">
         <f t="shared" si="3"/>
         <v>Photo1600023</v>
       </c>
-      <c r="G52" t="str">
+      <c r="G52" s="2" t="str">
         <f t="shared" si="3"/>
         <v>PrixDemande1600023</v>
       </c>
-      <c r="H52" t="str">
+      <c r="H52" s="2" t="str">
         <f t="shared" si="3"/>
         <v>NombreItems1600023</v>
       </c>
-      <c r="I52" t="str">
+      <c r="I52" s="2" t="str">
         <f t="shared" si="3"/>
         <v>Disponibilité1600023</v>
       </c>
-      <c r="J52" t="str">
-        <f t="shared" si="3"/>
+      <c r="J52" s="2" t="str">
+        <f t="shared" si="2"/>
         <v>DateVente1600023</v>
       </c>
-      <c r="K52" t="str">
+      <c r="K52" s="2" t="str">
         <f t="shared" si="3"/>
         <v>PrixVente1600023</v>
       </c>
-      <c r="L52" t="str">
+      <c r="L52" s="2" t="str">
         <f t="shared" si="3"/>
         <v>Poids1600023</v>
       </c>
-      <c r="M52" t="str">
-        <f t="shared" si="3"/>
+      <c r="M52" s="2" t="str">
+        <f t="shared" si="0"/>
         <v>DateCreation1600023</v>
       </c>
-      <c r="N52" t="str">
-        <f t="shared" si="3"/>
-        <v>DateMAJ1600023</v>
+      <c r="N52" s="2" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A53">
+      <c r="A53" s="2">
         <v>1600024</v>
       </c>
-      <c r="B53">
+      <c r="B53" s="2">
         <v>16</v>
       </c>
-      <c r="C53">
+      <c r="C53" s="2">
         <v>1004</v>
       </c>
-      <c r="D53" t="str">
-        <f t="shared" si="1"/>
+      <c r="D53" s="2" t="str">
+        <f t="shared" si="0"/>
         <v>Nom1600024</v>
       </c>
-      <c r="E53" t="str">
+      <c r="E53" s="2" t="str">
         <f t="shared" si="3"/>
         <v>Description1600024</v>
       </c>
-      <c r="F53" t="str">
+      <c r="F53" s="2" t="str">
         <f t="shared" si="3"/>
         <v>Photo1600024</v>
       </c>
-      <c r="G53" t="str">
+      <c r="G53" s="2" t="str">
         <f t="shared" si="3"/>
         <v>PrixDemande1600024</v>
       </c>
-      <c r="H53" t="str">
+      <c r="H53" s="2" t="str">
         <f t="shared" si="3"/>
         <v>NombreItems1600024</v>
       </c>
-      <c r="I53" t="str">
+      <c r="I53" s="2" t="str">
         <f t="shared" si="3"/>
         <v>Disponibilité1600024</v>
       </c>
-      <c r="J53" t="str">
-        <f t="shared" si="3"/>
+      <c r="J53" s="2" t="str">
+        <f t="shared" si="2"/>
         <v>DateVente1600024</v>
       </c>
-      <c r="K53" t="str">
+      <c r="K53" s="2" t="str">
         <f t="shared" si="3"/>
         <v>PrixVente1600024</v>
       </c>
-      <c r="L53" t="str">
+      <c r="L53" s="2" t="str">
         <f t="shared" si="3"/>
         <v>Poids1600024</v>
       </c>
-      <c r="M53" t="str">
-        <f t="shared" si="3"/>
+      <c r="M53" s="2" t="str">
+        <f t="shared" si="0"/>
         <v>DateCreation1600024</v>
       </c>
-      <c r="N53" t="str">
-        <f t="shared" si="3"/>
-        <v>DateMAJ1600024</v>
+      <c r="N53" s="2" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A54">
+      <c r="A54" s="2">
         <v>1600025</v>
       </c>
-      <c r="B54">
+      <c r="B54" s="2">
         <v>16</v>
       </c>
-      <c r="C54">
+      <c r="C54" s="2">
         <v>1004</v>
       </c>
-      <c r="D54" t="str">
-        <f t="shared" si="1"/>
+      <c r="D54" s="2" t="str">
+        <f t="shared" si="0"/>
         <v>Nom1600025</v>
       </c>
-      <c r="E54" t="str">
+      <c r="E54" s="2" t="str">
         <f t="shared" ref="E54:N66" si="4">E$1&amp;$A54</f>
         <v>Description1600025</v>
       </c>
-      <c r="F54" t="str">
+      <c r="F54" s="2" t="str">
         <f t="shared" si="4"/>
         <v>Photo1600025</v>
       </c>
-      <c r="G54" t="str">
+      <c r="G54" s="2" t="str">
         <f t="shared" si="4"/>
         <v>PrixDemande1600025</v>
       </c>
-      <c r="H54" t="str">
+      <c r="H54" s="2" t="str">
         <f t="shared" si="4"/>
         <v>NombreItems1600025</v>
       </c>
-      <c r="I54" t="str">
+      <c r="I54" s="2" t="str">
         <f t="shared" si="4"/>
         <v>Disponibilité1600025</v>
       </c>
-      <c r="J54" t="str">
-        <f t="shared" si="4"/>
+      <c r="J54" s="2" t="str">
+        <f t="shared" si="2"/>
         <v>DateVente1600025</v>
       </c>
-      <c r="K54" t="str">
+      <c r="K54" s="2" t="str">
         <f t="shared" si="4"/>
         <v>PrixVente1600025</v>
       </c>
-      <c r="L54" t="str">
+      <c r="L54" s="2" t="str">
         <f t="shared" si="4"/>
         <v>Poids1600025</v>
       </c>
-      <c r="M54" t="str">
-        <f t="shared" si="4"/>
+      <c r="M54" s="2" t="str">
+        <f t="shared" si="0"/>
         <v>DateCreation1600025</v>
       </c>
-      <c r="N54" t="str">
-        <f t="shared" si="4"/>
-        <v>DateMAJ1600025</v>
+      <c r="N54" s="2" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A55">
+      <c r="A55" s="2">
         <v>1100010</v>
       </c>
-      <c r="B55">
+      <c r="B55" s="2">
         <v>11</v>
       </c>
-      <c r="C55">
+      <c r="C55" s="2">
         <v>1005</v>
       </c>
-      <c r="D55" t="str">
-        <f t="shared" si="1"/>
-        <v>Nom1100010</v>
-      </c>
-      <c r="E55" t="str">
-        <f t="shared" si="4"/>
-        <v>Description1100010</v>
-      </c>
-      <c r="F55" t="str">
-        <f t="shared" si="4"/>
-        <v>Photo1100010</v>
-      </c>
-      <c r="G55" t="str">
-        <f t="shared" si="4"/>
-        <v>PrixDemande1100010</v>
-      </c>
-      <c r="H55" t="str">
-        <f t="shared" si="4"/>
-        <v>NombreItems1100010</v>
-      </c>
-      <c r="I55" t="str">
-        <f t="shared" si="4"/>
-        <v>Disponibilité1100010</v>
-      </c>
-      <c r="J55" t="str">
-        <f t="shared" si="4"/>
+      <c r="D55" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="G55" s="2">
+        <v>30</v>
+      </c>
+      <c r="H55" s="2">
+        <v>1</v>
+      </c>
+      <c r="I55" s="2">
+        <v>1</v>
+      </c>
+      <c r="J55" s="2" t="str">
+        <f t="shared" si="2"/>
         <v>DateVente1100010</v>
       </c>
-      <c r="K55" t="str">
-        <f t="shared" si="4"/>
-        <v>PrixVente1100010</v>
-      </c>
-      <c r="L55" t="str">
-        <f t="shared" si="4"/>
-        <v>Poids1100010</v>
-      </c>
-      <c r="M55" t="str">
-        <f t="shared" si="4"/>
+      <c r="K55" s="2">
+        <v>30</v>
+      </c>
+      <c r="L55" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="M55" s="2" t="str">
+        <f t="shared" si="0"/>
         <v>DateCreation1100010</v>
       </c>
-      <c r="N55" t="str">
-        <f t="shared" si="4"/>
-        <v>DateMAJ1100010</v>
+      <c r="N55" s="2" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A56">
+      <c r="A56" s="2">
         <v>1100011</v>
       </c>
-      <c r="B56">
+      <c r="B56" s="2">
         <v>11</v>
       </c>
-      <c r="C56">
+      <c r="C56" s="2">
         <v>1005</v>
       </c>
-      <c r="D56" t="str">
-        <f t="shared" si="1"/>
-        <v>Nom1100011</v>
-      </c>
-      <c r="E56" t="str">
-        <f t="shared" si="4"/>
-        <v>Description1100011</v>
-      </c>
-      <c r="F56" t="str">
-        <f t="shared" si="4"/>
-        <v>Photo1100011</v>
-      </c>
-      <c r="G56" t="str">
-        <f t="shared" si="4"/>
-        <v>PrixDemande1100011</v>
-      </c>
-      <c r="H56" t="str">
-        <f t="shared" si="4"/>
-        <v>NombreItems1100011</v>
-      </c>
-      <c r="I56" t="str">
-        <f t="shared" si="4"/>
-        <v>Disponibilité1100011</v>
-      </c>
-      <c r="J56" t="str">
-        <f t="shared" si="4"/>
+      <c r="D56" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="G56" s="2">
+        <v>10</v>
+      </c>
+      <c r="H56" s="2">
+        <v>1</v>
+      </c>
+      <c r="I56" s="2">
+        <v>1</v>
+      </c>
+      <c r="J56" s="2" t="str">
+        <f t="shared" si="2"/>
         <v>DateVente1100011</v>
       </c>
-      <c r="K56" t="str">
-        <f t="shared" si="4"/>
-        <v>PrixVente1100011</v>
-      </c>
-      <c r="L56" t="str">
-        <f t="shared" si="4"/>
-        <v>Poids1100011</v>
-      </c>
-      <c r="M56" t="str">
-        <f t="shared" si="4"/>
+      <c r="K56" s="2">
+        <v>10</v>
+      </c>
+      <c r="L56" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="M56" s="2" t="str">
+        <f t="shared" si="0"/>
         <v>DateCreation1100011</v>
       </c>
-      <c r="N56" t="str">
-        <f t="shared" si="4"/>
-        <v>DateMAJ1100011</v>
+      <c r="N56" s="2" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A57">
+      <c r="A57" s="2">
         <v>1100012</v>
       </c>
-      <c r="B57">
+      <c r="B57" s="2">
         <v>11</v>
       </c>
-      <c r="C57">
+      <c r="C57" s="2">
         <v>1005</v>
       </c>
-      <c r="D57" t="str">
-        <f t="shared" si="1"/>
-        <v>Nom1100012</v>
-      </c>
-      <c r="E57" t="str">
-        <f t="shared" si="4"/>
-        <v>Description1100012</v>
-      </c>
-      <c r="F57" t="str">
-        <f t="shared" si="4"/>
-        <v>Photo1100012</v>
-      </c>
-      <c r="G57" t="str">
-        <f t="shared" si="4"/>
-        <v>PrixDemande1100012</v>
-      </c>
-      <c r="H57" t="str">
-        <f t="shared" si="4"/>
-        <v>NombreItems1100012</v>
-      </c>
-      <c r="I57" t="str">
-        <f t="shared" si="4"/>
-        <v>Disponibilité1100012</v>
-      </c>
-      <c r="J57" t="str">
-        <f t="shared" si="4"/>
+      <c r="D57" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="G57" s="2">
+        <v>100</v>
+      </c>
+      <c r="H57" s="2">
+        <v>1</v>
+      </c>
+      <c r="I57" s="2">
+        <v>1</v>
+      </c>
+      <c r="J57" s="2" t="str">
+        <f t="shared" si="2"/>
         <v>DateVente1100012</v>
       </c>
-      <c r="K57" t="str">
-        <f t="shared" si="4"/>
-        <v>PrixVente1100012</v>
-      </c>
-      <c r="L57" t="str">
-        <f t="shared" si="4"/>
-        <v>Poids1100012</v>
-      </c>
-      <c r="M57" t="str">
-        <f t="shared" si="4"/>
+      <c r="K57" s="2">
+        <v>100</v>
+      </c>
+      <c r="L57" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="M57" s="2" t="str">
+        <f t="shared" si="0"/>
         <v>DateCreation1100012</v>
       </c>
-      <c r="N57" t="str">
-        <f t="shared" si="4"/>
-        <v>DateMAJ1100012</v>
+      <c r="N57" s="2" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A58">
+      <c r="A58" s="2">
         <v>1100013</v>
       </c>
-      <c r="B58">
+      <c r="B58" s="2">
         <v>11</v>
       </c>
-      <c r="C58">
+      <c r="C58" s="2">
         <v>1005</v>
       </c>
-      <c r="D58" t="str">
-        <f t="shared" si="1"/>
+      <c r="D58" s="2" t="str">
+        <f t="shared" si="0"/>
         <v>Nom1100013</v>
       </c>
-      <c r="E58" t="str">
+      <c r="E58" s="2" t="str">
         <f t="shared" si="4"/>
         <v>Description1100013</v>
       </c>
-      <c r="F58" t="str">
+      <c r="F58" s="2" t="str">
         <f t="shared" si="4"/>
         <v>Photo1100013</v>
       </c>
-      <c r="G58" t="str">
+      <c r="G58" s="2" t="str">
         <f t="shared" si="4"/>
         <v>PrixDemande1100013</v>
       </c>
-      <c r="H58" t="str">
+      <c r="H58" s="2" t="str">
         <f t="shared" si="4"/>
         <v>NombreItems1100013</v>
       </c>
-      <c r="I58" t="str">
+      <c r="I58" s="2" t="str">
         <f t="shared" si="4"/>
         <v>Disponibilité1100013</v>
       </c>
-      <c r="J58" t="str">
-        <f t="shared" si="4"/>
+      <c r="J58" s="2" t="str">
+        <f t="shared" si="2"/>
         <v>DateVente1100013</v>
       </c>
-      <c r="K58" t="str">
+      <c r="K58" s="2" t="str">
         <f t="shared" si="4"/>
         <v>PrixVente1100013</v>
       </c>
-      <c r="L58" t="str">
+      <c r="L58" s="2" t="str">
         <f t="shared" si="4"/>
         <v>Poids1100013</v>
       </c>
-      <c r="M58" t="str">
-        <f t="shared" si="4"/>
+      <c r="M58" s="2" t="str">
+        <f t="shared" si="0"/>
         <v>DateCreation1100013</v>
       </c>
-      <c r="N58" t="str">
-        <f t="shared" si="4"/>
-        <v>DateMAJ1100013</v>
+      <c r="N58" s="2" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A59">
+      <c r="A59" s="2">
         <v>1200013</v>
       </c>
-      <c r="B59">
+      <c r="B59" s="2">
         <v>12</v>
       </c>
-      <c r="C59">
+      <c r="C59" s="2">
         <v>1005</v>
       </c>
-      <c r="D59" t="str">
-        <f t="shared" si="1"/>
+      <c r="D59" s="2" t="str">
+        <f t="shared" si="0"/>
         <v>Nom1200013</v>
       </c>
-      <c r="E59" t="str">
+      <c r="E59" s="2" t="str">
         <f t="shared" si="4"/>
         <v>Description1200013</v>
       </c>
-      <c r="F59" t="str">
+      <c r="F59" s="2" t="str">
         <f t="shared" si="4"/>
         <v>Photo1200013</v>
       </c>
-      <c r="G59" t="str">
+      <c r="G59" s="2" t="str">
         <f t="shared" si="4"/>
         <v>PrixDemande1200013</v>
       </c>
-      <c r="H59" t="str">
+      <c r="H59" s="2" t="str">
         <f t="shared" si="4"/>
         <v>NombreItems1200013</v>
       </c>
-      <c r="I59" t="str">
+      <c r="I59" s="2" t="str">
         <f t="shared" si="4"/>
         <v>Disponibilité1200013</v>
       </c>
-      <c r="J59" t="str">
-        <f t="shared" si="4"/>
+      <c r="J59" s="2" t="str">
+        <f t="shared" si="2"/>
         <v>DateVente1200013</v>
       </c>
-      <c r="K59" t="str">
+      <c r="K59" s="2" t="str">
         <f t="shared" si="4"/>
         <v>PrixVente1200013</v>
       </c>
-      <c r="L59" t="str">
+      <c r="L59" s="2" t="str">
         <f t="shared" si="4"/>
         <v>Poids1200013</v>
       </c>
-      <c r="M59" t="str">
-        <f t="shared" si="4"/>
+      <c r="M59" s="2" t="str">
+        <f t="shared" si="0"/>
         <v>DateCreation1200013</v>
       </c>
-      <c r="N59" t="str">
-        <f t="shared" si="4"/>
-        <v>DateMAJ1200013</v>
+      <c r="N59" s="2" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A60">
+      <c r="A60" s="2">
         <v>1400008</v>
       </c>
-      <c r="B60">
+      <c r="B60" s="2">
         <v>14</v>
       </c>
-      <c r="C60">
+      <c r="C60" s="2">
         <v>1005</v>
       </c>
-      <c r="D60" t="str">
-        <f t="shared" si="1"/>
+      <c r="D60" s="2" t="str">
+        <f t="shared" si="0"/>
         <v>Nom1400008</v>
       </c>
-      <c r="E60" t="str">
+      <c r="E60" s="2" t="str">
         <f t="shared" si="4"/>
         <v>Description1400008</v>
       </c>
-      <c r="F60" t="str">
+      <c r="F60" s="2" t="str">
         <f t="shared" si="4"/>
         <v>Photo1400008</v>
       </c>
-      <c r="G60" t="str">
+      <c r="G60" s="2" t="str">
         <f t="shared" si="4"/>
         <v>PrixDemande1400008</v>
       </c>
-      <c r="H60" t="str">
+      <c r="H60" s="2" t="str">
         <f t="shared" si="4"/>
         <v>NombreItems1400008</v>
       </c>
-      <c r="I60" t="str">
+      <c r="I60" s="2" t="str">
         <f t="shared" si="4"/>
         <v>Disponibilité1400008</v>
       </c>
-      <c r="J60" t="str">
-        <f t="shared" si="4"/>
+      <c r="J60" s="2" t="str">
+        <f t="shared" si="2"/>
         <v>DateVente1400008</v>
       </c>
-      <c r="K60" t="str">
+      <c r="K60" s="2" t="str">
         <f t="shared" si="4"/>
         <v>PrixVente1400008</v>
       </c>
-      <c r="L60" t="str">
+      <c r="L60" s="2" t="str">
         <f t="shared" si="4"/>
         <v>Poids1400008</v>
       </c>
-      <c r="M60" t="str">
-        <f t="shared" si="4"/>
+      <c r="M60" s="2" t="str">
+        <f t="shared" si="0"/>
         <v>DateCreation1400008</v>
       </c>
-      <c r="N60" t="str">
-        <f t="shared" si="4"/>
-        <v>DateMAJ1400008</v>
+      <c r="N60" s="2" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A61">
+      <c r="A61" s="2">
         <v>1400009</v>
       </c>
-      <c r="B61">
+      <c r="B61" s="2">
         <v>14</v>
       </c>
-      <c r="C61">
+      <c r="C61" s="2">
         <v>1005</v>
       </c>
-      <c r="D61" t="str">
-        <f t="shared" si="1"/>
+      <c r="D61" s="2" t="str">
+        <f t="shared" si="0"/>
         <v>Nom1400009</v>
       </c>
-      <c r="E61" t="str">
+      <c r="E61" s="2" t="str">
         <f t="shared" si="4"/>
         <v>Description1400009</v>
       </c>
-      <c r="F61" t="str">
+      <c r="F61" s="2" t="str">
         <f t="shared" si="4"/>
         <v>Photo1400009</v>
       </c>
-      <c r="G61" t="str">
+      <c r="G61" s="2" t="str">
         <f t="shared" si="4"/>
         <v>PrixDemande1400009</v>
       </c>
-      <c r="H61" t="str">
+      <c r="H61" s="2" t="str">
         <f t="shared" si="4"/>
         <v>NombreItems1400009</v>
       </c>
-      <c r="I61" t="str">
+      <c r="I61" s="2" t="str">
         <f t="shared" si="4"/>
         <v>Disponibilité1400009</v>
       </c>
-      <c r="J61" t="str">
-        <f t="shared" si="4"/>
+      <c r="J61" s="2" t="str">
+        <f t="shared" si="2"/>
         <v>DateVente1400009</v>
       </c>
-      <c r="K61" t="str">
+      <c r="K61" s="2" t="str">
         <f t="shared" si="4"/>
         <v>PrixVente1400009</v>
       </c>
-      <c r="L61" t="str">
+      <c r="L61" s="2" t="str">
         <f t="shared" si="4"/>
         <v>Poids1400009</v>
       </c>
-      <c r="M61" t="str">
-        <f t="shared" si="4"/>
+      <c r="M61" s="2" t="str">
+        <f t="shared" si="0"/>
         <v>DateCreation1400009</v>
       </c>
-      <c r="N61" t="str">
-        <f t="shared" si="4"/>
-        <v>DateMAJ1400009</v>
+      <c r="N61" s="2" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A62">
+      <c r="A62" s="2">
         <v>1600026</v>
       </c>
-      <c r="B62">
+      <c r="B62" s="2">
         <v>16</v>
       </c>
-      <c r="C62">
+      <c r="C62" s="2">
         <v>1005</v>
       </c>
-      <c r="D62" t="str">
-        <f t="shared" si="1"/>
+      <c r="D62" s="2" t="str">
+        <f t="shared" si="0"/>
         <v>Nom1600026</v>
       </c>
-      <c r="E62" t="str">
+      <c r="E62" s="2" t="str">
         <f t="shared" si="4"/>
         <v>Description1600026</v>
       </c>
-      <c r="F62" t="str">
+      <c r="F62" s="2" t="str">
         <f t="shared" si="4"/>
         <v>Photo1600026</v>
       </c>
-      <c r="G62" t="str">
+      <c r="G62" s="2" t="str">
         <f t="shared" si="4"/>
         <v>PrixDemande1600026</v>
       </c>
-      <c r="H62" t="str">
+      <c r="H62" s="2" t="str">
         <f t="shared" si="4"/>
         <v>NombreItems1600026</v>
       </c>
-      <c r="I62" t="str">
+      <c r="I62" s="2" t="str">
         <f t="shared" si="4"/>
         <v>Disponibilité1600026</v>
       </c>
-      <c r="J62" t="str">
-        <f t="shared" si="4"/>
+      <c r="J62" s="2" t="str">
+        <f t="shared" si="2"/>
         <v>DateVente1600026</v>
       </c>
-      <c r="K62" t="str">
+      <c r="K62" s="2" t="str">
         <f t="shared" si="4"/>
         <v>PrixVente1600026</v>
       </c>
-      <c r="L62" t="str">
+      <c r="L62" s="2" t="str">
         <f t="shared" si="4"/>
         <v>Poids1600026</v>
       </c>
-      <c r="M62" t="str">
-        <f t="shared" si="4"/>
+      <c r="M62" s="2" t="str">
+        <f t="shared" si="0"/>
         <v>DateCreation1600026</v>
       </c>
-      <c r="N62" t="str">
-        <f t="shared" si="4"/>
-        <v>DateMAJ1600026</v>
+      <c r="N62" s="2" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A63">
+      <c r="A63" s="2">
         <v>1600027</v>
       </c>
-      <c r="B63">
+      <c r="B63" s="2">
         <v>16</v>
       </c>
-      <c r="C63">
+      <c r="C63" s="2">
         <v>1005</v>
       </c>
-      <c r="D63" t="str">
-        <f t="shared" si="1"/>
+      <c r="D63" s="2" t="str">
+        <f t="shared" si="0"/>
         <v>Nom1600027</v>
       </c>
-      <c r="E63" t="str">
+      <c r="E63" s="2" t="str">
         <f t="shared" si="4"/>
         <v>Description1600027</v>
       </c>
-      <c r="F63" t="str">
+      <c r="F63" s="2" t="str">
         <f t="shared" si="4"/>
         <v>Photo1600027</v>
       </c>
-      <c r="G63" t="str">
+      <c r="G63" s="2" t="str">
         <f t="shared" si="4"/>
         <v>PrixDemande1600027</v>
       </c>
-      <c r="H63" t="str">
+      <c r="H63" s="2" t="str">
         <f t="shared" si="4"/>
         <v>NombreItems1600027</v>
       </c>
-      <c r="I63" t="str">
+      <c r="I63" s="2" t="str">
         <f t="shared" si="4"/>
         <v>Disponibilité1600027</v>
       </c>
-      <c r="J63" t="str">
-        <f t="shared" si="4"/>
+      <c r="J63" s="2" t="str">
+        <f t="shared" si="2"/>
         <v>DateVente1600027</v>
       </c>
-      <c r="K63" t="str">
+      <c r="K63" s="2" t="str">
         <f t="shared" si="4"/>
         <v>PrixVente1600027</v>
       </c>
-      <c r="L63" t="str">
+      <c r="L63" s="2" t="str">
         <f t="shared" si="4"/>
         <v>Poids1600027</v>
       </c>
-      <c r="M63" t="str">
-        <f t="shared" si="4"/>
+      <c r="M63" s="2" t="str">
+        <f t="shared" si="0"/>
         <v>DateCreation1600027</v>
       </c>
-      <c r="N63" t="str">
-        <f t="shared" si="4"/>
-        <v>DateMAJ1600027</v>
+      <c r="N63" s="2" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A64">
+      <c r="A64" s="2">
         <v>1600028</v>
       </c>
-      <c r="B64">
+      <c r="B64" s="2">
         <v>16</v>
       </c>
-      <c r="C64">
+      <c r="C64" s="2">
         <v>1005</v>
       </c>
-      <c r="D64" t="str">
-        <f t="shared" si="1"/>
+      <c r="D64" s="2" t="str">
+        <f t="shared" si="0"/>
         <v>Nom1600028</v>
       </c>
-      <c r="E64" t="str">
+      <c r="E64" s="2" t="str">
         <f t="shared" si="4"/>
         <v>Description1600028</v>
       </c>
-      <c r="F64" t="str">
+      <c r="F64" s="2" t="str">
         <f t="shared" si="4"/>
         <v>Photo1600028</v>
       </c>
-      <c r="G64" t="str">
+      <c r="G64" s="2" t="str">
         <f t="shared" si="4"/>
         <v>PrixDemande1600028</v>
       </c>
-      <c r="H64" t="str">
+      <c r="H64" s="2" t="str">
         <f t="shared" si="4"/>
         <v>NombreItems1600028</v>
       </c>
-      <c r="I64" t="str">
+      <c r="I64" s="2" t="str">
         <f t="shared" si="4"/>
         <v>Disponibilité1600028</v>
       </c>
-      <c r="J64" t="str">
-        <f t="shared" si="4"/>
+      <c r="J64" s="2" t="str">
+        <f t="shared" si="2"/>
         <v>DateVente1600028</v>
       </c>
-      <c r="K64" t="str">
+      <c r="K64" s="2" t="str">
         <f t="shared" si="4"/>
         <v>PrixVente1600028</v>
       </c>
-      <c r="L64" t="str">
+      <c r="L64" s="2" t="str">
         <f t="shared" si="4"/>
         <v>Poids1600028</v>
       </c>
-      <c r="M64" t="str">
-        <f t="shared" si="4"/>
+      <c r="M64" s="2" t="str">
+        <f t="shared" si="0"/>
         <v>DateCreation1600028</v>
       </c>
-      <c r="N64" t="str">
-        <f t="shared" si="4"/>
-        <v>DateMAJ1600028</v>
+      <c r="N64" s="2" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A65">
+      <c r="A65" s="2">
         <v>1600029</v>
       </c>
-      <c r="B65">
+      <c r="B65" s="2">
         <v>16</v>
       </c>
-      <c r="C65">
+      <c r="C65" s="2">
         <v>1005</v>
       </c>
-      <c r="D65" t="str">
-        <f t="shared" si="1"/>
+      <c r="D65" s="2" t="str">
+        <f t="shared" si="0"/>
         <v>Nom1600029</v>
       </c>
-      <c r="E65" t="str">
+      <c r="E65" s="2" t="str">
         <f t="shared" si="4"/>
         <v>Description1600029</v>
       </c>
-      <c r="F65" t="str">
+      <c r="F65" s="2" t="str">
         <f t="shared" si="4"/>
         <v>Photo1600029</v>
       </c>
-      <c r="G65" t="str">
+      <c r="G65" s="2" t="str">
         <f t="shared" si="4"/>
         <v>PrixDemande1600029</v>
       </c>
-      <c r="H65" t="str">
+      <c r="H65" s="2" t="str">
         <f t="shared" si="4"/>
         <v>NombreItems1600029</v>
       </c>
-      <c r="I65" t="str">
+      <c r="I65" s="2" t="str">
         <f t="shared" si="4"/>
         <v>Disponibilité1600029</v>
       </c>
-      <c r="J65" t="str">
-        <f t="shared" si="4"/>
+      <c r="J65" s="2" t="str">
+        <f t="shared" si="2"/>
         <v>DateVente1600029</v>
       </c>
-      <c r="K65" t="str">
+      <c r="K65" s="2" t="str">
         <f t="shared" si="4"/>
         <v>PrixVente1600029</v>
       </c>
-      <c r="L65" t="str">
+      <c r="L65" s="2" t="str">
         <f t="shared" si="4"/>
         <v>Poids1600029</v>
       </c>
-      <c r="M65" t="str">
-        <f t="shared" si="4"/>
+      <c r="M65" s="2" t="str">
+        <f t="shared" si="0"/>
         <v>DateCreation1600029</v>
       </c>
-      <c r="N65" t="str">
-        <f t="shared" si="4"/>
-        <v>DateMAJ1600029</v>
+      <c r="N65" s="2" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A66">
+      <c r="A66" s="2">
         <v>1600030</v>
       </c>
-      <c r="B66">
+      <c r="B66" s="2">
         <v>16</v>
       </c>
-      <c r="C66">
+      <c r="C66" s="2">
         <v>1005</v>
       </c>
-      <c r="D66" t="str">
-        <f t="shared" si="1"/>
+      <c r="D66" s="2" t="str">
+        <f t="shared" si="0"/>
         <v>Nom1600030</v>
       </c>
-      <c r="E66" t="str">
+      <c r="E66" s="2" t="str">
         <f t="shared" si="4"/>
         <v>Description1600030</v>
       </c>
-      <c r="F66" t="str">
+      <c r="F66" s="2" t="str">
         <f t="shared" si="4"/>
         <v>Photo1600030</v>
       </c>
-      <c r="G66" t="str">
+      <c r="G66" s="2" t="str">
         <f t="shared" si="4"/>
         <v>PrixDemande1600030</v>
       </c>
-      <c r="H66" t="str">
+      <c r="H66" s="2" t="str">
         <f t="shared" si="4"/>
         <v>NombreItems1600030</v>
       </c>
-      <c r="I66" t="str">
+      <c r="I66" s="2" t="str">
         <f t="shared" si="4"/>
         <v>Disponibilité1600030</v>
       </c>
-      <c r="J66" t="str">
-        <f t="shared" si="4"/>
+      <c r="J66" s="2" t="str">
+        <f t="shared" si="2"/>
         <v>DateVente1600030</v>
       </c>
-      <c r="K66" t="str">
+      <c r="K66" s="2" t="str">
         <f t="shared" si="4"/>
         <v>PrixVente1600030</v>
       </c>
-      <c r="L66" t="str">
+      <c r="L66" s="2" t="str">
         <f t="shared" si="4"/>
         <v>Poids1600030</v>
       </c>
-      <c r="M66" t="str">
-        <f t="shared" si="4"/>
+      <c r="M66" s="2" t="str">
+        <f t="shared" si="0"/>
         <v>DateCreation1600030</v>
       </c>
-      <c r="N66" t="str">
-        <f t="shared" si="4"/>
-        <v>DateMAJ1600030</v>
+      <c r="N66" s="2" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A67">
+      <c r="A67" s="2">
         <v>1600031</v>
       </c>
-      <c r="B67">
+      <c r="B67" s="2">
         <v>16</v>
       </c>
-      <c r="C67">
+      <c r="C67" s="2">
         <v>1005</v>
       </c>
-      <c r="D67" t="str">
+      <c r="D67" s="2" t="str">
         <f t="shared" ref="D67:N105" si="5">D$1&amp;$A67</f>
         <v>Nom1600031</v>
       </c>
-      <c r="E67" t="str">
+      <c r="E67" s="2" t="str">
         <f t="shared" si="5"/>
         <v>Description1600031</v>
       </c>
-      <c r="F67" t="str">
+      <c r="F67" s="2" t="str">
         <f t="shared" si="5"/>
         <v>Photo1600031</v>
       </c>
-      <c r="G67" t="str">
+      <c r="G67" s="2" t="str">
         <f t="shared" si="5"/>
         <v>PrixDemande1600031</v>
       </c>
-      <c r="H67" t="str">
+      <c r="H67" s="2" t="str">
         <f t="shared" si="5"/>
         <v>NombreItems1600031</v>
       </c>
-      <c r="I67" t="str">
+      <c r="I67" s="2" t="str">
         <f t="shared" si="5"/>
         <v>Disponibilité1600031</v>
       </c>
-      <c r="J67" t="str">
-        <f t="shared" si="5"/>
+      <c r="J67" s="2" t="str">
+        <f t="shared" si="2"/>
         <v>DateVente1600031</v>
       </c>
-      <c r="K67" t="str">
+      <c r="K67" s="2" t="str">
         <f t="shared" si="5"/>
         <v>PrixVente1600031</v>
       </c>
-      <c r="L67" t="str">
+      <c r="L67" s="2" t="str">
         <f t="shared" si="5"/>
         <v>Poids1600031</v>
       </c>
-      <c r="M67" t="str">
+      <c r="M67" s="2" t="str">
         <f t="shared" si="5"/>
         <v>DateCreation1600031</v>
       </c>
-      <c r="N67" t="str">
-        <f t="shared" si="5"/>
-        <v>DateMAJ1600031</v>
+      <c r="N67" s="2" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A68">
+      <c r="A68" s="2">
         <v>1600032</v>
       </c>
-      <c r="B68">
+      <c r="B68" s="2">
         <v>16</v>
       </c>
-      <c r="C68">
+      <c r="C68" s="2">
         <v>1005</v>
       </c>
-      <c r="D68" t="str">
+      <c r="D68" s="2" t="str">
         <f t="shared" si="5"/>
         <v>Nom1600032</v>
       </c>
-      <c r="E68" t="str">
+      <c r="E68" s="2" t="str">
         <f t="shared" si="5"/>
         <v>Description1600032</v>
       </c>
-      <c r="F68" t="str">
+      <c r="F68" s="2" t="str">
         <f t="shared" si="5"/>
         <v>Photo1600032</v>
       </c>
-      <c r="G68" t="str">
+      <c r="G68" s="2" t="str">
         <f t="shared" si="5"/>
         <v>PrixDemande1600032</v>
       </c>
-      <c r="H68" t="str">
+      <c r="H68" s="2" t="str">
         <f t="shared" si="5"/>
         <v>NombreItems1600032</v>
       </c>
-      <c r="I68" t="str">
+      <c r="I68" s="2" t="str">
         <f t="shared" si="5"/>
         <v>Disponibilité1600032</v>
       </c>
-      <c r="J68" t="str">
-        <f t="shared" si="5"/>
+      <c r="J68" s="2" t="str">
+        <f t="shared" si="2"/>
         <v>DateVente1600032</v>
       </c>
-      <c r="K68" t="str">
+      <c r="K68" s="2" t="str">
         <f t="shared" si="5"/>
         <v>PrixVente1600032</v>
       </c>
-      <c r="L68" t="str">
+      <c r="L68" s="2" t="str">
         <f t="shared" si="5"/>
         <v>Poids1600032</v>
       </c>
-      <c r="M68" t="str">
+      <c r="M68" s="2" t="str">
         <f t="shared" si="5"/>
         <v>DateCreation1600032</v>
       </c>
-      <c r="N68" t="str">
-        <f t="shared" si="5"/>
-        <v>DateMAJ1600032</v>
+      <c r="N68" s="2" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A69">
+      <c r="A69" s="2">
         <v>1100014</v>
       </c>
-      <c r="B69">
+      <c r="B69" s="2">
         <v>11</v>
       </c>
-      <c r="C69">
+      <c r="C69" s="2">
         <v>1006</v>
       </c>
-      <c r="D69" t="str">
-        <f t="shared" si="5"/>
-        <v>Nom1100014</v>
-      </c>
-      <c r="E69" t="str">
-        <f t="shared" si="5"/>
-        <v>Description1100014</v>
-      </c>
-      <c r="F69" t="str">
-        <f t="shared" si="5"/>
-        <v>Photo1100014</v>
-      </c>
-      <c r="G69" t="str">
-        <f t="shared" si="5"/>
-        <v>PrixDemande1100014</v>
-      </c>
-      <c r="H69" t="str">
-        <f t="shared" si="5"/>
-        <v>NombreItems1100014</v>
-      </c>
-      <c r="I69" t="str">
-        <f t="shared" si="5"/>
-        <v>Disponibilité1100014</v>
-      </c>
-      <c r="J69" t="str">
-        <f t="shared" si="5"/>
+      <c r="D69" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="F69" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="G69" s="2">
+        <v>20</v>
+      </c>
+      <c r="H69" s="2">
+        <v>1</v>
+      </c>
+      <c r="I69" s="2">
+        <v>1</v>
+      </c>
+      <c r="J69" s="2" t="str">
+        <f t="shared" si="2"/>
         <v>DateVente1100014</v>
       </c>
-      <c r="K69" t="str">
-        <f t="shared" si="5"/>
-        <v>PrixVente1100014</v>
-      </c>
-      <c r="L69" t="str">
-        <f t="shared" si="5"/>
-        <v>Poids1100014</v>
-      </c>
-      <c r="M69" t="str">
+      <c r="K69" s="2">
+        <v>20</v>
+      </c>
+      <c r="L69" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="M69" s="2" t="str">
         <f t="shared" si="5"/>
         <v>DateCreation1100014</v>
       </c>
-      <c r="N69" t="str">
-        <f t="shared" si="5"/>
-        <v>DateMAJ1100014</v>
+      <c r="N69" s="2" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A70">
+      <c r="A70" s="2">
         <v>1100015</v>
       </c>
-      <c r="B70">
+      <c r="B70" s="2">
         <v>11</v>
       </c>
-      <c r="C70">
+      <c r="C70" s="2">
         <v>1006</v>
       </c>
-      <c r="D70" t="str">
-        <f t="shared" si="5"/>
-        <v>Nom1100015</v>
-      </c>
-      <c r="E70" t="str">
-        <f t="shared" si="5"/>
-        <v>Description1100015</v>
-      </c>
-      <c r="F70" t="str">
-        <f t="shared" si="5"/>
-        <v>Photo1100015</v>
-      </c>
-      <c r="G70" t="str">
-        <f t="shared" si="5"/>
-        <v>PrixDemande1100015</v>
-      </c>
-      <c r="H70" t="str">
-        <f t="shared" si="5"/>
-        <v>NombreItems1100015</v>
-      </c>
-      <c r="I70" t="str">
-        <f t="shared" si="5"/>
-        <v>Disponibilité1100015</v>
-      </c>
-      <c r="J70" t="str">
-        <f t="shared" si="5"/>
+      <c r="D70" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="F70" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="G70" s="2">
+        <v>125</v>
+      </c>
+      <c r="H70" s="2">
+        <v>1</v>
+      </c>
+      <c r="I70" s="2">
+        <v>1</v>
+      </c>
+      <c r="J70" s="2" t="str">
+        <f t="shared" si="2"/>
         <v>DateVente1100015</v>
       </c>
-      <c r="K70" t="str">
-        <f t="shared" si="5"/>
-        <v>PrixVente1100015</v>
-      </c>
-      <c r="L70" t="str">
-        <f t="shared" si="5"/>
-        <v>Poids1100015</v>
-      </c>
-      <c r="M70" t="str">
+      <c r="K70" s="2">
+        <v>125</v>
+      </c>
+      <c r="L70" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="M70" s="2" t="str">
         <f t="shared" si="5"/>
         <v>DateCreation1100015</v>
       </c>
-      <c r="N70" t="str">
-        <f t="shared" si="5"/>
-        <v>DateMAJ1100015</v>
+      <c r="N70" s="2" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A71">
+      <c r="A71" s="2">
         <v>1100016</v>
       </c>
-      <c r="B71">
+      <c r="B71" s="2">
         <v>11</v>
       </c>
-      <c r="C71">
+      <c r="C71" s="2">
         <v>1006</v>
       </c>
-      <c r="D71" t="str">
-        <f t="shared" si="5"/>
-        <v>Nom1100016</v>
-      </c>
-      <c r="E71" t="str">
-        <f t="shared" si="5"/>
-        <v>Description1100016</v>
-      </c>
-      <c r="F71" t="str">
-        <f t="shared" si="5"/>
-        <v>Photo1100016</v>
-      </c>
-      <c r="G71" t="str">
-        <f t="shared" si="5"/>
-        <v>PrixDemande1100016</v>
-      </c>
-      <c r="H71" t="str">
-        <f t="shared" si="5"/>
-        <v>NombreItems1100016</v>
-      </c>
-      <c r="I71" t="str">
-        <f t="shared" si="5"/>
-        <v>Disponibilité1100016</v>
-      </c>
-      <c r="J71" t="str">
-        <f t="shared" si="5"/>
+      <c r="D71" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="F71" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="G71" s="2">
+        <v>110</v>
+      </c>
+      <c r="H71" s="2">
+        <v>1</v>
+      </c>
+      <c r="I71" s="2">
+        <v>1</v>
+      </c>
+      <c r="J71" s="2" t="str">
+        <f t="shared" si="2"/>
         <v>DateVente1100016</v>
       </c>
-      <c r="K71" t="str">
-        <f t="shared" si="5"/>
-        <v>PrixVente1100016</v>
-      </c>
-      <c r="L71" t="str">
-        <f t="shared" si="5"/>
-        <v>Poids1100016</v>
-      </c>
-      <c r="M71" t="str">
+      <c r="K71" s="2">
+        <v>110</v>
+      </c>
+      <c r="L71" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="M71" s="2" t="str">
         <f t="shared" si="5"/>
         <v>DateCreation1100016</v>
       </c>
-      <c r="N71" t="str">
-        <f t="shared" si="5"/>
-        <v>DateMAJ1100016</v>
+      <c r="N71" s="2" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A72">
+      <c r="A72" s="2">
         <v>1100017</v>
       </c>
-      <c r="B72">
+      <c r="B72" s="2">
         <v>11</v>
       </c>
-      <c r="C72">
+      <c r="C72" s="2">
         <v>1006</v>
       </c>
-      <c r="D72" t="str">
-        <f t="shared" si="5"/>
-        <v>Nom1100017</v>
-      </c>
-      <c r="E72" t="str">
-        <f t="shared" si="5"/>
-        <v>Description1100017</v>
-      </c>
-      <c r="F72" t="str">
-        <f t="shared" si="5"/>
-        <v>Photo1100017</v>
-      </c>
-      <c r="G72" t="str">
-        <f t="shared" si="5"/>
-        <v>PrixDemande1100017</v>
-      </c>
-      <c r="H72" t="str">
-        <f t="shared" si="5"/>
-        <v>NombreItems1100017</v>
-      </c>
-      <c r="I72" t="str">
-        <f t="shared" si="5"/>
-        <v>Disponibilité1100017</v>
-      </c>
-      <c r="J72" t="str">
-        <f t="shared" si="5"/>
+      <c r="D72" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="F72" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="G72" s="2">
+        <v>20</v>
+      </c>
+      <c r="H72" s="2">
+        <v>1</v>
+      </c>
+      <c r="I72" s="2">
+        <v>1</v>
+      </c>
+      <c r="J72" s="2" t="str">
+        <f t="shared" si="2"/>
         <v>DateVente1100017</v>
       </c>
-      <c r="K72" t="str">
-        <f t="shared" si="5"/>
-        <v>PrixVente1100017</v>
-      </c>
-      <c r="L72" t="str">
-        <f t="shared" si="5"/>
-        <v>Poids1100017</v>
-      </c>
-      <c r="M72" t="str">
+      <c r="K72" s="2">
+        <v>20</v>
+      </c>
+      <c r="L72" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="M72" s="2" t="str">
         <f t="shared" si="5"/>
         <v>DateCreation1100017</v>
       </c>
-      <c r="N72" t="str">
-        <f t="shared" si="5"/>
-        <v>DateMAJ1100017</v>
+      <c r="N72" s="2" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A73">
+      <c r="A73" s="2">
         <v>1100018</v>
       </c>
-      <c r="B73">
+      <c r="B73" s="2">
         <v>11</v>
       </c>
-      <c r="C73">
+      <c r="C73" s="2">
         <v>1006</v>
       </c>
-      <c r="D73" t="str">
-        <f t="shared" si="5"/>
-        <v>Nom1100018</v>
-      </c>
-      <c r="E73" t="str">
-        <f t="shared" si="5"/>
-        <v>Description1100018</v>
-      </c>
-      <c r="F73" t="str">
-        <f t="shared" si="5"/>
-        <v>Photo1100018</v>
-      </c>
-      <c r="G73" t="str">
-        <f t="shared" si="5"/>
-        <v>PrixDemande1100018</v>
-      </c>
-      <c r="H73" t="str">
-        <f t="shared" si="5"/>
-        <v>NombreItems1100018</v>
-      </c>
-      <c r="I73" t="str">
-        <f t="shared" si="5"/>
-        <v>Disponibilité1100018</v>
-      </c>
-      <c r="J73" t="str">
-        <f t="shared" si="5"/>
+      <c r="D73" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="F73" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="G73" s="2">
+        <v>25</v>
+      </c>
+      <c r="H73" s="2">
+        <v>1</v>
+      </c>
+      <c r="I73" s="2">
+        <v>1</v>
+      </c>
+      <c r="J73" s="2" t="str">
+        <f t="shared" si="2"/>
         <v>DateVente1100018</v>
       </c>
-      <c r="K73" t="str">
-        <f t="shared" si="5"/>
-        <v>PrixVente1100018</v>
-      </c>
-      <c r="L73" t="str">
-        <f t="shared" si="5"/>
-        <v>Poids1100018</v>
-      </c>
-      <c r="M73" t="str">
+      <c r="K73" s="2">
+        <v>25</v>
+      </c>
+      <c r="L73" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="M73" s="2" t="str">
         <f t="shared" si="5"/>
         <v>DateCreation1100018</v>
       </c>
-      <c r="N73" t="str">
-        <f t="shared" si="5"/>
-        <v>DateMAJ1100018</v>
+      <c r="N73" s="2" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A74">
+      <c r="A74" s="2">
         <v>1100019</v>
       </c>
-      <c r="B74">
+      <c r="B74" s="2">
         <v>11</v>
       </c>
-      <c r="C74">
+      <c r="C74" s="2">
         <v>1006</v>
       </c>
-      <c r="D74" t="str">
+      <c r="D74" s="2" t="str">
         <f t="shared" si="5"/>
         <v>Nom1100019</v>
       </c>
-      <c r="E74" t="str">
+      <c r="E74" s="2" t="str">
         <f t="shared" si="5"/>
         <v>Description1100019</v>
       </c>
-      <c r="F74" t="str">
+      <c r="F74" s="2" t="str">
         <f t="shared" si="5"/>
         <v>Photo1100019</v>
       </c>
-      <c r="G74" t="str">
+      <c r="G74" s="2" t="str">
         <f t="shared" si="5"/>
         <v>PrixDemande1100019</v>
       </c>
-      <c r="H74" t="str">
+      <c r="H74" s="2" t="str">
         <f t="shared" si="5"/>
         <v>NombreItems1100019</v>
       </c>
-      <c r="I74" t="str">
+      <c r="I74" s="2" t="str">
         <f t="shared" si="5"/>
         <v>Disponibilité1100019</v>
       </c>
-      <c r="J74" t="str">
-        <f t="shared" si="5"/>
+      <c r="J74" s="2" t="str">
+        <f t="shared" si="2"/>
         <v>DateVente1100019</v>
       </c>
-      <c r="K74" t="str">
+      <c r="K74" s="2" t="str">
         <f t="shared" si="5"/>
         <v>PrixVente1100019</v>
       </c>
-      <c r="L74" t="str">
+      <c r="L74" s="2" t="str">
         <f t="shared" si="5"/>
         <v>Poids1100019</v>
       </c>
-      <c r="M74" t="str">
+      <c r="M74" s="2" t="str">
         <f t="shared" si="5"/>
         <v>DateCreation1100019</v>
       </c>
-      <c r="N74" t="str">
-        <f t="shared" si="5"/>
-        <v>DateMAJ1100019</v>
+      <c r="N74" s="2" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A75">
+      <c r="A75" s="2">
         <v>1100020</v>
       </c>
-      <c r="B75">
+      <c r="B75" s="2">
         <v>11</v>
       </c>
-      <c r="C75">
+      <c r="C75" s="2">
         <v>1006</v>
       </c>
-      <c r="D75" t="str">
+      <c r="D75" s="2" t="str">
         <f t="shared" si="5"/>
         <v>Nom1100020</v>
       </c>
-      <c r="E75" t="str">
+      <c r="E75" s="2" t="str">
         <f t="shared" si="5"/>
         <v>Description1100020</v>
       </c>
-      <c r="F75" t="str">
+      <c r="F75" s="2" t="str">
         <f t="shared" si="5"/>
         <v>Photo1100020</v>
       </c>
-      <c r="G75" t="str">
+      <c r="G75" s="2" t="str">
         <f t="shared" si="5"/>
         <v>PrixDemande1100020</v>
       </c>
-      <c r="H75" t="str">
+      <c r="H75" s="2" t="str">
         <f t="shared" si="5"/>
         <v>NombreItems1100020</v>
       </c>
-      <c r="I75" t="str">
+      <c r="I75" s="2" t="str">
         <f t="shared" si="5"/>
         <v>Disponibilité1100020</v>
       </c>
-      <c r="J75" t="str">
-        <f t="shared" si="5"/>
+      <c r="J75" s="2" t="str">
+        <f t="shared" si="2"/>
         <v>DateVente1100020</v>
       </c>
-      <c r="K75" t="str">
+      <c r="K75" s="2" t="str">
         <f t="shared" si="5"/>
         <v>PrixVente1100020</v>
       </c>
-      <c r="L75" t="str">
+      <c r="L75" s="2" t="str">
         <f t="shared" si="5"/>
         <v>Poids1100020</v>
       </c>
-      <c r="M75" t="str">
+      <c r="M75" s="2" t="str">
         <f t="shared" si="5"/>
         <v>DateCreation1100020</v>
       </c>
-      <c r="N75" t="str">
-        <f t="shared" si="5"/>
-        <v>DateMAJ1100020</v>
+      <c r="N75" s="2" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A76">
+      <c r="A76" s="2">
         <v>1100021</v>
       </c>
-      <c r="B76">
+      <c r="B76" s="2">
         <v>11</v>
       </c>
-      <c r="C76">
+      <c r="C76" s="2">
         <v>1006</v>
       </c>
-      <c r="D76" t="str">
+      <c r="D76" s="2" t="str">
         <f t="shared" si="5"/>
         <v>Nom1100021</v>
       </c>
-      <c r="E76" t="str">
+      <c r="E76" s="2" t="str">
         <f t="shared" si="5"/>
         <v>Description1100021</v>
       </c>
-      <c r="F76" t="str">
+      <c r="F76" s="2" t="str">
         <f t="shared" si="5"/>
         <v>Photo1100021</v>
       </c>
-      <c r="G76" t="str">
+      <c r="G76" s="2" t="str">
         <f t="shared" si="5"/>
         <v>PrixDemande1100021</v>
       </c>
-      <c r="H76" t="str">
+      <c r="H76" s="2" t="str">
         <f t="shared" si="5"/>
         <v>NombreItems1100021</v>
       </c>
-      <c r="I76" t="str">
+      <c r="I76" s="2" t="str">
         <f t="shared" si="5"/>
         <v>Disponibilité1100021</v>
       </c>
-      <c r="J76" t="str">
-        <f t="shared" si="5"/>
+      <c r="J76" s="2" t="str">
+        <f t="shared" si="2"/>
         <v>DateVente1100021</v>
       </c>
-      <c r="K76" t="str">
+      <c r="K76" s="2" t="str">
         <f t="shared" si="5"/>
         <v>PrixVente1100021</v>
       </c>
-      <c r="L76" t="str">
+      <c r="L76" s="2" t="str">
         <f t="shared" si="5"/>
         <v>Poids1100021</v>
       </c>
-      <c r="M76" t="str">
+      <c r="M76" s="2" t="str">
         <f t="shared" si="5"/>
         <v>DateCreation1100021</v>
       </c>
-      <c r="N76" t="str">
-        <f t="shared" si="5"/>
-        <v>DateMAJ1100021</v>
+      <c r="N76" s="2" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A77">
+      <c r="A77" s="2">
         <v>1100022</v>
       </c>
-      <c r="B77">
+      <c r="B77" s="2">
         <v>11</v>
       </c>
-      <c r="C77">
+      <c r="C77" s="2">
         <v>1006</v>
       </c>
-      <c r="D77" t="str">
+      <c r="D77" s="2" t="str">
         <f t="shared" si="5"/>
         <v>Nom1100022</v>
       </c>
-      <c r="E77" t="str">
+      <c r="E77" s="2" t="str">
         <f t="shared" si="5"/>
         <v>Description1100022</v>
       </c>
-      <c r="F77" t="str">
+      <c r="F77" s="2" t="str">
         <f t="shared" si="5"/>
         <v>Photo1100022</v>
       </c>
-      <c r="G77" t="str">
+      <c r="G77" s="2" t="str">
         <f t="shared" si="5"/>
         <v>PrixDemande1100022</v>
       </c>
-      <c r="H77" t="str">
+      <c r="H77" s="2" t="str">
         <f t="shared" si="5"/>
         <v>NombreItems1100022</v>
       </c>
-      <c r="I77" t="str">
+      <c r="I77" s="2" t="str">
         <f t="shared" si="5"/>
         <v>Disponibilité1100022</v>
       </c>
-      <c r="J77" t="str">
-        <f t="shared" si="5"/>
+      <c r="J77" s="2" t="str">
+        <f t="shared" si="2"/>
         <v>DateVente1100022</v>
       </c>
-      <c r="K77" t="str">
+      <c r="K77" s="2" t="str">
         <f t="shared" si="5"/>
         <v>PrixVente1100022</v>
       </c>
-      <c r="L77" t="str">
+      <c r="L77" s="2" t="str">
         <f t="shared" si="5"/>
         <v>Poids1100022</v>
       </c>
-      <c r="M77" t="str">
+      <c r="M77" s="2" t="str">
         <f t="shared" si="5"/>
         <v>DateCreation1100022</v>
       </c>
-      <c r="N77" t="str">
-        <f t="shared" si="5"/>
-        <v>DateMAJ1100022</v>
+      <c r="N77" s="2" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A78">
+      <c r="A78" s="2">
         <v>1100023</v>
       </c>
-      <c r="B78">
+      <c r="B78" s="2">
         <v>11</v>
       </c>
-      <c r="C78">
+      <c r="C78" s="2">
         <v>1006</v>
       </c>
-      <c r="D78" t="str">
+      <c r="D78" s="2" t="str">
         <f t="shared" si="5"/>
         <v>Nom1100023</v>
       </c>
-      <c r="E78" t="str">
+      <c r="E78" s="2" t="str">
         <f t="shared" si="5"/>
         <v>Description1100023</v>
       </c>
-      <c r="F78" t="str">
+      <c r="F78" s="2" t="str">
         <f t="shared" si="5"/>
         <v>Photo1100023</v>
       </c>
-      <c r="G78" t="str">
+      <c r="G78" s="2" t="str">
         <f t="shared" si="5"/>
         <v>PrixDemande1100023</v>
       </c>
-      <c r="H78" t="str">
+      <c r="H78" s="2" t="str">
         <f t="shared" si="5"/>
         <v>NombreItems1100023</v>
       </c>
-      <c r="I78" t="str">
+      <c r="I78" s="2" t="str">
         <f t="shared" si="5"/>
         <v>Disponibilité1100023</v>
       </c>
-      <c r="J78" t="str">
-        <f t="shared" si="5"/>
+      <c r="J78" s="2" t="str">
+        <f t="shared" si="2"/>
         <v>DateVente1100023</v>
       </c>
-      <c r="K78" t="str">
+      <c r="K78" s="2" t="str">
         <f t="shared" si="5"/>
         <v>PrixVente1100023</v>
       </c>
-      <c r="L78" t="str">
+      <c r="L78" s="2" t="str">
         <f t="shared" si="5"/>
         <v>Poids1100023</v>
       </c>
-      <c r="M78" t="str">
+      <c r="M78" s="2" t="str">
         <f t="shared" si="5"/>
         <v>DateCreation1100023</v>
       </c>
-      <c r="N78" t="str">
-        <f t="shared" si="5"/>
-        <v>DateMAJ1100023</v>
+      <c r="N78" s="2" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A79">
+      <c r="A79" s="2">
         <v>1100024</v>
       </c>
-      <c r="B79">
+      <c r="B79" s="2">
         <v>11</v>
       </c>
-      <c r="C79">
+      <c r="C79" s="2">
         <v>1006</v>
       </c>
-      <c r="D79" t="str">
+      <c r="D79" s="2" t="str">
         <f t="shared" si="5"/>
         <v>Nom1100024</v>
       </c>
-      <c r="E79" t="str">
+      <c r="E79" s="2" t="str">
         <f t="shared" si="5"/>
         <v>Description1100024</v>
       </c>
-      <c r="F79" t="str">
+      <c r="F79" s="2" t="str">
         <f t="shared" si="5"/>
         <v>Photo1100024</v>
       </c>
-      <c r="G79" t="str">
+      <c r="G79" s="2" t="str">
         <f t="shared" si="5"/>
         <v>PrixDemande1100024</v>
       </c>
-      <c r="H79" t="str">
+      <c r="H79" s="2" t="str">
         <f t="shared" si="5"/>
         <v>NombreItems1100024</v>
       </c>
-      <c r="I79" t="str">
+      <c r="I79" s="2" t="str">
         <f t="shared" si="5"/>
         <v>Disponibilité1100024</v>
       </c>
-      <c r="J79" t="str">
-        <f t="shared" si="5"/>
+      <c r="J79" s="2" t="str">
+        <f t="shared" si="2"/>
         <v>DateVente1100024</v>
       </c>
-      <c r="K79" t="str">
+      <c r="K79" s="2" t="str">
         <f t="shared" si="5"/>
         <v>PrixVente1100024</v>
       </c>
-      <c r="L79" t="str">
+      <c r="L79" s="2" t="str">
         <f t="shared" si="5"/>
         <v>Poids1100024</v>
       </c>
-      <c r="M79" t="str">
+      <c r="M79" s="2" t="str">
         <f t="shared" si="5"/>
         <v>DateCreation1100024</v>
       </c>
-      <c r="N79" t="str">
-        <f t="shared" si="5"/>
-        <v>DateMAJ1100024</v>
+      <c r="N79" s="2" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A80">
+      <c r="A80" s="2">
         <v>1100025</v>
       </c>
-      <c r="B80">
+      <c r="B80" s="2">
         <v>11</v>
       </c>
-      <c r="C80">
+      <c r="C80" s="2">
         <v>1006</v>
       </c>
-      <c r="D80" t="str">
+      <c r="D80" s="2" t="str">
         <f t="shared" si="5"/>
         <v>Nom1100025</v>
       </c>
-      <c r="E80" t="str">
+      <c r="E80" s="2" t="str">
         <f t="shared" si="5"/>
         <v>Description1100025</v>
       </c>
-      <c r="F80" t="str">
+      <c r="F80" s="2" t="str">
         <f t="shared" si="5"/>
         <v>Photo1100025</v>
       </c>
-      <c r="G80" t="str">
+      <c r="G80" s="2" t="str">
         <f t="shared" si="5"/>
         <v>PrixDemande1100025</v>
       </c>
-      <c r="H80" t="str">
+      <c r="H80" s="2" t="str">
         <f t="shared" si="5"/>
         <v>NombreItems1100025</v>
       </c>
-      <c r="I80" t="str">
+      <c r="I80" s="2" t="str">
         <f t="shared" si="5"/>
         <v>Disponibilité1100025</v>
       </c>
-      <c r="J80" t="str">
-        <f t="shared" si="5"/>
+      <c r="J80" s="2" t="str">
+        <f t="shared" si="2"/>
         <v>DateVente1100025</v>
       </c>
-      <c r="K80" t="str">
+      <c r="K80" s="2" t="str">
         <f t="shared" si="5"/>
         <v>PrixVente1100025</v>
       </c>
-      <c r="L80" t="str">
+      <c r="L80" s="2" t="str">
         <f t="shared" si="5"/>
         <v>Poids1100025</v>
       </c>
-      <c r="M80" t="str">
+      <c r="M80" s="2" t="str">
         <f t="shared" si="5"/>
         <v>DateCreation1100025</v>
       </c>
-      <c r="N80" t="str">
-        <f t="shared" si="5"/>
-        <v>DateMAJ1100025</v>
+      <c r="N80" s="2" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A81">
+      <c r="A81" s="2">
         <v>1100026</v>
       </c>
-      <c r="B81">
+      <c r="B81" s="2">
         <v>11</v>
       </c>
-      <c r="C81">
+      <c r="C81" s="2">
         <v>1006</v>
       </c>
-      <c r="D81" t="str">
+      <c r="D81" s="2" t="str">
         <f t="shared" si="5"/>
         <v>Nom1100026</v>
       </c>
-      <c r="E81" t="str">
+      <c r="E81" s="2" t="str">
         <f t="shared" si="5"/>
         <v>Description1100026</v>
       </c>
-      <c r="F81" t="str">
+      <c r="F81" s="2" t="str">
         <f t="shared" si="5"/>
         <v>Photo1100026</v>
       </c>
-      <c r="G81" t="str">
+      <c r="G81" s="2" t="str">
         <f t="shared" si="5"/>
         <v>PrixDemande1100026</v>
       </c>
-      <c r="H81" t="str">
+      <c r="H81" s="2" t="str">
         <f t="shared" si="5"/>
         <v>NombreItems1100026</v>
       </c>
-      <c r="I81" t="str">
+      <c r="I81" s="2" t="str">
         <f t="shared" si="5"/>
         <v>Disponibilité1100026</v>
       </c>
-      <c r="J81" t="str">
-        <f t="shared" si="5"/>
+      <c r="J81" s="2" t="str">
+        <f t="shared" si="2"/>
         <v>DateVente1100026</v>
       </c>
-      <c r="K81" t="str">
+      <c r="K81" s="2" t="str">
         <f t="shared" si="5"/>
         <v>PrixVente1100026</v>
       </c>
-      <c r="L81" t="str">
+      <c r="L81" s="2" t="str">
         <f t="shared" si="5"/>
         <v>Poids1100026</v>
       </c>
-      <c r="M81" t="str">
+      <c r="M81" s="2" t="str">
         <f t="shared" si="5"/>
         <v>DateCreation1100026</v>
       </c>
-      <c r="N81" t="str">
-        <f t="shared" si="5"/>
-        <v>DateMAJ1100026</v>
+      <c r="N81" s="2" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A82">
+      <c r="A82" s="2">
         <v>1100027</v>
       </c>
-      <c r="B82">
+      <c r="B82" s="2">
         <v>11</v>
       </c>
-      <c r="C82">
+      <c r="C82" s="2">
         <v>1006</v>
       </c>
-      <c r="D82" t="str">
+      <c r="D82" s="2" t="str">
         <f t="shared" si="5"/>
         <v>Nom1100027</v>
       </c>
-      <c r="E82" t="str">
+      <c r="E82" s="2" t="str">
         <f t="shared" si="5"/>
         <v>Description1100027</v>
       </c>
-      <c r="F82" t="str">
+      <c r="F82" s="2" t="str">
         <f t="shared" si="5"/>
         <v>Photo1100027</v>
       </c>
-      <c r="G82" t="str">
+      <c r="G82" s="2" t="str">
         <f t="shared" si="5"/>
         <v>PrixDemande1100027</v>
       </c>
-      <c r="H82" t="str">
+      <c r="H82" s="2" t="str">
         <f t="shared" si="5"/>
         <v>NombreItems1100027</v>
       </c>
-      <c r="I82" t="str">
+      <c r="I82" s="2" t="str">
         <f t="shared" si="5"/>
         <v>Disponibilité1100027</v>
       </c>
-      <c r="J82" t="str">
-        <f t="shared" si="5"/>
+      <c r="J82" s="2" t="str">
+        <f t="shared" si="2"/>
         <v>DateVente1100027</v>
       </c>
-      <c r="K82" t="str">
+      <c r="K82" s="2" t="str">
         <f t="shared" si="5"/>
         <v>PrixVente1100027</v>
       </c>
-      <c r="L82" t="str">
+      <c r="L82" s="2" t="str">
         <f t="shared" si="5"/>
         <v>Poids1100027</v>
       </c>
-      <c r="M82" t="str">
+      <c r="M82" s="2" t="str">
         <f t="shared" si="5"/>
         <v>DateCreation1100027</v>
       </c>
-      <c r="N82" t="str">
-        <f t="shared" si="5"/>
-        <v>DateMAJ1100027</v>
+      <c r="N82" s="2" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A83">
+      <c r="A83" s="2">
         <v>1400010</v>
       </c>
-      <c r="B83">
+      <c r="B83" s="2">
         <v>14</v>
       </c>
-      <c r="C83">
+      <c r="C83" s="2">
         <v>1006</v>
       </c>
-      <c r="D83" t="str">
+      <c r="D83" s="2" t="str">
         <f t="shared" si="5"/>
         <v>Nom1400010</v>
       </c>
-      <c r="E83" t="str">
+      <c r="E83" s="2" t="str">
         <f t="shared" si="5"/>
         <v>Description1400010</v>
       </c>
-      <c r="F83" t="str">
+      <c r="F83" s="2" t="str">
         <f t="shared" si="5"/>
         <v>Photo1400010</v>
       </c>
-      <c r="G83" t="str">
+      <c r="G83" s="2" t="str">
         <f t="shared" si="5"/>
         <v>PrixDemande1400010</v>
       </c>
-      <c r="H83" t="str">
+      <c r="H83" s="2" t="str">
         <f t="shared" si="5"/>
         <v>NombreItems1400010</v>
       </c>
-      <c r="I83" t="str">
+      <c r="I83" s="2" t="str">
         <f t="shared" si="5"/>
         <v>Disponibilité1400010</v>
       </c>
-      <c r="J83" t="str">
-        <f t="shared" si="5"/>
+      <c r="J83" s="2" t="str">
+        <f t="shared" si="2"/>
         <v>DateVente1400010</v>
       </c>
-      <c r="K83" t="str">
+      <c r="K83" s="2" t="str">
         <f t="shared" si="5"/>
         <v>PrixVente1400010</v>
       </c>
-      <c r="L83" t="str">
+      <c r="L83" s="2" t="str">
         <f t="shared" si="5"/>
         <v>Poids1400010</v>
       </c>
-      <c r="M83" t="str">
+      <c r="M83" s="2" t="str">
         <f t="shared" si="5"/>
         <v>DateCreation1400010</v>
       </c>
-      <c r="N83" t="str">
-        <f t="shared" si="5"/>
-        <v>DateMAJ1400010</v>
+      <c r="N83" s="2" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A84">
+      <c r="A84" s="2">
         <v>1400011</v>
       </c>
-      <c r="B84">
+      <c r="B84" s="2">
         <v>14</v>
       </c>
-      <c r="C84">
+      <c r="C84" s="2">
         <v>1006</v>
       </c>
-      <c r="D84" t="str">
+      <c r="D84" s="2" t="str">
         <f t="shared" si="5"/>
         <v>Nom1400011</v>
       </c>
-      <c r="E84" t="str">
+      <c r="E84" s="2" t="str">
         <f t="shared" si="5"/>
         <v>Description1400011</v>
       </c>
-      <c r="F84" t="str">
+      <c r="F84" s="2" t="str">
         <f t="shared" si="5"/>
         <v>Photo1400011</v>
       </c>
-      <c r="G84" t="str">
+      <c r="G84" s="2" t="str">
         <f t="shared" si="5"/>
         <v>PrixDemande1400011</v>
       </c>
-      <c r="H84" t="str">
+      <c r="H84" s="2" t="str">
         <f t="shared" si="5"/>
         <v>NombreItems1400011</v>
       </c>
-      <c r="I84" t="str">
+      <c r="I84" s="2" t="str">
         <f t="shared" si="5"/>
         <v>Disponibilité1400011</v>
       </c>
-      <c r="J84" t="str">
-        <f t="shared" si="5"/>
+      <c r="J84" s="2" t="str">
+        <f t="shared" si="2"/>
         <v>DateVente1400011</v>
       </c>
-      <c r="K84" t="str">
+      <c r="K84" s="2" t="str">
         <f t="shared" si="5"/>
         <v>PrixVente1400011</v>
       </c>
-      <c r="L84" t="str">
+      <c r="L84" s="2" t="str">
         <f t="shared" si="5"/>
         <v>Poids1400011</v>
       </c>
-      <c r="M84" t="str">
+      <c r="M84" s="2" t="str">
         <f t="shared" si="5"/>
         <v>DateCreation1400011</v>
       </c>
-      <c r="N84" t="str">
-        <f t="shared" si="5"/>
-        <v>DateMAJ1400011</v>
+      <c r="N84" s="2" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A85">
+      <c r="A85" s="2">
         <v>1400012</v>
       </c>
-      <c r="B85">
+      <c r="B85" s="2">
         <v>14</v>
       </c>
-      <c r="C85">
+      <c r="C85" s="2">
         <v>1006</v>
       </c>
-      <c r="D85" t="str">
+      <c r="D85" s="2" t="str">
         <f t="shared" si="5"/>
         <v>Nom1400012</v>
       </c>
-      <c r="E85" t="str">
+      <c r="E85" s="2" t="str">
         <f t="shared" si="5"/>
         <v>Description1400012</v>
       </c>
-      <c r="F85" t="str">
+      <c r="F85" s="2" t="str">
         <f t="shared" si="5"/>
         <v>Photo1400012</v>
       </c>
-      <c r="G85" t="str">
+      <c r="G85" s="2" t="str">
         <f t="shared" si="5"/>
         <v>PrixDemande1400012</v>
       </c>
-      <c r="H85" t="str">
+      <c r="H85" s="2" t="str">
         <f t="shared" si="5"/>
         <v>NombreItems1400012</v>
       </c>
-      <c r="I85" t="str">
+      <c r="I85" s="2" t="str">
         <f t="shared" si="5"/>
         <v>Disponibilité1400012</v>
       </c>
-      <c r="J85" t="str">
-        <f t="shared" si="5"/>
+      <c r="J85" s="2" t="str">
+        <f t="shared" si="2"/>
         <v>DateVente1400012</v>
       </c>
-      <c r="K85" t="str">
+      <c r="K85" s="2" t="str">
         <f t="shared" si="5"/>
         <v>PrixVente1400012</v>
       </c>
-      <c r="L85" t="str">
+      <c r="L85" s="2" t="str">
         <f t="shared" si="5"/>
         <v>Poids1400012</v>
       </c>
-      <c r="M85" t="str">
+      <c r="M85" s="2" t="str">
         <f t="shared" si="5"/>
         <v>DateCreation1400012</v>
       </c>
-      <c r="N85" t="str">
-        <f t="shared" si="5"/>
-        <v>DateMAJ1400012</v>
+      <c r="N85" s="2" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A86">
+      <c r="A86" s="2">
         <v>1400013</v>
       </c>
-      <c r="B86">
+      <c r="B86" s="2">
         <v>14</v>
       </c>
-      <c r="C86">
+      <c r="C86" s="2">
         <v>1006</v>
       </c>
-      <c r="D86" t="str">
+      <c r="D86" s="2" t="str">
         <f t="shared" si="5"/>
         <v>Nom1400013</v>
       </c>
-      <c r="E86" t="str">
+      <c r="E86" s="2" t="str">
         <f t="shared" si="5"/>
         <v>Description1400013</v>
       </c>
-      <c r="F86" t="str">
+      <c r="F86" s="2" t="str">
         <f t="shared" si="5"/>
         <v>Photo1400013</v>
       </c>
-      <c r="G86" t="str">
+      <c r="G86" s="2" t="str">
         <f t="shared" si="5"/>
         <v>PrixDemande1400013</v>
       </c>
-      <c r="H86" t="str">
+      <c r="H86" s="2" t="str">
         <f t="shared" si="5"/>
         <v>NombreItems1400013</v>
       </c>
-      <c r="I86" t="str">
+      <c r="I86" s="2" t="str">
         <f t="shared" si="5"/>
         <v>Disponibilité1400013</v>
       </c>
-      <c r="J86" t="str">
-        <f t="shared" si="5"/>
+      <c r="J86" s="2" t="str">
+        <f t="shared" si="2"/>
         <v>DateVente1400013</v>
       </c>
-      <c r="K86" t="str">
+      <c r="K86" s="2" t="str">
         <f t="shared" si="5"/>
         <v>PrixVente1400013</v>
       </c>
-      <c r="L86" t="str">
+      <c r="L86" s="2" t="str">
         <f t="shared" si="5"/>
         <v>Poids1400013</v>
       </c>
-      <c r="M86" t="str">
+      <c r="M86" s="2" t="str">
         <f t="shared" si="5"/>
         <v>DateCreation1400013</v>
       </c>
-      <c r="N86" t="str">
-        <f t="shared" si="5"/>
-        <v>DateMAJ1400013</v>
+      <c r="N86" s="2" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A87">
+      <c r="A87" s="2">
         <v>1600033</v>
       </c>
-      <c r="B87">
+      <c r="B87" s="2">
         <v>16</v>
       </c>
-      <c r="C87">
+      <c r="C87" s="2">
         <v>1006</v>
       </c>
-      <c r="D87" t="str">
+      <c r="D87" s="2" t="str">
         <f t="shared" si="5"/>
         <v>Nom1600033</v>
       </c>
-      <c r="E87" t="str">
+      <c r="E87" s="2" t="str">
         <f t="shared" si="5"/>
         <v>Description1600033</v>
       </c>
-      <c r="F87" t="str">
+      <c r="F87" s="2" t="str">
         <f t="shared" si="5"/>
         <v>Photo1600033</v>
       </c>
-      <c r="G87" t="str">
+      <c r="G87" s="2" t="str">
         <f t="shared" si="5"/>
         <v>PrixDemande1600033</v>
       </c>
-      <c r="H87" t="str">
+      <c r="H87" s="2" t="str">
         <f t="shared" si="5"/>
         <v>NombreItems1600033</v>
       </c>
-      <c r="I87" t="str">
+      <c r="I87" s="2" t="str">
         <f t="shared" si="5"/>
         <v>Disponibilité1600033</v>
       </c>
-      <c r="J87" t="str">
-        <f t="shared" si="5"/>
+      <c r="J87" s="2" t="str">
+        <f t="shared" si="2"/>
         <v>DateVente1600033</v>
       </c>
-      <c r="K87" t="str">
+      <c r="K87" s="2" t="str">
         <f t="shared" si="5"/>
         <v>PrixVente1600033</v>
       </c>
-      <c r="L87" t="str">
+      <c r="L87" s="2" t="str">
         <f t="shared" si="5"/>
         <v>Poids1600033</v>
       </c>
-      <c r="M87" t="str">
+      <c r="M87" s="2" t="str">
         <f t="shared" si="5"/>
         <v>DateCreation1600033</v>
       </c>
-      <c r="N87" t="str">
-        <f t="shared" si="5"/>
-        <v>DateMAJ1600033</v>
+      <c r="N87" s="2" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A88">
+      <c r="A88" s="2">
         <v>1600034</v>
       </c>
-      <c r="B88">
+      <c r="B88" s="2">
         <v>16</v>
       </c>
-      <c r="C88">
+      <c r="C88" s="2">
         <v>1006</v>
       </c>
-      <c r="D88" t="str">
+      <c r="D88" s="2" t="str">
         <f t="shared" si="5"/>
         <v>Nom1600034</v>
       </c>
-      <c r="E88" t="str">
+      <c r="E88" s="2" t="str">
         <f t="shared" si="5"/>
         <v>Description1600034</v>
       </c>
-      <c r="F88" t="str">
+      <c r="F88" s="2" t="str">
         <f t="shared" si="5"/>
         <v>Photo1600034</v>
       </c>
-      <c r="G88" t="str">
+      <c r="G88" s="2" t="str">
         <f t="shared" si="5"/>
         <v>PrixDemande1600034</v>
       </c>
-      <c r="H88" t="str">
+      <c r="H88" s="2" t="str">
         <f t="shared" si="5"/>
         <v>NombreItems1600034</v>
       </c>
-      <c r="I88" t="str">
+      <c r="I88" s="2" t="str">
         <f t="shared" si="5"/>
         <v>Disponibilité1600034</v>
       </c>
-      <c r="J88" t="str">
-        <f t="shared" si="5"/>
+      <c r="J88" s="2" t="str">
+        <f t="shared" si="2"/>
         <v>DateVente1600034</v>
       </c>
-      <c r="K88" t="str">
+      <c r="K88" s="2" t="str">
         <f t="shared" ref="E88:N103" si="6">K$1&amp;$A88</f>
         <v>PrixVente1600034</v>
       </c>
-      <c r="L88" t="str">
+      <c r="L88" s="2" t="str">
         <f t="shared" si="6"/>
         <v>Poids1600034</v>
       </c>
-      <c r="M88" t="str">
-        <f t="shared" si="6"/>
+      <c r="M88" s="2" t="str">
+        <f t="shared" si="5"/>
         <v>DateCreation1600034</v>
       </c>
-      <c r="N88" t="str">
-        <f t="shared" si="6"/>
-        <v>DateMAJ1600034</v>
+      <c r="N88" s="2" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A89">
+      <c r="A89" s="2">
         <v>1600035</v>
       </c>
-      <c r="B89">
+      <c r="B89" s="2">
         <v>16</v>
       </c>
-      <c r="C89">
+      <c r="C89" s="2">
         <v>1006</v>
       </c>
-      <c r="D89" t="str">
+      <c r="D89" s="2" t="str">
         <f t="shared" si="5"/>
         <v>Nom1600035</v>
       </c>
-      <c r="E89" t="str">
+      <c r="E89" s="2" t="str">
         <f t="shared" si="6"/>
         <v>Description1600035</v>
       </c>
-      <c r="F89" t="str">
+      <c r="F89" s="2" t="str">
         <f t="shared" si="6"/>
         <v>Photo1600035</v>
       </c>
-      <c r="G89" t="str">
+      <c r="G89" s="2" t="str">
         <f t="shared" si="6"/>
         <v>PrixDemande1600035</v>
       </c>
-      <c r="H89" t="str">
+      <c r="H89" s="2" t="str">
         <f t="shared" si="6"/>
         <v>NombreItems1600035</v>
       </c>
-      <c r="I89" t="str">
+      <c r="I89" s="2" t="str">
         <f t="shared" si="6"/>
         <v>Disponibilité1600035</v>
       </c>
-      <c r="J89" t="str">
-        <f t="shared" si="6"/>
+      <c r="J89" s="2" t="str">
+        <f t="shared" si="2"/>
         <v>DateVente1600035</v>
       </c>
-      <c r="K89" t="str">
+      <c r="K89" s="2" t="str">
         <f t="shared" si="6"/>
         <v>PrixVente1600035</v>
       </c>
-      <c r="L89" t="str">
+      <c r="L89" s="2" t="str">
         <f t="shared" si="6"/>
         <v>Poids1600035</v>
       </c>
-      <c r="M89" t="str">
-        <f t="shared" si="6"/>
+      <c r="M89" s="2" t="str">
+        <f t="shared" si="5"/>
         <v>DateCreation1600035</v>
       </c>
-      <c r="N89" t="str">
-        <f t="shared" si="6"/>
-        <v>DateMAJ1600035</v>
+      <c r="N89" s="2" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A90">
+      <c r="A90" s="2">
         <v>1600036</v>
       </c>
-      <c r="B90">
+      <c r="B90" s="2">
         <v>16</v>
       </c>
-      <c r="C90">
+      <c r="C90" s="2">
         <v>1006</v>
       </c>
-      <c r="D90" t="str">
+      <c r="D90" s="2" t="str">
         <f t="shared" si="5"/>
         <v>Nom1600036</v>
       </c>
-      <c r="E90" t="str">
+      <c r="E90" s="2" t="str">
         <f t="shared" si="6"/>
         <v>Description1600036</v>
       </c>
-      <c r="F90" t="str">
+      <c r="F90" s="2" t="str">
         <f t="shared" si="6"/>
         <v>Photo1600036</v>
       </c>
-      <c r="G90" t="str">
+      <c r="G90" s="2" t="str">
         <f t="shared" si="6"/>
         <v>PrixDemande1600036</v>
       </c>
-      <c r="H90" t="str">
+      <c r="H90" s="2" t="str">
         <f t="shared" si="6"/>
         <v>NombreItems1600036</v>
       </c>
-      <c r="I90" t="str">
+      <c r="I90" s="2" t="str">
         <f t="shared" si="6"/>
         <v>Disponibilité1600036</v>
       </c>
-      <c r="J90" t="str">
-        <f t="shared" si="6"/>
+      <c r="J90" s="2" t="str">
+        <f t="shared" si="2"/>
         <v>DateVente1600036</v>
       </c>
-      <c r="K90" t="str">
+      <c r="K90" s="2" t="str">
         <f t="shared" si="6"/>
         <v>PrixVente1600036</v>
       </c>
-      <c r="L90" t="str">
+      <c r="L90" s="2" t="str">
         <f t="shared" si="6"/>
         <v>Poids1600036</v>
       </c>
-      <c r="M90" t="str">
-        <f t="shared" si="6"/>
+      <c r="M90" s="2" t="str">
+        <f t="shared" si="5"/>
         <v>DateCreation1600036</v>
       </c>
-      <c r="N90" t="str">
-        <f t="shared" si="6"/>
-        <v>DateMAJ1600036</v>
+      <c r="N90" s="2" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A91">
+      <c r="A91" s="2">
         <v>1100028</v>
       </c>
-      <c r="B91">
+      <c r="B91" s="2">
         <v>11</v>
       </c>
-      <c r="C91">
+      <c r="C91" s="2">
         <v>1007</v>
       </c>
-      <c r="D91" t="str">
-        <f t="shared" si="5"/>
-        <v>Nom1100028</v>
-      </c>
-      <c r="E91" t="str">
-        <f t="shared" si="6"/>
-        <v>Description1100028</v>
-      </c>
-      <c r="F91" t="str">
-        <f t="shared" si="6"/>
-        <v>Photo1100028</v>
-      </c>
-      <c r="G91" t="str">
-        <f t="shared" si="6"/>
-        <v>PrixDemande1100028</v>
-      </c>
-      <c r="H91" t="str">
-        <f t="shared" si="6"/>
-        <v>NombreItems1100028</v>
-      </c>
-      <c r="I91" t="str">
-        <f t="shared" si="6"/>
-        <v>Disponibilité1100028</v>
-      </c>
-      <c r="J91" t="str">
-        <f t="shared" si="6"/>
+      <c r="D91" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="E91" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="F91" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="G91" s="2">
+        <v>150</v>
+      </c>
+      <c r="H91" s="2">
+        <v>1</v>
+      </c>
+      <c r="I91" s="2">
+        <v>1</v>
+      </c>
+      <c r="J91" s="2" t="str">
+        <f t="shared" si="2"/>
         <v>DateVente1100028</v>
       </c>
-      <c r="K91" t="str">
-        <f t="shared" si="6"/>
-        <v>PrixVente1100028</v>
-      </c>
-      <c r="L91" t="str">
-        <f t="shared" si="6"/>
-        <v>Poids1100028</v>
-      </c>
-      <c r="M91" t="str">
-        <f t="shared" si="6"/>
+      <c r="K91" s="2">
+        <v>150</v>
+      </c>
+      <c r="L91" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="M91" s="2" t="str">
+        <f t="shared" si="5"/>
         <v>DateCreation1100028</v>
       </c>
-      <c r="N91" t="str">
-        <f t="shared" si="6"/>
-        <v>DateMAJ1100028</v>
+      <c r="N91" s="2" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A92">
+      <c r="A92" s="2">
         <v>1100029</v>
       </c>
-      <c r="B92">
+      <c r="B92" s="2">
         <v>11</v>
       </c>
-      <c r="C92">
+      <c r="C92" s="2">
         <v>1007</v>
       </c>
-      <c r="D92" t="str">
-        <f t="shared" si="5"/>
-        <v>Nom1100029</v>
-      </c>
-      <c r="E92" t="str">
-        <f t="shared" si="6"/>
-        <v>Description1100029</v>
-      </c>
-      <c r="F92" t="str">
-        <f t="shared" si="6"/>
-        <v>Photo1100029</v>
-      </c>
-      <c r="G92" t="str">
-        <f t="shared" si="6"/>
-        <v>PrixDemande1100029</v>
-      </c>
-      <c r="H92" t="str">
-        <f t="shared" si="6"/>
-        <v>NombreItems1100029</v>
-      </c>
-      <c r="I92" t="str">
-        <f t="shared" si="6"/>
-        <v>Disponibilité1100029</v>
-      </c>
-      <c r="J92" t="str">
-        <f t="shared" si="6"/>
+      <c r="D92" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="E92" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="F92" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="G92" s="2">
+        <v>125</v>
+      </c>
+      <c r="H92" s="2">
+        <v>1</v>
+      </c>
+      <c r="I92" s="2">
+        <v>1</v>
+      </c>
+      <c r="J92" s="2" t="str">
+        <f t="shared" si="2"/>
         <v>DateVente1100029</v>
       </c>
-      <c r="K92" t="str">
-        <f t="shared" si="6"/>
-        <v>PrixVente1100029</v>
-      </c>
-      <c r="L92" t="str">
-        <f t="shared" si="6"/>
-        <v>Poids1100029</v>
-      </c>
-      <c r="M92" t="str">
-        <f t="shared" si="6"/>
+      <c r="K92" s="2">
+        <v>125</v>
+      </c>
+      <c r="L92" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="M92" s="2" t="str">
+        <f t="shared" si="5"/>
         <v>DateCreation1100029</v>
       </c>
-      <c r="N92" t="str">
-        <f t="shared" si="6"/>
-        <v>DateMAJ1100029</v>
+      <c r="N92" s="2" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A93">
+      <c r="A93" s="2">
         <v>1100030</v>
       </c>
-      <c r="B93">
+      <c r="B93" s="2">
         <v>11</v>
       </c>
-      <c r="C93">
+      <c r="C93" s="2">
         <v>1007</v>
       </c>
-      <c r="D93" t="str">
-        <f t="shared" si="5"/>
-        <v>Nom1100030</v>
-      </c>
-      <c r="E93" t="str">
-        <f t="shared" si="6"/>
-        <v>Description1100030</v>
-      </c>
-      <c r="F93" t="str">
-        <f t="shared" si="6"/>
-        <v>Photo1100030</v>
-      </c>
-      <c r="G93" t="str">
-        <f t="shared" si="6"/>
-        <v>PrixDemande1100030</v>
-      </c>
-      <c r="H93" t="str">
-        <f t="shared" si="6"/>
-        <v>NombreItems1100030</v>
-      </c>
-      <c r="I93" t="str">
-        <f t="shared" si="6"/>
-        <v>Disponibilité1100030</v>
-      </c>
-      <c r="J93" t="str">
-        <f t="shared" si="6"/>
+      <c r="D93" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="E93" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="F93" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="G93" s="2">
+        <v>600</v>
+      </c>
+      <c r="H93" s="2">
+        <v>1</v>
+      </c>
+      <c r="I93" s="2">
+        <v>1</v>
+      </c>
+      <c r="J93" s="2" t="str">
+        <f t="shared" si="2"/>
         <v>DateVente1100030</v>
       </c>
-      <c r="K93" t="str">
-        <f t="shared" si="6"/>
-        <v>PrixVente1100030</v>
-      </c>
-      <c r="L93" t="str">
-        <f t="shared" si="6"/>
-        <v>Poids1100030</v>
-      </c>
-      <c r="M93" t="str">
-        <f t="shared" si="6"/>
+      <c r="K93" s="2">
+        <v>600</v>
+      </c>
+      <c r="L93" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="M93" s="2" t="str">
+        <f t="shared" si="5"/>
         <v>DateCreation1100030</v>
       </c>
-      <c r="N93" t="str">
-        <f t="shared" si="6"/>
-        <v>DateMAJ1100030</v>
+      <c r="N93" s="2" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A94">
+      <c r="A94" s="2">
         <v>1600037</v>
       </c>
-      <c r="B94">
+      <c r="B94" s="2">
         <v>16</v>
       </c>
-      <c r="C94">
+      <c r="C94" s="2">
         <v>1007</v>
       </c>
-      <c r="D94" t="str">
+      <c r="D94" s="2" t="str">
         <f t="shared" si="5"/>
         <v>Nom1600037</v>
       </c>
-      <c r="E94" t="str">
+      <c r="E94" s="2" t="str">
         <f t="shared" si="6"/>
         <v>Description1600037</v>
       </c>
-      <c r="F94" t="str">
+      <c r="F94" s="2" t="str">
         <f t="shared" si="6"/>
         <v>Photo1600037</v>
       </c>
-      <c r="G94" t="str">
+      <c r="G94" s="2" t="str">
         <f t="shared" si="6"/>
         <v>PrixDemande1600037</v>
       </c>
-      <c r="H94" t="str">
+      <c r="H94" s="2" t="str">
         <f t="shared" si="6"/>
         <v>NombreItems1600037</v>
       </c>
-      <c r="I94" t="str">
+      <c r="I94" s="2" t="str">
         <f t="shared" si="6"/>
         <v>Disponibilité1600037</v>
       </c>
-      <c r="J94" t="str">
-        <f t="shared" si="6"/>
+      <c r="J94" s="2" t="str">
+        <f t="shared" si="2"/>
         <v>DateVente1600037</v>
       </c>
-      <c r="K94" t="str">
+      <c r="K94" s="2" t="str">
         <f t="shared" si="6"/>
         <v>PrixVente1600037</v>
       </c>
-      <c r="L94" t="str">
+      <c r="L94" s="2" t="str">
         <f t="shared" si="6"/>
         <v>Poids1600037</v>
       </c>
-      <c r="M94" t="str">
-        <f t="shared" si="6"/>
+      <c r="M94" s="2" t="str">
+        <f t="shared" si="5"/>
         <v>DateCreation1600037</v>
       </c>
-      <c r="N94" t="str">
-        <f t="shared" si="6"/>
-        <v>DateMAJ1600037</v>
+      <c r="N94" s="2" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A95">
+      <c r="A95" s="2">
         <v>1600038</v>
       </c>
-      <c r="B95">
+      <c r="B95" s="2">
         <v>16</v>
       </c>
-      <c r="C95">
+      <c r="C95" s="2">
         <v>1007</v>
       </c>
-      <c r="D95" t="str">
+      <c r="D95" s="2" t="str">
         <f t="shared" si="5"/>
         <v>Nom1600038</v>
       </c>
-      <c r="E95" t="str">
+      <c r="E95" s="2" t="str">
         <f t="shared" si="6"/>
         <v>Description1600038</v>
       </c>
-      <c r="F95" t="str">
+      <c r="F95" s="2" t="str">
         <f t="shared" si="6"/>
         <v>Photo1600038</v>
       </c>
-      <c r="G95" t="str">
+      <c r="G95" s="2" t="str">
         <f t="shared" si="6"/>
         <v>PrixDemande1600038</v>
       </c>
-      <c r="H95" t="str">
+      <c r="H95" s="2" t="str">
         <f t="shared" si="6"/>
         <v>NombreItems1600038</v>
       </c>
-      <c r="I95" t="str">
+      <c r="I95" s="2" t="str">
         <f t="shared" si="6"/>
         <v>Disponibilité1600038</v>
       </c>
-      <c r="J95" t="str">
-        <f t="shared" si="6"/>
+      <c r="J95" s="2" t="str">
+        <f t="shared" si="2"/>
         <v>DateVente1600038</v>
       </c>
-      <c r="K95" t="str">
+      <c r="K95" s="2" t="str">
         <f t="shared" si="6"/>
         <v>PrixVente1600038</v>
       </c>
-      <c r="L95" t="str">
+      <c r="L95" s="2" t="str">
         <f t="shared" si="6"/>
         <v>Poids1600038</v>
       </c>
-      <c r="M95" t="str">
-        <f t="shared" si="6"/>
+      <c r="M95" s="2" t="str">
+        <f t="shared" si="5"/>
         <v>DateCreation1600038</v>
       </c>
-      <c r="N95" t="str">
-        <f t="shared" si="6"/>
-        <v>DateMAJ1600038</v>
+      <c r="N95" s="2" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A96">
+      <c r="A96" s="2">
         <v>1600039</v>
       </c>
-      <c r="B96">
+      <c r="B96" s="2">
         <v>16</v>
       </c>
-      <c r="C96">
+      <c r="C96" s="2">
         <v>1007</v>
       </c>
-      <c r="D96" t="str">
+      <c r="D96" s="2" t="str">
         <f t="shared" si="5"/>
         <v>Nom1600039</v>
       </c>
-      <c r="E96" t="str">
+      <c r="E96" s="2" t="str">
         <f t="shared" si="6"/>
         <v>Description1600039</v>
       </c>
-      <c r="F96" t="str">
+      <c r="F96" s="2" t="str">
         <f t="shared" si="6"/>
         <v>Photo1600039</v>
       </c>
-      <c r="G96" t="str">
+      <c r="G96" s="2" t="str">
         <f t="shared" si="6"/>
         <v>PrixDemande1600039</v>
       </c>
-      <c r="H96" t="str">
+      <c r="H96" s="2" t="str">
         <f t="shared" si="6"/>
         <v>NombreItems1600039</v>
       </c>
-      <c r="I96" t="str">
+      <c r="I96" s="2" t="str">
         <f t="shared" si="6"/>
         <v>Disponibilité1600039</v>
       </c>
-      <c r="J96" t="str">
-        <f t="shared" si="6"/>
+      <c r="J96" s="2" t="str">
+        <f t="shared" si="2"/>
         <v>DateVente1600039</v>
       </c>
-      <c r="K96" t="str">
+      <c r="K96" s="2" t="str">
         <f t="shared" si="6"/>
         <v>PrixVente1600039</v>
       </c>
-      <c r="L96" t="str">
+      <c r="L96" s="2" t="str">
         <f t="shared" si="6"/>
         <v>Poids1600039</v>
       </c>
-      <c r="M96" t="str">
-        <f t="shared" si="6"/>
+      <c r="M96" s="2" t="str">
+        <f t="shared" si="5"/>
         <v>DateCreation1600039</v>
       </c>
-      <c r="N96" t="str">
-        <f t="shared" si="6"/>
-        <v>DateMAJ1600039</v>
+      <c r="N96" s="2" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A97">
+      <c r="A97" s="2">
         <v>1100031</v>
       </c>
-      <c r="B97">
+      <c r="B97" s="2">
         <v>11</v>
       </c>
-      <c r="C97">
+      <c r="C97" s="2">
         <v>1008</v>
       </c>
-      <c r="D97" t="str">
+      <c r="D97" s="2" t="str">
         <f t="shared" si="5"/>
         <v>Nom1100031</v>
       </c>
-      <c r="E97" t="str">
+      <c r="E97" s="2" t="str">
         <f t="shared" si="6"/>
         <v>Description1100031</v>
       </c>
-      <c r="F97" t="str">
+      <c r="F97" s="2" t="str">
         <f t="shared" si="6"/>
         <v>Photo1100031</v>
       </c>
-      <c r="G97" t="str">
+      <c r="G97" s="2" t="str">
         <f t="shared" si="6"/>
         <v>PrixDemande1100031</v>
       </c>
-      <c r="H97" t="str">
+      <c r="H97" s="2" t="str">
         <f t="shared" si="6"/>
         <v>NombreItems1100031</v>
       </c>
-      <c r="I97" t="str">
+      <c r="I97" s="2" t="str">
         <f t="shared" si="6"/>
         <v>Disponibilité1100031</v>
       </c>
-      <c r="J97" t="str">
-        <f t="shared" si="6"/>
+      <c r="J97" s="2" t="str">
+        <f t="shared" si="2"/>
         <v>DateVente1100031</v>
       </c>
-      <c r="K97" t="str">
+      <c r="K97" s="2" t="str">
         <f t="shared" si="6"/>
         <v>PrixVente1100031</v>
       </c>
-      <c r="L97" t="str">
+      <c r="L97" s="2" t="str">
         <f t="shared" si="6"/>
         <v>Poids1100031</v>
       </c>
-      <c r="M97" t="str">
-        <f t="shared" si="6"/>
+      <c r="M97" s="2" t="str">
+        <f t="shared" si="5"/>
         <v>DateCreation1100031</v>
       </c>
-      <c r="N97" t="str">
-        <f t="shared" si="6"/>
-        <v>DateMAJ1100031</v>
+      <c r="N97" s="2" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A98">
+      <c r="A98" s="2">
         <v>1100032</v>
       </c>
-      <c r="B98">
+      <c r="B98" s="2">
         <v>11</v>
       </c>
-      <c r="C98">
+      <c r="C98" s="2">
         <v>1008</v>
       </c>
-      <c r="D98" t="str">
+      <c r="D98" s="2" t="str">
         <f t="shared" si="5"/>
         <v>Nom1100032</v>
       </c>
-      <c r="E98" t="str">
+      <c r="E98" s="2" t="str">
         <f t="shared" si="6"/>
         <v>Description1100032</v>
       </c>
-      <c r="F98" t="str">
+      <c r="F98" s="2" t="str">
         <f t="shared" si="6"/>
         <v>Photo1100032</v>
       </c>
-      <c r="G98" t="str">
+      <c r="G98" s="2" t="str">
         <f t="shared" si="6"/>
         <v>PrixDemande1100032</v>
       </c>
-      <c r="H98" t="str">
+      <c r="H98" s="2" t="str">
         <f t="shared" si="6"/>
         <v>NombreItems1100032</v>
       </c>
-      <c r="I98" t="str">
+      <c r="I98" s="2" t="str">
         <f t="shared" si="6"/>
         <v>Disponibilité1100032</v>
       </c>
-      <c r="J98" t="str">
-        <f t="shared" si="6"/>
+      <c r="J98" s="2" t="str">
+        <f t="shared" si="2"/>
         <v>DateVente1100032</v>
       </c>
-      <c r="K98" t="str">
+      <c r="K98" s="2" t="str">
         <f t="shared" si="6"/>
         <v>PrixVente1100032</v>
       </c>
-      <c r="L98" t="str">
+      <c r="L98" s="2" t="str">
         <f t="shared" si="6"/>
         <v>Poids1100032</v>
       </c>
-      <c r="M98" t="str">
-        <f t="shared" si="6"/>
+      <c r="M98" s="2" t="str">
+        <f t="shared" si="5"/>
         <v>DateCreation1100032</v>
       </c>
-      <c r="N98" t="str">
-        <f t="shared" si="6"/>
-        <v>DateMAJ1100032</v>
+      <c r="N98" s="2" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A99">
+      <c r="A99" s="2">
         <v>1400014</v>
       </c>
-      <c r="B99">
+      <c r="B99" s="2">
         <v>14</v>
       </c>
-      <c r="C99">
+      <c r="C99" s="2">
         <v>1008</v>
       </c>
-      <c r="D99" t="str">
+      <c r="D99" s="2" t="str">
         <f t="shared" si="5"/>
         <v>Nom1400014</v>
       </c>
-      <c r="E99" t="str">
+      <c r="E99" s="2" t="str">
         <f t="shared" si="6"/>
         <v>Description1400014</v>
       </c>
-      <c r="F99" t="str">
+      <c r="F99" s="2" t="str">
         <f t="shared" si="6"/>
         <v>Photo1400014</v>
       </c>
-      <c r="G99" t="str">
+      <c r="G99" s="2" t="str">
         <f t="shared" si="6"/>
         <v>PrixDemande1400014</v>
       </c>
-      <c r="H99" t="str">
+      <c r="H99" s="2" t="str">
         <f t="shared" si="6"/>
         <v>NombreItems1400014</v>
       </c>
-      <c r="I99" t="str">
+      <c r="I99" s="2" t="str">
         <f t="shared" si="6"/>
         <v>Disponibilité1400014</v>
       </c>
-      <c r="J99" t="str">
-        <f t="shared" si="6"/>
+      <c r="J99" s="2" t="str">
+        <f t="shared" si="2"/>
         <v>DateVente1400014</v>
       </c>
-      <c r="K99" t="str">
+      <c r="K99" s="2" t="str">
         <f t="shared" si="6"/>
         <v>PrixVente1400014</v>
       </c>
-      <c r="L99" t="str">
+      <c r="L99" s="2" t="str">
         <f t="shared" si="6"/>
         <v>Poids1400014</v>
       </c>
-      <c r="M99" t="str">
-        <f t="shared" si="6"/>
+      <c r="M99" s="2" t="str">
+        <f t="shared" si="5"/>
         <v>DateCreation1400014</v>
       </c>
-      <c r="N99" t="str">
-        <f t="shared" si="6"/>
-        <v>DateMAJ1400014</v>
+      <c r="N99" s="2" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A100">
+      <c r="A100" s="2">
         <v>1400015</v>
       </c>
-      <c r="B100">
+      <c r="B100" s="2">
         <v>14</v>
       </c>
-      <c r="C100">
+      <c r="C100" s="2">
         <v>1008</v>
       </c>
-      <c r="D100" t="str">
+      <c r="D100" s="2" t="str">
         <f t="shared" si="5"/>
         <v>Nom1400015</v>
       </c>
-      <c r="E100" t="str">
+      <c r="E100" s="2" t="str">
         <f t="shared" si="6"/>
         <v>Description1400015</v>
       </c>
-      <c r="F100" t="str">
+      <c r="F100" s="2" t="str">
         <f t="shared" si="6"/>
         <v>Photo1400015</v>
       </c>
-      <c r="G100" t="str">
+      <c r="G100" s="2" t="str">
         <f t="shared" si="6"/>
         <v>PrixDemande1400015</v>
       </c>
-      <c r="H100" t="str">
+      <c r="H100" s="2" t="str">
         <f t="shared" si="6"/>
         <v>NombreItems1400015</v>
       </c>
-      <c r="I100" t="str">
+      <c r="I100" s="2" t="str">
         <f t="shared" si="6"/>
         <v>Disponibilité1400015</v>
       </c>
-      <c r="J100" t="str">
+      <c r="J100" s="2" t="str">
         <f t="shared" si="6"/>
         <v>DateVente1400015</v>
       </c>
-      <c r="K100" t="str">
+      <c r="K100" s="2" t="str">
         <f t="shared" si="6"/>
         <v>PrixVente1400015</v>
       </c>
-      <c r="L100" t="str">
+      <c r="L100" s="2" t="str">
         <f t="shared" si="6"/>
         <v>Poids1400015</v>
       </c>
-      <c r="M100" t="str">
-        <f t="shared" si="6"/>
+      <c r="M100" s="2" t="str">
+        <f t="shared" si="5"/>
         <v>DateCreation1400015</v>
       </c>
-      <c r="N100" t="str">
-        <f t="shared" si="6"/>
-        <v>DateMAJ1400015</v>
+      <c r="N100" s="2" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A101">
+      <c r="A101" s="2">
         <v>1400016</v>
       </c>
-      <c r="B101">
+      <c r="B101" s="2">
         <v>14</v>
       </c>
-      <c r="C101">
+      <c r="C101" s="2">
         <v>1008</v>
       </c>
-      <c r="D101" t="str">
+      <c r="D101" s="2" t="str">
         <f t="shared" si="5"/>
         <v>Nom1400016</v>
       </c>
-      <c r="E101" t="str">
+      <c r="E101" s="2" t="str">
         <f t="shared" si="6"/>
         <v>Description1400016</v>
       </c>
-      <c r="F101" t="str">
+      <c r="F101" s="2" t="str">
         <f t="shared" si="6"/>
         <v>Photo1400016</v>
       </c>
-      <c r="G101" t="str">
+      <c r="G101" s="2" t="str">
         <f t="shared" si="6"/>
         <v>PrixDemande1400016</v>
       </c>
-      <c r="H101" t="str">
+      <c r="H101" s="2" t="str">
         <f t="shared" si="6"/>
         <v>NombreItems1400016</v>
       </c>
-      <c r="I101" t="str">
+      <c r="I101" s="2" t="str">
         <f t="shared" si="6"/>
         <v>Disponibilité1400016</v>
       </c>
-      <c r="J101" t="str">
+      <c r="J101" s="2" t="str">
         <f t="shared" si="6"/>
         <v>DateVente1400016</v>
       </c>
-      <c r="K101" t="str">
+      <c r="K101" s="2" t="str">
         <f t="shared" si="6"/>
         <v>PrixVente1400016</v>
       </c>
-      <c r="L101" t="str">
+      <c r="L101" s="2" t="str">
         <f t="shared" si="6"/>
         <v>Poids1400016</v>
       </c>
-      <c r="M101" t="str">
-        <f t="shared" si="6"/>
+      <c r="M101" s="2" t="str">
+        <f t="shared" si="5"/>
         <v>DateCreation1400016</v>
       </c>
-      <c r="N101" t="str">
-        <f t="shared" si="6"/>
-        <v>DateMAJ1400016</v>
+      <c r="N101" s="2" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A102">
+      <c r="A102" s="2">
         <v>1400017</v>
       </c>
-      <c r="B102">
+      <c r="B102" s="2">
         <v>14</v>
       </c>
-      <c r="C102">
+      <c r="C102" s="2">
         <v>1008</v>
       </c>
-      <c r="D102" t="str">
+      <c r="D102" s="2" t="str">
         <f t="shared" si="5"/>
         <v>Nom1400017</v>
       </c>
-      <c r="E102" t="str">
+      <c r="E102" s="2" t="str">
         <f t="shared" si="6"/>
         <v>Description1400017</v>
       </c>
-      <c r="F102" t="str">
+      <c r="F102" s="2" t="str">
         <f t="shared" si="6"/>
         <v>Photo1400017</v>
       </c>
-      <c r="G102" t="str">
+      <c r="G102" s="2" t="str">
         <f t="shared" si="6"/>
         <v>PrixDemande1400017</v>
       </c>
-      <c r="H102" t="str">
+      <c r="H102" s="2" t="str">
         <f t="shared" si="6"/>
         <v>NombreItems1400017</v>
       </c>
-      <c r="I102" t="str">
+      <c r="I102" s="2" t="str">
         <f t="shared" si="6"/>
         <v>Disponibilité1400017</v>
       </c>
-      <c r="J102" t="str">
+      <c r="J102" s="2" t="str">
         <f t="shared" si="6"/>
         <v>DateVente1400017</v>
       </c>
-      <c r="K102" t="str">
+      <c r="K102" s="2" t="str">
         <f t="shared" si="6"/>
         <v>PrixVente1400017</v>
       </c>
-      <c r="L102" t="str">
+      <c r="L102" s="2" t="str">
         <f t="shared" si="6"/>
         <v>Poids1400017</v>
       </c>
-      <c r="M102" t="str">
-        <f t="shared" si="6"/>
+      <c r="M102" s="2" t="str">
+        <f t="shared" si="5"/>
         <v>DateCreation1400017</v>
       </c>
-      <c r="N102" t="str">
-        <f t="shared" si="6"/>
-        <v>DateMAJ1400017</v>
+      <c r="N102" s="2" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A103">
+      <c r="A103" s="2">
         <v>1400018</v>
       </c>
-      <c r="B103">
+      <c r="B103" s="2">
         <v>14</v>
       </c>
-      <c r="C103">
+      <c r="C103" s="2">
         <v>1008</v>
       </c>
-      <c r="D103" t="str">
+      <c r="D103" s="2" t="str">
         <f t="shared" si="5"/>
         <v>Nom1400018</v>
       </c>
-      <c r="E103" t="str">
+      <c r="E103" s="2" t="str">
         <f t="shared" si="6"/>
         <v>Description1400018</v>
       </c>
-      <c r="F103" t="str">
+      <c r="F103" s="2" t="str">
         <f t="shared" si="6"/>
         <v>Photo1400018</v>
       </c>
-      <c r="G103" t="str">
+      <c r="G103" s="2" t="str">
         <f t="shared" si="6"/>
         <v>PrixDemande1400018</v>
       </c>
-      <c r="H103" t="str">
+      <c r="H103" s="2" t="str">
         <f t="shared" si="6"/>
         <v>NombreItems1400018</v>
       </c>
-      <c r="I103" t="str">
+      <c r="I103" s="2" t="str">
         <f t="shared" si="6"/>
         <v>Disponibilité1400018</v>
       </c>
-      <c r="J103" t="str">
+      <c r="J103" s="2" t="str">
         <f t="shared" si="6"/>
         <v>DateVente1400018</v>
       </c>
-      <c r="K103" t="str">
+      <c r="K103" s="2" t="str">
         <f t="shared" si="6"/>
         <v>PrixVente1400018</v>
       </c>
-      <c r="L103" t="str">
+      <c r="L103" s="2" t="str">
         <f t="shared" si="6"/>
         <v>Poids1400018</v>
       </c>
-      <c r="M103" t="str">
-        <f t="shared" si="6"/>
+      <c r="M103" s="2" t="str">
+        <f t="shared" si="5"/>
         <v>DateCreation1400018</v>
       </c>
-      <c r="N103" t="str">
-        <f t="shared" si="6"/>
-        <v>DateMAJ1400018</v>
+      <c r="N103" s="2" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A104">
+      <c r="A104" s="2">
         <v>1400019</v>
       </c>
-      <c r="B104">
+      <c r="B104" s="2">
         <v>14</v>
       </c>
-      <c r="C104">
+      <c r="C104" s="2">
         <v>1008</v>
       </c>
-      <c r="D104" t="str">
+      <c r="D104" s="2" t="str">
         <f t="shared" si="5"/>
         <v>Nom1400019</v>
       </c>
-      <c r="E104" t="str">
+      <c r="E104" s="2" t="str">
         <f t="shared" ref="E104:N105" si="7">E$1&amp;$A104</f>
         <v>Description1400019</v>
       </c>
-      <c r="F104" t="str">
+      <c r="F104" s="2" t="str">
         <f t="shared" si="7"/>
         <v>Photo1400019</v>
       </c>
-      <c r="G104" t="str">
+      <c r="G104" s="2" t="str">
         <f t="shared" si="7"/>
         <v>PrixDemande1400019</v>
       </c>
-      <c r="H104" t="str">
+      <c r="H104" s="2" t="str">
         <f t="shared" si="7"/>
         <v>NombreItems1400019</v>
       </c>
-      <c r="I104" t="str">
+      <c r="I104" s="2" t="str">
         <f t="shared" si="7"/>
         <v>Disponibilité1400019</v>
       </c>
-      <c r="J104" t="str">
+      <c r="J104" s="2" t="str">
         <f t="shared" si="7"/>
         <v>DateVente1400019</v>
       </c>
-      <c r="K104" t="str">
+      <c r="K104" s="2" t="str">
         <f t="shared" si="7"/>
         <v>PrixVente1400019</v>
       </c>
-      <c r="L104" t="str">
+      <c r="L104" s="2" t="str">
         <f t="shared" si="7"/>
         <v>Poids1400019</v>
       </c>
-      <c r="M104" t="str">
-        <f t="shared" si="7"/>
+      <c r="M104" s="2" t="str">
+        <f t="shared" si="5"/>
         <v>DateCreation1400019</v>
       </c>
-      <c r="N104" t="str">
-        <f t="shared" si="7"/>
-        <v>DateMAJ1400019</v>
+      <c r="N104" s="2" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A105">
+      <c r="A105" s="2">
         <v>1600040</v>
       </c>
-      <c r="B105">
+      <c r="B105" s="2">
         <v>16</v>
       </c>
-      <c r="C105">
+      <c r="C105" s="2">
         <v>1008</v>
       </c>
-      <c r="D105" t="str">
+      <c r="D105" s="2" t="str">
         <f t="shared" si="5"/>
         <v>Nom1600040</v>
       </c>
-      <c r="E105" t="str">
+      <c r="E105" s="2" t="str">
         <f t="shared" si="7"/>
         <v>Description1600040</v>
       </c>
-      <c r="F105" t="str">
+      <c r="F105" s="2" t="str">
         <f t="shared" si="7"/>
         <v>Photo1600040</v>
       </c>
-      <c r="G105" t="str">
+      <c r="G105" s="2" t="str">
         <f t="shared" si="7"/>
         <v>PrixDemande1600040</v>
       </c>
-      <c r="H105" t="str">
+      <c r="H105" s="2" t="str">
         <f t="shared" si="7"/>
         <v>NombreItems1600040</v>
       </c>
-      <c r="I105" t="str">
+      <c r="I105" s="2" t="str">
         <f t="shared" si="7"/>
         <v>Disponibilité1600040</v>
       </c>
-      <c r="J105" t="str">
+      <c r="J105" s="2" t="str">
         <f t="shared" si="7"/>
         <v>DateVente1600040</v>
       </c>
-      <c r="K105" t="str">
+      <c r="K105" s="2" t="str">
         <f t="shared" si="7"/>
         <v>PrixVente1600040</v>
       </c>
-      <c r="L105" t="str">
+      <c r="L105" s="2" t="str">
         <f t="shared" si="7"/>
         <v>Poids1600040</v>
       </c>
-      <c r="M105" t="str">
-        <f t="shared" si="7"/>
+      <c r="M105" s="2" t="str">
+        <f t="shared" si="5"/>
         <v>DateCreation1600040</v>
       </c>
-      <c r="N105" t="str">
-        <f t="shared" si="7"/>
-        <v>DateMAJ1600040</v>
+      <c r="N105" s="2" t="s">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Jeu d'essai (Valeurs).xlsx
+++ b/Jeu d'essai (Valeurs).xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="860" documentId="14_{E952B2A6-1070-47AA-ABAD-4591E8C72938}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{DED8041D-CD7C-4D8F-B501-4784787C264F}"/>
+  <xr:revisionPtr revIDLastSave="1302" documentId="14_{E952B2A6-1070-47AA-ABAD-4591E8C72938}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{B0B969EC-8331-40FF-B74F-D4C7B64FA522}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="368">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="953" uniqueCount="578">
   <si>
     <t>NULL</t>
   </si>
@@ -348,15 +348,6 @@
     <t>DateVisite</t>
   </si>
   <si>
-    <t>Québec</t>
-  </si>
-  <si>
-    <t>Ontario</t>
-  </si>
-  <si>
-    <t>Nouveau-Brunswick</t>
-  </si>
-  <si>
     <t>DateVisite1</t>
   </si>
   <si>
@@ -750,9 +741,6 @@
     <t>Djembé, un an d'usure.  A très peu servi.  Construction solide.  Finition bois clair.  payé 500.00$.</t>
   </si>
   <si>
-    <t>1000010.jpg</t>
-  </si>
-  <si>
     <t>35.0</t>
   </si>
   <si>
@@ -762,9 +750,6 @@
     <t>Lit jumeau superposé.  Echelle placable à chaque bout.  Bureau intégré.  Chaise fourni.  Bois verni.  Aucun matelas fourni.</t>
   </si>
   <si>
-    <t>1000020.jpg</t>
-  </si>
-  <si>
     <t>150.0</t>
   </si>
   <si>
@@ -774,9 +759,6 @@
     <t>Aspirateur Allegro.  Comme neuf.  Vient avec tous les accessoires.  Bon état.</t>
   </si>
   <si>
-    <t>1000030.jpg</t>
-  </si>
-  <si>
     <t>30.0</t>
   </si>
   <si>
@@ -786,9 +768,6 @@
     <t xml:space="preserve">Imprimante Epson serie i560. Ecore en bon état.  Vendue sans garantie. </t>
   </si>
   <si>
-    <t>1000040.jpg</t>
-  </si>
-  <si>
     <t>7.5</t>
   </si>
   <si>
@@ -798,9 +777,6 @@
     <t>Guitare électrique avec étui.  Utilisé très peu.  Comme neuve.  Pas d'amplificateur.</t>
   </si>
   <si>
-    <t>1000050.jpg</t>
-  </si>
-  <si>
     <t>22.0</t>
   </si>
   <si>
@@ -810,9 +786,6 @@
     <t>Piano d'appartement.  En cerisier. Vieux de plus de 40 ans.  Encore en tr`s bon état. Besoin d'être accordé.</t>
   </si>
   <si>
-    <t>2000010.jpg</t>
-  </si>
-  <si>
     <t>450.0</t>
   </si>
   <si>
@@ -822,9 +795,6 @@
     <t>Couleur bleue. 5 roulettes.  Hauteur ajustable.</t>
   </si>
   <si>
-    <t>2000020.jpg</t>
-  </si>
-  <si>
     <t>10.0</t>
   </si>
   <si>
@@ -834,9 +804,6 @@
     <t>Acer, AMD Turion, 1600 MH, disque 120 Go, écran 15 pouces DVD RW</t>
   </si>
   <si>
-    <t>2000030.jpg</t>
-  </si>
-  <si>
     <t>6.5</t>
   </si>
   <si>
@@ -846,9 +813,6 @@
     <t>Couleur vertes, Comme neuves. Payé 250.00$.</t>
   </si>
   <si>
-    <t>2000040.jpg</t>
-  </si>
-  <si>
     <t>15.0</t>
   </si>
   <si>
@@ -858,27 +822,15 @@
     <t>Scanner pour long document.  Couleur noire.  Encore en bonne condition.  Cable fourni.  Driver soumis.</t>
   </si>
   <si>
-    <t>3000010.jpg</t>
-  </si>
-  <si>
     <t>Imprimantes pour les pièces</t>
   </si>
   <si>
     <t>Vendues seule ou en lot (5).  Marques variées.  Certaines en état de marche</t>
   </si>
   <si>
-    <t>3000020.jpg</t>
-  </si>
-  <si>
     <t>Humidificateur</t>
   </si>
   <si>
-    <t>Humidificateur de chambre. Idéal pour humidifier une chambre d'enfant.  Comme neuf.  Utilisé une saison.</t>
-  </si>
-  <si>
-    <t>3000030.jpg</t>
-  </si>
-  <si>
     <t>12.0</t>
   </si>
   <si>
@@ -888,9 +840,6 @@
     <t>Il fait froid! Réchauffez-vous avec un thé! Toute petite théière en fonte. Bleue et noire. Contient 10 oz, 1 1/4 tasse. Neuve, servait d'objet décoratif Départ en résidence</t>
   </si>
   <si>
-    <t>1000060.JPG</t>
-  </si>
-  <si>
     <t>3.0</t>
   </si>
   <si>
@@ -900,9 +849,6 @@
     <t>Verre taillé comprenant ensemble de parfumeuse en parfaite condition.</t>
   </si>
   <si>
-    <t>2000050.JPG</t>
-  </si>
-  <si>
     <t>0.5</t>
   </si>
   <si>
@@ -912,9 +858,6 @@
     <t>Petite couverture en polar pour enfants en forme de requin. Insertion par la bouche du requin.</t>
   </si>
   <si>
-    <t>3000040.JPG</t>
-  </si>
-  <si>
     <t>1.0</t>
   </si>
   <si>
@@ -924,9 +867,6 @@
     <t>Table de 48’’ x 96’’ en frêne massif Épaisseur 2’’ avec insertions en érable torréfier Pattes en acier , cornière en L 4’’ x 4’’ aux extrémités, donc aucune pattes au milieu Peut assoir 12 personnes Pièce unique faite à la main Valeur 2000$ Liquidation à 800$</t>
   </si>
   <si>
-    <t>1000070.JPG</t>
-  </si>
-  <si>
     <t>45.0</t>
   </si>
   <si>
@@ -936,9 +876,6 @@
     <t>Meuble avec foyer intégré acheté sur costco.ca Manuel d’instruction et télécommande.</t>
   </si>
   <si>
-    <t>2000060.JPG</t>
-  </si>
-  <si>
     <t>116.0</t>
   </si>
   <si>
@@ -948,9 +885,6 @@
     <t>Très grand bureau en forme de U. Facile à démontrer pour le transport. extérieur: 60'' x 90'' Intérieur: 40'' x 42''</t>
   </si>
   <si>
-    <t>3000050.JPG</t>
-  </si>
-  <si>
     <t>323.0</t>
   </si>
   <si>
@@ -960,9 +894,6 @@
     <t>Términal illico enregistreur haute définition modèle Samsung smt-c8340 pvr récente génération</t>
   </si>
   <si>
-    <t>1000080.JPG</t>
-  </si>
-  <si>
     <t>4.5</t>
   </si>
   <si>
@@ -972,27 +903,18 @@
     <t>Console PlayStation 1 en excellente condition, fourni avec manette et filages</t>
   </si>
   <si>
-    <t>2000070.JPG</t>
-  </si>
-  <si>
     <t>Nikon 24-85</t>
   </si>
   <si>
     <t>Nikon AF-S Nikkor 24-85mm f/3.5-4.5G ED</t>
   </si>
   <si>
-    <t>3000060.JPG</t>
-  </si>
-  <si>
     <t>Habit de neige North Face bébé 0-3 mois</t>
   </si>
   <si>
     <t>habit de neige pour bébé North Face 0-3 mois Porté quelques fois Raison de la vente: trop petit environnement non fumeur Avec Tuque perlimpinpin</t>
   </si>
   <si>
-    <t>1000090.JPG</t>
-  </si>
-  <si>
     <t>13.0</t>
   </si>
   <si>
@@ -1002,18 +924,12 @@
     <t>Barrière de sécurité double pour bébé, en bois, s'installe sur tous types d'ouvertures. Idéale pour escalier. Vendue avec manuel d'installation.</t>
   </si>
   <si>
-    <t>2000080.JPG</t>
-  </si>
-  <si>
     <t>Poussette Graco</t>
   </si>
   <si>
     <t>Poussette Graco avec plateau avant amovible Dessus baldaquin dont le siège et repose pied s'abaisse 3 positons Roulettes pivotantes avec freins.</t>
   </si>
   <si>
-    <t>3000070.JPG</t>
-  </si>
-  <si>
     <t>37.5</t>
   </si>
   <si>
@@ -1023,9 +939,6 @@
     <t>Diamètre de roue: 4" (100 mm) Type de roulette: Pivotant Matériau du cadre: Acier Distance entre les trous de boulon (centre-centre): 55 mm x 80 mm Dimensions de la plaque: 78 mm x 102 mm Hauteur hors tout: 5"</t>
   </si>
   <si>
-    <t>1000100.JPG</t>
-  </si>
-  <si>
     <t>2.0</t>
   </si>
   <si>
@@ -1035,9 +948,6 @@
     <t>set de cles Craftman 8 cles</t>
   </si>
   <si>
-    <t>2000090.JPG</t>
-  </si>
-  <si>
     <t>2.5</t>
   </si>
   <si>
@@ -1047,9 +957,6 @@
     <t>scie a onglet 12" mastercraft maximum avec lazer</t>
   </si>
   <si>
-    <t>3000080.JPG</t>
-  </si>
-  <si>
     <t>56.0</t>
   </si>
   <si>
@@ -1059,9 +966,6 @@
     <t>A vendre ensemble de ski alpin: Ski ELAN 144 cm avec bottes pointure 26, plus bâtons.</t>
   </si>
   <si>
-    <t>1000110.JPG</t>
-  </si>
-  <si>
     <t>7.0</t>
   </si>
   <si>
@@ -1071,18 +975,12 @@
     <t>Patin hockey gr 2 CCM SL-100 220mm</t>
   </si>
   <si>
-    <t>2000100.JPG</t>
-  </si>
-  <si>
     <t>Bâton Bauer Junior Nexus 1N</t>
   </si>
   <si>
     <t>Bâton Bauer Junior Nexus 1N - Kane P88 Flex 47 Lie 5 Bâton haut de gamme. Pour joueur de catégorie Atome et Peewee. Excellent état. Peu utilisé (mon garçon a grandi rapidement ). A été coupé légèrement (longueur 48 po du talon )</t>
   </si>
   <si>
-    <t>3000090.JPG</t>
-  </si>
-  <si>
     <t>1600002.jpg</t>
   </si>
   <si>
@@ -1096,9 +994,6 @@
   </si>
   <si>
     <t>Honeywell Hz-1350 C Chauffage en céramique</t>
-  </si>
-  <si>
-    <t>1600003.jpg</t>
   </si>
   <si>
     <t>Efficace en céramique de chauffage avec thermostat réglable maintient la chaleur souhaitée
@@ -1158,6 +1053,758 @@
   </si>
   <si>
     <t>34.0</t>
+  </si>
+  <si>
+    <t>Lit superposé en métal avec deux échelles</t>
+  </si>
+  <si>
+    <t>En attente de brevet Quick Lock facile assemblée en moins d'une heure
+Support en acier robuste avec pas besoin de sommier tapissier
+Les dimensions sont 76.2"l x 104,9 cm W x 154,4 cm H
+Pratique et compact emballage permet FedEx/UPS expédition
+Deux échelles sont intégrés included-mattresses vendu séparément</t>
+  </si>
+  <si>
+    <t>231.99</t>
+  </si>
+  <si>
+    <t>98.1</t>
+  </si>
+  <si>
+    <t>Couverture chauffante</t>
+  </si>
+  <si>
+    <t>Couverture chauffante uniquement dans le marché avec thermofine. La technologie intelligente ce sentiment et s'adapte à votre environnement de sommeil afin de maintenir la température souhaitée
+Baissez le thermostat et enregistrer jusqu'à 10% sur vos factures de chauffage.
+Contrôleur facile à utiliser avec 5 réglages de chaleur pour un confort chaud, doux.
+10-hr Auto-Off ; lavable en machine/sèche-linge ; 100% polyester</t>
+  </si>
+  <si>
+    <t>Baissez le thermostat et enregistrer jusqu'à 10% sur vos factures de chauffage.</t>
+  </si>
+  <si>
+    <t>1600007.jpg</t>
+  </si>
+  <si>
+    <t>139.99</t>
+  </si>
+  <si>
+    <t>5.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Canapé EKTORP </t>
+  </si>
+  <si>
+    <t>Sièges garnis mousse haute résilience et rembourré fibres de polyester qui procurent un bon support et retrouvent leur forme après utilisation.
+Coussins du dossier double face garnis fibres de polyester, offrent un confort moelleux pour le dos.
+Entretien facile. Housse lavable en machine.
+Une gamme de housses coordonnées vous permet de donner facilement un nouveau look à votre meuble.
+Garantie 10 ans. Renseignements complets dans notre livret de garantie.</t>
+  </si>
+  <si>
+    <t>1200005.JPG</t>
+  </si>
+  <si>
+    <t>171.0</t>
+  </si>
+  <si>
+    <t>Table basse LACK</t>
+  </si>
+  <si>
+    <t>Tablette pratique pour ranger magazines ou autres, permet de faire place nette sur la table.</t>
+  </si>
+  <si>
+    <t>24.99</t>
+  </si>
+  <si>
+    <t>Étagère KALLAX</t>
+  </si>
+  <si>
+    <t>Se place à la verticale ou à l'horizontale et fait office de bibliothèque ou de buffet.</t>
+  </si>
+  <si>
+    <t>1200007.JPG</t>
+  </si>
+  <si>
+    <t>41.0</t>
+  </si>
+  <si>
+    <t>89.99</t>
+  </si>
+  <si>
+    <t>Bibliothèque BILLY</t>
+  </si>
+  <si>
+    <t>Tablettes à hauteur réglable, à adapter selon vos besoins.
+Un seul élément peut servir de rangement dans un espace restreint ou servir de base à un rangement de plus grandes dimensions lorsque les besoins évoluent.
+Placage en bois d'aspect naturel.</t>
+  </si>
+  <si>
+    <t>1200008.JPG</t>
+  </si>
+  <si>
+    <t>80.0</t>
+  </si>
+  <si>
+    <t>Meuble télé BRIMNES</t>
+  </si>
+  <si>
+    <t>Ce meuble télé dispose de grands tiroirs permettant de ranger télécommandes, manettes de jeu et autres accessoires multimédias.
+Passe-câbles pour regrouper les câbles à l'arrière ; ils sont hors de vue tout en étant à portée de main.</t>
+  </si>
+  <si>
+    <t>1200009.JPG</t>
+  </si>
+  <si>
+    <t>111.0</t>
+  </si>
+  <si>
+    <t>1200002.jpg</t>
+  </si>
+  <si>
+    <t>1200003.JPG</t>
+  </si>
+  <si>
+    <t>1200001.jpg</t>
+  </si>
+  <si>
+    <t>1200004.JPG</t>
+  </si>
+  <si>
+    <t>1200006.jpg</t>
+  </si>
+  <si>
+    <t>1200010.JPG</t>
+  </si>
+  <si>
+    <t>1200011.JPG</t>
+  </si>
+  <si>
+    <t>1100001.jpg</t>
+  </si>
+  <si>
+    <t>1400001.JPG</t>
+  </si>
+  <si>
+    <t>1400002.JPG</t>
+  </si>
+  <si>
+    <t>1600001.JPG</t>
+  </si>
+  <si>
+    <t>1100002.jpg</t>
+  </si>
+  <si>
+    <t>1100003.jpg</t>
+  </si>
+  <si>
+    <t>1100004.jpg</t>
+  </si>
+  <si>
+    <t>1100005.jpg</t>
+  </si>
+  <si>
+    <t>1600015.JPG</t>
+  </si>
+  <si>
+    <t>1100007.JPG</t>
+  </si>
+  <si>
+    <t>1100008.JPG</t>
+  </si>
+  <si>
+    <t>1100009.JPG</t>
+  </si>
+  <si>
+    <t>1100010.JPG</t>
+  </si>
+  <si>
+    <t>1100011.JPG</t>
+  </si>
+  <si>
+    <t>1100012.JPG</t>
+  </si>
+  <si>
+    <t>1100014.jpg</t>
+  </si>
+  <si>
+    <t>1100015.jpg</t>
+  </si>
+  <si>
+    <t>1100016.JPG</t>
+  </si>
+  <si>
+    <t>1100017.JPG</t>
+  </si>
+  <si>
+    <t>1100018.JPG</t>
+  </si>
+  <si>
+    <t>1100028.jpg</t>
+  </si>
+  <si>
+    <t>1100029.jpg</t>
+  </si>
+  <si>
+    <t>1100030.jpg</t>
+  </si>
+  <si>
+    <t>1600014.JPG</t>
+  </si>
+  <si>
+    <t>Les aubaines Vincent</t>
+  </si>
+  <si>
+    <t>Vincent</t>
+  </si>
+  <si>
+    <t>George</t>
+  </si>
+  <si>
+    <t>324 Rue Marquette</t>
+  </si>
+  <si>
+    <t>Laval</t>
+  </si>
+  <si>
+    <t>QC</t>
+  </si>
+  <si>
+    <t>H7E2B5</t>
+  </si>
+  <si>
+    <t>Canada</t>
+  </si>
+  <si>
+    <t>aubainesvincent@hotmail.com</t>
+  </si>
+  <si>
+    <t>Secret111</t>
+  </si>
+  <si>
+    <t>35.00</t>
+  </si>
+  <si>
+    <t>Tony et fils</t>
+  </si>
+  <si>
+    <t>Capicolo</t>
+  </si>
+  <si>
+    <t>Tony</t>
+  </si>
+  <si>
+    <t>24 Avenue Fenelon</t>
+  </si>
+  <si>
+    <t>Dorval</t>
+  </si>
+  <si>
+    <t>H9T7A2</t>
+  </si>
+  <si>
+    <t>tony44@gmail.com</t>
+  </si>
+  <si>
+    <t>MPtony00</t>
+  </si>
+  <si>
+    <t>50.00</t>
+  </si>
+  <si>
+    <t>Chez Pamela</t>
+  </si>
+  <si>
+    <t>Jefferson</t>
+  </si>
+  <si>
+    <t>Pamela</t>
+  </si>
+  <si>
+    <t>3 Rue Deschamps</t>
+  </si>
+  <si>
+    <t>Rosemère</t>
+  </si>
+  <si>
+    <t>H7Y8S9</t>
+  </si>
+  <si>
+    <t>chezpamela11@hotmail.com</t>
+  </si>
+  <si>
+    <t>Pampam43</t>
+  </si>
+  <si>
+    <t>100.00</t>
+  </si>
+  <si>
+    <t>Buy Right</t>
+  </si>
+  <si>
+    <t>Right</t>
+  </si>
+  <si>
+    <t>Amanda</t>
+  </si>
+  <si>
+    <t>195 Buffalo Street</t>
+  </si>
+  <si>
+    <t>Kingston</t>
+  </si>
+  <si>
+    <t>ON</t>
+  </si>
+  <si>
+    <t>K0H 1Y0</t>
+  </si>
+  <si>
+    <t>amanda.right@videotron.ca</t>
+  </si>
+  <si>
+    <t>Amanda76</t>
+  </si>
+  <si>
+    <t>Au royaume d'Arthur</t>
+  </si>
+  <si>
+    <t>Tremblay</t>
+  </si>
+  <si>
+    <t>Arthur</t>
+  </si>
+  <si>
+    <t>4 Avenue Champlain</t>
+  </si>
+  <si>
+    <t>Candiac</t>
+  </si>
+  <si>
+    <t>J4R1C9</t>
+  </si>
+  <si>
+    <t>arttrem3@gmail.com</t>
+  </si>
+  <si>
+    <t>Jevend30</t>
+  </si>
+  <si>
+    <t>À bon prix</t>
+  </si>
+  <si>
+    <t>Farant</t>
+  </si>
+  <si>
+    <t>Charles</t>
+  </si>
+  <si>
+    <t>432 Avenue Dorval</t>
+  </si>
+  <si>
+    <t>H9S1A2</t>
+  </si>
+  <si>
+    <t>bonprix@hotmail.com</t>
+  </si>
+  <si>
+    <t>Secret789</t>
+  </si>
+  <si>
+    <t>Good Price</t>
+  </si>
+  <si>
+    <t>Mcarthy</t>
+  </si>
+  <si>
+    <t>John</t>
+  </si>
+  <si>
+    <t>857 Captain Avenue</t>
+  </si>
+  <si>
+    <t>Moncton</t>
+  </si>
+  <si>
+    <t>NB</t>
+  </si>
+  <si>
+    <t>E6H1J8</t>
+  </si>
+  <si>
+    <t>jmcarthy198@gmail.com</t>
+  </si>
+  <si>
+    <t>Price123</t>
+  </si>
+  <si>
+    <t>langloisg@gmail.com</t>
+  </si>
+  <si>
+    <t>Secret222</t>
+  </si>
+  <si>
+    <t>Langlois</t>
+  </si>
+  <si>
+    <t>Jérome</t>
+  </si>
+  <si>
+    <t>123 Boulevard Don Quichote</t>
+  </si>
+  <si>
+    <t>Ile-Perrot</t>
+  </si>
+  <si>
+    <t>J7V 8I6</t>
+  </si>
+  <si>
+    <t>gaby.sanson@videotron.ca</t>
+  </si>
+  <si>
+    <t>GAb12345</t>
+  </si>
+  <si>
+    <t>Sanson</t>
+  </si>
+  <si>
+    <t>Gaby</t>
+  </si>
+  <si>
+    <t>444 35e Avenue</t>
+  </si>
+  <si>
+    <t>Montréal</t>
+  </si>
+  <si>
+    <t>H2S3T4</t>
+  </si>
+  <si>
+    <t>archimed7@hotmail.com</t>
+  </si>
+  <si>
+    <t>archiMe3</t>
+  </si>
+  <si>
+    <t>Isa756@gmail.com</t>
+  </si>
+  <si>
+    <t>Secret225</t>
+  </si>
+  <si>
+    <t>Isabelle</t>
+  </si>
+  <si>
+    <t>643 Rue Sherbrooke</t>
+  </si>
+  <si>
+    <t>H8S3Z4</t>
+  </si>
+  <si>
+    <t>Carcajou66@hotmail.com</t>
+  </si>
+  <si>
+    <t>Carca333</t>
+  </si>
+  <si>
+    <t>turcottef3@hotmail.com</t>
+  </si>
+  <si>
+    <t>Secret999</t>
+  </si>
+  <si>
+    <t>amelie2233@gmail.com</t>
+  </si>
+  <si>
+    <t>Mme5534</t>
+  </si>
+  <si>
+    <t>fiong@cogeco.com</t>
+  </si>
+  <si>
+    <t>Fifiona2</t>
+  </si>
+  <si>
+    <t>Gabrieli</t>
+  </si>
+  <si>
+    <t>Fiona</t>
+  </si>
+  <si>
+    <t>44 Rue Lakeshore</t>
+  </si>
+  <si>
+    <t>amicus@hotmail.com</t>
+  </si>
+  <si>
+    <t>salutT66</t>
+  </si>
+  <si>
+    <t>george.huot@videotron.ca</t>
+  </si>
+  <si>
+    <t>Secret987</t>
+  </si>
+  <si>
+    <t>bertha.boyer@videotron.ca</t>
+  </si>
+  <si>
+    <t>123456Yo</t>
+  </si>
+  <si>
+    <t>fabalda764@hotmail.com</t>
+  </si>
+  <si>
+    <t>Fabal333</t>
+  </si>
+  <si>
+    <t>yodagg@gmail.com</t>
+  </si>
+  <si>
+    <t>Home8888</t>
+  </si>
+  <si>
+    <t>jjohn3434@hotmail.com</t>
+  </si>
+  <si>
+    <t>H77H88hh</t>
+  </si>
+  <si>
+    <t>James</t>
+  </si>
+  <si>
+    <t>233 Avenue Frenette</t>
+  </si>
+  <si>
+    <t>H9T6Y7</t>
+  </si>
+  <si>
+    <t>tatianabell@gmail.com</t>
+  </si>
+  <si>
+    <t>Pword236</t>
+  </si>
+  <si>
+    <t>jamiezhu@gmail.com</t>
+  </si>
+  <si>
+    <t>Secret237</t>
+  </si>
+  <si>
+    <t>bertrand.lafreniere@videotron.ca</t>
+  </si>
+  <si>
+    <t>Bertran5</t>
+  </si>
+  <si>
+    <t>dumo3@gmail.com</t>
+  </si>
+  <si>
+    <t>Dumarq12</t>
+  </si>
+  <si>
+    <t>Dumarquet</t>
+  </si>
+  <si>
+    <t>Ovide</t>
+  </si>
+  <si>
+    <t>887 Avenue Saint-Charles</t>
+  </si>
+  <si>
+    <t>Monreéal</t>
+  </si>
+  <si>
+    <t>H4E8T2</t>
+  </si>
+  <si>
+    <t>danth@cogeco.com</t>
+  </si>
+  <si>
+    <t>Secret240</t>
+  </si>
+  <si>
+    <t>Thompson</t>
+  </si>
+  <si>
+    <t>Daniel</t>
+  </si>
+  <si>
+    <t>651 Rue Duquette</t>
+  </si>
+  <si>
+    <t>Longueuil</t>
+  </si>
+  <si>
+    <t>J4W1M9</t>
+  </si>
+  <si>
+    <t>macrame@gmail.com</t>
+  </si>
+  <si>
+    <t>Macam222</t>
+  </si>
+  <si>
+    <t>Macam</t>
+  </si>
+  <si>
+    <t>Thomas</t>
+  </si>
+  <si>
+    <t>33 10e Avenue</t>
+  </si>
+  <si>
+    <t>H6F9Y7</t>
+  </si>
+  <si>
+    <t>0.05</t>
+  </si>
+  <si>
+    <t>0.15</t>
+  </si>
+  <si>
+    <t>0.1</t>
+  </si>
+  <si>
+    <t>11.xml</t>
+  </si>
+  <si>
+    <t>12.xml</t>
+  </si>
+  <si>
+    <t>13.xml</t>
+  </si>
+  <si>
+    <t>14.xml</t>
+  </si>
+  <si>
+    <t>15.xml</t>
+  </si>
+  <si>
+    <t>16.xml</t>
+  </si>
+  <si>
+    <t>17.xml</t>
+  </si>
+  <si>
+    <t>Distributeur de savon VOXNAN</t>
+  </si>
+  <si>
+    <t>Facile à remplir grâce à la grande ouverture du distributeur de savon.</t>
+  </si>
+  <si>
+    <t>1600003.JPG</t>
+  </si>
+  <si>
+    <t>0.7</t>
+  </si>
+  <si>
+    <t>7.99</t>
+  </si>
+  <si>
+    <t>Réfrigérateur TILLREDA</t>
+  </si>
+  <si>
+    <t>Un petit réfrigérateur autoportant qui trouvera sa place dans toutes les cuisines.
+Pour que les boissons et les aliments soient plus frais, les placer dans le compartiment congélateur.
+Possibilité de monter la porte pour ouverture à droite ou à gauche.
+Garantie 2 ans.</t>
+  </si>
+  <si>
+    <t>1600006.JPG</t>
+  </si>
+  <si>
+    <t>139.00</t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
+    <t>500.00</t>
+  </si>
+  <si>
+    <t>275.00</t>
+  </si>
+  <si>
+    <t>499.00</t>
+  </si>
+  <si>
+    <t>85.00</t>
+  </si>
+  <si>
+    <t>179.00</t>
+  </si>
+  <si>
+    <t>399.00</t>
+  </si>
+  <si>
+    <t>45.00</t>
+  </si>
+  <si>
+    <t>10.00</t>
+  </si>
+  <si>
+    <t>1300.00</t>
+  </si>
+  <si>
+    <t>150.00</t>
+  </si>
+  <si>
+    <t>40.00</t>
+  </si>
+  <si>
+    <t>70.00</t>
+  </si>
+  <si>
+    <t>60.00</t>
+  </si>
+  <si>
+    <t>30.00</t>
+  </si>
+  <si>
+    <t>125.00</t>
+  </si>
+  <si>
+    <t>110.00</t>
+  </si>
+  <si>
+    <t>25.00</t>
+  </si>
+  <si>
+    <t>600.00</t>
+  </si>
+  <si>
+    <t>1400004.jpg</t>
+  </si>
+  <si>
+    <t>1100006.JPG</t>
+  </si>
+  <si>
+    <t>Apple Watch 4</t>
+  </si>
+  <si>
+    <t>iPhone XS Max</t>
+  </si>
+  <si>
+    <t>1500.99</t>
+  </si>
+  <si>
+    <t>489.99</t>
+  </si>
+  <si>
+    <t>449.99</t>
+  </si>
+  <si>
+    <t>1600016.jpg</t>
+  </si>
+  <si>
+    <t>1600017.jpg</t>
+  </si>
+  <si>
+    <t>Voici la montre Apple Watch de série 4. Fondamentalement redessinée et repensée pour vous garder actif, en santé, et connecté. Le plus grand écran Apple Watch à ce jour. Moniteur de fréquence cardiaque électrique intégré. Nouvelle couronne numérique avec rétroaction haptique Notifications de fréquence cardiaque basse et haute. Détection des chutes et SOS d'urgence.</t>
+  </si>
+  <si>
+    <t>Le iPhone XS Max d'Apple offre juqu'à 512 Go de stockage, la puce A12 Bionic et un écran Super Retina de 6,5 po. Jusqu'à 1.5h de plus d'autonomie que le iPhone X.</t>
   </si>
 </sst>
 </file>
@@ -1193,7 +1840,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1201,6 +1848,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1484,29 +2135,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68577903-7E23-4CEF-B0E9-4DD8C1CA3581}">
   <dimension ref="A1:U8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="11" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="29" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.28515625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="8" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="15.42578125" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="8.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1579,80 +2231,62 @@
       <c r="A2">
         <v>11</v>
       </c>
-      <c r="B2" t="str">
-        <f>B$1&amp;$A2</f>
-        <v>NomAffaires11</v>
-      </c>
-      <c r="C2" t="str">
-        <f t="shared" ref="C2:T8" si="0">C$1&amp;$A2</f>
-        <v>Nom11</v>
-      </c>
-      <c r="D2" t="str">
-        <f t="shared" si="0"/>
-        <v>Prenom11</v>
-      </c>
-      <c r="E2" t="str">
-        <f t="shared" si="0"/>
-        <v>Rue11</v>
-      </c>
-      <c r="F2" t="str">
-        <f t="shared" si="0"/>
-        <v>Ville11</v>
+      <c r="B2" t="s">
+        <v>394</v>
+      </c>
+      <c r="C2" t="s">
+        <v>395</v>
+      </c>
+      <c r="D2" t="s">
+        <v>396</v>
+      </c>
+      <c r="E2" t="s">
+        <v>397</v>
+      </c>
+      <c r="F2" t="s">
+        <v>398</v>
       </c>
       <c r="G2" t="s">
-        <v>102</v>
-      </c>
-      <c r="H2" t="str">
-        <f t="shared" si="0"/>
-        <v>CodePostal11</v>
-      </c>
-      <c r="I2" t="str">
-        <f t="shared" si="0"/>
-        <v>Pays11</v>
-      </c>
-      <c r="J2" t="str">
-        <f t="shared" si="0"/>
-        <v>Tel111</v>
-      </c>
-      <c r="K2" t="str">
-        <f t="shared" si="0"/>
-        <v>Tel211</v>
-      </c>
-      <c r="L2" t="str">
-        <f t="shared" si="0"/>
-        <v>AdresseEmail11</v>
-      </c>
-      <c r="M2" t="str">
-        <f t="shared" si="0"/>
-        <v>MotDePasse11</v>
-      </c>
-      <c r="N2" t="str">
-        <f t="shared" si="0"/>
-        <v>PoidsMaxLivraison11</v>
-      </c>
-      <c r="O2" t="str">
-        <f t="shared" si="0"/>
-        <v>LivraisonGratuite11</v>
-      </c>
-      <c r="P2" t="str">
-        <f t="shared" si="0"/>
-        <v>Taxes11</v>
-      </c>
-      <c r="Q2" t="str">
-        <f t="shared" si="0"/>
-        <v>Pourcentage11</v>
-      </c>
-      <c r="R2" t="str">
-        <f t="shared" si="0"/>
-        <v>Configuration11</v>
-      </c>
-      <c r="S2" t="str">
-        <f t="shared" si="0"/>
-        <v>DateCreation11</v>
-      </c>
-      <c r="T2" t="str">
-        <f t="shared" si="0"/>
-        <v>DateMAJ11</v>
+        <v>399</v>
+      </c>
+      <c r="H2" t="s">
+        <v>400</v>
+      </c>
+      <c r="I2" t="s">
+        <v>401</v>
+      </c>
+      <c r="J2">
+        <v>4503548575</v>
+      </c>
+      <c r="K2" t="s">
+        <v>0</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>402</v>
+      </c>
+      <c r="M2" t="s">
+        <v>403</v>
+      </c>
+      <c r="N2">
+        <v>100</v>
+      </c>
+      <c r="O2">
+        <v>35</v>
+      </c>
+      <c r="P2">
+        <v>1</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>529</v>
+      </c>
+      <c r="R2" t="s">
+        <v>532</v>
+      </c>
+      <c r="S2" s="1">
+        <v>43466.224826388891</v>
+      </c>
+      <c r="T2" s="1">
+        <v>43477.242418981485</v>
       </c>
       <c r="U2">
         <v>1</v>
@@ -1662,80 +2296,62 @@
       <c r="A3">
         <v>12</v>
       </c>
-      <c r="B3" t="str">
-        <f t="shared" ref="B3:Q8" si="1">B$1&amp;$A3</f>
-        <v>NomAffaires12</v>
-      </c>
-      <c r="C3" t="str">
-        <f t="shared" si="1"/>
-        <v>Nom12</v>
-      </c>
-      <c r="D3" t="str">
-        <f t="shared" si="1"/>
-        <v>Prenom12</v>
-      </c>
-      <c r="E3" t="str">
-        <f t="shared" si="1"/>
-        <v>Rue12</v>
-      </c>
-      <c r="F3" t="str">
-        <f t="shared" si="1"/>
-        <v>Ville12</v>
+      <c r="B3" t="s">
+        <v>405</v>
+      </c>
+      <c r="C3" t="s">
+        <v>406</v>
+      </c>
+      <c r="D3" t="s">
+        <v>407</v>
+      </c>
+      <c r="E3" t="s">
+        <v>408</v>
+      </c>
+      <c r="F3" t="s">
+        <v>409</v>
       </c>
       <c r="G3" t="s">
-        <v>102</v>
-      </c>
-      <c r="H3" t="str">
-        <f t="shared" si="1"/>
-        <v>CodePostal12</v>
-      </c>
-      <c r="I3" t="str">
-        <f t="shared" si="1"/>
-        <v>Pays12</v>
-      </c>
-      <c r="J3" t="str">
-        <f t="shared" si="1"/>
-        <v>Tel112</v>
-      </c>
-      <c r="K3" t="str">
-        <f t="shared" si="1"/>
-        <v>Tel212</v>
-      </c>
-      <c r="L3" t="str">
-        <f t="shared" si="1"/>
-        <v>AdresseEmail12</v>
-      </c>
-      <c r="M3" t="str">
-        <f t="shared" si="1"/>
-        <v>MotDePasse12</v>
-      </c>
-      <c r="N3" t="str">
-        <f t="shared" si="1"/>
-        <v>PoidsMaxLivraison12</v>
-      </c>
-      <c r="O3" t="str">
-        <f t="shared" si="1"/>
-        <v>LivraisonGratuite12</v>
-      </c>
-      <c r="P3" t="str">
-        <f t="shared" si="1"/>
-        <v>Taxes12</v>
-      </c>
-      <c r="Q3" t="str">
-        <f t="shared" si="1"/>
-        <v>Pourcentage12</v>
-      </c>
-      <c r="R3" t="str">
-        <f t="shared" si="0"/>
-        <v>Configuration12</v>
-      </c>
-      <c r="S3" t="str">
-        <f t="shared" si="0"/>
-        <v>DateCreation12</v>
-      </c>
-      <c r="T3" t="str">
-        <f t="shared" si="0"/>
-        <v>DateMAJ12</v>
+        <v>399</v>
+      </c>
+      <c r="H3" t="s">
+        <v>410</v>
+      </c>
+      <c r="I3" t="s">
+        <v>401</v>
+      </c>
+      <c r="J3">
+        <v>5146336473</v>
+      </c>
+      <c r="K3" t="s">
+        <v>0</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>411</v>
+      </c>
+      <c r="M3" t="s">
+        <v>412</v>
+      </c>
+      <c r="N3">
+        <v>50</v>
+      </c>
+      <c r="O3">
+        <v>50</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>530</v>
+      </c>
+      <c r="R3" t="s">
+        <v>533</v>
+      </c>
+      <c r="S3" s="1">
+        <v>43468.322939814818</v>
+      </c>
+      <c r="T3" s="1">
+        <v>43472.378506944442</v>
       </c>
       <c r="U3">
         <v>1</v>
@@ -1745,80 +2361,62 @@
       <c r="A4">
         <v>13</v>
       </c>
-      <c r="B4" t="str">
-        <f t="shared" si="1"/>
-        <v>NomAffaires13</v>
-      </c>
-      <c r="C4" t="str">
-        <f t="shared" si="1"/>
-        <v>Nom13</v>
-      </c>
-      <c r="D4" t="str">
-        <f t="shared" si="1"/>
-        <v>Prenom13</v>
-      </c>
-      <c r="E4" t="str">
-        <f t="shared" si="1"/>
-        <v>Rue13</v>
-      </c>
-      <c r="F4" t="str">
-        <f t="shared" si="1"/>
-        <v>Ville13</v>
+      <c r="B4" t="s">
+        <v>414</v>
+      </c>
+      <c r="C4" t="s">
+        <v>415</v>
+      </c>
+      <c r="D4" t="s">
+        <v>416</v>
+      </c>
+      <c r="E4" t="s">
+        <v>417</v>
+      </c>
+      <c r="F4" t="s">
+        <v>418</v>
       </c>
       <c r="G4" t="s">
-        <v>102</v>
-      </c>
-      <c r="H4" t="str">
-        <f t="shared" si="1"/>
-        <v>CodePostal13</v>
-      </c>
-      <c r="I4" t="str">
-        <f t="shared" si="1"/>
-        <v>Pays13</v>
-      </c>
-      <c r="J4" t="str">
-        <f t="shared" si="1"/>
-        <v>Tel113</v>
-      </c>
-      <c r="K4" t="str">
-        <f t="shared" si="1"/>
-        <v>Tel213</v>
-      </c>
-      <c r="L4" t="str">
-        <f t="shared" si="1"/>
-        <v>AdresseEmail13</v>
-      </c>
-      <c r="M4" t="str">
-        <f t="shared" si="1"/>
-        <v>MotDePasse13</v>
-      </c>
-      <c r="N4" t="str">
-        <f t="shared" si="1"/>
-        <v>PoidsMaxLivraison13</v>
-      </c>
-      <c r="O4" t="str">
-        <f t="shared" si="1"/>
-        <v>LivraisonGratuite13</v>
-      </c>
-      <c r="P4" t="str">
-        <f t="shared" si="1"/>
-        <v>Taxes13</v>
-      </c>
-      <c r="Q4" t="str">
-        <f t="shared" si="1"/>
-        <v>Pourcentage13</v>
-      </c>
-      <c r="R4" t="str">
-        <f t="shared" si="0"/>
-        <v>Configuration13</v>
-      </c>
-      <c r="S4" t="str">
-        <f t="shared" si="0"/>
-        <v>DateCreation13</v>
-      </c>
-      <c r="T4" t="str">
-        <f t="shared" si="0"/>
-        <v>DateMAJ13</v>
+        <v>399</v>
+      </c>
+      <c r="H4" t="s">
+        <v>419</v>
+      </c>
+      <c r="I4" t="s">
+        <v>401</v>
+      </c>
+      <c r="J4">
+        <v>5147773847</v>
+      </c>
+      <c r="K4">
+        <v>4505658849</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>420</v>
+      </c>
+      <c r="M4" t="s">
+        <v>421</v>
+      </c>
+      <c r="N4">
+        <v>75</v>
+      </c>
+      <c r="O4">
+        <v>100</v>
+      </c>
+      <c r="P4">
+        <v>1</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>0</v>
+      </c>
+      <c r="R4" t="s">
+        <v>534</v>
+      </c>
+      <c r="S4" s="1">
+        <v>43472.385462962964</v>
+      </c>
+      <c r="T4" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="U4" t="s">
         <v>0</v>
@@ -1828,80 +2426,62 @@
       <c r="A5">
         <v>14</v>
       </c>
-      <c r="B5" t="str">
-        <f t="shared" si="1"/>
-        <v>NomAffaires14</v>
-      </c>
-      <c r="C5" t="str">
-        <f t="shared" si="1"/>
-        <v>Nom14</v>
-      </c>
-      <c r="D5" t="str">
-        <f t="shared" si="1"/>
-        <v>Prenom14</v>
-      </c>
-      <c r="E5" t="str">
-        <f t="shared" si="1"/>
-        <v>Rue14</v>
-      </c>
-      <c r="F5" t="str">
-        <f t="shared" si="1"/>
-        <v>Ville14</v>
+      <c r="B5" t="s">
+        <v>423</v>
+      </c>
+      <c r="C5" t="s">
+        <v>424</v>
+      </c>
+      <c r="D5" t="s">
+        <v>425</v>
+      </c>
+      <c r="E5" t="s">
+        <v>426</v>
+      </c>
+      <c r="F5" t="s">
+        <v>427</v>
       </c>
       <c r="G5" t="s">
-        <v>103</v>
-      </c>
-      <c r="H5" t="str">
-        <f t="shared" si="1"/>
-        <v>CodePostal14</v>
-      </c>
-      <c r="I5" t="str">
-        <f t="shared" si="1"/>
-        <v>Pays14</v>
-      </c>
-      <c r="J5" t="str">
-        <f t="shared" si="1"/>
-        <v>Tel114</v>
-      </c>
-      <c r="K5" t="str">
-        <f t="shared" si="1"/>
-        <v>Tel214</v>
-      </c>
-      <c r="L5" t="str">
-        <f t="shared" si="1"/>
-        <v>AdresseEmail14</v>
-      </c>
-      <c r="M5" t="str">
-        <f t="shared" si="1"/>
-        <v>MotDePasse14</v>
-      </c>
-      <c r="N5" t="str">
-        <f t="shared" si="1"/>
-        <v>PoidsMaxLivraison14</v>
-      </c>
-      <c r="O5" t="str">
-        <f t="shared" si="1"/>
-        <v>LivraisonGratuite14</v>
-      </c>
-      <c r="P5" t="str">
-        <f t="shared" si="1"/>
-        <v>Taxes14</v>
-      </c>
-      <c r="Q5" t="str">
-        <f t="shared" si="1"/>
-        <v>Pourcentage14</v>
-      </c>
-      <c r="R5" t="str">
-        <f t="shared" si="0"/>
-        <v>Configuration14</v>
-      </c>
-      <c r="S5" t="str">
-        <f t="shared" si="0"/>
-        <v>DateCreation14</v>
-      </c>
-      <c r="T5" t="str">
-        <f t="shared" si="0"/>
-        <v>DateMAJ14</v>
+        <v>428</v>
+      </c>
+      <c r="H5" t="s">
+        <v>429</v>
+      </c>
+      <c r="I5" t="s">
+        <v>401</v>
+      </c>
+      <c r="J5">
+        <v>6133496675</v>
+      </c>
+      <c r="K5" t="s">
+        <v>0</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>430</v>
+      </c>
+      <c r="M5" t="s">
+        <v>431</v>
+      </c>
+      <c r="N5">
+        <v>100</v>
+      </c>
+      <c r="O5">
+        <v>75</v>
+      </c>
+      <c r="P5">
+        <v>1</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>531</v>
+      </c>
+      <c r="R5" t="s">
+        <v>535</v>
+      </c>
+      <c r="S5" s="1">
+        <v>43476.262372685182</v>
+      </c>
+      <c r="T5" s="1">
+        <v>43479.377615740741</v>
       </c>
       <c r="U5">
         <v>1</v>
@@ -1911,80 +2491,62 @@
       <c r="A6">
         <v>15</v>
       </c>
-      <c r="B6" t="str">
-        <f t="shared" si="1"/>
-        <v>NomAffaires15</v>
-      </c>
-      <c r="C6" t="str">
-        <f t="shared" si="0"/>
-        <v>Nom15</v>
-      </c>
-      <c r="D6" t="str">
-        <f t="shared" si="0"/>
-        <v>Prenom15</v>
-      </c>
-      <c r="E6" t="str">
-        <f t="shared" si="0"/>
-        <v>Rue15</v>
-      </c>
-      <c r="F6" t="str">
-        <f t="shared" si="0"/>
-        <v>Ville15</v>
+      <c r="B6" t="s">
+        <v>432</v>
+      </c>
+      <c r="C6" t="s">
+        <v>433</v>
+      </c>
+      <c r="D6" t="s">
+        <v>434</v>
+      </c>
+      <c r="E6" t="s">
+        <v>435</v>
+      </c>
+      <c r="F6" t="s">
+        <v>436</v>
       </c>
       <c r="G6" t="s">
-        <v>102</v>
-      </c>
-      <c r="H6" t="str">
-        <f t="shared" si="0"/>
-        <v>CodePostal15</v>
-      </c>
-      <c r="I6" t="str">
-        <f t="shared" si="0"/>
-        <v>Pays15</v>
-      </c>
-      <c r="J6" t="str">
-        <f t="shared" si="0"/>
-        <v>Tel115</v>
-      </c>
-      <c r="K6" t="str">
-        <f t="shared" si="0"/>
-        <v>Tel215</v>
-      </c>
-      <c r="L6" t="str">
-        <f t="shared" si="0"/>
-        <v>AdresseEmail15</v>
-      </c>
-      <c r="M6" t="str">
-        <f t="shared" si="0"/>
-        <v>MotDePasse15</v>
-      </c>
-      <c r="N6" t="str">
-        <f t="shared" si="0"/>
-        <v>PoidsMaxLivraison15</v>
-      </c>
-      <c r="O6" t="str">
-        <f t="shared" si="0"/>
-        <v>LivraisonGratuite15</v>
-      </c>
-      <c r="P6" t="str">
-        <f t="shared" si="0"/>
-        <v>Taxes15</v>
-      </c>
-      <c r="Q6" t="str">
-        <f t="shared" si="0"/>
-        <v>Pourcentage15</v>
-      </c>
-      <c r="R6" t="str">
-        <f t="shared" si="0"/>
-        <v>Configuration15</v>
-      </c>
-      <c r="S6" t="str">
-        <f t="shared" si="0"/>
-        <v>DateCreation15</v>
-      </c>
-      <c r="T6" t="str">
-        <f t="shared" si="0"/>
-        <v>DateMAJ15</v>
+        <v>399</v>
+      </c>
+      <c r="H6" t="s">
+        <v>437</v>
+      </c>
+      <c r="I6" t="s">
+        <v>401</v>
+      </c>
+      <c r="J6">
+        <v>4508889483</v>
+      </c>
+      <c r="K6">
+        <v>5149938373</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>438</v>
+      </c>
+      <c r="M6" t="s">
+        <v>439</v>
+      </c>
+      <c r="N6">
+        <v>30</v>
+      </c>
+      <c r="O6">
+        <v>100</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>0</v>
+      </c>
+      <c r="R6" t="s">
+        <v>536</v>
+      </c>
+      <c r="S6" s="1">
+        <v>43481.492337962962</v>
+      </c>
+      <c r="T6" t="s">
+        <v>0</v>
       </c>
       <c r="U6" t="s">
         <v>0</v>
@@ -1994,80 +2556,62 @@
       <c r="A7">
         <v>16</v>
       </c>
-      <c r="B7" t="str">
-        <f t="shared" si="1"/>
-        <v>NomAffaires16</v>
-      </c>
-      <c r="C7" t="str">
-        <f t="shared" si="0"/>
-        <v>Nom16</v>
-      </c>
-      <c r="D7" t="str">
-        <f t="shared" si="0"/>
-        <v>Prenom16</v>
-      </c>
-      <c r="E7" t="str">
-        <f t="shared" si="0"/>
-        <v>Rue16</v>
-      </c>
-      <c r="F7" t="str">
-        <f t="shared" si="0"/>
-        <v>Ville16</v>
+      <c r="B7" t="s">
+        <v>440</v>
+      </c>
+      <c r="C7" t="s">
+        <v>441</v>
+      </c>
+      <c r="D7" t="s">
+        <v>442</v>
+      </c>
+      <c r="E7" t="s">
+        <v>443</v>
+      </c>
+      <c r="F7" t="s">
+        <v>409</v>
       </c>
       <c r="G7" t="s">
-        <v>102</v>
-      </c>
-      <c r="H7" t="str">
-        <f t="shared" si="0"/>
-        <v>CodePostal16</v>
-      </c>
-      <c r="I7" t="str">
-        <f t="shared" si="0"/>
-        <v>Pays16</v>
-      </c>
-      <c r="J7" t="str">
-        <f t="shared" si="0"/>
-        <v>Tel116</v>
-      </c>
-      <c r="K7" t="str">
-        <f t="shared" si="0"/>
-        <v>Tel216</v>
-      </c>
-      <c r="L7" t="str">
-        <f t="shared" si="0"/>
-        <v>AdresseEmail16</v>
-      </c>
-      <c r="M7" t="str">
-        <f t="shared" si="0"/>
-        <v>MotDePasse16</v>
-      </c>
-      <c r="N7" t="str">
-        <f t="shared" si="0"/>
-        <v>PoidsMaxLivraison16</v>
-      </c>
-      <c r="O7" t="str">
-        <f t="shared" si="0"/>
-        <v>LivraisonGratuite16</v>
-      </c>
-      <c r="P7" t="str">
-        <f t="shared" si="0"/>
-        <v>Taxes16</v>
-      </c>
-      <c r="Q7" t="str">
-        <f t="shared" si="0"/>
-        <v>Pourcentage16</v>
-      </c>
-      <c r="R7" t="str">
-        <f t="shared" si="0"/>
-        <v>Configuration16</v>
-      </c>
-      <c r="S7" t="str">
-        <f t="shared" si="0"/>
-        <v>DateCreation16</v>
-      </c>
-      <c r="T7" t="str">
-        <f t="shared" si="0"/>
-        <v>DateMAJ16</v>
+        <v>399</v>
+      </c>
+      <c r="H7" t="s">
+        <v>444</v>
+      </c>
+      <c r="I7" t="s">
+        <v>401</v>
+      </c>
+      <c r="J7">
+        <v>5146337748</v>
+      </c>
+      <c r="K7" t="s">
+        <v>0</v>
+      </c>
+      <c r="L7" s="4" t="s">
+        <v>445</v>
+      </c>
+      <c r="M7" t="s">
+        <v>446</v>
+      </c>
+      <c r="N7">
+        <v>40</v>
+      </c>
+      <c r="O7">
+        <v>50</v>
+      </c>
+      <c r="P7">
+        <v>1</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>529</v>
+      </c>
+      <c r="R7" t="s">
+        <v>537</v>
+      </c>
+      <c r="S7" s="1">
+        <v>43487.357361111113</v>
+      </c>
+      <c r="T7" s="1">
+        <v>43495.364976851852</v>
       </c>
       <c r="U7">
         <v>1</v>
@@ -2077,80 +2621,62 @@
       <c r="A8">
         <v>17</v>
       </c>
-      <c r="B8" t="str">
-        <f t="shared" si="1"/>
-        <v>NomAffaires17</v>
-      </c>
-      <c r="C8" t="str">
-        <f t="shared" si="0"/>
-        <v>Nom17</v>
-      </c>
-      <c r="D8" t="str">
-        <f t="shared" si="0"/>
-        <v>Prenom17</v>
-      </c>
-      <c r="E8" t="str">
-        <f t="shared" si="0"/>
-        <v>Rue17</v>
-      </c>
-      <c r="F8" t="str">
-        <f t="shared" si="0"/>
-        <v>Ville17</v>
+      <c r="B8" t="s">
+        <v>447</v>
+      </c>
+      <c r="C8" t="s">
+        <v>448</v>
+      </c>
+      <c r="D8" t="s">
+        <v>449</v>
+      </c>
+      <c r="E8" t="s">
+        <v>450</v>
+      </c>
+      <c r="F8" t="s">
+        <v>451</v>
       </c>
       <c r="G8" t="s">
-        <v>104</v>
-      </c>
-      <c r="H8" t="str">
-        <f t="shared" si="0"/>
-        <v>CodePostal17</v>
-      </c>
-      <c r="I8" t="str">
-        <f t="shared" si="0"/>
-        <v>Pays17</v>
-      </c>
-      <c r="J8" t="str">
-        <f t="shared" si="0"/>
-        <v>Tel117</v>
-      </c>
-      <c r="K8" t="str">
-        <f t="shared" si="0"/>
-        <v>Tel217</v>
-      </c>
-      <c r="L8" t="str">
-        <f t="shared" si="0"/>
-        <v>AdresseEmail17</v>
-      </c>
-      <c r="M8" t="str">
-        <f t="shared" si="0"/>
-        <v>MotDePasse17</v>
-      </c>
-      <c r="N8" t="str">
-        <f t="shared" si="0"/>
-        <v>PoidsMaxLivraison17</v>
-      </c>
-      <c r="O8" t="str">
-        <f t="shared" si="0"/>
-        <v>LivraisonGratuite17</v>
-      </c>
-      <c r="P8" t="str">
-        <f t="shared" si="0"/>
-        <v>Taxes17</v>
-      </c>
-      <c r="Q8" t="str">
-        <f t="shared" si="0"/>
-        <v>Pourcentage17</v>
-      </c>
-      <c r="R8" t="str">
-        <f t="shared" si="0"/>
-        <v>Configuration17</v>
-      </c>
-      <c r="S8" t="str">
-        <f t="shared" si="0"/>
-        <v>DateCreation17</v>
-      </c>
-      <c r="T8" t="str">
-        <f t="shared" si="0"/>
-        <v>DateMAJ17</v>
+        <v>452</v>
+      </c>
+      <c r="H8" t="s">
+        <v>453</v>
+      </c>
+      <c r="I8" t="s">
+        <v>401</v>
+      </c>
+      <c r="J8">
+        <v>5066378822</v>
+      </c>
+      <c r="K8" t="s">
+        <v>0</v>
+      </c>
+      <c r="L8" s="4" t="s">
+        <v>454</v>
+      </c>
+      <c r="M8" t="s">
+        <v>455</v>
+      </c>
+      <c r="N8">
+        <v>50</v>
+      </c>
+      <c r="O8">
+        <v>75</v>
+      </c>
+      <c r="P8">
+        <v>1</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>531</v>
+      </c>
+      <c r="R8" t="s">
+        <v>538</v>
+      </c>
+      <c r="S8" s="1">
+        <v>43493.244884259257</v>
+      </c>
+      <c r="T8" s="1">
+        <v>43493.380266203705</v>
       </c>
       <c r="U8">
         <v>1</v>
@@ -2158,6 +2684,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2594,13 +3121,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="B1" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C1" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -2630,16 +3157,16 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="11" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="15.7109375" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="17.140625" bestFit="1" customWidth="1"/>
@@ -2704,56 +3231,44 @@
       <c r="A2">
         <v>101</v>
       </c>
-      <c r="B2" t="str">
-        <f>B$1&amp;$A2</f>
-        <v>AdresseEmail101</v>
-      </c>
-      <c r="C2" t="str">
-        <f t="shared" ref="C2:P2" si="0">C$1&amp;$A2</f>
-        <v>MotDePasse101</v>
-      </c>
-      <c r="D2" t="str">
-        <f t="shared" si="0"/>
-        <v>Nom101</v>
-      </c>
-      <c r="E2" t="str">
-        <f t="shared" si="0"/>
-        <v>Prenom101</v>
-      </c>
-      <c r="F2" t="str">
-        <f t="shared" si="0"/>
-        <v>Rue101</v>
-      </c>
-      <c r="G2" t="str">
-        <f t="shared" si="0"/>
-        <v>Ville101</v>
-      </c>
-      <c r="H2" t="str">
-        <f t="shared" si="0"/>
-        <v>Province101</v>
-      </c>
-      <c r="I2" t="str">
-        <f t="shared" si="0"/>
-        <v>CodePostal101</v>
-      </c>
-      <c r="J2" t="str">
-        <f t="shared" si="0"/>
-        <v>Pays101</v>
-      </c>
-      <c r="K2" t="str">
-        <f t="shared" si="0"/>
-        <v>Tel1101</v>
-      </c>
-      <c r="L2" t="str">
-        <f t="shared" si="0"/>
-        <v>Tel2101</v>
-      </c>
-      <c r="M2" t="str">
-        <f t="shared" si="0"/>
-        <v>DateCreation101</v>
+      <c r="B2" s="4" t="s">
+        <v>456</v>
+      </c>
+      <c r="C2" t="s">
+        <v>457</v>
+      </c>
+      <c r="D2" t="s">
+        <v>458</v>
+      </c>
+      <c r="E2" t="s">
+        <v>459</v>
+      </c>
+      <c r="F2" t="s">
+        <v>460</v>
+      </c>
+      <c r="G2" t="s">
+        <v>461</v>
+      </c>
+      <c r="H2" t="s">
+        <v>399</v>
+      </c>
+      <c r="I2" t="s">
+        <v>462</v>
+      </c>
+      <c r="J2" t="s">
+        <v>401</v>
+      </c>
+      <c r="K2">
+        <v>5147583737</v>
+      </c>
+      <c r="L2">
+        <v>5146779898</v>
+      </c>
+      <c r="M2" s="1">
+        <v>43468.776828703703</v>
       </c>
       <c r="N2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="C2:P2" si="0">N$1&amp;$A2</f>
         <v>DateMAJ101</v>
       </c>
       <c r="O2" t="str">
@@ -2772,56 +3287,44 @@
       <c r="A3">
         <v>102</v>
       </c>
-      <c r="B3" t="str">
-        <f t="shared" ref="B3:P21" si="1">B$1&amp;$A3</f>
-        <v>AdresseEmail102</v>
-      </c>
-      <c r="C3" t="str">
-        <f t="shared" si="1"/>
-        <v>MotDePasse102</v>
-      </c>
-      <c r="D3" t="str">
-        <f t="shared" si="1"/>
-        <v>Nom102</v>
-      </c>
-      <c r="E3" t="str">
-        <f t="shared" si="1"/>
-        <v>Prenom102</v>
-      </c>
-      <c r="F3" t="str">
-        <f t="shared" si="1"/>
-        <v>Rue102</v>
-      </c>
-      <c r="G3" t="str">
-        <f t="shared" si="1"/>
-        <v>Ville102</v>
-      </c>
-      <c r="H3" t="str">
-        <f t="shared" si="1"/>
-        <v>Province102</v>
-      </c>
-      <c r="I3" t="str">
-        <f t="shared" si="1"/>
-        <v>CodePostal102</v>
-      </c>
-      <c r="J3" t="str">
-        <f t="shared" si="1"/>
-        <v>Pays102</v>
-      </c>
-      <c r="K3" t="str">
-        <f t="shared" si="1"/>
-        <v>Tel1102</v>
-      </c>
-      <c r="L3" t="str">
-        <f t="shared" si="1"/>
-        <v>Tel2102</v>
-      </c>
-      <c r="M3" t="str">
-        <f t="shared" si="1"/>
-        <v>DateCreation102</v>
+      <c r="B3" s="4" t="s">
+        <v>463</v>
+      </c>
+      <c r="C3" t="s">
+        <v>464</v>
+      </c>
+      <c r="D3" t="s">
+        <v>465</v>
+      </c>
+      <c r="E3" t="s">
+        <v>466</v>
+      </c>
+      <c r="F3" t="s">
+        <v>467</v>
+      </c>
+      <c r="G3" t="s">
+        <v>468</v>
+      </c>
+      <c r="H3" t="s">
+        <v>399</v>
+      </c>
+      <c r="I3" t="s">
+        <v>469</v>
+      </c>
+      <c r="J3" t="s">
+        <v>401</v>
+      </c>
+      <c r="K3">
+        <v>5145537272</v>
+      </c>
+      <c r="L3">
+        <v>5143526637</v>
+      </c>
+      <c r="M3" s="1">
+        <v>43470.47383101852</v>
       </c>
       <c r="N3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="B3:P21" si="1">N$1&amp;$A3</f>
         <v>DateMAJ102</v>
       </c>
       <c r="O3" t="str">
@@ -2840,17 +3343,44 @@
       <c r="A4">
         <v>103</v>
       </c>
-      <c r="B4" t="str">
-        <f t="shared" si="1"/>
-        <v>AdresseEmail103</v>
-      </c>
-      <c r="C4" t="str">
-        <f t="shared" si="1"/>
-        <v>MotDePasse103</v>
-      </c>
-      <c r="M4" t="str">
-        <f t="shared" si="1"/>
-        <v>DateCreation103</v>
+      <c r="B4" s="4" t="s">
+        <v>470</v>
+      </c>
+      <c r="C4" t="s">
+        <v>471</v>
+      </c>
+      <c r="D4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G4" t="s">
+        <v>0</v>
+      </c>
+      <c r="H4" t="s">
+        <v>0</v>
+      </c>
+      <c r="I4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J4" t="s">
+        <v>0</v>
+      </c>
+      <c r="K4" t="s">
+        <v>0</v>
+      </c>
+      <c r="L4" t="s">
+        <v>0</v>
+      </c>
+      <c r="M4" s="1">
+        <v>43471.622511574074</v>
+      </c>
+      <c r="N4" t="s">
+        <v>0</v>
       </c>
       <c r="O4" t="str">
         <f t="shared" si="1"/>
@@ -2868,53 +3398,41 @@
       <c r="A5">
         <v>104</v>
       </c>
-      <c r="B5" t="str">
-        <f t="shared" si="1"/>
-        <v>AdresseEmail104</v>
-      </c>
-      <c r="C5" t="str">
-        <f t="shared" si="1"/>
-        <v>MotDePasse104</v>
-      </c>
-      <c r="D5" t="str">
-        <f t="shared" si="1"/>
-        <v>Nom104</v>
-      </c>
-      <c r="E5" t="str">
-        <f t="shared" si="1"/>
-        <v>Prenom104</v>
-      </c>
-      <c r="F5" t="str">
-        <f t="shared" si="1"/>
-        <v>Rue104</v>
-      </c>
-      <c r="G5" t="str">
-        <f t="shared" si="1"/>
-        <v>Ville104</v>
-      </c>
-      <c r="H5" t="str">
-        <f t="shared" si="1"/>
-        <v>Province104</v>
-      </c>
-      <c r="I5" t="str">
-        <f t="shared" si="1"/>
-        <v>CodePostal104</v>
-      </c>
-      <c r="J5" t="str">
-        <f t="shared" si="1"/>
-        <v>Pays104</v>
-      </c>
-      <c r="K5" t="str">
-        <f t="shared" si="1"/>
-        <v>Tel1104</v>
-      </c>
-      <c r="L5" t="str">
-        <f t="shared" si="1"/>
-        <v>Tel2104</v>
-      </c>
-      <c r="M5" t="str">
-        <f t="shared" si="1"/>
-        <v>DateCreation104</v>
+      <c r="B5" s="4" t="s">
+        <v>472</v>
+      </c>
+      <c r="C5" t="s">
+        <v>473</v>
+      </c>
+      <c r="D5" t="s">
+        <v>433</v>
+      </c>
+      <c r="E5" t="s">
+        <v>474</v>
+      </c>
+      <c r="F5" t="s">
+        <v>475</v>
+      </c>
+      <c r="G5" t="s">
+        <v>468</v>
+      </c>
+      <c r="H5" t="s">
+        <v>399</v>
+      </c>
+      <c r="I5" t="s">
+        <v>476</v>
+      </c>
+      <c r="J5" t="s">
+        <v>401</v>
+      </c>
+      <c r="K5">
+        <v>5143738890</v>
+      </c>
+      <c r="L5">
+        <v>5146378494</v>
+      </c>
+      <c r="M5" s="1">
+        <v>43473.781747685185</v>
       </c>
       <c r="N5" t="str">
         <f t="shared" si="1"/>
@@ -2936,17 +3454,44 @@
       <c r="A6">
         <v>105</v>
       </c>
-      <c r="B6" t="str">
-        <f t="shared" si="1"/>
-        <v>AdresseEmail105</v>
-      </c>
-      <c r="C6" t="str">
-        <f t="shared" ref="C6:C18" si="2">C$1&amp;$A6</f>
-        <v>MotDePasse105</v>
-      </c>
-      <c r="M6" t="str">
-        <f t="shared" si="1"/>
-        <v>DateCreation105</v>
+      <c r="B6" s="4" t="s">
+        <v>477</v>
+      </c>
+      <c r="C6" t="s">
+        <v>478</v>
+      </c>
+      <c r="D6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E6" t="s">
+        <v>0</v>
+      </c>
+      <c r="F6" t="s">
+        <v>0</v>
+      </c>
+      <c r="G6" t="s">
+        <v>0</v>
+      </c>
+      <c r="H6" t="s">
+        <v>0</v>
+      </c>
+      <c r="I6" t="s">
+        <v>0</v>
+      </c>
+      <c r="J6" t="s">
+        <v>0</v>
+      </c>
+      <c r="K6" t="s">
+        <v>0</v>
+      </c>
+      <c r="L6" t="s">
+        <v>0</v>
+      </c>
+      <c r="M6" s="1">
+        <v>43475.840555555558</v>
+      </c>
+      <c r="N6" t="s">
+        <v>0</v>
       </c>
       <c r="O6" t="str">
         <f t="shared" si="1"/>
@@ -2964,17 +3509,44 @@
       <c r="A7">
         <v>106</v>
       </c>
-      <c r="B7" t="str">
-        <f t="shared" si="1"/>
-        <v>AdresseEmail106</v>
-      </c>
-      <c r="C7" t="str">
-        <f t="shared" si="2"/>
-        <v>MotDePasse106</v>
-      </c>
-      <c r="M7" t="str">
-        <f t="shared" si="1"/>
-        <v>DateCreation106</v>
+      <c r="B7" s="4" t="s">
+        <v>479</v>
+      </c>
+      <c r="C7" t="s">
+        <v>480</v>
+      </c>
+      <c r="D7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E7" t="s">
+        <v>0</v>
+      </c>
+      <c r="F7" t="s">
+        <v>0</v>
+      </c>
+      <c r="G7" t="s">
+        <v>0</v>
+      </c>
+      <c r="H7" t="s">
+        <v>0</v>
+      </c>
+      <c r="I7" t="s">
+        <v>0</v>
+      </c>
+      <c r="J7" t="s">
+        <v>0</v>
+      </c>
+      <c r="K7" t="s">
+        <v>0</v>
+      </c>
+      <c r="L7" t="s">
+        <v>0</v>
+      </c>
+      <c r="M7" s="1">
+        <v>43477.388506944444</v>
+      </c>
+      <c r="N7" t="s">
+        <v>0</v>
       </c>
       <c r="O7" t="str">
         <f t="shared" si="1"/>
@@ -2992,17 +3564,44 @@
       <c r="A8">
         <v>107</v>
       </c>
-      <c r="B8" t="str">
-        <f t="shared" si="1"/>
-        <v>AdresseEmail107</v>
-      </c>
-      <c r="C8" t="str">
-        <f t="shared" si="2"/>
-        <v>MotDePasse107</v>
-      </c>
-      <c r="M8" t="str">
-        <f t="shared" si="1"/>
-        <v>DateCreation107</v>
+      <c r="B8" s="4" t="s">
+        <v>481</v>
+      </c>
+      <c r="C8" t="s">
+        <v>482</v>
+      </c>
+      <c r="D8" t="s">
+        <v>0</v>
+      </c>
+      <c r="E8" t="s">
+        <v>0</v>
+      </c>
+      <c r="F8" t="s">
+        <v>0</v>
+      </c>
+      <c r="G8" t="s">
+        <v>0</v>
+      </c>
+      <c r="H8" t="s">
+        <v>0</v>
+      </c>
+      <c r="I8" t="s">
+        <v>0</v>
+      </c>
+      <c r="J8" t="s">
+        <v>0</v>
+      </c>
+      <c r="K8" t="s">
+        <v>0</v>
+      </c>
+      <c r="L8" t="s">
+        <v>0</v>
+      </c>
+      <c r="M8" s="1">
+        <v>43477.439502314817</v>
+      </c>
+      <c r="N8" t="s">
+        <v>0</v>
       </c>
       <c r="O8" t="str">
         <f t="shared" si="1"/>
@@ -3020,53 +3619,41 @@
       <c r="A9">
         <v>108</v>
       </c>
-      <c r="B9" t="str">
-        <f t="shared" si="1"/>
-        <v>AdresseEmail108</v>
-      </c>
-      <c r="C9" t="str">
-        <f t="shared" si="2"/>
-        <v>MotDePasse108</v>
-      </c>
-      <c r="D9" t="str">
-        <f t="shared" si="1"/>
-        <v>Nom108</v>
-      </c>
-      <c r="E9" t="str">
-        <f t="shared" si="1"/>
-        <v>Prenom108</v>
-      </c>
-      <c r="F9" t="str">
-        <f t="shared" si="1"/>
-        <v>Rue108</v>
-      </c>
-      <c r="G9" t="str">
-        <f t="shared" si="1"/>
-        <v>Ville108</v>
-      </c>
-      <c r="H9" t="str">
-        <f t="shared" si="1"/>
-        <v>Province108</v>
-      </c>
-      <c r="I9" t="str">
-        <f t="shared" si="1"/>
-        <v>CodePostal108</v>
-      </c>
-      <c r="J9" t="str">
-        <f t="shared" si="1"/>
-        <v>Pays108</v>
-      </c>
-      <c r="K9" t="str">
-        <f t="shared" si="1"/>
-        <v>Tel1108</v>
-      </c>
-      <c r="L9" t="str">
-        <f t="shared" si="1"/>
-        <v>Tel2108</v>
-      </c>
-      <c r="M9" t="str">
-        <f t="shared" si="1"/>
-        <v>DateCreation108</v>
+      <c r="B9" s="4" t="s">
+        <v>483</v>
+      </c>
+      <c r="C9" t="s">
+        <v>484</v>
+      </c>
+      <c r="D9" t="s">
+        <v>485</v>
+      </c>
+      <c r="E9" t="s">
+        <v>486</v>
+      </c>
+      <c r="F9" t="s">
+        <v>487</v>
+      </c>
+      <c r="G9" t="s">
+        <v>409</v>
+      </c>
+      <c r="H9" t="s">
+        <v>399</v>
+      </c>
+      <c r="I9" t="s">
+        <v>410</v>
+      </c>
+      <c r="J9" t="s">
+        <v>401</v>
+      </c>
+      <c r="K9">
+        <v>5143736663</v>
+      </c>
+      <c r="L9">
+        <v>5144387565</v>
+      </c>
+      <c r="M9" s="1">
+        <v>43477.568460648145</v>
       </c>
       <c r="N9" t="str">
         <f t="shared" si="1"/>
@@ -3088,17 +3675,44 @@
       <c r="A10">
         <v>109</v>
       </c>
-      <c r="B10" t="str">
-        <f t="shared" si="1"/>
-        <v>AdresseEmail109</v>
-      </c>
-      <c r="C10" t="str">
-        <f t="shared" si="2"/>
-        <v>MotDePasse109</v>
-      </c>
-      <c r="M10" t="str">
-        <f t="shared" si="1"/>
-        <v>DateCreation109</v>
+      <c r="B10" s="4" t="s">
+        <v>488</v>
+      </c>
+      <c r="C10" t="s">
+        <v>489</v>
+      </c>
+      <c r="D10" t="s">
+        <v>0</v>
+      </c>
+      <c r="E10" t="s">
+        <v>0</v>
+      </c>
+      <c r="F10" t="s">
+        <v>0</v>
+      </c>
+      <c r="G10" t="s">
+        <v>0</v>
+      </c>
+      <c r="H10" t="s">
+        <v>0</v>
+      </c>
+      <c r="I10" t="s">
+        <v>0</v>
+      </c>
+      <c r="J10" t="s">
+        <v>0</v>
+      </c>
+      <c r="K10" t="s">
+        <v>0</v>
+      </c>
+      <c r="L10" t="s">
+        <v>0</v>
+      </c>
+      <c r="M10" s="1">
+        <v>43478.488113425927</v>
+      </c>
+      <c r="N10" t="s">
+        <v>0</v>
       </c>
       <c r="O10" t="str">
         <f t="shared" si="1"/>
@@ -3116,17 +3730,44 @@
       <c r="A11">
         <v>110</v>
       </c>
-      <c r="B11" t="str">
-        <f t="shared" si="1"/>
-        <v>AdresseEmail110</v>
-      </c>
-      <c r="C11" t="str">
-        <f t="shared" si="2"/>
-        <v>MotDePasse110</v>
-      </c>
-      <c r="M11" t="str">
-        <f t="shared" si="1"/>
-        <v>DateCreation110</v>
+      <c r="B11" s="4" t="s">
+        <v>490</v>
+      </c>
+      <c r="C11" t="s">
+        <v>491</v>
+      </c>
+      <c r="D11" t="s">
+        <v>0</v>
+      </c>
+      <c r="E11" t="s">
+        <v>0</v>
+      </c>
+      <c r="F11" t="s">
+        <v>0</v>
+      </c>
+      <c r="G11" t="s">
+        <v>0</v>
+      </c>
+      <c r="H11" t="s">
+        <v>0</v>
+      </c>
+      <c r="I11" t="s">
+        <v>0</v>
+      </c>
+      <c r="J11" t="s">
+        <v>0</v>
+      </c>
+      <c r="K11" t="s">
+        <v>0</v>
+      </c>
+      <c r="L11" t="s">
+        <v>0</v>
+      </c>
+      <c r="M11" s="1">
+        <v>43478.634328703702</v>
+      </c>
+      <c r="N11" t="s">
+        <v>0</v>
       </c>
       <c r="O11" t="str">
         <f t="shared" si="1"/>
@@ -3144,17 +3785,44 @@
       <c r="A12">
         <v>111</v>
       </c>
-      <c r="B12" t="str">
-        <f t="shared" si="1"/>
-        <v>AdresseEmail111</v>
-      </c>
-      <c r="C12" t="str">
-        <f t="shared" si="2"/>
-        <v>MotDePasse111</v>
-      </c>
-      <c r="M12" t="str">
-        <f t="shared" si="1"/>
-        <v>DateCreation111</v>
+      <c r="B12" s="4" t="s">
+        <v>492</v>
+      </c>
+      <c r="C12" t="s">
+        <v>493</v>
+      </c>
+      <c r="D12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F12" t="s">
+        <v>0</v>
+      </c>
+      <c r="G12" t="s">
+        <v>0</v>
+      </c>
+      <c r="H12" t="s">
+        <v>0</v>
+      </c>
+      <c r="I12" t="s">
+        <v>0</v>
+      </c>
+      <c r="J12" t="s">
+        <v>0</v>
+      </c>
+      <c r="K12" t="s">
+        <v>0</v>
+      </c>
+      <c r="L12" t="s">
+        <v>0</v>
+      </c>
+      <c r="M12" s="1">
+        <v>43480.778645833336</v>
+      </c>
+      <c r="N12" t="s">
+        <v>0</v>
       </c>
       <c r="O12" t="str">
         <f t="shared" si="1"/>
@@ -3172,17 +3840,44 @@
       <c r="A13">
         <v>112</v>
       </c>
-      <c r="B13" t="str">
-        <f t="shared" si="1"/>
-        <v>AdresseEmail112</v>
-      </c>
-      <c r="C13" t="str">
-        <f t="shared" si="2"/>
-        <v>MotDePasse112</v>
-      </c>
-      <c r="M13" t="str">
-        <f t="shared" si="1"/>
-        <v>DateCreation112</v>
+      <c r="B13" s="4" t="s">
+        <v>494</v>
+      </c>
+      <c r="C13" t="s">
+        <v>495</v>
+      </c>
+      <c r="D13" t="s">
+        <v>0</v>
+      </c>
+      <c r="E13" t="s">
+        <v>0</v>
+      </c>
+      <c r="F13" t="s">
+        <v>0</v>
+      </c>
+      <c r="G13" t="s">
+        <v>0</v>
+      </c>
+      <c r="H13" t="s">
+        <v>0</v>
+      </c>
+      <c r="I13" t="s">
+        <v>0</v>
+      </c>
+      <c r="J13" t="s">
+        <v>0</v>
+      </c>
+      <c r="K13" t="s">
+        <v>0</v>
+      </c>
+      <c r="L13" t="s">
+        <v>0</v>
+      </c>
+      <c r="M13" s="1">
+        <v>43481.769305555557</v>
+      </c>
+      <c r="N13" t="s">
+        <v>0</v>
       </c>
       <c r="O13" t="str">
         <f t="shared" si="1"/>
@@ -3200,17 +3895,44 @@
       <c r="A14">
         <v>113</v>
       </c>
-      <c r="B14" t="str">
-        <f t="shared" si="1"/>
-        <v>AdresseEmail113</v>
-      </c>
-      <c r="C14" t="str">
-        <f t="shared" si="2"/>
-        <v>MotDePasse113</v>
-      </c>
-      <c r="M14" t="str">
-        <f t="shared" si="1"/>
-        <v>DateCreation113</v>
+      <c r="B14" s="4" t="s">
+        <v>496</v>
+      </c>
+      <c r="C14" t="s">
+        <v>497</v>
+      </c>
+      <c r="D14" t="s">
+        <v>0</v>
+      </c>
+      <c r="E14" t="s">
+        <v>0</v>
+      </c>
+      <c r="F14" t="s">
+        <v>0</v>
+      </c>
+      <c r="G14" t="s">
+        <v>0</v>
+      </c>
+      <c r="H14" t="s">
+        <v>0</v>
+      </c>
+      <c r="I14" t="s">
+        <v>0</v>
+      </c>
+      <c r="J14" t="s">
+        <v>0</v>
+      </c>
+      <c r="K14" t="s">
+        <v>0</v>
+      </c>
+      <c r="L14" t="s">
+        <v>0</v>
+      </c>
+      <c r="M14" s="1">
+        <v>43483.899826388886</v>
+      </c>
+      <c r="N14" t="s">
+        <v>0</v>
       </c>
       <c r="O14" t="str">
         <f t="shared" si="1"/>
@@ -3228,53 +3950,41 @@
       <c r="A15">
         <v>114</v>
       </c>
-      <c r="B15" t="str">
-        <f t="shared" si="1"/>
-        <v>AdresseEmail114</v>
-      </c>
-      <c r="C15" t="str">
-        <f t="shared" si="2"/>
-        <v>MotDePasse114</v>
-      </c>
-      <c r="D15" t="str">
-        <f t="shared" si="1"/>
-        <v>Nom114</v>
-      </c>
-      <c r="E15" t="str">
-        <f t="shared" si="1"/>
-        <v>Prenom114</v>
-      </c>
-      <c r="F15" t="str">
-        <f t="shared" si="1"/>
-        <v>Rue114</v>
-      </c>
-      <c r="G15" t="str">
-        <f t="shared" si="1"/>
-        <v>Ville114</v>
-      </c>
-      <c r="H15" t="str">
-        <f t="shared" si="1"/>
-        <v>Province114</v>
-      </c>
-      <c r="I15" t="str">
-        <f t="shared" si="1"/>
-        <v>CodePostal114</v>
-      </c>
-      <c r="J15" t="str">
-        <f t="shared" si="1"/>
-        <v>Pays114</v>
-      </c>
-      <c r="K15" t="str">
-        <f t="shared" si="1"/>
-        <v>Tel1114</v>
-      </c>
-      <c r="L15" t="str">
-        <f t="shared" si="1"/>
-        <v>Tel2114</v>
-      </c>
-      <c r="M15" t="str">
-        <f t="shared" si="1"/>
-        <v>DateCreation114</v>
+      <c r="B15" s="4" t="s">
+        <v>498</v>
+      </c>
+      <c r="C15" t="s">
+        <v>499</v>
+      </c>
+      <c r="D15" t="s">
+        <v>500</v>
+      </c>
+      <c r="E15" t="s">
+        <v>449</v>
+      </c>
+      <c r="F15" t="s">
+        <v>501</v>
+      </c>
+      <c r="G15" t="s">
+        <v>398</v>
+      </c>
+      <c r="H15" t="s">
+        <v>399</v>
+      </c>
+      <c r="I15" t="s">
+        <v>502</v>
+      </c>
+      <c r="J15" t="s">
+        <v>401</v>
+      </c>
+      <c r="K15">
+        <v>4507892020</v>
+      </c>
+      <c r="L15">
+        <v>5148766393</v>
+      </c>
+      <c r="M15" s="1">
+        <v>43484.400543981479</v>
       </c>
       <c r="N15" t="str">
         <f t="shared" si="1"/>
@@ -3296,17 +4006,44 @@
       <c r="A16">
         <v>115</v>
       </c>
-      <c r="B16" t="str">
-        <f t="shared" si="1"/>
-        <v>AdresseEmail115</v>
-      </c>
-      <c r="C16" t="str">
-        <f t="shared" si="2"/>
-        <v>MotDePasse115</v>
-      </c>
-      <c r="M16" t="str">
-        <f t="shared" si="1"/>
-        <v>DateCreation115</v>
+      <c r="B16" s="4" t="s">
+        <v>503</v>
+      </c>
+      <c r="C16" t="s">
+        <v>504</v>
+      </c>
+      <c r="D16" t="s">
+        <v>0</v>
+      </c>
+      <c r="E16" t="s">
+        <v>0</v>
+      </c>
+      <c r="F16" t="s">
+        <v>0</v>
+      </c>
+      <c r="G16" t="s">
+        <v>0</v>
+      </c>
+      <c r="H16" t="s">
+        <v>0</v>
+      </c>
+      <c r="I16" t="s">
+        <v>0</v>
+      </c>
+      <c r="J16" t="s">
+        <v>0</v>
+      </c>
+      <c r="K16" t="s">
+        <v>0</v>
+      </c>
+      <c r="L16" t="s">
+        <v>0</v>
+      </c>
+      <c r="M16" s="1">
+        <v>43484.448229166665</v>
+      </c>
+      <c r="N16" t="s">
+        <v>0</v>
       </c>
       <c r="O16" t="str">
         <f t="shared" si="1"/>
@@ -3324,17 +4061,44 @@
       <c r="A17">
         <v>116</v>
       </c>
-      <c r="B17" t="str">
-        <f t="shared" si="1"/>
-        <v>AdresseEmail116</v>
-      </c>
-      <c r="C17" t="str">
-        <f t="shared" si="2"/>
-        <v>MotDePasse116</v>
-      </c>
-      <c r="M17" t="str">
-        <f t="shared" si="1"/>
-        <v>DateCreation116</v>
+      <c r="B17" s="4" t="s">
+        <v>505</v>
+      </c>
+      <c r="C17" t="s">
+        <v>506</v>
+      </c>
+      <c r="D17" t="s">
+        <v>0</v>
+      </c>
+      <c r="E17" t="s">
+        <v>0</v>
+      </c>
+      <c r="F17" t="s">
+        <v>0</v>
+      </c>
+      <c r="G17" t="s">
+        <v>0</v>
+      </c>
+      <c r="H17" t="s">
+        <v>0</v>
+      </c>
+      <c r="I17" t="s">
+        <v>0</v>
+      </c>
+      <c r="J17" t="s">
+        <v>0</v>
+      </c>
+      <c r="K17" t="s">
+        <v>0</v>
+      </c>
+      <c r="L17" t="s">
+        <v>0</v>
+      </c>
+      <c r="M17" s="1">
+        <v>43484.576805555553</v>
+      </c>
+      <c r="N17" t="s">
+        <v>0</v>
       </c>
       <c r="O17" t="str">
         <f t="shared" si="1"/>
@@ -3352,24 +4116,51 @@
       <c r="A18">
         <v>117</v>
       </c>
-      <c r="B18" t="str">
-        <f t="shared" si="1"/>
-        <v>AdresseEmail117</v>
-      </c>
-      <c r="C18" t="str">
-        <f t="shared" si="2"/>
-        <v>MotDePasse117</v>
-      </c>
-      <c r="M18" t="str">
-        <f t="shared" si="1"/>
-        <v>DateCreation117</v>
+      <c r="B18" s="4" t="s">
+        <v>507</v>
+      </c>
+      <c r="C18" t="s">
+        <v>508</v>
+      </c>
+      <c r="D18" t="s">
+        <v>0</v>
+      </c>
+      <c r="E18" t="s">
+        <v>0</v>
+      </c>
+      <c r="F18" t="s">
+        <v>0</v>
+      </c>
+      <c r="G18" t="s">
+        <v>0</v>
+      </c>
+      <c r="H18" t="s">
+        <v>0</v>
+      </c>
+      <c r="I18" t="s">
+        <v>0</v>
+      </c>
+      <c r="J18" t="s">
+        <v>0</v>
+      </c>
+      <c r="K18" t="s">
+        <v>0</v>
+      </c>
+      <c r="L18" t="s">
+        <v>0</v>
+      </c>
+      <c r="M18" s="1">
+        <v>43485.378865740742</v>
+      </c>
+      <c r="N18" t="s">
+        <v>0</v>
       </c>
       <c r="O18" t="str">
-        <f t="shared" ref="C18:P21" si="3">O$1&amp;$A18</f>
+        <f t="shared" ref="C18:P21" si="2">O$1&amp;$A18</f>
         <v>NbConnexions117</v>
       </c>
       <c r="P18" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>DateDerniereConnexion117</v>
       </c>
       <c r="Q18">
@@ -3380,64 +4171,52 @@
       <c r="A19">
         <v>118</v>
       </c>
-      <c r="B19" t="str">
-        <f t="shared" si="1"/>
-        <v>AdresseEmail118</v>
-      </c>
-      <c r="C19" t="str">
-        <f t="shared" si="3"/>
-        <v>MotDePasse118</v>
-      </c>
-      <c r="D19" t="str">
-        <f t="shared" si="3"/>
-        <v>Nom118</v>
-      </c>
-      <c r="E19" t="str">
-        <f t="shared" si="3"/>
-        <v>Prenom118</v>
-      </c>
-      <c r="F19" t="str">
-        <f t="shared" si="3"/>
-        <v>Rue118</v>
-      </c>
-      <c r="G19" t="str">
-        <f t="shared" si="3"/>
-        <v>Ville118</v>
-      </c>
-      <c r="H19" t="str">
-        <f t="shared" si="3"/>
-        <v>Province118</v>
-      </c>
-      <c r="I19" t="str">
-        <f t="shared" si="3"/>
-        <v>CodePostal118</v>
-      </c>
-      <c r="J19" t="str">
-        <f t="shared" si="3"/>
-        <v>Pays118</v>
-      </c>
-      <c r="K19" t="str">
-        <f t="shared" si="3"/>
-        <v>Tel1118</v>
-      </c>
-      <c r="L19" t="str">
-        <f t="shared" si="3"/>
-        <v>Tel2118</v>
-      </c>
-      <c r="M19" t="str">
-        <f t="shared" si="3"/>
-        <v>DateCreation118</v>
+      <c r="B19" s="4" t="s">
+        <v>509</v>
+      </c>
+      <c r="C19" t="s">
+        <v>510</v>
+      </c>
+      <c r="D19" t="s">
+        <v>511</v>
+      </c>
+      <c r="E19" t="s">
+        <v>512</v>
+      </c>
+      <c r="F19" t="s">
+        <v>513</v>
+      </c>
+      <c r="G19" t="s">
+        <v>514</v>
+      </c>
+      <c r="H19" t="s">
+        <v>399</v>
+      </c>
+      <c r="I19" t="s">
+        <v>515</v>
+      </c>
+      <c r="J19" t="s">
+        <v>401</v>
+      </c>
+      <c r="K19">
+        <v>5142325333</v>
+      </c>
+      <c r="L19">
+        <v>5148876363</v>
+      </c>
+      <c r="M19" s="1">
+        <v>43485.466134259259</v>
       </c>
       <c r="N19" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>DateMAJ118</v>
       </c>
       <c r="O19" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>NbConnexions118</v>
       </c>
       <c r="P19" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>DateDerniereConnexion118</v>
       </c>
       <c r="Q19">
@@ -3448,64 +4227,52 @@
       <c r="A20">
         <v>119</v>
       </c>
-      <c r="B20" t="str">
-        <f t="shared" si="1"/>
-        <v>AdresseEmail119</v>
-      </c>
-      <c r="C20" t="str">
-        <f t="shared" si="3"/>
-        <v>MotDePasse119</v>
-      </c>
-      <c r="D20" t="str">
-        <f t="shared" si="3"/>
-        <v>Nom119</v>
-      </c>
-      <c r="E20" t="str">
-        <f t="shared" si="3"/>
-        <v>Prenom119</v>
-      </c>
-      <c r="F20" t="str">
-        <f t="shared" si="3"/>
-        <v>Rue119</v>
-      </c>
-      <c r="G20" t="str">
-        <f t="shared" si="3"/>
-        <v>Ville119</v>
-      </c>
-      <c r="H20" t="str">
-        <f t="shared" si="3"/>
-        <v>Province119</v>
-      </c>
-      <c r="I20" t="str">
-        <f t="shared" si="3"/>
-        <v>CodePostal119</v>
-      </c>
-      <c r="J20" t="str">
-        <f t="shared" si="3"/>
-        <v>Pays119</v>
-      </c>
-      <c r="K20" t="str">
-        <f t="shared" si="3"/>
-        <v>Tel1119</v>
-      </c>
-      <c r="L20" t="str">
-        <f t="shared" si="3"/>
-        <v>Tel2119</v>
-      </c>
-      <c r="M20" t="str">
-        <f t="shared" si="3"/>
-        <v>DateCreation119</v>
+      <c r="B20" s="4" t="s">
+        <v>516</v>
+      </c>
+      <c r="C20" t="s">
+        <v>517</v>
+      </c>
+      <c r="D20" t="s">
+        <v>518</v>
+      </c>
+      <c r="E20" t="s">
+        <v>519</v>
+      </c>
+      <c r="F20" t="s">
+        <v>520</v>
+      </c>
+      <c r="G20" t="s">
+        <v>521</v>
+      </c>
+      <c r="H20" t="s">
+        <v>399</v>
+      </c>
+      <c r="I20" t="s">
+        <v>522</v>
+      </c>
+      <c r="J20" t="s">
+        <v>401</v>
+      </c>
+      <c r="K20">
+        <v>4508934747</v>
+      </c>
+      <c r="L20">
+        <v>5143736464</v>
+      </c>
+      <c r="M20" s="1">
+        <v>43486.809467592589</v>
       </c>
       <c r="N20" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>DateMAJ119</v>
       </c>
       <c r="O20" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>NbConnexions119</v>
       </c>
       <c r="P20" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>DateDerniereConnexion119</v>
       </c>
       <c r="Q20">
@@ -3516,64 +4283,52 @@
       <c r="A21">
         <v>120</v>
       </c>
-      <c r="B21" t="str">
-        <f t="shared" si="1"/>
-        <v>AdresseEmail120</v>
-      </c>
-      <c r="C21" t="str">
-        <f t="shared" si="3"/>
-        <v>MotDePasse120</v>
-      </c>
-      <c r="D21" t="str">
-        <f t="shared" si="3"/>
-        <v>Nom120</v>
-      </c>
-      <c r="E21" t="str">
-        <f t="shared" si="3"/>
-        <v>Prenom120</v>
-      </c>
-      <c r="F21" t="str">
-        <f t="shared" si="3"/>
-        <v>Rue120</v>
-      </c>
-      <c r="G21" t="str">
-        <f t="shared" si="3"/>
-        <v>Ville120</v>
-      </c>
-      <c r="H21" t="str">
-        <f t="shared" si="3"/>
-        <v>Province120</v>
-      </c>
-      <c r="I21" t="str">
-        <f t="shared" si="3"/>
-        <v>CodePostal120</v>
-      </c>
-      <c r="J21" t="str">
-        <f t="shared" si="3"/>
-        <v>Pays120</v>
-      </c>
-      <c r="K21" t="str">
-        <f t="shared" si="3"/>
-        <v>Tel1120</v>
-      </c>
-      <c r="L21" t="str">
-        <f t="shared" si="3"/>
-        <v>Tel2120</v>
-      </c>
-      <c r="M21" t="str">
-        <f t="shared" si="3"/>
-        <v>DateCreation120</v>
+      <c r="B21" s="4" t="s">
+        <v>523</v>
+      </c>
+      <c r="C21" t="s">
+        <v>524</v>
+      </c>
+      <c r="D21" t="s">
+        <v>525</v>
+      </c>
+      <c r="E21" t="s">
+        <v>526</v>
+      </c>
+      <c r="F21" t="s">
+        <v>527</v>
+      </c>
+      <c r="G21" t="s">
+        <v>418</v>
+      </c>
+      <c r="H21" t="s">
+        <v>399</v>
+      </c>
+      <c r="I21" t="s">
+        <v>528</v>
+      </c>
+      <c r="J21" t="s">
+        <v>401</v>
+      </c>
+      <c r="K21">
+        <v>4507382929</v>
+      </c>
+      <c r="L21">
+        <v>4386359484</v>
+      </c>
+      <c r="M21" s="1">
+        <v>43489.788935185185</v>
       </c>
       <c r="N21" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>DateMAJ120</v>
       </c>
       <c r="O21" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>NbConnexions120</v>
       </c>
       <c r="P21" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>DateDerniereConnexion120</v>
       </c>
       <c r="Q21">
@@ -3589,7 +4344,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38113E8C-0BFE-4409-951E-0B2E3D7F817E}">
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3706,7 +4463,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N105"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="F1" activePane="topRight" state="frozen"/>
+      <selection activeCell="A19" sqref="A19"/>
+      <selection pane="topRight" activeCell="G39" sqref="G39"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3714,7 +4475,7 @@
     <col min="2" max="2" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="42.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="227.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="208.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="20.140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="20.42578125" bestFit="1" customWidth="1"/>
@@ -3781,16 +4542,16 @@
         <v>1001</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="G2" s="2">
-        <v>100</v>
+        <v>370</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>422</v>
       </c>
       <c r="H2" s="2">
         <v>1</v>
@@ -3799,14 +4560,14 @@
         <v>1</v>
       </c>
       <c r="J2" s="2" t="str">
-        <f t="shared" ref="D2:N66" si="0">J$1&amp;$A2</f>
+        <f t="shared" ref="D2:M66" si="0">J$1&amp;$A2</f>
         <v>DateVente1100001</v>
       </c>
-      <c r="K2" s="2">
-        <v>100</v>
+      <c r="K2" s="2" t="s">
+        <v>422</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="M2" s="2" t="str">
         <f t="shared" si="0"/>
@@ -3827,16 +4588,16 @@
         <v>1001</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>280</v>
+        <v>264</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>281</v>
+        <v>265</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="G3" s="2">
-        <v>20</v>
+        <v>371</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>548</v>
       </c>
       <c r="H3" s="2">
         <v>1</v>
@@ -3848,11 +4609,11 @@
         <f t="shared" si="0"/>
         <v>DateVente1400001</v>
       </c>
-      <c r="K3" s="2">
-        <v>20</v>
+      <c r="K3" s="2" t="s">
+        <v>548</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>283</v>
+        <v>266</v>
       </c>
       <c r="M3" s="2" t="str">
         <f t="shared" si="0"/>
@@ -3873,16 +4634,16 @@
         <v>1001</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>284</v>
+        <v>267</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>285</v>
+        <v>268</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="G4" s="2">
-        <v>20</v>
+        <v>372</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>548</v>
       </c>
       <c r="H4" s="2">
         <v>1</v>
@@ -3894,11 +4655,11 @@
         <f t="shared" si="0"/>
         <v>DateVente1400002</v>
       </c>
-      <c r="K4" s="2">
-        <v>20</v>
+      <c r="K4" s="2" t="s">
+        <v>548</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>287</v>
+        <v>269</v>
       </c>
       <c r="M4" s="2" t="str">
         <f t="shared" si="0"/>
@@ -3919,16 +4680,16 @@
         <v>1001</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>288</v>
+        <v>270</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>289</v>
+        <v>271</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="G5" s="2">
-        <v>5</v>
+        <v>373</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>74</v>
       </c>
       <c r="H5" s="2">
         <v>1</v>
@@ -3940,11 +4701,11 @@
         <f t="shared" si="0"/>
         <v>DateVente1600001</v>
       </c>
-      <c r="K5" s="2">
-        <v>5</v>
+      <c r="K5" s="2" t="s">
+        <v>74</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>291</v>
+        <v>272</v>
       </c>
       <c r="M5" s="2" t="str">
         <f t="shared" si="0"/>
@@ -3965,16 +4726,16 @@
         <v>1001</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>348</v>
+        <v>314</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>354</v>
+        <v>319</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>347</v>
+        <v>313</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>349</v>
+        <v>315</v>
       </c>
       <c r="H6" s="2">
         <v>2</v>
@@ -3987,10 +4748,10 @@
         <v>DateVente1600002</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>349</v>
+        <v>315</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>350</v>
+        <v>316</v>
       </c>
       <c r="M6" s="2" t="str">
         <f t="shared" si="0"/>
@@ -4000,7 +4761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>1600003</v>
       </c>
@@ -4011,19 +4772,19 @@
         <v>1001</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>351</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>353</v>
+        <v>539</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>540</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>352</v>
+        <v>541</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>355</v>
+        <v>543</v>
       </c>
       <c r="H7" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I7" s="2">
         <v>1</v>
@@ -4033,10 +4794,10 @@
         <v>DateVente1600003</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>356</v>
+        <v>543</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>357</v>
+        <v>542</v>
       </c>
       <c r="M7" s="2" t="str">
         <f t="shared" si="0"/>
@@ -4057,16 +4818,16 @@
         <v>1001</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>359</v>
+        <v>324</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>360</v>
+        <v>325</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>358</v>
+        <v>323</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>361</v>
+        <v>326</v>
       </c>
       <c r="H8" s="2">
         <v>3</v>
@@ -4079,10 +4840,10 @@
         <v>DateVente1600004</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>361</v>
+        <v>326</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>362</v>
+        <v>327</v>
       </c>
       <c r="M8" s="2" t="str">
         <f t="shared" si="0"/>
@@ -4103,16 +4864,16 @@
         <v>1001</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>363</v>
+        <v>328</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>364</v>
+        <v>329</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>365</v>
+        <v>330</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>366</v>
+        <v>331</v>
       </c>
       <c r="H9" s="2">
         <v>1</v>
@@ -4125,10 +4886,10 @@
         <v>DateVente1600005</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>366</v>
+        <v>331</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>367</v>
+        <v>332</v>
       </c>
       <c r="M9" s="2" t="str">
         <f t="shared" si="0"/>
@@ -4138,7 +4899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" ht="60" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>1600006</v>
       </c>
@@ -4148,41 +4909,33 @@
       <c r="C10" s="2">
         <v>1001</v>
       </c>
-      <c r="D10" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>Nom1600006</v>
-      </c>
-      <c r="E10" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>Description1600006</v>
-      </c>
-      <c r="F10" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>Photo1600006</v>
-      </c>
-      <c r="G10" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>PrixDemande1600006</v>
-      </c>
-      <c r="H10" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>NombreItems1600006</v>
-      </c>
-      <c r="I10" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>Disponibilité1600006</v>
+      <c r="D10" s="2" t="s">
+        <v>544</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>545</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>546</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>547</v>
+      </c>
+      <c r="H10" s="2">
+        <v>1</v>
+      </c>
+      <c r="I10" s="2">
+        <v>1</v>
       </c>
       <c r="J10" s="2" t="str">
         <f t="shared" si="0"/>
         <v>DateVente1600006</v>
       </c>
-      <c r="K10" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>PrixVente1600006</v>
-      </c>
-      <c r="L10" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>Poids1600006</v>
+      <c r="K10" s="2" t="s">
+        <v>547</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>332</v>
       </c>
       <c r="M10" s="2" t="str">
         <f t="shared" si="0"/>
@@ -4192,7 +4945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" ht="60" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>1600007</v>
       </c>
@@ -4202,41 +4955,33 @@
       <c r="C11" s="2">
         <v>1001</v>
       </c>
-      <c r="D11" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>Nom1600007</v>
-      </c>
-      <c r="E11" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>Description1600007</v>
-      </c>
-      <c r="F11" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>Photo1600007</v>
-      </c>
-      <c r="G11" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>PrixDemande1600007</v>
-      </c>
-      <c r="H11" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>NombreItems1600007</v>
-      </c>
-      <c r="I11" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>Disponibilité1600007</v>
+      <c r="D11" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="H11" s="2">
+        <v>2</v>
+      </c>
+      <c r="I11" s="2">
+        <v>1</v>
       </c>
       <c r="J11" s="2" t="str">
         <f t="shared" si="0"/>
         <v>DateVente1600007</v>
       </c>
-      <c r="K11" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>PrixVente1600007</v>
-      </c>
-      <c r="L11" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>Poids1600007</v>
+      <c r="K11" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>342</v>
       </c>
       <c r="M11" s="2" t="str">
         <f t="shared" si="0"/>
@@ -4257,16 +5002,16 @@
         <v>1002</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>276</v>
+        <v>262</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>277</v>
+        <v>339</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="G12" s="2">
-        <v>35</v>
+        <v>365</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>404</v>
       </c>
       <c r="H12" s="2">
         <v>1</v>
@@ -4278,11 +5023,11 @@
         <f t="shared" si="0"/>
         <v>DateVente1200001</v>
       </c>
-      <c r="K12" s="2">
-        <v>35</v>
+      <c r="K12" s="2" t="s">
+        <v>404</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>279</v>
+        <v>263</v>
       </c>
       <c r="M12" s="2" t="str">
         <f t="shared" si="0"/>
@@ -4292,7 +5037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" ht="75" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>1200002</v>
       </c>
@@ -4303,32 +5048,32 @@
         <v>1002</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>293</v>
+        <v>317</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>318</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="G13" s="2">
-        <v>500</v>
+        <v>363</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>320</v>
       </c>
       <c r="H13" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I13" s="2">
         <v>1</v>
       </c>
       <c r="J13" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>DateVente1200002</v>
-      </c>
-      <c r="K13" s="2">
-        <v>500</v>
+        <f>J$1&amp;$A7</f>
+        <v>DateVente1600003</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>321</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>295</v>
+        <v>322</v>
       </c>
       <c r="M13" s="2" t="str">
         <f t="shared" si="0"/>
@@ -4349,16 +5094,16 @@
         <v>1002</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>296</v>
+        <v>273</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>297</v>
+        <v>274</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>298</v>
-      </c>
-      <c r="G14" s="2">
-        <v>275</v>
+        <v>364</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>549</v>
       </c>
       <c r="H14" s="2">
         <v>1</v>
@@ -4367,14 +5112,14 @@
         <v>1</v>
       </c>
       <c r="J14" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>DateVente1200003</v>
-      </c>
-      <c r="K14" s="2">
+        <f>J$1&amp;$A13</f>
+        <v>DateVente1200002</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>549</v>
+      </c>
+      <c r="L14" s="2" t="s">
         <v>275</v>
-      </c>
-      <c r="L14" s="2" t="s">
-        <v>299</v>
       </c>
       <c r="M14" s="2" t="str">
         <f t="shared" si="0"/>
@@ -4395,16 +5140,16 @@
         <v>1002</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>300</v>
+        <v>276</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>301</v>
+        <v>277</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="G15" s="2">
-        <v>50</v>
+        <v>366</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>550</v>
       </c>
       <c r="H15" s="2">
         <v>1</v>
@@ -4413,14 +5158,14 @@
         <v>1</v>
       </c>
       <c r="J15" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>DateVente1200004</v>
-      </c>
-      <c r="K15" s="2">
-        <v>50</v>
+        <f>J$1&amp;$A14</f>
+        <v>DateVente1200003</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>550</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>303</v>
+        <v>278</v>
       </c>
       <c r="M15" s="2" t="str">
         <f t="shared" si="0"/>
@@ -4440,41 +5185,33 @@
       <c r="C16" s="2">
         <v>1002</v>
       </c>
-      <c r="D16" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>Nom1200005</v>
-      </c>
-      <c r="E16" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>Description1200005</v>
-      </c>
-      <c r="F16" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>Photo1200005</v>
-      </c>
-      <c r="G16" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>PrixDemande1200005</v>
-      </c>
-      <c r="H16" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>NombreItems1200005</v>
-      </c>
-      <c r="I16" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>Disponibilité1200005</v>
+      <c r="D16" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="H16" s="2">
+        <v>1</v>
+      </c>
+      <c r="I16" s="2">
+        <v>1</v>
       </c>
       <c r="J16" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>DateVente1200005</v>
-      </c>
-      <c r="K16" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>PrixVente1200005</v>
-      </c>
-      <c r="L16" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>Poids1200005</v>
+        <f>J$1&amp;$A15</f>
+        <v>DateVente1200004</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>281</v>
       </c>
       <c r="M16" s="2" t="str">
         <f t="shared" si="0"/>
@@ -4484,7 +5221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" ht="75" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>1200006</v>
       </c>
@@ -4494,51 +5231,43 @@
       <c r="C17" s="2">
         <v>1002</v>
       </c>
-      <c r="D17" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>Nom1200006</v>
-      </c>
-      <c r="E17" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>Description1200006</v>
-      </c>
-      <c r="F17" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>Photo1200006</v>
-      </c>
-      <c r="G17" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>PrixDemande1200006</v>
-      </c>
-      <c r="H17" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>NombreItems1200006</v>
-      </c>
-      <c r="I17" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>Disponibilité1200006</v>
+      <c r="D17" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="H17" s="2">
+        <v>1</v>
+      </c>
+      <c r="I17" s="2">
+        <v>1</v>
       </c>
       <c r="J17" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>DateVente1200006</v>
-      </c>
-      <c r="K17" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>PrixVente1200006</v>
-      </c>
-      <c r="L17" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>Poids1200006</v>
+        <f>J$1&amp;$A10</f>
+        <v>DateVente1600006</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>336</v>
       </c>
       <c r="M17" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>DateCreation1200006</v>
+        <f>M$1&amp;$A10</f>
+        <v>DateCreation1600006</v>
       </c>
       <c r="N17" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" ht="75" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>1200007</v>
       </c>
@@ -4548,45 +5277,37 @@
       <c r="C18" s="2">
         <v>1002</v>
       </c>
-      <c r="D18" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>Nom1200007</v>
-      </c>
-      <c r="E18" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>Description1200007</v>
-      </c>
-      <c r="F18" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>Photo1200007</v>
-      </c>
-      <c r="G18" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>PrixDemande1200007</v>
-      </c>
-      <c r="H18" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>NombreItems1200007</v>
-      </c>
-      <c r="I18" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>Disponibilité1200007</v>
+      <c r="D18" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>551</v>
+      </c>
+      <c r="H18" s="2">
+        <v>1</v>
+      </c>
+      <c r="I18" s="2">
+        <v>1</v>
       </c>
       <c r="J18" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>DateVente1200007</v>
-      </c>
-      <c r="K18" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>PrixVente1200007</v>
-      </c>
-      <c r="L18" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>Poids1200007</v>
+        <f>J$1&amp;$A16</f>
+        <v>DateVente1200005</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>554</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>346</v>
       </c>
       <c r="M18" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>DateCreation1200007</v>
+        <f>M$1&amp;$A17</f>
+        <v>DateCreation1200006</v>
       </c>
       <c r="N18" s="2" t="s">
         <v>0</v>
@@ -4602,45 +5323,37 @@
       <c r="C19" s="2">
         <v>1002</v>
       </c>
-      <c r="D19" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>Nom1200008</v>
-      </c>
-      <c r="E19" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>Description1200008</v>
-      </c>
-      <c r="F19" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>Photo1200008</v>
-      </c>
-      <c r="G19" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>PrixDemande1200008</v>
-      </c>
-      <c r="H19" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>NombreItems1200008</v>
-      </c>
-      <c r="I19" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>Disponibilité1200008</v>
+      <c r="D19" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="H19" s="2">
+        <v>2</v>
+      </c>
+      <c r="I19" s="2">
+        <v>1</v>
       </c>
       <c r="J19" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>DateVente1200008</v>
-      </c>
-      <c r="K19" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>PrixVente1200008</v>
-      </c>
-      <c r="L19" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>Poids1200008</v>
+        <f>J$1&amp;$A17</f>
+        <v>DateVente1200006</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>245</v>
       </c>
       <c r="M19" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>DateCreation1200008</v>
+        <f>M$1&amp;$A18</f>
+        <v>DateCreation1200007</v>
       </c>
       <c r="N19" s="2" t="s">
         <v>0</v>
@@ -4656,51 +5369,43 @@
       <c r="C20" s="2">
         <v>1002</v>
       </c>
-      <c r="D20" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>Nom1200009</v>
-      </c>
-      <c r="E20" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>Description1200009</v>
-      </c>
-      <c r="F20" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>Photo1200009</v>
-      </c>
-      <c r="G20" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>PrixDemande1200009</v>
-      </c>
-      <c r="H20" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>NombreItems1200009</v>
-      </c>
-      <c r="I20" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>Disponibilité1200009</v>
+      <c r="D20" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="H20" s="2">
+        <v>1</v>
+      </c>
+      <c r="I20" s="2">
+        <v>1</v>
       </c>
       <c r="J20" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>DateVente1200009</v>
-      </c>
-      <c r="K20" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>PrixVente1200009</v>
-      </c>
-      <c r="L20" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>Poids1200009</v>
+        <f>J$1&amp;$A18</f>
+        <v>DateVente1200007</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>353</v>
       </c>
       <c r="M20" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>DateCreation1200009</v>
+        <f>M$1&amp;$A19</f>
+        <v>DateCreation1200008</v>
       </c>
       <c r="N20" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>1200010</v>
       </c>
@@ -4710,51 +5415,43 @@
       <c r="C21" s="2">
         <v>1002</v>
       </c>
-      <c r="D21" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>Nom1200010</v>
-      </c>
-      <c r="E21" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>Description1200010</v>
-      </c>
-      <c r="F21" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>Photo1200010</v>
-      </c>
-      <c r="G21" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>PrixDemande1200010</v>
-      </c>
-      <c r="H21" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>NombreItems1200010</v>
-      </c>
-      <c r="I21" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>Disponibilité1200010</v>
+      <c r="D21" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>552</v>
+      </c>
+      <c r="H21" s="2">
+        <v>1</v>
+      </c>
+      <c r="I21" s="2">
+        <v>1</v>
       </c>
       <c r="J21" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>DateVente1200010</v>
-      </c>
-      <c r="K21" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>PrixVente1200010</v>
-      </c>
-      <c r="L21" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>Poids1200010</v>
+        <f>J$1&amp;$A19</f>
+        <v>DateVente1200008</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>552</v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>358</v>
       </c>
       <c r="M21" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>DateCreation1200010</v>
+        <f>M$1&amp;$A20</f>
+        <v>DateCreation1200009</v>
       </c>
       <c r="N21" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>1200011</v>
       </c>
@@ -4764,45 +5461,37 @@
       <c r="C22" s="2">
         <v>1002</v>
       </c>
-      <c r="D22" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>Nom1200011</v>
-      </c>
-      <c r="E22" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>Description1200011</v>
-      </c>
-      <c r="F22" s="2" t="str">
-        <f t="shared" ref="E22:N37" si="1">F$1&amp;$A22</f>
-        <v>Photo1200011</v>
-      </c>
-      <c r="G22" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>PrixDemande1200011</v>
-      </c>
-      <c r="H22" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>NombreItems1200011</v>
-      </c>
-      <c r="I22" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>Disponibilité1200011</v>
+      <c r="D22" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>553</v>
+      </c>
+      <c r="H22" s="2">
+        <v>1</v>
+      </c>
+      <c r="I22" s="2">
+        <v>1</v>
       </c>
       <c r="J22" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>DateVente1200011</v>
-      </c>
-      <c r="K22" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>PrixVente1200011</v>
-      </c>
-      <c r="L22" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>Poids1200011</v>
+        <f>J$1&amp;$A20</f>
+        <v>DateVente1200009</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>553</v>
+      </c>
+      <c r="L22" s="2" t="s">
+        <v>362</v>
       </c>
       <c r="M22" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>DateCreation1200011</v>
+        <f>M$1&amp;$A21</f>
+        <v>DateCreation1200010</v>
       </c>
       <c r="N22" s="2" t="s">
         <v>0</v>
@@ -4823,7 +5512,7 @@
         <v>Nom1200012</v>
       </c>
       <c r="E23" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="E23:L38" si="1">E$1&amp;$A23</f>
         <v>Description1200012</v>
       </c>
       <c r="F23" s="2" t="str">
@@ -5251,16 +5940,16 @@
         <v>1003</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="G31" s="2">
-        <v>45</v>
+        <v>374</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>556</v>
       </c>
       <c r="H31" s="2">
         <v>1</v>
@@ -5272,11 +5961,11 @@
         <f t="shared" si="1"/>
         <v>DateVente1100002</v>
       </c>
-      <c r="K31" s="2">
-        <v>45</v>
+      <c r="K31" s="2" t="s">
+        <v>556</v>
       </c>
       <c r="L31" s="2" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="M31" s="2" t="str">
         <f t="shared" si="0"/>
@@ -5297,16 +5986,16 @@
         <v>1003</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="G32" s="2">
-        <v>10</v>
+        <v>375</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>557</v>
       </c>
       <c r="H32" s="2">
         <v>1</v>
@@ -5318,11 +6007,11 @@
         <f t="shared" si="1"/>
         <v>DateVente1100003</v>
       </c>
-      <c r="K32" s="2">
-        <v>10</v>
+      <c r="K32" s="2" t="s">
+        <v>557</v>
       </c>
       <c r="L32" s="2" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="M32" s="2" t="str">
         <f t="shared" si="0"/>
@@ -5343,16 +6032,16 @@
         <v>1003</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="G33" s="2">
-        <v>1300</v>
+        <v>376</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>74</v>
       </c>
       <c r="H33" s="2">
         <v>1</v>
@@ -5364,11 +6053,11 @@
         <f t="shared" si="1"/>
         <v>DateVente1100004</v>
       </c>
-      <c r="K33" s="2">
-        <v>1300</v>
+      <c r="K33" s="2" t="s">
+        <v>74</v>
       </c>
       <c r="L33" s="2" t="s">
-        <v>265</v>
+        <v>251</v>
       </c>
       <c r="M33" s="2" t="str">
         <f t="shared" si="0"/>
@@ -5389,19 +6078,19 @@
         <v>1003</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="G34" s="2">
+        <v>377</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="H34" s="2">
         <v>5</v>
-      </c>
-      <c r="H34" s="2">
-        <v>1</v>
       </c>
       <c r="I34" s="2">
         <v>1</v>
@@ -5410,11 +6099,11 @@
         <f t="shared" si="1"/>
         <v>DateVente1100005</v>
       </c>
-      <c r="K34" s="2">
-        <v>5</v>
+      <c r="K34" s="2" t="s">
+        <v>74</v>
       </c>
       <c r="L34" s="2" t="s">
-        <v>261</v>
+        <v>242</v>
       </c>
       <c r="M34" s="2" t="str">
         <f t="shared" si="0"/>
@@ -5435,19 +6124,19 @@
         <v>1003</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>273</v>
+        <v>282</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>274</v>
+        <v>283</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="G35" s="2">
-        <v>5</v>
+        <v>568</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>558</v>
       </c>
       <c r="H35" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I35" s="2">
         <v>1</v>
@@ -5456,11 +6145,11 @@
         <f t="shared" si="1"/>
         <v>DateVente1100006</v>
       </c>
-      <c r="K35" s="2">
-        <v>5</v>
+      <c r="K35" s="2" t="s">
+        <v>558</v>
       </c>
       <c r="L35" s="2" t="s">
-        <v>249</v>
+        <v>284</v>
       </c>
       <c r="M35" s="2" t="str">
         <f t="shared" si="0"/>
@@ -5481,16 +6170,16 @@
         <v>1003</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>304</v>
+        <v>285</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>305</v>
+        <v>286</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>306</v>
-      </c>
-      <c r="G36" s="2">
-        <v>150</v>
+        <v>393</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>559</v>
       </c>
       <c r="H36" s="2">
         <v>1</v>
@@ -5502,11 +6191,11 @@
         <f t="shared" si="1"/>
         <v>DateVente1600014</v>
       </c>
-      <c r="K36" s="2">
-        <v>150</v>
+      <c r="K36" s="2" t="s">
+        <v>559</v>
       </c>
       <c r="L36" s="2" t="s">
-        <v>307</v>
+        <v>272</v>
       </c>
       <c r="M36" s="2" t="str">
         <f t="shared" si="0"/>
@@ -5527,16 +6216,16 @@
         <v>1003</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>308</v>
+        <v>287</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>309</v>
+        <v>288</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>310</v>
-      </c>
-      <c r="G37" s="2">
-        <v>40</v>
+        <v>378</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>422</v>
       </c>
       <c r="H37" s="2">
         <v>1</v>
@@ -5548,11 +6237,11 @@
         <f t="shared" si="1"/>
         <v>DateVente1600015</v>
       </c>
-      <c r="K37" s="2">
-        <v>40</v>
+      <c r="K37" s="2" t="s">
+        <v>422</v>
       </c>
       <c r="L37" s="2" t="s">
-        <v>291</v>
+        <v>272</v>
       </c>
       <c r="M37" s="2" t="str">
         <f t="shared" si="0"/>
@@ -5573,16 +6262,16 @@
         <v>1003</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>311</v>
+        <v>569</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>312</v>
+        <v>576</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="G38" s="2">
-        <v>100</v>
+        <v>574</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>572</v>
       </c>
       <c r="H38" s="2">
         <v>1</v>
@@ -5590,15 +6279,14 @@
       <c r="I38" s="2">
         <v>1</v>
       </c>
-      <c r="J38" s="2" t="str">
-        <f t="shared" ref="J38:J99" si="2">J$1&amp;$A38</f>
-        <v>DateVente1600016</v>
-      </c>
-      <c r="K38" s="2">
-        <v>100</v>
+      <c r="J38" s="5">
+        <v>43496.999988425923</v>
+      </c>
+      <c r="K38" s="2" t="s">
+        <v>573</v>
       </c>
       <c r="L38" s="2" t="s">
-        <v>291</v>
+        <v>531</v>
       </c>
       <c r="M38" s="2" t="str">
         <f t="shared" si="0"/>
@@ -5618,41 +6306,33 @@
       <c r="C39" s="2">
         <v>1003</v>
       </c>
-      <c r="D39" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>Nom1600017</v>
-      </c>
-      <c r="E39" s="2" t="str">
-        <f t="shared" ref="E38:N53" si="3">E$1&amp;$A39</f>
-        <v>Description1600017</v>
-      </c>
-      <c r="F39" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>Photo1600017</v>
-      </c>
-      <c r="G39" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>PrixDemande1600017</v>
-      </c>
-      <c r="H39" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>NombreItems1600017</v>
-      </c>
-      <c r="I39" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>Disponibilité1600017</v>
+      <c r="D39" s="2" t="s">
+        <v>570</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>577</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>571</v>
+      </c>
+      <c r="H39" s="2">
+        <v>1</v>
+      </c>
+      <c r="I39" s="2">
+        <v>1</v>
       </c>
       <c r="J39" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="J38:J99" si="2">J$1&amp;$A39</f>
         <v>DateVente1600017</v>
       </c>
-      <c r="K39" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>PrixVente1600017</v>
-      </c>
-      <c r="L39" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>Poids1600017</v>
+      <c r="K39" s="2" t="s">
+        <v>571</v>
+      </c>
+      <c r="L39" s="2" t="s">
+        <v>269</v>
       </c>
       <c r="M39" s="2" t="str">
         <f t="shared" si="0"/>
@@ -5673,16 +6353,16 @@
         <v>1004</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>314</v>
+        <v>289</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>315</v>
+        <v>290</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="G40" s="2">
-        <v>70</v>
+        <v>379</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>560</v>
       </c>
       <c r="H40" s="2">
         <v>1</v>
@@ -5694,11 +6374,11 @@
         <f t="shared" si="2"/>
         <v>DateVente1100007</v>
       </c>
-      <c r="K40" s="2">
-        <v>70</v>
+      <c r="K40" s="2" t="s">
+        <v>560</v>
       </c>
       <c r="L40" s="2" t="s">
-        <v>317</v>
+        <v>291</v>
       </c>
       <c r="M40" s="2" t="str">
         <f t="shared" si="0"/>
@@ -5719,16 +6399,16 @@
         <v>1004</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>318</v>
+        <v>292</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>319</v>
+        <v>293</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="G41" s="2">
-        <v>60</v>
+        <v>380</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>561</v>
       </c>
       <c r="H41" s="2">
         <v>1</v>
@@ -5740,11 +6420,11 @@
         <f t="shared" si="2"/>
         <v>DateVente1100008</v>
       </c>
-      <c r="K41" s="2">
-        <v>60</v>
+      <c r="K41" s="2" t="s">
+        <v>561</v>
       </c>
       <c r="L41" s="2" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="M41" s="2" t="str">
         <f t="shared" si="0"/>
@@ -5765,16 +6445,16 @@
         <v>1004</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>321</v>
+        <v>294</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>322</v>
+        <v>295</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="G42" s="2">
-        <v>150</v>
+        <v>381</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>558</v>
       </c>
       <c r="H42" s="2">
         <v>1</v>
@@ -5786,11 +6466,11 @@
         <f t="shared" si="2"/>
         <v>DateVente1100009</v>
       </c>
-      <c r="K42" s="2">
-        <v>150</v>
+      <c r="K42" s="2" t="s">
+        <v>558</v>
       </c>
       <c r="L42" s="2" t="s">
-        <v>324</v>
+        <v>296</v>
       </c>
       <c r="M42" s="2" t="str">
         <f t="shared" si="0"/>
@@ -5810,41 +6490,33 @@
       <c r="C43" s="2">
         <v>1004</v>
       </c>
-      <c r="D43" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>Nom1400004</v>
-      </c>
-      <c r="E43" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>Description1400004</v>
-      </c>
-      <c r="F43" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>Photo1400004</v>
-      </c>
-      <c r="G43" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>PrixDemande1400004</v>
-      </c>
-      <c r="H43" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>NombreItems1400004</v>
-      </c>
-      <c r="I43" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>Disponibilité1400004</v>
+      <c r="D43" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>567</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>555</v>
+      </c>
+      <c r="H43" s="2">
+        <v>1</v>
+      </c>
+      <c r="I43" s="2">
+        <v>1</v>
       </c>
       <c r="J43" s="2" t="str">
         <f t="shared" si="2"/>
         <v>DateVente1400004</v>
       </c>
-      <c r="K43" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>PrixVente1400004</v>
-      </c>
-      <c r="L43" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>Poids1400004</v>
+      <c r="K43" s="2" t="s">
+        <v>555</v>
+      </c>
+      <c r="L43" s="2" t="s">
+        <v>236</v>
       </c>
       <c r="M43" s="2" t="str">
         <f t="shared" si="0"/>
@@ -5869,7 +6541,7 @@
         <v>Nom1400005</v>
       </c>
       <c r="E44" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="E38:L53" si="3">E$1&amp;$A44</f>
         <v>Description1400005</v>
       </c>
       <c r="F44" s="2" t="str">
@@ -6409,7 +7081,7 @@
         <v>Nom1600025</v>
       </c>
       <c r="E54" s="2" t="str">
-        <f t="shared" ref="E54:N66" si="4">E$1&amp;$A54</f>
+        <f t="shared" ref="E54:L66" si="4">E$1&amp;$A54</f>
         <v>Description1600025</v>
       </c>
       <c r="F54" s="2" t="str">
@@ -6459,16 +7131,16 @@
         <v>1005</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>325</v>
+        <v>297</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>326</v>
+        <v>298</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="G55" s="2">
-        <v>30</v>
+        <v>382</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>562</v>
       </c>
       <c r="H55" s="2">
         <v>1</v>
@@ -6480,11 +7152,11 @@
         <f t="shared" si="2"/>
         <v>DateVente1100010</v>
       </c>
-      <c r="K55" s="2">
-        <v>30</v>
+      <c r="K55" s="2" t="s">
+        <v>562</v>
       </c>
       <c r="L55" s="2" t="s">
-        <v>328</v>
+        <v>299</v>
       </c>
       <c r="M55" s="2" t="str">
         <f t="shared" si="0"/>
@@ -6505,16 +7177,16 @@
         <v>1005</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>329</v>
+        <v>300</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>330</v>
+        <v>301</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="G56" s="2">
-        <v>10</v>
+        <v>383</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>556</v>
       </c>
       <c r="H56" s="2">
         <v>1</v>
@@ -6526,11 +7198,11 @@
         <f t="shared" si="2"/>
         <v>DateVente1100011</v>
       </c>
-      <c r="K56" s="2">
-        <v>10</v>
+      <c r="K56" s="2" t="s">
+        <v>556</v>
       </c>
       <c r="L56" s="2" t="s">
-        <v>332</v>
+        <v>302</v>
       </c>
       <c r="M56" s="2" t="str">
         <f t="shared" si="0"/>
@@ -6551,16 +7223,16 @@
         <v>1005</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>333</v>
+        <v>303</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>334</v>
+        <v>304</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="G57" s="2">
-        <v>100</v>
+        <v>384</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>422</v>
       </c>
       <c r="H57" s="2">
         <v>1</v>
@@ -6572,11 +7244,11 @@
         <f t="shared" si="2"/>
         <v>DateVente1100012</v>
       </c>
-      <c r="K57" s="2">
-        <v>100</v>
+      <c r="K57" s="2" t="s">
+        <v>422</v>
       </c>
       <c r="L57" s="2" t="s">
-        <v>336</v>
+        <v>305</v>
       </c>
       <c r="M57" s="2" t="str">
         <f t="shared" si="0"/>
@@ -7083,7 +7755,7 @@
         <v>1005</v>
       </c>
       <c r="D67" s="2" t="str">
-        <f t="shared" ref="D67:N105" si="5">D$1&amp;$A67</f>
+        <f t="shared" ref="D67:M105" si="5">D$1&amp;$A67</f>
         <v>Nom1600031</v>
       </c>
       <c r="E67" s="2" t="str">
@@ -7191,16 +7863,16 @@
         <v>1006</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="G69" s="2">
-        <v>20</v>
+        <v>385</v>
+      </c>
+      <c r="G69" s="2" t="s">
+        <v>548</v>
       </c>
       <c r="H69" s="2">
         <v>1</v>
@@ -7212,11 +7884,11 @@
         <f t="shared" si="2"/>
         <v>DateVente1100014</v>
       </c>
-      <c r="K69" s="2">
-        <v>20</v>
+      <c r="K69" s="2" t="s">
+        <v>548</v>
       </c>
       <c r="L69" s="2" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="M69" s="2" t="str">
         <f t="shared" si="5"/>
@@ -7237,16 +7909,16 @@
         <v>1006</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>267</v>
+        <v>256</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="G70" s="2">
-        <v>125</v>
+        <v>386</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>563</v>
       </c>
       <c r="H70" s="2">
         <v>1</v>
@@ -7258,11 +7930,11 @@
         <f t="shared" si="2"/>
         <v>DateVente1100015</v>
       </c>
-      <c r="K70" s="2">
-        <v>125</v>
+      <c r="K70" s="2" t="s">
+        <v>563</v>
       </c>
       <c r="L70" s="2" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
       <c r="M70" s="2" t="str">
         <f t="shared" si="5"/>
@@ -7283,16 +7955,16 @@
         <v>1006</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>337</v>
+        <v>306</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>338</v>
+        <v>307</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>339</v>
-      </c>
-      <c r="G71" s="2">
-        <v>110</v>
+        <v>387</v>
+      </c>
+      <c r="G71" s="2" t="s">
+        <v>564</v>
       </c>
       <c r="H71" s="2">
         <v>1</v>
@@ -7304,11 +7976,11 @@
         <f t="shared" si="2"/>
         <v>DateVente1100016</v>
       </c>
-      <c r="K71" s="2">
-        <v>110</v>
+      <c r="K71" s="2" t="s">
+        <v>564</v>
       </c>
       <c r="L71" s="2" t="s">
-        <v>340</v>
+        <v>308</v>
       </c>
       <c r="M71" s="2" t="str">
         <f t="shared" si="5"/>
@@ -7329,16 +8001,16 @@
         <v>1006</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>341</v>
+        <v>309</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>342</v>
+        <v>310</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>343</v>
-      </c>
-      <c r="G72" s="2">
-        <v>20</v>
+        <v>388</v>
+      </c>
+      <c r="G72" s="2" t="s">
+        <v>548</v>
       </c>
       <c r="H72" s="2">
         <v>1</v>
@@ -7350,11 +8022,11 @@
         <f t="shared" si="2"/>
         <v>DateVente1100017</v>
       </c>
-      <c r="K72" s="2">
-        <v>20</v>
+      <c r="K72" s="2" t="s">
+        <v>548</v>
       </c>
       <c r="L72" s="2" t="s">
-        <v>307</v>
+        <v>284</v>
       </c>
       <c r="M72" s="2" t="str">
         <f t="shared" si="5"/>
@@ -7375,16 +8047,16 @@
         <v>1006</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>344</v>
+        <v>311</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>345</v>
+        <v>312</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>346</v>
-      </c>
-      <c r="G73" s="2">
-        <v>25</v>
+        <v>389</v>
+      </c>
+      <c r="G73" s="2" t="s">
+        <v>565</v>
       </c>
       <c r="H73" s="2">
         <v>1</v>
@@ -7396,11 +8068,11 @@
         <f t="shared" si="2"/>
         <v>DateVente1100018</v>
       </c>
-      <c r="K73" s="2">
-        <v>25</v>
+      <c r="K73" s="2" t="s">
+        <v>565</v>
       </c>
       <c r="L73" s="2" t="s">
-        <v>291</v>
+        <v>272</v>
       </c>
       <c r="M73" s="2" t="str">
         <f t="shared" si="5"/>
@@ -8205,7 +8877,7 @@
         <v>DateVente1600034</v>
       </c>
       <c r="K88" s="2" t="str">
-        <f t="shared" ref="E88:N103" si="6">K$1&amp;$A88</f>
+        <f t="shared" ref="E88:L103" si="6">K$1&amp;$A88</f>
         <v>PrixVente1600034</v>
       </c>
       <c r="L88" s="2" t="str">
@@ -8339,16 +9011,16 @@
         <v>1007</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="G91" s="2">
-        <v>150</v>
+        <v>390</v>
+      </c>
+      <c r="G91" s="2" t="s">
+        <v>558</v>
       </c>
       <c r="H91" s="2">
         <v>1</v>
@@ -8360,11 +9032,11 @@
         <f t="shared" si="2"/>
         <v>DateVente1100028</v>
       </c>
-      <c r="K91" s="2">
-        <v>150</v>
+      <c r="K91" s="2" t="s">
+        <v>558</v>
       </c>
       <c r="L91" s="2" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="M91" s="2" t="str">
         <f t="shared" si="5"/>
@@ -8385,16 +9057,16 @@
         <v>1007</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="G92" s="2">
-        <v>125</v>
+        <v>391</v>
+      </c>
+      <c r="G92" s="2" t="s">
+        <v>563</v>
       </c>
       <c r="H92" s="2">
         <v>1</v>
@@ -8406,11 +9078,11 @@
         <f t="shared" si="2"/>
         <v>DateVente1100029</v>
       </c>
-      <c r="K92" s="2">
-        <v>125</v>
+      <c r="K92" s="2" t="s">
+        <v>563</v>
       </c>
       <c r="L92" s="2" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="M92" s="2" t="str">
         <f t="shared" si="5"/>
@@ -8431,16 +9103,16 @@
         <v>1007</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="G93" s="2">
-        <v>600</v>
+        <v>392</v>
+      </c>
+      <c r="G93" s="2" t="s">
+        <v>566</v>
       </c>
       <c r="H93" s="2">
         <v>1</v>
@@ -8452,11 +9124,11 @@
         <f t="shared" si="2"/>
         <v>DateVente1100030</v>
       </c>
-      <c r="K93" s="2">
-        <v>600</v>
+      <c r="K93" s="2" t="s">
+        <v>566</v>
       </c>
       <c r="L93" s="2" t="s">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="M93" s="2" t="str">
         <f t="shared" si="5"/>
@@ -9021,7 +9693,7 @@
         <v>Nom1400019</v>
       </c>
       <c r="E104" s="2" t="str">
-        <f t="shared" ref="E104:N105" si="7">E$1&amp;$A104</f>
+        <f t="shared" ref="E104:L105" si="7">E$1&amp;$A104</f>
         <v>Description1400019</v>
       </c>
       <c r="F104" s="2" t="str">
@@ -11555,7 +12227,7 @@
         <v>101</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -11566,7 +12238,7 @@
         <v>101</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -11577,7 +12249,7 @@
         <v>101</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -11588,7 +12260,7 @@
         <v>101</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -11599,7 +12271,7 @@
         <v>101</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -11610,7 +12282,7 @@
         <v>106</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -11621,7 +12293,7 @@
         <v>106</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -11632,7 +12304,7 @@
         <v>110</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -11643,7 +12315,7 @@
         <v>110</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -11654,7 +12326,7 @@
         <v>110</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -11665,7 +12337,7 @@
         <v>110</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -11676,7 +12348,7 @@
         <v>110</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -11687,7 +12359,7 @@
         <v>110</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -11698,7 +12370,7 @@
         <v>110</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -11709,7 +12381,7 @@
         <v>111</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -11720,7 +12392,7 @@
         <v>111</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -11731,7 +12403,7 @@
         <v>115</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -11742,7 +12414,7 @@
         <v>115</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -11753,7 +12425,7 @@
         <v>115</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -11764,7 +12436,7 @@
         <v>115</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -11775,7 +12447,7 @@
         <v>117</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -11786,7 +12458,7 @@
         <v>117</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -11797,7 +12469,7 @@
         <v>101</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -11808,7 +12480,7 @@
         <v>101</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -11819,7 +12491,7 @@
         <v>101</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -11830,7 +12502,7 @@
         <v>101</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -11841,7 +12513,7 @@
         <v>101</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -11852,7 +12524,7 @@
         <v>101</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -11863,7 +12535,7 @@
         <v>101</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -11874,7 +12546,7 @@
         <v>102</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -11885,7 +12557,7 @@
         <v>102</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -11896,7 +12568,7 @@
         <v>102</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -11907,7 +12579,7 @@
         <v>102</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -11918,7 +12590,7 @@
         <v>104</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -11929,7 +12601,7 @@
         <v>104</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -11940,7 +12612,7 @@
         <v>104</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -11951,7 +12623,7 @@
         <v>104</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -11962,7 +12634,7 @@
         <v>104</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
@@ -11973,7 +12645,7 @@
         <v>104</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
@@ -11984,7 +12656,7 @@
         <v>106</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
@@ -11995,7 +12667,7 @@
         <v>106</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
@@ -12006,7 +12678,7 @@
         <v>108</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
@@ -12017,7 +12689,7 @@
         <v>108</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
@@ -12028,7 +12700,7 @@
         <v>108</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
@@ -12039,7 +12711,7 @@
         <v>108</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
@@ -12050,7 +12722,7 @@
         <v>110</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
@@ -12061,7 +12733,7 @@
         <v>110</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
@@ -12072,7 +12744,7 @@
         <v>110</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
@@ -12083,7 +12755,7 @@
         <v>110</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
@@ -12094,7 +12766,7 @@
         <v>114</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
@@ -12105,7 +12777,7 @@
         <v>114</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
@@ -12116,7 +12788,7 @@
         <v>114</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
@@ -12127,7 +12799,7 @@
         <v>114</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
@@ -12138,7 +12810,7 @@
         <v>115</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
@@ -12149,7 +12821,7 @@
         <v>116</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
@@ -12160,7 +12832,7 @@
         <v>116</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
@@ -12171,7 +12843,7 @@
         <v>116</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
@@ -12182,7 +12854,7 @@
         <v>118</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
@@ -12193,7 +12865,7 @@
         <v>118</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
@@ -12204,7 +12876,7 @@
         <v>118</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
@@ -12215,7 +12887,7 @@
         <v>118</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
@@ -12226,7 +12898,7 @@
         <v>118</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
@@ -12237,7 +12909,7 @@
         <v>119</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
@@ -12248,7 +12920,7 @@
         <v>119</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
@@ -12259,7 +12931,7 @@
         <v>119</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
@@ -12270,7 +12942,7 @@
         <v>119</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
@@ -12281,7 +12953,7 @@
         <v>119</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
@@ -12292,7 +12964,7 @@
         <v>119</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
@@ -12303,7 +12975,7 @@
         <v>119</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
@@ -12314,7 +12986,7 @@
         <v>119</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
@@ -12325,7 +12997,7 @@
         <v>119</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
@@ -12336,7 +13008,7 @@
         <v>120</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
@@ -12347,7 +13019,7 @@
         <v>120</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
@@ -12358,7 +13030,7 @@
         <v>120</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
@@ -12369,7 +13041,7 @@
         <v>120</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
@@ -12380,7 +13052,7 @@
         <v>120</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
@@ -12391,7 +13063,7 @@
         <v>120</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
@@ -12402,7 +13074,7 @@
         <v>120</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
@@ -12413,7 +13085,7 @@
         <v>104</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
@@ -12424,7 +13096,7 @@
         <v>104</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
@@ -12435,7 +13107,7 @@
         <v>104</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
@@ -12446,7 +13118,7 @@
         <v>104</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
@@ -12457,7 +13129,7 @@
         <v>104</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
@@ -12468,7 +13140,7 @@
         <v>104</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
@@ -12479,7 +13151,7 @@
         <v>104</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
@@ -12490,7 +13162,7 @@
         <v>104</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
@@ -12501,7 +13173,7 @@
         <v>104</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
@@ -12512,7 +13184,7 @@
         <v>111</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
@@ -12523,7 +13195,7 @@
         <v>111</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
@@ -12534,7 +13206,7 @@
         <v>114</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
@@ -12545,7 +13217,7 @@
         <v>114</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
@@ -12556,7 +13228,7 @@
         <v>114</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
@@ -12567,7 +13239,7 @@
         <v>114</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
@@ -12578,7 +13250,7 @@
         <v>114</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
@@ -12589,7 +13261,7 @@
         <v>114</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
@@ -12600,7 +13272,7 @@
         <v>115</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
@@ -12611,7 +13283,7 @@
         <v>115</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
@@ -12622,7 +13294,7 @@
         <v>115</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
@@ -12633,7 +13305,7 @@
         <v>117</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
@@ -12644,7 +13316,7 @@
         <v>117</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
@@ -12655,7 +13327,7 @@
         <v>117</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
@@ -12666,7 +13338,7 @@
         <v>119</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
@@ -12677,7 +13349,7 @@
         <v>119</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
@@ -12688,7 +13360,7 @@
         <v>119</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
@@ -12699,7 +13371,7 @@
         <v>119</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
@@ -12710,7 +13382,7 @@
         <v>101</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
@@ -12721,7 +13393,7 @@
         <v>101</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
@@ -12732,7 +13404,7 @@
         <v>104</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
@@ -12743,7 +13415,7 @@
         <v>104</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
@@ -12754,7 +13426,7 @@
         <v>104</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
@@ -12765,7 +13437,7 @@
         <v>106</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
@@ -12776,7 +13448,7 @@
         <v>114</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
@@ -12787,7 +13459,7 @@
         <v>114</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
@@ -12798,7 +13470,7 @@
         <v>114</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
@@ -12809,7 +13481,7 @@
         <v>114</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
@@ -12820,7 +13492,7 @@
         <v>114</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
@@ -12831,7 +13503,7 @@
         <v>114</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
@@ -12842,7 +13514,7 @@
         <v>114</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
@@ -12853,7 +13525,7 @@
         <v>115</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
@@ -12864,7 +13536,7 @@
         <v>115</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
@@ -12875,7 +13547,7 @@
         <v>120</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
@@ -12886,7 +13558,7 @@
         <v>120</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
@@ -12897,7 +13569,7 @@
         <v>120</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
@@ -12908,7 +13580,7 @@
         <v>120</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
@@ -12919,7 +13591,7 @@
         <v>120</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
@@ -12930,7 +13602,7 @@
         <v>120</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
   </sheetData>

--- a/Jeu d'essai (Valeurs).xlsx
+++ b/Jeu d'essai (Valeurs).xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="1302" documentId="14_{E952B2A6-1070-47AA-ABAD-4591E8C72938}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{B0B969EC-8331-40FF-B74F-D4C7B64FA522}"/>
+  <xr:revisionPtr revIDLastSave="1387" documentId="14_{E952B2A6-1070-47AA-ABAD-4591E8C72938}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{D6C9D73D-947A-4DE6-B7D1-2EFC45C4B40F}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="953" uniqueCount="578">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1007" uniqueCount="616">
   <si>
     <t>NULL</t>
   </si>
@@ -1805,6 +1805,124 @@
   </si>
   <si>
     <t>Le iPhone XS Max d'Apple offre juqu'à 512 Go de stockage, la puce A12 Bionic et un écran Super Retina de 6,5 po. Jusqu'à 1.5h de plus d'autonomie que le iPhone X.</t>
+  </si>
+  <si>
+    <t>Structure de lit haut MALM</t>
+  </si>
+  <si>
+    <t>Les côtés de lit sont réglables. On peut donc utiliser des matelas de différentes épaisseurs.
+Les 16 lattes en bois multiplis s'adaptent au poids du corps et augmentent la souplesse du matelas.</t>
+  </si>
+  <si>
+    <t>1200006.JPG</t>
+  </si>
+  <si>
+    <t>184.00</t>
+  </si>
+  <si>
+    <t>86.0</t>
+  </si>
+  <si>
+    <t>Commode à 6 tiroirs MALM</t>
+  </si>
+  <si>
+    <t>Avec son style épuré, ses tiroirs à fermeture silencieuse et son choix de finitions, cette commode trouvera sa place dans toutes les pièces ! Attention, ce meuble doit être fixé au mur.</t>
+  </si>
+  <si>
+    <t>199.00</t>
+  </si>
+  <si>
+    <t>163.0</t>
+  </si>
+  <si>
+    <t>Coiffeuse avec miroir HEMNES</t>
+  </si>
+  <si>
+    <t>Coiffeuse ou bureau ? Pas besoin de décider, il y a assez de place pour du maquillage, des stylos et un ordinateur portable. Avec ses formes arrondies qui lui donnent une allure romantique, ce meuble deviendra le point central de la pièce.</t>
+  </si>
+  <si>
+    <t>249.00</t>
+  </si>
+  <si>
+    <t>71.0</t>
+  </si>
+  <si>
+    <t>Armoire-penderie à 2 portes HEMMES</t>
+  </si>
+  <si>
+    <t>La maison doit être un lieu sûr pour toute la famille. C'est pourquoi nous avons inclus des attaches de sécurité pour que vous puissiez fixer l'armoire au mur.
+Recôit aussi bien les vêtements à suspendre que les vêtements pliés.</t>
+  </si>
+  <si>
+    <t>149.00</t>
+  </si>
+  <si>
+    <t>141.0</t>
+  </si>
+  <si>
+    <t>Table à rallonge BJURSTA</t>
+  </si>
+  <si>
+    <t>Vous n’êtes jamais à court de place grâce à cette table extensible. Le crochet de fixation caché permet de bien fixer les rallonges entre elles. La surface facile à nettoyer vous permet d’affronter sereinement l’heure du repas.</t>
+  </si>
+  <si>
+    <t>259.00</t>
+  </si>
+  <si>
+    <t>94.0</t>
+  </si>
+  <si>
+    <t>Chaise STEFAN</t>
+  </si>
+  <si>
+    <t>Le bois massif est un matériau naturel très résistant.</t>
+  </si>
+  <si>
+    <t>9.0</t>
+  </si>
+  <si>
+    <t>26.00</t>
+  </si>
+  <si>
+    <t>Armoire à pharmacie 2 portes miroir LILLÅNGEN</t>
+  </si>
+  <si>
+    <t>Miroir doublé d'une pellicule de protection antiéclats au dos, ce qui réduit les risques de blessure si le miroir est cassé.</t>
+  </si>
+  <si>
+    <t>1200012.JPG</t>
+  </si>
+  <si>
+    <t>99.00</t>
+  </si>
+  <si>
+    <t>37.0</t>
+  </si>
+  <si>
+    <t>Ampoule à DEL E26 400 lumen RYET</t>
+  </si>
+  <si>
+    <t>La qualité n'est pas toujours synonyme de prix élevé. Pour l'ampoule à DEL RYET, nous avons choisi des composants de grande qualité afin d'éliminer d'autres éléments et de faire baisser le prix du produit final.</t>
+  </si>
+  <si>
+    <t>1.29</t>
+  </si>
+  <si>
+    <t>1200013.JPG</t>
+  </si>
+  <si>
+    <t>Buffet en bois brun chocolat</t>
+  </si>
+  <si>
+    <t>Buffet en bois brun chocolat. En excellent état.
+Dimension: largeur: 56 pouces Hauteur 32 po. Profondeur 18 1/2 po
+Valeur de 2000.$</t>
+  </si>
+  <si>
+    <t>1400003.JPG</t>
+  </si>
+  <si>
+    <t>169.8</t>
   </si>
 </sst>
 </file>
@@ -3268,7 +3386,7 @@
         <v>43468.776828703703</v>
       </c>
       <c r="N2" t="str">
-        <f t="shared" ref="C2:P2" si="0">N$1&amp;$A2</f>
+        <f t="shared" ref="N2:P2" si="0">N$1&amp;$A2</f>
         <v>DateMAJ101</v>
       </c>
       <c r="O2" t="str">
@@ -3324,7 +3442,7 @@
         <v>43470.47383101852</v>
       </c>
       <c r="N3" t="str">
-        <f t="shared" ref="B3:P21" si="1">N$1&amp;$A3</f>
+        <f t="shared" ref="N3:P17" si="1">N$1&amp;$A3</f>
         <v>DateMAJ102</v>
       </c>
       <c r="O3" t="str">
@@ -4156,7 +4274,7 @@
         <v>0</v>
       </c>
       <c r="O18" t="str">
-        <f t="shared" ref="C18:P21" si="2">O$1&amp;$A18</f>
+        <f t="shared" ref="N18:P21" si="2">O$1&amp;$A18</f>
         <v>NbConnexions117</v>
       </c>
       <c r="P18" t="str">
@@ -4463,10 +4581,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="F1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="A19" sqref="A19"/>
-      <selection pane="topRight" activeCell="G39" sqref="G39"/>
+      <selection pane="topRight" activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4474,7 +4592,7 @@
     <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="42.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="43.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="208.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="20.140625" bestFit="1" customWidth="1"/>
@@ -4991,7 +5109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" ht="75" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>1200001</v>
       </c>
@@ -5002,16 +5120,16 @@
         <v>1002</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>339</v>
+        <v>343</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>344</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>365</v>
+        <v>352</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>404</v>
+        <v>551</v>
       </c>
       <c r="H12" s="2">
         <v>1</v>
@@ -5020,14 +5138,14 @@
         <v>1</v>
       </c>
       <c r="J12" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>DateVente1200001</v>
+        <f>J$1&amp;$A16</f>
+        <v>DateVente1200005</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>404</v>
+        <v>554</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>263</v>
+        <v>346</v>
       </c>
       <c r="M12" s="2" t="str">
         <f t="shared" si="0"/>
@@ -5037,7 +5155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>1200002</v>
       </c>
@@ -5048,16 +5166,16 @@
         <v>1002</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>318</v>
+        <v>347</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>348</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>320</v>
+        <v>349</v>
       </c>
       <c r="H13" s="2">
         <v>2</v>
@@ -5066,14 +5184,14 @@
         <v>1</v>
       </c>
       <c r="J13" s="2" t="str">
-        <f>J$1&amp;$A7</f>
-        <v>DateVente1600003</v>
+        <f>J$1&amp;$A17</f>
+        <v>DateVente1200006</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>321</v>
+        <v>349</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>322</v>
+        <v>245</v>
       </c>
       <c r="M13" s="2" t="str">
         <f t="shared" si="0"/>
@@ -5094,16 +5212,16 @@
         <v>1002</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>273</v>
+        <v>350</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>274</v>
+        <v>351</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>549</v>
+        <v>354</v>
       </c>
       <c r="H14" s="2">
         <v>1</v>
@@ -5112,14 +5230,14 @@
         <v>1</v>
       </c>
       <c r="J14" s="2" t="str">
-        <f>J$1&amp;$A13</f>
-        <v>DateVente1200002</v>
+        <f>J$1&amp;$A18</f>
+        <v>DateVente1200007</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>549</v>
+        <v>354</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>275</v>
+        <v>353</v>
       </c>
       <c r="M14" s="2" t="str">
         <f t="shared" si="0"/>
@@ -5129,7 +5247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>1200004</v>
       </c>
@@ -5140,16 +5258,16 @@
         <v>1002</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>277</v>
+        <v>355</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>356</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="H15" s="2">
         <v>1</v>
@@ -5158,14 +5276,14 @@
         <v>1</v>
       </c>
       <c r="J15" s="2" t="str">
-        <f>J$1&amp;$A14</f>
-        <v>DateVente1200003</v>
+        <f>J$1&amp;$A19</f>
+        <v>DateVente1200008</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>278</v>
+        <v>358</v>
       </c>
       <c r="M15" s="2" t="str">
         <f t="shared" si="0"/>
@@ -5175,7 +5293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>1200005</v>
       </c>
@@ -5186,16 +5304,16 @@
         <v>1002</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>280</v>
+        <v>359</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>360</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>345</v>
+        <v>369</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>413</v>
+        <v>553</v>
       </c>
       <c r="H16" s="2">
         <v>1</v>
@@ -5204,14 +5322,14 @@
         <v>1</v>
       </c>
       <c r="J16" s="2" t="str">
-        <f>J$1&amp;$A15</f>
-        <v>DateVente1200004</v>
+        <f>J$1&amp;$A20</f>
+        <v>DateVente1200009</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>413</v>
+        <v>553</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>281</v>
+        <v>362</v>
       </c>
       <c r="M16" s="2" t="str">
         <f t="shared" si="0"/>
@@ -5221,7 +5339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:14" ht="75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>1200006</v>
       </c>
@@ -5232,16 +5350,16 @@
         <v>1002</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>333</v>
+        <v>578</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>334</v>
+        <v>579</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>367</v>
+        <v>580</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>335</v>
+        <v>581</v>
       </c>
       <c r="H17" s="2">
         <v>1</v>
@@ -5250,14 +5368,14 @@
         <v>1</v>
       </c>
       <c r="J17" s="2" t="str">
-        <f>J$1&amp;$A10</f>
-        <v>DateVente1600006</v>
+        <f t="shared" si="0"/>
+        <v>DateVente1200006</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>335</v>
+        <v>581</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>336</v>
+        <v>582</v>
       </c>
       <c r="M17" s="2" t="str">
         <f>M$1&amp;$A10</f>
@@ -5267,7 +5385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:14" ht="75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>1200007</v>
       </c>
@@ -5278,16 +5396,16 @@
         <v>1002</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>343</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>344</v>
+        <v>583</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>584</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>352</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>551</v>
+        <v>585</v>
       </c>
       <c r="H18" s="2">
         <v>1</v>
@@ -5296,14 +5414,14 @@
         <v>1</v>
       </c>
       <c r="J18" s="2" t="str">
-        <f>J$1&amp;$A16</f>
-        <v>DateVente1200005</v>
+        <f t="shared" si="0"/>
+        <v>DateVente1200007</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>554</v>
+        <v>585</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>346</v>
+        <v>586</v>
       </c>
       <c r="M18" s="2" t="str">
         <f>M$1&amp;$A17</f>
@@ -5324,32 +5442,32 @@
         <v>1002</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>347</v>
+        <v>587</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>348</v>
+        <v>588</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>357</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>349</v>
+        <v>589</v>
       </c>
       <c r="H19" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I19" s="2">
         <v>1</v>
       </c>
       <c r="J19" s="2" t="str">
-        <f>J$1&amp;$A17</f>
-        <v>DateVente1200006</v>
+        <f t="shared" si="0"/>
+        <v>DateVente1200008</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>349</v>
+        <v>589</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>245</v>
+        <v>590</v>
       </c>
       <c r="M19" s="2" t="str">
         <f>M$1&amp;$A18</f>
@@ -5359,7 +5477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>1200009</v>
       </c>
@@ -5370,16 +5488,16 @@
         <v>1002</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>350</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>351</v>
+        <v>591</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>592</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>361</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>354</v>
+        <v>593</v>
       </c>
       <c r="H20" s="2">
         <v>1</v>
@@ -5388,14 +5506,14 @@
         <v>1</v>
       </c>
       <c r="J20" s="2" t="str">
-        <f>J$1&amp;$A18</f>
-        <v>DateVente1200007</v>
+        <f t="shared" si="0"/>
+        <v>DateVente1200009</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>354</v>
+        <v>593</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>353</v>
+        <v>594</v>
       </c>
       <c r="M20" s="2" t="str">
         <f>M$1&amp;$A19</f>
@@ -5405,7 +5523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>1200010</v>
       </c>
@@ -5416,16 +5534,16 @@
         <v>1002</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>356</v>
+        <v>595</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>596</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>368</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>552</v>
+        <v>597</v>
       </c>
       <c r="H21" s="2">
         <v>1</v>
@@ -5434,14 +5552,14 @@
         <v>1</v>
       </c>
       <c r="J21" s="2" t="str">
-        <f>J$1&amp;$A19</f>
-        <v>DateVente1200008</v>
+        <f t="shared" si="0"/>
+        <v>DateVente1200010</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>552</v>
+        <v>597</v>
       </c>
       <c r="L21" s="2" t="s">
-        <v>358</v>
+        <v>598</v>
       </c>
       <c r="M21" s="2" t="str">
         <f>M$1&amp;$A20</f>
@@ -5451,7 +5569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>1200011</v>
       </c>
@@ -5462,32 +5580,32 @@
         <v>1002</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>359</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>360</v>
+        <v>599</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>600</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>369</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>553</v>
+        <v>602</v>
       </c>
       <c r="H22" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I22" s="2">
         <v>1</v>
       </c>
       <c r="J22" s="2" t="str">
-        <f>J$1&amp;$A20</f>
-        <v>DateVente1200009</v>
+        <f t="shared" si="0"/>
+        <v>DateVente1200011</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>553</v>
+        <v>602</v>
       </c>
       <c r="L22" s="2" t="s">
-        <v>362</v>
+        <v>601</v>
       </c>
       <c r="M22" s="2" t="str">
         <f>M$1&amp;$A21</f>
@@ -5507,41 +5625,33 @@
       <c r="C23" s="2">
         <v>1002</v>
       </c>
-      <c r="D23" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>Nom1200012</v>
-      </c>
-      <c r="E23" s="2" t="str">
-        <f t="shared" ref="E23:L38" si="1">E$1&amp;$A23</f>
-        <v>Description1200012</v>
-      </c>
-      <c r="F23" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>Photo1200012</v>
-      </c>
-      <c r="G23" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>PrixDemande1200012</v>
-      </c>
-      <c r="H23" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>NombreItems1200012</v>
-      </c>
-      <c r="I23" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>Disponibilité1200012</v>
+      <c r="D23" s="2" t="s">
+        <v>603</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>604</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>605</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>606</v>
+      </c>
+      <c r="H23" s="2">
+        <v>1</v>
+      </c>
+      <c r="I23" s="2">
+        <v>1</v>
       </c>
       <c r="J23" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>DateVente1200012</v>
       </c>
-      <c r="K23" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>PrixVente1200012</v>
-      </c>
-      <c r="L23" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>Poids1200012</v>
+      <c r="K23" s="2" t="s">
+        <v>606</v>
+      </c>
+      <c r="L23" s="2" t="s">
+        <v>607</v>
       </c>
       <c r="M23" s="2" t="str">
         <f t="shared" si="0"/>
@@ -5551,7 +5661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>1400003</v>
       </c>
@@ -5561,41 +5671,33 @@
       <c r="C24" s="2">
         <v>1002</v>
       </c>
-      <c r="D24" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>Nom1400003</v>
-      </c>
-      <c r="E24" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>Description1400003</v>
-      </c>
-      <c r="F24" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>Photo1400003</v>
-      </c>
-      <c r="G24" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>PrixDemande1400003</v>
-      </c>
-      <c r="H24" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>NombreItems1400003</v>
-      </c>
-      <c r="I24" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>Disponibilité1400003</v>
+      <c r="D24" s="2" t="s">
+        <v>612</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>613</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>614</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>549</v>
+      </c>
+      <c r="H24" s="2">
+        <v>1</v>
+      </c>
+      <c r="I24" s="2">
+        <v>1</v>
       </c>
       <c r="J24" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="E23:L37" si="1">J$1&amp;$A24</f>
         <v>DateVente1400003</v>
       </c>
-      <c r="K24" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>PrixVente1400003</v>
-      </c>
-      <c r="L24" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>Poids1400003</v>
+      <c r="K24" s="2" t="s">
+        <v>549</v>
+      </c>
+      <c r="L24" s="2" t="s">
+        <v>615</v>
       </c>
       <c r="M24" s="2" t="str">
         <f t="shared" si="0"/>
@@ -5615,41 +5717,33 @@
       <c r="C25" s="2">
         <v>1002</v>
       </c>
-      <c r="D25" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>Nom1600008</v>
-      </c>
-      <c r="E25" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>Description1600008</v>
-      </c>
-      <c r="F25" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>Photo1600008</v>
-      </c>
-      <c r="G25" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>PrixDemande1600008</v>
-      </c>
-      <c r="H25" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>NombreItems1600008</v>
-      </c>
-      <c r="I25" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>Disponibilité1600008</v>
+      <c r="D25" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="H25" s="2">
+        <v>1</v>
+      </c>
+      <c r="I25" s="2">
+        <v>1</v>
       </c>
       <c r="J25" s="2" t="str">
         <f t="shared" si="1"/>
         <v>DateVente1600008</v>
       </c>
-      <c r="K25" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>PrixVente1600008</v>
-      </c>
-      <c r="L25" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>Poids1600008</v>
+      <c r="K25" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="L25" s="2" t="s">
+        <v>263</v>
       </c>
       <c r="M25" s="2" t="str">
         <f t="shared" si="0"/>
@@ -5659,7 +5753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" ht="75" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>1600009</v>
       </c>
@@ -5669,41 +5763,33 @@
       <c r="C26" s="2">
         <v>1002</v>
       </c>
-      <c r="D26" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>Nom1600009</v>
-      </c>
-      <c r="E26" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>Description1600009</v>
-      </c>
-      <c r="F26" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>Photo1600009</v>
-      </c>
-      <c r="G26" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>PrixDemande1600009</v>
-      </c>
-      <c r="H26" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>NombreItems1600009</v>
-      </c>
-      <c r="I26" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>Disponibilité1600009</v>
+      <c r="D26" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="H26" s="2">
+        <v>2</v>
+      </c>
+      <c r="I26" s="2">
+        <v>1</v>
       </c>
       <c r="J26" s="2" t="str">
         <f t="shared" si="1"/>
         <v>DateVente1600009</v>
       </c>
-      <c r="K26" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>PrixVente1600009</v>
-      </c>
-      <c r="L26" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>Poids1600009</v>
+      <c r="K26" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="L26" s="2" t="s">
+        <v>322</v>
       </c>
       <c r="M26" s="2" t="str">
         <f t="shared" si="0"/>
@@ -5723,41 +5809,33 @@
       <c r="C27" s="2">
         <v>1002</v>
       </c>
-      <c r="D27" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>Nom1600010</v>
-      </c>
-      <c r="E27" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>Description1600010</v>
-      </c>
-      <c r="F27" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>Photo1600010</v>
-      </c>
-      <c r="G27" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>PrixDemande1600010</v>
-      </c>
-      <c r="H27" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>NombreItems1600010</v>
-      </c>
-      <c r="I27" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>Disponibilité1600010</v>
+      <c r="D27" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>549</v>
+      </c>
+      <c r="H27" s="2">
+        <v>1</v>
+      </c>
+      <c r="I27" s="2">
+        <v>1</v>
       </c>
       <c r="J27" s="2" t="str">
         <f t="shared" si="1"/>
         <v>DateVente1600010</v>
       </c>
-      <c r="K27" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>PrixVente1600010</v>
-      </c>
-      <c r="L27" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>Poids1600010</v>
+      <c r="K27" s="2" t="s">
+        <v>549</v>
+      </c>
+      <c r="L27" s="2" t="s">
+        <v>275</v>
       </c>
       <c r="M27" s="2" t="str">
         <f t="shared" si="0"/>
@@ -5777,41 +5855,33 @@
       <c r="C28" s="2">
         <v>1002</v>
       </c>
-      <c r="D28" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>Nom1600011</v>
-      </c>
-      <c r="E28" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>Description1600011</v>
-      </c>
-      <c r="F28" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>Photo1600011</v>
-      </c>
-      <c r="G28" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>PrixDemande1600011</v>
-      </c>
-      <c r="H28" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>NombreItems1600011</v>
-      </c>
-      <c r="I28" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>Disponibilité1600011</v>
+      <c r="D28" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="H28" s="2">
+        <v>1</v>
+      </c>
+      <c r="I28" s="2">
+        <v>1</v>
       </c>
       <c r="J28" s="2" t="str">
         <f t="shared" si="1"/>
         <v>DateVente1600011</v>
       </c>
-      <c r="K28" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>PrixVente1600011</v>
-      </c>
-      <c r="L28" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>Poids1600011</v>
+      <c r="K28" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="L28" s="2" t="s">
+        <v>278</v>
       </c>
       <c r="M28" s="2" t="str">
         <f t="shared" si="0"/>
@@ -5831,41 +5901,33 @@
       <c r="C29" s="2">
         <v>1002</v>
       </c>
-      <c r="D29" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>Nom1600012</v>
-      </c>
-      <c r="E29" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>Description1600012</v>
-      </c>
-      <c r="F29" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>Photo1600012</v>
-      </c>
-      <c r="G29" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>PrixDemande1600012</v>
-      </c>
-      <c r="H29" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>NombreItems1600012</v>
-      </c>
-      <c r="I29" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>Disponibilité1600012</v>
+      <c r="D29" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="H29" s="2">
+        <v>1</v>
+      </c>
+      <c r="I29" s="2">
+        <v>1</v>
       </c>
       <c r="J29" s="2" t="str">
         <f t="shared" si="1"/>
         <v>DateVente1600012</v>
       </c>
-      <c r="K29" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>PrixVente1600012</v>
-      </c>
-      <c r="L29" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>Poids1600012</v>
+      <c r="K29" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="L29" s="2" t="s">
+        <v>281</v>
       </c>
       <c r="M29" s="2" t="str">
         <f t="shared" si="0"/>
@@ -5875,7 +5937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" ht="75" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>1600013</v>
       </c>
@@ -5885,41 +5947,33 @@
       <c r="C30" s="2">
         <v>1002</v>
       </c>
-      <c r="D30" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>Nom1600013</v>
-      </c>
-      <c r="E30" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>Description1600013</v>
-      </c>
-      <c r="F30" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>Photo1600013</v>
-      </c>
-      <c r="G30" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>PrixDemande1600013</v>
-      </c>
-      <c r="H30" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>NombreItems1600013</v>
-      </c>
-      <c r="I30" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>Disponibilité1600013</v>
+      <c r="D30" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="H30" s="2">
+        <v>1</v>
+      </c>
+      <c r="I30" s="2">
+        <v>1</v>
       </c>
       <c r="J30" s="2" t="str">
         <f t="shared" si="1"/>
         <v>DateVente1600013</v>
       </c>
-      <c r="K30" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>PrixVente1600013</v>
-      </c>
-      <c r="L30" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>Poids1600013</v>
+      <c r="K30" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="L30" s="2" t="s">
+        <v>336</v>
       </c>
       <c r="M30" s="2" t="str">
         <f t="shared" si="0"/>
@@ -6325,7 +6379,7 @@
         <v>1</v>
       </c>
       <c r="J39" s="2" t="str">
-        <f t="shared" ref="J38:J99" si="2">J$1&amp;$A39</f>
+        <f t="shared" ref="J39:J99" si="2">J$1&amp;$A39</f>
         <v>DateVente1600017</v>
       </c>
       <c r="K39" s="2" t="s">
@@ -6541,7 +6595,7 @@
         <v>Nom1400005</v>
       </c>
       <c r="E44" s="2" t="str">
-        <f t="shared" ref="E38:L53" si="3">E$1&amp;$A44</f>
+        <f t="shared" ref="E44:L53" si="3">E$1&amp;$A44</f>
         <v>Description1400005</v>
       </c>
       <c r="F44" s="2" t="str">
@@ -7322,41 +7376,33 @@
       <c r="C59" s="2">
         <v>1005</v>
       </c>
-      <c r="D59" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>Nom1200013</v>
-      </c>
-      <c r="E59" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>Description1200013</v>
-      </c>
-      <c r="F59" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>Photo1200013</v>
-      </c>
-      <c r="G59" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>PrixDemande1200013</v>
-      </c>
-      <c r="H59" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>NombreItems1200013</v>
-      </c>
-      <c r="I59" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>Disponibilité1200013</v>
+      <c r="D59" s="2" t="s">
+        <v>608</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>609</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>611</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>610</v>
+      </c>
+      <c r="H59" s="2">
+        <v>10</v>
+      </c>
+      <c r="I59" s="2">
+        <v>1</v>
       </c>
       <c r="J59" s="2" t="str">
         <f t="shared" si="2"/>
         <v>DateVente1200013</v>
       </c>
-      <c r="K59" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>PrixVente1200013</v>
-      </c>
-      <c r="L59" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>Poids1200013</v>
+      <c r="K59" s="2" t="s">
+        <v>610</v>
+      </c>
+      <c r="L59" s="2" t="s">
+        <v>531</v>
       </c>
       <c r="M59" s="2" t="str">
         <f t="shared" si="0"/>

--- a/Jeu d'essai (Valeurs).xlsx
+++ b/Jeu d'essai (Valeurs).xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="1387" documentId="14_{E952B2A6-1070-47AA-ABAD-4591E8C72938}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{D6C9D73D-947A-4DE6-B7D1-2EFC45C4B40F}"/>
+  <xr:revisionPtr revIDLastSave="1623" documentId="14_{E952B2A6-1070-47AA-ABAD-4591E8C72938}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{8F1C78BB-C4AE-447D-9565-19FB7AC4DEEB}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1007" uniqueCount="616">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1127" uniqueCount="709">
   <si>
     <t>NULL</t>
   </si>
@@ -789,12 +789,6 @@
     <t>450.0</t>
   </si>
   <si>
-    <t>Chaise ordinateur</t>
-  </si>
-  <si>
-    <t>Couleur bleue. 5 roulettes.  Hauteur ajustable.</t>
-  </si>
-  <si>
     <t>10.0</t>
   </si>
   <si>
@@ -931,15 +925,6 @@
   </si>
   <si>
     <t>37.5</t>
-  </si>
-  <si>
-    <t>2 x Roulette pivotante en polyoléfine</t>
-  </si>
-  <si>
-    <t>Diamètre de roue: 4" (100 mm) Type de roulette: Pivotant Matériau du cadre: Acier Distance entre les trous de boulon (centre-centre): 55 mm x 80 mm Dimensions de la plaque: 78 mm x 102 mm Hauteur hors tout: 5"</t>
-  </si>
-  <si>
-    <t>2.0</t>
   </si>
   <si>
     <t>Cles Craftman</t>
@@ -1207,15 +1192,6 @@
     <t>1600015.JPG</t>
   </si>
   <si>
-    <t>1100007.JPG</t>
-  </si>
-  <si>
-    <t>1100008.JPG</t>
-  </si>
-  <si>
-    <t>1100009.JPG</t>
-  </si>
-  <si>
     <t>1100010.JPG</t>
   </si>
   <si>
@@ -1226,18 +1202,6 @@
   </si>
   <si>
     <t>1100014.jpg</t>
-  </si>
-  <si>
-    <t>1100015.jpg</t>
-  </si>
-  <si>
-    <t>1100016.JPG</t>
-  </si>
-  <si>
-    <t>1100017.JPG</t>
-  </si>
-  <si>
-    <t>1100018.JPG</t>
   </si>
   <si>
     <t>1100028.jpg</t>
@@ -1759,9 +1723,6 @@
     <t>60.00</t>
   </si>
   <si>
-    <t>30.00</t>
-  </si>
-  <si>
     <t>125.00</t>
   </si>
   <si>
@@ -1772,9 +1733,6 @@
   </si>
   <si>
     <t>600.00</t>
-  </si>
-  <si>
-    <t>1400004.jpg</t>
   </si>
   <si>
     <t>1100006.JPG</t>
@@ -1923,6 +1881,332 @@
   </si>
   <si>
     <t>169.8</t>
+  </si>
+  <si>
+    <t>1400010.JPG</t>
+  </si>
+  <si>
+    <t>1400011.JPG</t>
+  </si>
+  <si>
+    <t>1400012.JPG</t>
+  </si>
+  <si>
+    <t>1100007.jpg</t>
+  </si>
+  <si>
+    <t>1400004.JPG</t>
+  </si>
+  <si>
+    <t>1400005.JPG</t>
+  </si>
+  <si>
+    <t>1400006.JPG</t>
+  </si>
+  <si>
+    <t>Parc Ridgedale d'Ingenuity</t>
+  </si>
+  <si>
+    <t>Le parc Ridgedale d'Ingenuity est conçu pour faciliter la vie des parents. Doté d'éléments en tissu amovibles et lavables à la machine, il comprend un Dream Centre avec berceau et une table à langer Just Right Height. La fonction OneLessStep vous permet de replier le parc sans avoir à retirer le berceau.</t>
+  </si>
+  <si>
+    <t>1100008.jpg</t>
+  </si>
+  <si>
+    <t>249.99</t>
+  </si>
+  <si>
+    <t>Siège d'auto Primo Viaggio 4-35</t>
+  </si>
+  <si>
+    <t>Protection en cas d'Impact Latéral qui s'ajuste facilement sur six positions différentes sans avoir à réenfiler, même pendant que le bébé est assis sur le siège, pour un meilleur ajustement plus sécuritaire
+Pare-soleil extensible 
+Le panneau de tête a été développé suivant le protocole des tests EURO-NCAP
+Le coussin de première étape offre plus de support au niveau du cou et du siège de bébés de 1.8 kg / 4 lb et plus
+Le coussin de deuxième étape supporte correctement un bébé en croissance
+Les coussins permettent de garder la tête de bébé bien positionnée et sont faits de tissu respirant</t>
+  </si>
+  <si>
+    <t>1100009.jpg</t>
+  </si>
+  <si>
+    <t>21.4</t>
+  </si>
+  <si>
+    <t>349.99</t>
+  </si>
+  <si>
+    <t>1400008.JPG</t>
+  </si>
+  <si>
+    <t>1400009.JPG</t>
+  </si>
+  <si>
+    <t>1600026.JPG</t>
+  </si>
+  <si>
+    <t>Chaise haute Graco</t>
+  </si>
+  <si>
+    <t>Chaise haute Graco. Propre. Rien de brisé. Sécuritaire. J'ai ajouté de la coquille d'oeuf (c'est une petite mousse) pour le confort de bébé et la prévention de la plagiocéphalie. Vous pouvez enlever cette mousse pour revenir à la chaise d'origine.</t>
+  </si>
+  <si>
+    <t>1400007.JPG</t>
+  </si>
+  <si>
+    <t>Sac de nuit SleepSack</t>
+  </si>
+  <si>
+    <t>Le sac de nuit SleepSack de Halo remplace les couvertures libres dans le berceau, qui risquent de couvrir le visage de votre enfant et d'entraver sa respiration. Il améliore à la fois la sécurité et la qualité du sommeil de votre enfant. Cette couverture chaude et moelleuse ne peut être enlevée d'un coup de pied, ce qui assure à votre enfant un sommeil paisible toute la nuit.</t>
+  </si>
+  <si>
+    <t>34.99</t>
+  </si>
+  <si>
+    <t>1600018.jpg</t>
+  </si>
+  <si>
+    <t>Ensemble de moniteurs Side By Side 2.0</t>
+  </si>
+  <si>
+    <t>Regardez facilement un, deux, trois ou quatre enfants ou pièces simultanément sur le même écran. Particulièrement utile pour les parents qui ont plusieurs enfants. Vous pouvez également choisir le mode de rotation automatique entre les chambres toutes les huit secondes.</t>
+  </si>
+  <si>
+    <t>1600019.jpg</t>
+  </si>
+  <si>
+    <t>2.9</t>
+  </si>
+  <si>
+    <t>329.99</t>
+  </si>
+  <si>
+    <t>259.97</t>
+  </si>
+  <si>
+    <t>Lit de bébé transformable 4-en-1 Danbury</t>
+  </si>
+  <si>
+    <t>Grâce à son design classique, la collection Danbury par Oxford Baby dégage la distinction et le charme tout en incorporant les plus hautes normes de qualité et de sécurité de l'industrie. La collection Danbury propose de jolis panneaux en relief et des bordures en biseau. Ses lignes sobres sont décorées de moulures détaillées.</t>
+  </si>
+  <si>
+    <t>126.3</t>
+  </si>
+  <si>
+    <t>1600020.jpg</t>
+  </si>
+  <si>
+    <t>549.99</t>
+  </si>
+  <si>
+    <t>449.97</t>
+  </si>
+  <si>
+    <t>Commode à 7 tiroirs Danbury</t>
+  </si>
+  <si>
+    <t>La commode à tiroirs Danbury par Oxford Baby est un meuble indispensable pour compléter la chambre de votre enfant. Grâce à ses 7 grands tiroirs, elle offre beaucoup d'espace de rangement.</t>
+  </si>
+  <si>
+    <t>169.2</t>
+  </si>
+  <si>
+    <t>1600021.jpg</t>
+  </si>
+  <si>
+    <t>599.99</t>
+  </si>
+  <si>
+    <t>549.97</t>
+  </si>
+  <si>
+    <t>Jeu de basket-ball Easy Score</t>
+  </si>
+  <si>
+    <t>Ce panier de basketball réglable pour enfants encourage un jeu actif et leur fait découvrir un jeu compétitif qui leur permettra de réussir avec un niveau adéquat de stimulation. L'ensemble de panier de basketball TotSports Easy Score pour enfants rend les sports faciles et captivants pour les jeunes enfants qui grandissent.</t>
+  </si>
+  <si>
+    <t>19.97</t>
+  </si>
+  <si>
+    <t>1600022.jpg</t>
+  </si>
+  <si>
+    <t>L'auto PlasmaCar est conçue pour durer: faite de plastique ABS de haute qualité, solide et durable pour les enfants actifs. Modèle épuré visuellement et aussi facile à faire marcher. Elle comprend 6 roues, un siège, des repose-pieds et un volant.</t>
+  </si>
+  <si>
+    <t>Auto PlasmaCar</t>
+  </si>
+  <si>
+    <t>9.9</t>
+  </si>
+  <si>
+    <t>69.99</t>
+  </si>
+  <si>
+    <t>49.97</t>
+  </si>
+  <si>
+    <t>1600024.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ensemble de pâte à modeler </t>
+  </si>
+  <si>
+    <t>Chacun des 9 pots contient 56 g de pâte à modeler colorée pour le modelage et le sculptage. Votre enfant pourra même combiner les couleurs, de même qu'utiliser les accessoires fournis, pour laisser libre cours à son imagination et sa créativité. La pâte à modeler peut être aplatie, roulée, puis formée à l'aide des moules inclus. Cet ensemble gardera votre enfant occupé des heures durant! Comprend 9 pots de pâte à modeler de taille moyenne, 8 moues, 1 rouleau, 1 couteau, 2 tubes de moulage avec plongeoir. Les couleurs et le contenu peuvent varier.</t>
+  </si>
+  <si>
+    <t>1600023.jpg</t>
+  </si>
+  <si>
+    <t>1.9</t>
+  </si>
+  <si>
+    <t>17.99</t>
+  </si>
+  <si>
+    <t>8.97</t>
+  </si>
+  <si>
+    <t>Le chauffe-biberon et chauffe-repas électrique Closer to Nature réchauffe les biberons et la nourriture pour bébé rapidement et de façon sécuritaire, en environ 4 minutes. Le chauffe-biberon et chauffe-repas réchauffe nimporte quoi, du lait maternel aux aliments pour bébé, tout en aidant à préserver les éléments nutritifs indispensables au développement sain de votre bébé. Il suffit de placer le biberon ou le pot dans lappareil et dajuster le cadran de température facile à utiliser.</t>
+  </si>
+  <si>
+    <t>Chauffe-biberon et chauffe-repas Closer to Nature</t>
+  </si>
+  <si>
+    <t>1.3</t>
+  </si>
+  <si>
+    <t>23.97</t>
+  </si>
+  <si>
+    <t>Marteau à panne courbe avec poignée confort</t>
+  </si>
+  <si>
+    <t>Le marteau à panne courbe avec poignée confort de marque Fuller vous permet d'extraire et d'enfoncer des clous aisément. Ce marteau est pourvu d'une tête en acier traitée thermiquement et d'un manche durci qui offrent une durabilité et une robustesse accrue. Son anneau de protection en acier et sa poignée coussinée qui absorbe les chocs procurent davantage de confort et de contrôle.</t>
+  </si>
+  <si>
+    <t>1600025.jpg</t>
+  </si>
+  <si>
+    <t>10.99</t>
+  </si>
+  <si>
+    <t>Jeu de 6 tournevis</t>
+  </si>
+  <si>
+    <t>Cet ensemble de six tournevis de marque Fuller est parfait pour tous vos projets. Dotés d'un manche ergonomique de couleur rouge et noire, chacun des tournevis possède une lame en acier au chrome-vanadium pour une durabilité inégalée. L'ensemble est composé d'un tournevis plat 3/16" de 3", d'un tournevis cruciforme n° 1 de 3", d'un tournevis carré n° 1 de 3", d'un tournevis plat 1/4" de 4", d'un tournevis cruciforme n°2 de 4" et d'un tournevis carré n° 2 de 4". Ce jeu d'outils est couvert par une garantie à vie.</t>
+  </si>
+  <si>
+    <t>9.99</t>
+  </si>
+  <si>
+    <t>Scie à dos 14 po</t>
+  </si>
+  <si>
+    <t>Scie à dos. 14 po. En acier. Utilisé spécifiquement pour la finition fine, le contre-plaqué et les bois durs. Conçu pour le découpage précis comprenant des queues d'arrondes, des degrés et des tenons. Lame fixée à la poignée avec des vis résistantes. Poignée d'une seule pièce bimatérielle solide pour une plus longue vie et un confort accru.</t>
+  </si>
+  <si>
+    <t>1.1</t>
+  </si>
+  <si>
+    <t>26.99</t>
+  </si>
+  <si>
+    <t>Perceuse à percussion sans fil, 3 vitesses, 20 V MAX</t>
+  </si>
+  <si>
+    <t>La perceuse à percussion sans fil 20V MAX de Dewalt est munie d'un moteur sans brosse à haute puissance et efficacité. Avec ses 3 vitesses réversibles, elle peut atteindre jusqu'à 2250 tr/min. et 38 250 CPM. Mandrin métallique robuste avec insertions au carbure. Son éclairage DEL intégré fournit la lumière nécessaire dans les espaces sombres et confinés. Son mode projecteur propose aussi une fonction d'arrêt de 20 minutes permettant un temps de travail prolongé. Batterie 20V MAX Lithium-ion XR, non-incluse. Garantie limitée de 3 ans.</t>
+  </si>
+  <si>
+    <t>1100014.JPG</t>
+  </si>
+  <si>
+    <t>239.00</t>
+  </si>
+  <si>
+    <t>203.15</t>
+  </si>
+  <si>
+    <t>Boulon avec écrou pour abri d'auto, boîte de 50</t>
+  </si>
+  <si>
+    <t>Pour un abri d'auto solide et bien en place, optez pour ce boulon de carrosserie à tête ronde. Il est offert avec un écrou papillon pour plus de stabilité et il est entièrement fileté. Boîte de 50 boulons.</t>
+  </si>
+  <si>
+    <t>16.49</t>
+  </si>
+  <si>
+    <t>1600027.JPG</t>
+  </si>
+  <si>
+    <t>Rondelles plates en acier, 1/4", boîte de 162</t>
+  </si>
+  <si>
+    <t>Ces rondelles plates de marque Precision sont conçues en acier plaqué zinc. Celles-ci offrent une surface de contact plus grande sous la fixation, ce qui empêche la vis, le boulon ou l'écrou de creuser dans le matériau. Vendues en boîtes de 162, elles ont un diamètre de boulon de 1/4".</t>
+  </si>
+  <si>
+    <t>6.47</t>
+  </si>
+  <si>
+    <t>1600028.JPG</t>
+  </si>
+  <si>
+    <t>Vis à tête plate, multi-usage</t>
+  </si>
+  <si>
+    <t>Vis à tête plate, multi-usage. #8 - 3po. Boite de 1Lb.</t>
+  </si>
+  <si>
+    <t>10.69</t>
+  </si>
+  <si>
+    <t>1600029.JPG</t>
+  </si>
+  <si>
+    <t>Écrous hexagonaux en acier, boîte de 50</t>
+  </si>
+  <si>
+    <t>Ces écrous hexagonaux grade 5 de marque Precision sont parfaits pour les travaux dans le domaine industriel. Fabriqués en acier fini zinc, ils offrent aussi bien une bonne flexibilité qu'une forte résistance. Les écrous sont utilisés avec un boulon pour fixer mécaniquement deux matériaux. D'un filetage de 1/4"-20, ils viennent en boîtes de 50.</t>
+  </si>
+  <si>
+    <t>3.78</t>
+  </si>
+  <si>
+    <t>1600030.JPG</t>
+  </si>
+  <si>
+    <t>Écrou papillon</t>
+  </si>
+  <si>
+    <t>Écrou papillon, 1/4-20, 50 par boite. Les écrous papillons offrent une application très facile quand il est nécessaire d'enlever ou remplacer l'écrou ou quand le réglage est requis.</t>
+  </si>
+  <si>
+    <t>14.35</t>
+  </si>
+  <si>
+    <t>1600031.JPG</t>
+  </si>
+  <si>
+    <t>Goupille rapide ronde, 1/4" x 1 3/8"</t>
+  </si>
+  <si>
+    <t>Cette goupille en acier galvanisé à boucle métallique est parfaite pour une application rapide. Elle est rapide et facile à utiliser.</t>
+  </si>
+  <si>
+    <t>1.59</t>
+  </si>
+  <si>
+    <t>1600032.JPG</t>
+  </si>
+  <si>
+    <t>Roulette sur plaque à usage général</t>
+  </si>
+  <si>
+    <t>La roulette à usage général Madico allie robustesse, polyvalence et économie. Sa bande de roulement souple avec jante en caoutchouc durci procure une stabilité de roulement, un mouvement doux et coussiné, un déplacement du poids supérieur et une excellente protection du plancher. La roulette peut s'utiliser sur le bois franc, la tuile, le linoléum, le tapis, la céramique, le béton et l'acier. Elle est pivotante et dotée d'une finition au zinc qui résiste à la corrosion. Un frein permet de la bloquer en place pour plus de sécurité. La plaque de montage mesure 1 1/2" x 1 13/16" (38 mm x 46 mm). Elle facilite l'installation et la fixation de la roulette sur des surfaces planes. La roulette mesure 2" (52 mm) de hauteur et 1 1/2" (40 mm) de diamètre. Elle a une capacité de charge élevée de 44 lb (20 kg).</t>
+  </si>
+  <si>
+    <t>2.59</t>
   </si>
 </sst>
 </file>
@@ -2350,28 +2634,28 @@
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>394</v>
+        <v>382</v>
       </c>
       <c r="C2" t="s">
-        <v>395</v>
+        <v>383</v>
       </c>
       <c r="D2" t="s">
-        <v>396</v>
+        <v>384</v>
       </c>
       <c r="E2" t="s">
-        <v>397</v>
+        <v>385</v>
       </c>
       <c r="F2" t="s">
-        <v>398</v>
+        <v>386</v>
       </c>
       <c r="G2" t="s">
-        <v>399</v>
+        <v>387</v>
       </c>
       <c r="H2" t="s">
-        <v>400</v>
+        <v>388</v>
       </c>
       <c r="I2" t="s">
-        <v>401</v>
+        <v>389</v>
       </c>
       <c r="J2">
         <v>4503548575</v>
@@ -2380,10 +2664,10 @@
         <v>0</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>402</v>
+        <v>390</v>
       </c>
       <c r="M2" t="s">
-        <v>403</v>
+        <v>391</v>
       </c>
       <c r="N2">
         <v>100</v>
@@ -2395,10 +2679,10 @@
         <v>1</v>
       </c>
       <c r="Q2" t="s">
-        <v>529</v>
+        <v>517</v>
       </c>
       <c r="R2" t="s">
-        <v>532</v>
+        <v>520</v>
       </c>
       <c r="S2" s="1">
         <v>43466.224826388891</v>
@@ -2415,28 +2699,28 @@
         <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
       <c r="C3" t="s">
-        <v>406</v>
+        <v>394</v>
       </c>
       <c r="D3" t="s">
-        <v>407</v>
+        <v>395</v>
       </c>
       <c r="E3" t="s">
-        <v>408</v>
+        <v>396</v>
       </c>
       <c r="F3" t="s">
-        <v>409</v>
+        <v>397</v>
       </c>
       <c r="G3" t="s">
-        <v>399</v>
+        <v>387</v>
       </c>
       <c r="H3" t="s">
-        <v>410</v>
+        <v>398</v>
       </c>
       <c r="I3" t="s">
-        <v>401</v>
+        <v>389</v>
       </c>
       <c r="J3">
         <v>5146336473</v>
@@ -2445,10 +2729,10 @@
         <v>0</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>411</v>
+        <v>399</v>
       </c>
       <c r="M3" t="s">
-        <v>412</v>
+        <v>400</v>
       </c>
       <c r="N3">
         <v>50</v>
@@ -2460,10 +2744,10 @@
         <v>0</v>
       </c>
       <c r="Q3" t="s">
-        <v>530</v>
+        <v>518</v>
       </c>
       <c r="R3" t="s">
-        <v>533</v>
+        <v>521</v>
       </c>
       <c r="S3" s="1">
         <v>43468.322939814818</v>
@@ -2480,28 +2764,28 @@
         <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>414</v>
+        <v>402</v>
       </c>
       <c r="C4" t="s">
-        <v>415</v>
+        <v>403</v>
       </c>
       <c r="D4" t="s">
-        <v>416</v>
+        <v>404</v>
       </c>
       <c r="E4" t="s">
-        <v>417</v>
+        <v>405</v>
       </c>
       <c r="F4" t="s">
-        <v>418</v>
+        <v>406</v>
       </c>
       <c r="G4" t="s">
-        <v>399</v>
+        <v>387</v>
       </c>
       <c r="H4" t="s">
-        <v>419</v>
+        <v>407</v>
       </c>
       <c r="I4" t="s">
-        <v>401</v>
+        <v>389</v>
       </c>
       <c r="J4">
         <v>5147773847</v>
@@ -2510,10 +2794,10 @@
         <v>4505658849</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
       <c r="M4" t="s">
-        <v>421</v>
+        <v>409</v>
       </c>
       <c r="N4">
         <v>75</v>
@@ -2528,7 +2812,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="s">
-        <v>534</v>
+        <v>522</v>
       </c>
       <c r="S4" s="1">
         <v>43472.385462962964</v>
@@ -2545,28 +2829,28 @@
         <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>423</v>
+        <v>411</v>
       </c>
       <c r="C5" t="s">
-        <v>424</v>
+        <v>412</v>
       </c>
       <c r="D5" t="s">
-        <v>425</v>
+        <v>413</v>
       </c>
       <c r="E5" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="F5" t="s">
-        <v>427</v>
+        <v>415</v>
       </c>
       <c r="G5" t="s">
-        <v>428</v>
+        <v>416</v>
       </c>
       <c r="H5" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="I5" t="s">
-        <v>401</v>
+        <v>389</v>
       </c>
       <c r="J5">
         <v>6133496675</v>
@@ -2575,10 +2859,10 @@
         <v>0</v>
       </c>
       <c r="L5" s="4" t="s">
-        <v>430</v>
+        <v>418</v>
       </c>
       <c r="M5" t="s">
-        <v>431</v>
+        <v>419</v>
       </c>
       <c r="N5">
         <v>100</v>
@@ -2590,10 +2874,10 @@
         <v>1</v>
       </c>
       <c r="Q5" t="s">
-        <v>531</v>
+        <v>519</v>
       </c>
       <c r="R5" t="s">
-        <v>535</v>
+        <v>523</v>
       </c>
       <c r="S5" s="1">
         <v>43476.262372685182</v>
@@ -2610,28 +2894,28 @@
         <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>432</v>
+        <v>420</v>
       </c>
       <c r="C6" t="s">
-        <v>433</v>
+        <v>421</v>
       </c>
       <c r="D6" t="s">
-        <v>434</v>
+        <v>422</v>
       </c>
       <c r="E6" t="s">
-        <v>435</v>
+        <v>423</v>
       </c>
       <c r="F6" t="s">
-        <v>436</v>
+        <v>424</v>
       </c>
       <c r="G6" t="s">
-        <v>399</v>
+        <v>387</v>
       </c>
       <c r="H6" t="s">
-        <v>437</v>
+        <v>425</v>
       </c>
       <c r="I6" t="s">
-        <v>401</v>
+        <v>389</v>
       </c>
       <c r="J6">
         <v>4508889483</v>
@@ -2640,10 +2924,10 @@
         <v>5149938373</v>
       </c>
       <c r="L6" s="4" t="s">
-        <v>438</v>
+        <v>426</v>
       </c>
       <c r="M6" t="s">
-        <v>439</v>
+        <v>427</v>
       </c>
       <c r="N6">
         <v>30</v>
@@ -2658,7 +2942,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="s">
-        <v>536</v>
+        <v>524</v>
       </c>
       <c r="S6" s="1">
         <v>43481.492337962962</v>
@@ -2675,28 +2959,28 @@
         <v>16</v>
       </c>
       <c r="B7" t="s">
-        <v>440</v>
+        <v>428</v>
       </c>
       <c r="C7" t="s">
-        <v>441</v>
+        <v>429</v>
       </c>
       <c r="D7" t="s">
-        <v>442</v>
+        <v>430</v>
       </c>
       <c r="E7" t="s">
-        <v>443</v>
+        <v>431</v>
       </c>
       <c r="F7" t="s">
-        <v>409</v>
+        <v>397</v>
       </c>
       <c r="G7" t="s">
-        <v>399</v>
+        <v>387</v>
       </c>
       <c r="H7" t="s">
-        <v>444</v>
+        <v>432</v>
       </c>
       <c r="I7" t="s">
-        <v>401</v>
+        <v>389</v>
       </c>
       <c r="J7">
         <v>5146337748</v>
@@ -2705,10 +2989,10 @@
         <v>0</v>
       </c>
       <c r="L7" s="4" t="s">
-        <v>445</v>
+        <v>433</v>
       </c>
       <c r="M7" t="s">
-        <v>446</v>
+        <v>434</v>
       </c>
       <c r="N7">
         <v>40</v>
@@ -2720,10 +3004,10 @@
         <v>1</v>
       </c>
       <c r="Q7" t="s">
-        <v>529</v>
+        <v>517</v>
       </c>
       <c r="R7" t="s">
-        <v>537</v>
+        <v>525</v>
       </c>
       <c r="S7" s="1">
         <v>43487.357361111113</v>
@@ -2740,28 +3024,28 @@
         <v>17</v>
       </c>
       <c r="B8" t="s">
-        <v>447</v>
+        <v>435</v>
       </c>
       <c r="C8" t="s">
-        <v>448</v>
+        <v>436</v>
       </c>
       <c r="D8" t="s">
-        <v>449</v>
+        <v>437</v>
       </c>
       <c r="E8" t="s">
-        <v>450</v>
+        <v>438</v>
       </c>
       <c r="F8" t="s">
-        <v>451</v>
+        <v>439</v>
       </c>
       <c r="G8" t="s">
-        <v>452</v>
+        <v>440</v>
       </c>
       <c r="H8" t="s">
-        <v>453</v>
+        <v>441</v>
       </c>
       <c r="I8" t="s">
-        <v>401</v>
+        <v>389</v>
       </c>
       <c r="J8">
         <v>5066378822</v>
@@ -2770,10 +3054,10 @@
         <v>0</v>
       </c>
       <c r="L8" s="4" t="s">
-        <v>454</v>
+        <v>442</v>
       </c>
       <c r="M8" t="s">
-        <v>455</v>
+        <v>443</v>
       </c>
       <c r="N8">
         <v>50</v>
@@ -2785,10 +3069,10 @@
         <v>1</v>
       </c>
       <c r="Q8" t="s">
-        <v>531</v>
+        <v>519</v>
       </c>
       <c r="R8" t="s">
-        <v>538</v>
+        <v>526</v>
       </c>
       <c r="S8" s="1">
         <v>43493.244884259257</v>
@@ -3350,31 +3634,31 @@
         <v>101</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>456</v>
+        <v>444</v>
       </c>
       <c r="C2" t="s">
-        <v>457</v>
+        <v>445</v>
       </c>
       <c r="D2" t="s">
-        <v>458</v>
+        <v>446</v>
       </c>
       <c r="E2" t="s">
-        <v>459</v>
+        <v>447</v>
       </c>
       <c r="F2" t="s">
-        <v>460</v>
+        <v>448</v>
       </c>
       <c r="G2" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="H2" t="s">
-        <v>399</v>
+        <v>387</v>
       </c>
       <c r="I2" t="s">
-        <v>462</v>
+        <v>450</v>
       </c>
       <c r="J2" t="s">
-        <v>401</v>
+        <v>389</v>
       </c>
       <c r="K2">
         <v>5147583737</v>
@@ -3406,31 +3690,31 @@
         <v>102</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>463</v>
+        <v>451</v>
       </c>
       <c r="C3" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
       <c r="D3" t="s">
-        <v>465</v>
+        <v>453</v>
       </c>
       <c r="E3" t="s">
-        <v>466</v>
+        <v>454</v>
       </c>
       <c r="F3" t="s">
-        <v>467</v>
+        <v>455</v>
       </c>
       <c r="G3" t="s">
-        <v>468</v>
+        <v>456</v>
       </c>
       <c r="H3" t="s">
-        <v>399</v>
+        <v>387</v>
       </c>
       <c r="I3" t="s">
-        <v>469</v>
+        <v>457</v>
       </c>
       <c r="J3" t="s">
-        <v>401</v>
+        <v>389</v>
       </c>
       <c r="K3">
         <v>5145537272</v>
@@ -3462,10 +3746,10 @@
         <v>103</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>470</v>
+        <v>458</v>
       </c>
       <c r="C4" t="s">
-        <v>471</v>
+        <v>459</v>
       </c>
       <c r="D4" t="s">
         <v>0</v>
@@ -3517,31 +3801,31 @@
         <v>104</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>472</v>
+        <v>460</v>
       </c>
       <c r="C5" t="s">
-        <v>473</v>
+        <v>461</v>
       </c>
       <c r="D5" t="s">
-        <v>433</v>
+        <v>421</v>
       </c>
       <c r="E5" t="s">
-        <v>474</v>
+        <v>462</v>
       </c>
       <c r="F5" t="s">
-        <v>475</v>
+        <v>463</v>
       </c>
       <c r="G5" t="s">
-        <v>468</v>
+        <v>456</v>
       </c>
       <c r="H5" t="s">
-        <v>399</v>
+        <v>387</v>
       </c>
       <c r="I5" t="s">
-        <v>476</v>
+        <v>464</v>
       </c>
       <c r="J5" t="s">
-        <v>401</v>
+        <v>389</v>
       </c>
       <c r="K5">
         <v>5143738890</v>
@@ -3573,10 +3857,10 @@
         <v>105</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>477</v>
+        <v>465</v>
       </c>
       <c r="C6" t="s">
-        <v>478</v>
+        <v>466</v>
       </c>
       <c r="D6" t="s">
         <v>0</v>
@@ -3628,10 +3912,10 @@
         <v>106</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>479</v>
+        <v>467</v>
       </c>
       <c r="C7" t="s">
-        <v>480</v>
+        <v>468</v>
       </c>
       <c r="D7" t="s">
         <v>0</v>
@@ -3683,10 +3967,10 @@
         <v>107</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>481</v>
+        <v>469</v>
       </c>
       <c r="C8" t="s">
-        <v>482</v>
+        <v>470</v>
       </c>
       <c r="D8" t="s">
         <v>0</v>
@@ -3738,31 +4022,31 @@
         <v>108</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>483</v>
+        <v>471</v>
       </c>
       <c r="C9" t="s">
-        <v>484</v>
+        <v>472</v>
       </c>
       <c r="D9" t="s">
-        <v>485</v>
+        <v>473</v>
       </c>
       <c r="E9" t="s">
-        <v>486</v>
+        <v>474</v>
       </c>
       <c r="F9" t="s">
-        <v>487</v>
+        <v>475</v>
       </c>
       <c r="G9" t="s">
-        <v>409</v>
+        <v>397</v>
       </c>
       <c r="H9" t="s">
-        <v>399</v>
+        <v>387</v>
       </c>
       <c r="I9" t="s">
-        <v>410</v>
+        <v>398</v>
       </c>
       <c r="J9" t="s">
-        <v>401</v>
+        <v>389</v>
       </c>
       <c r="K9">
         <v>5143736663</v>
@@ -3794,10 +4078,10 @@
         <v>109</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>488</v>
+        <v>476</v>
       </c>
       <c r="C10" t="s">
-        <v>489</v>
+        <v>477</v>
       </c>
       <c r="D10" t="s">
         <v>0</v>
@@ -3849,10 +4133,10 @@
         <v>110</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>490</v>
+        <v>478</v>
       </c>
       <c r="C11" t="s">
-        <v>491</v>
+        <v>479</v>
       </c>
       <c r="D11" t="s">
         <v>0</v>
@@ -3904,10 +4188,10 @@
         <v>111</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>492</v>
+        <v>480</v>
       </c>
       <c r="C12" t="s">
-        <v>493</v>
+        <v>481</v>
       </c>
       <c r="D12" t="s">
         <v>0</v>
@@ -3959,10 +4243,10 @@
         <v>112</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>494</v>
+        <v>482</v>
       </c>
       <c r="C13" t="s">
-        <v>495</v>
+        <v>483</v>
       </c>
       <c r="D13" t="s">
         <v>0</v>
@@ -4014,10 +4298,10 @@
         <v>113</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>496</v>
+        <v>484</v>
       </c>
       <c r="C14" t="s">
-        <v>497</v>
+        <v>485</v>
       </c>
       <c r="D14" t="s">
         <v>0</v>
@@ -4069,31 +4353,31 @@
         <v>114</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>498</v>
+        <v>486</v>
       </c>
       <c r="C15" t="s">
-        <v>499</v>
+        <v>487</v>
       </c>
       <c r="D15" t="s">
-        <v>500</v>
+        <v>488</v>
       </c>
       <c r="E15" t="s">
-        <v>449</v>
+        <v>437</v>
       </c>
       <c r="F15" t="s">
-        <v>501</v>
+        <v>489</v>
       </c>
       <c r="G15" t="s">
-        <v>398</v>
+        <v>386</v>
       </c>
       <c r="H15" t="s">
-        <v>399</v>
+        <v>387</v>
       </c>
       <c r="I15" t="s">
-        <v>502</v>
+        <v>490</v>
       </c>
       <c r="J15" t="s">
-        <v>401</v>
+        <v>389</v>
       </c>
       <c r="K15">
         <v>4507892020</v>
@@ -4125,10 +4409,10 @@
         <v>115</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>503</v>
+        <v>491</v>
       </c>
       <c r="C16" t="s">
-        <v>504</v>
+        <v>492</v>
       </c>
       <c r="D16" t="s">
         <v>0</v>
@@ -4180,10 +4464,10 @@
         <v>116</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>505</v>
+        <v>493</v>
       </c>
       <c r="C17" t="s">
-        <v>506</v>
+        <v>494</v>
       </c>
       <c r="D17" t="s">
         <v>0</v>
@@ -4235,10 +4519,10 @@
         <v>117</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>507</v>
+        <v>495</v>
       </c>
       <c r="C18" t="s">
-        <v>508</v>
+        <v>496</v>
       </c>
       <c r="D18" t="s">
         <v>0</v>
@@ -4290,31 +4574,31 @@
         <v>118</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>509</v>
+        <v>497</v>
       </c>
       <c r="C19" t="s">
-        <v>510</v>
+        <v>498</v>
       </c>
       <c r="D19" t="s">
-        <v>511</v>
+        <v>499</v>
       </c>
       <c r="E19" t="s">
-        <v>512</v>
+        <v>500</v>
       </c>
       <c r="F19" t="s">
-        <v>513</v>
+        <v>501</v>
       </c>
       <c r="G19" t="s">
-        <v>514</v>
+        <v>502</v>
       </c>
       <c r="H19" t="s">
-        <v>399</v>
+        <v>387</v>
       </c>
       <c r="I19" t="s">
-        <v>515</v>
+        <v>503</v>
       </c>
       <c r="J19" t="s">
-        <v>401</v>
+        <v>389</v>
       </c>
       <c r="K19">
         <v>5142325333</v>
@@ -4346,31 +4630,31 @@
         <v>119</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>516</v>
+        <v>504</v>
       </c>
       <c r="C20" t="s">
-        <v>517</v>
+        <v>505</v>
       </c>
       <c r="D20" t="s">
-        <v>518</v>
+        <v>506</v>
       </c>
       <c r="E20" t="s">
-        <v>519</v>
+        <v>507</v>
       </c>
       <c r="F20" t="s">
-        <v>520</v>
+        <v>508</v>
       </c>
       <c r="G20" t="s">
-        <v>521</v>
+        <v>509</v>
       </c>
       <c r="H20" t="s">
-        <v>399</v>
+        <v>387</v>
       </c>
       <c r="I20" t="s">
-        <v>522</v>
+        <v>510</v>
       </c>
       <c r="J20" t="s">
-        <v>401</v>
+        <v>389</v>
       </c>
       <c r="K20">
         <v>4508934747</v>
@@ -4402,31 +4686,31 @@
         <v>120</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>523</v>
+        <v>511</v>
       </c>
       <c r="C21" t="s">
-        <v>524</v>
+        <v>512</v>
       </c>
       <c r="D21" t="s">
-        <v>525</v>
+        <v>513</v>
       </c>
       <c r="E21" t="s">
-        <v>526</v>
+        <v>514</v>
       </c>
       <c r="F21" t="s">
-        <v>527</v>
+        <v>515</v>
       </c>
       <c r="G21" t="s">
-        <v>418</v>
+        <v>406</v>
       </c>
       <c r="H21" t="s">
-        <v>399</v>
+        <v>387</v>
       </c>
       <c r="I21" t="s">
-        <v>528</v>
+        <v>516</v>
       </c>
       <c r="J21" t="s">
-        <v>401</v>
+        <v>389</v>
       </c>
       <c r="K21">
         <v>4507382929</v>
@@ -4463,7 +4747,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4581,10 +4865,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="A19" sqref="A19"/>
-      <selection pane="topRight" activeCell="D44" sqref="D44"/>
+      <selection pane="topRight" activeCell="A69" sqref="A69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4592,7 +4876,7 @@
     <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="43.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="46.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="208.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="20.140625" bestFit="1" customWidth="1"/>
@@ -4666,10 +4950,10 @@
         <v>238</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>422</v>
+        <v>410</v>
       </c>
       <c r="H2" s="2">
         <v>1</v>
@@ -4682,7 +4966,7 @@
         <v>DateVente1100001</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>422</v>
+        <v>410</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>239</v>
@@ -4706,32 +4990,32 @@
         <v>1001</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>536</v>
+      </c>
+      <c r="H3" s="2">
+        <v>1</v>
+      </c>
+      <c r="I3" s="2">
+        <v>1</v>
+      </c>
+      <c r="J3" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>DateVente1400001</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>536</v>
+      </c>
+      <c r="L3" s="2" t="s">
         <v>264</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>371</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>548</v>
-      </c>
-      <c r="H3" s="2">
-        <v>1</v>
-      </c>
-      <c r="I3" s="2">
-        <v>1</v>
-      </c>
-      <c r="J3" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>DateVente1400001</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>548</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>266</v>
       </c>
       <c r="M3" s="2" t="str">
         <f t="shared" si="0"/>
@@ -4752,32 +5036,32 @@
         <v>1001</v>
       </c>
       <c r="D4" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>536</v>
+      </c>
+      <c r="H4" s="2">
+        <v>1</v>
+      </c>
+      <c r="I4" s="2">
+        <v>1</v>
+      </c>
+      <c r="J4" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>DateVente1400002</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>536</v>
+      </c>
+      <c r="L4" s="2" t="s">
         <v>267</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>372</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>548</v>
-      </c>
-      <c r="H4" s="2">
-        <v>1</v>
-      </c>
-      <c r="I4" s="2">
-        <v>1</v>
-      </c>
-      <c r="J4" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>DateVente1400002</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>548</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>269</v>
       </c>
       <c r="M4" s="2" t="str">
         <f t="shared" si="0"/>
@@ -4798,13 +5082,13 @@
         <v>1001</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>74</v>
@@ -4823,7 +5107,7 @@
         <v>74</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="M5" s="2" t="str">
         <f t="shared" si="0"/>
@@ -4844,16 +5128,16 @@
         <v>1001</v>
       </c>
       <c r="D6" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>314</v>
       </c>
-      <c r="E6" s="3" t="s">
-        <v>319</v>
-      </c>
       <c r="F6" s="2" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="H6" s="2">
         <v>2</v>
@@ -4866,10 +5150,10 @@
         <v>DateVente1600002</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="M6" s="2" t="str">
         <f t="shared" si="0"/>
@@ -4890,16 +5174,16 @@
         <v>1001</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>539</v>
+        <v>527</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>540</v>
+        <v>528</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>541</v>
+        <v>529</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>543</v>
+        <v>531</v>
       </c>
       <c r="H7" s="2">
         <v>5</v>
@@ -4912,10 +5196,10 @@
         <v>DateVente1600003</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>543</v>
+        <v>531</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>542</v>
+        <v>530</v>
       </c>
       <c r="M7" s="2" t="str">
         <f t="shared" si="0"/>
@@ -4936,16 +5220,16 @@
         <v>1001</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="H8" s="2">
         <v>3</v>
@@ -4958,10 +5242,10 @@
         <v>DateVente1600004</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="M8" s="2" t="str">
         <f t="shared" si="0"/>
@@ -4982,16 +5266,16 @@
         <v>1001</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="H9" s="2">
         <v>1</v>
@@ -5004,10 +5288,10 @@
         <v>DateVente1600005</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="M9" s="2" t="str">
         <f t="shared" si="0"/>
@@ -5028,16 +5312,16 @@
         <v>1001</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>544</v>
+        <v>532</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>545</v>
+        <v>533</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>546</v>
+        <v>534</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>547</v>
+        <v>535</v>
       </c>
       <c r="H10" s="2">
         <v>1</v>
@@ -5050,10 +5334,10 @@
         <v>DateVente1600006</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>547</v>
+        <v>535</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="M10" s="2" t="str">
         <f t="shared" si="0"/>
@@ -5074,16 +5358,16 @@
         <v>1001</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="H11" s="2">
         <v>2</v>
@@ -5096,10 +5380,10 @@
         <v>DateVente1600007</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="M11" s="2" t="str">
         <f t="shared" si="0"/>
@@ -5120,16 +5404,16 @@
         <v>1002</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>551</v>
+        <v>539</v>
       </c>
       <c r="H12" s="2">
         <v>1</v>
@@ -5142,10 +5426,10 @@
         <v>DateVente1200005</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>554</v>
+        <v>542</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="M12" s="2" t="str">
         <f t="shared" si="0"/>
@@ -5166,16 +5450,16 @@
         <v>1002</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="H13" s="2">
         <v>2</v>
@@ -5188,7 +5472,7 @@
         <v>DateVente1200006</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="L13" s="2" t="s">
         <v>245</v>
@@ -5212,16 +5496,16 @@
         <v>1002</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="H14" s="2">
         <v>1</v>
@@ -5234,10 +5518,10 @@
         <v>DateVente1200007</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="M14" s="2" t="str">
         <f t="shared" si="0"/>
@@ -5258,16 +5542,16 @@
         <v>1002</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>552</v>
+        <v>540</v>
       </c>
       <c r="H15" s="2">
         <v>1</v>
@@ -5280,10 +5564,10 @@
         <v>DateVente1200008</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>552</v>
+        <v>540</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="M15" s="2" t="str">
         <f t="shared" si="0"/>
@@ -5304,16 +5588,16 @@
         <v>1002</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>553</v>
+        <v>541</v>
       </c>
       <c r="H16" s="2">
         <v>1</v>
@@ -5326,10 +5610,10 @@
         <v>DateVente1200009</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>553</v>
+        <v>541</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="M16" s="2" t="str">
         <f t="shared" si="0"/>
@@ -5350,16 +5634,16 @@
         <v>1002</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>578</v>
+        <v>564</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>579</v>
+        <v>565</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>580</v>
+        <v>566</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>581</v>
+        <v>567</v>
       </c>
       <c r="H17" s="2">
         <v>1</v>
@@ -5372,10 +5656,10 @@
         <v>DateVente1200006</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>581</v>
+        <v>567</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>582</v>
+        <v>568</v>
       </c>
       <c r="M17" s="2" t="str">
         <f>M$1&amp;$A10</f>
@@ -5396,16 +5680,16 @@
         <v>1002</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>583</v>
+        <v>569</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>584</v>
+        <v>570</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>585</v>
+        <v>571</v>
       </c>
       <c r="H18" s="2">
         <v>1</v>
@@ -5418,10 +5702,10 @@
         <v>DateVente1200007</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>585</v>
+        <v>571</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>586</v>
+        <v>572</v>
       </c>
       <c r="M18" s="2" t="str">
         <f>M$1&amp;$A17</f>
@@ -5442,16 +5726,16 @@
         <v>1002</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>587</v>
+        <v>573</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>588</v>
+        <v>574</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>589</v>
+        <v>575</v>
       </c>
       <c r="H19" s="2">
         <v>1</v>
@@ -5464,10 +5748,10 @@
         <v>DateVente1200008</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>589</v>
+        <v>575</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>590</v>
+        <v>576</v>
       </c>
       <c r="M19" s="2" t="str">
         <f>M$1&amp;$A18</f>
@@ -5488,16 +5772,16 @@
         <v>1002</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>591</v>
+        <v>577</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>592</v>
+        <v>578</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>593</v>
+        <v>579</v>
       </c>
       <c r="H20" s="2">
         <v>1</v>
@@ -5510,10 +5794,10 @@
         <v>DateVente1200009</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>593</v>
+        <v>579</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>594</v>
+        <v>580</v>
       </c>
       <c r="M20" s="2" t="str">
         <f>M$1&amp;$A19</f>
@@ -5534,16 +5818,16 @@
         <v>1002</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>595</v>
+        <v>581</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>596</v>
+        <v>582</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>597</v>
+        <v>583</v>
       </c>
       <c r="H21" s="2">
         <v>1</v>
@@ -5556,10 +5840,10 @@
         <v>DateVente1200010</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>597</v>
+        <v>583</v>
       </c>
       <c r="L21" s="2" t="s">
-        <v>598</v>
+        <v>584</v>
       </c>
       <c r="M21" s="2" t="str">
         <f>M$1&amp;$A20</f>
@@ -5580,16 +5864,16 @@
         <v>1002</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>599</v>
+        <v>585</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>600</v>
+        <v>586</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>602</v>
+        <v>588</v>
       </c>
       <c r="H22" s="2">
         <v>4</v>
@@ -5602,10 +5886,10 @@
         <v>DateVente1200011</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>602</v>
+        <v>588</v>
       </c>
       <c r="L22" s="2" t="s">
-        <v>601</v>
+        <v>587</v>
       </c>
       <c r="M22" s="2" t="str">
         <f>M$1&amp;$A21</f>
@@ -5626,16 +5910,16 @@
         <v>1002</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>603</v>
+        <v>589</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>604</v>
+        <v>590</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>605</v>
+        <v>591</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>606</v>
+        <v>592</v>
       </c>
       <c r="H23" s="2">
         <v>1</v>
@@ -5648,10 +5932,10 @@
         <v>DateVente1200012</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>606</v>
+        <v>592</v>
       </c>
       <c r="L23" s="2" t="s">
-        <v>607</v>
+        <v>593</v>
       </c>
       <c r="M23" s="2" t="str">
         <f t="shared" si="0"/>
@@ -5672,16 +5956,16 @@
         <v>1002</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>612</v>
+        <v>598</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>613</v>
+        <v>599</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>614</v>
+        <v>600</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>549</v>
+        <v>537</v>
       </c>
       <c r="H24" s="2">
         <v>1</v>
@@ -5690,14 +5974,14 @@
         <v>1</v>
       </c>
       <c r="J24" s="2" t="str">
-        <f t="shared" ref="E23:L37" si="1">J$1&amp;$A24</f>
+        <f t="shared" ref="J24:J37" si="1">J$1&amp;$A24</f>
         <v>DateVente1400003</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>549</v>
+        <v>537</v>
       </c>
       <c r="L24" s="2" t="s">
-        <v>615</v>
+        <v>601</v>
       </c>
       <c r="M24" s="2" t="str">
         <f t="shared" si="0"/>
@@ -5718,16 +6002,16 @@
         <v>1002</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>404</v>
+        <v>392</v>
       </c>
       <c r="H25" s="2">
         <v>1</v>
@@ -5740,10 +6024,10 @@
         <v>DateVente1600008</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>404</v>
+        <v>392</v>
       </c>
       <c r="L25" s="2" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="M25" s="2" t="str">
         <f t="shared" si="0"/>
@@ -5764,16 +6048,16 @@
         <v>1002</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="H26" s="2">
         <v>2</v>
@@ -5786,10 +6070,10 @@
         <v>DateVente1600009</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="L26" s="2" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="M26" s="2" t="str">
         <f t="shared" si="0"/>
@@ -5810,32 +6094,32 @@
         <v>1002</v>
       </c>
       <c r="D27" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="H27" s="2">
+        <v>1</v>
+      </c>
+      <c r="I27" s="2">
+        <v>1</v>
+      </c>
+      <c r="J27" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>DateVente1600010</v>
+      </c>
+      <c r="K27" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="L27" s="2" t="s">
         <v>273</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>364</v>
-      </c>
-      <c r="G27" s="2" t="s">
-        <v>549</v>
-      </c>
-      <c r="H27" s="2">
-        <v>1</v>
-      </c>
-      <c r="I27" s="2">
-        <v>1</v>
-      </c>
-      <c r="J27" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>DateVente1600010</v>
-      </c>
-      <c r="K27" s="2" t="s">
-        <v>549</v>
-      </c>
-      <c r="L27" s="2" t="s">
-        <v>275</v>
       </c>
       <c r="M27" s="2" t="str">
         <f t="shared" si="0"/>
@@ -5856,32 +6140,32 @@
         <v>1002</v>
       </c>
       <c r="D28" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>538</v>
+      </c>
+      <c r="H28" s="2">
+        <v>1</v>
+      </c>
+      <c r="I28" s="2">
+        <v>1</v>
+      </c>
+      <c r="J28" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>DateVente1600011</v>
+      </c>
+      <c r="K28" s="2" t="s">
+        <v>538</v>
+      </c>
+      <c r="L28" s="2" t="s">
         <v>276</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>366</v>
-      </c>
-      <c r="G28" s="2" t="s">
-        <v>550</v>
-      </c>
-      <c r="H28" s="2">
-        <v>1</v>
-      </c>
-      <c r="I28" s="2">
-        <v>1</v>
-      </c>
-      <c r="J28" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>DateVente1600011</v>
-      </c>
-      <c r="K28" s="2" t="s">
-        <v>550</v>
-      </c>
-      <c r="L28" s="2" t="s">
-        <v>278</v>
       </c>
       <c r="M28" s="2" t="str">
         <f t="shared" si="0"/>
@@ -5902,32 +6186,32 @@
         <v>1002</v>
       </c>
       <c r="D29" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="H29" s="2">
+        <v>1</v>
+      </c>
+      <c r="I29" s="2">
+        <v>1</v>
+      </c>
+      <c r="J29" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>DateVente1600012</v>
+      </c>
+      <c r="K29" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="L29" s="2" t="s">
         <v>279</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>345</v>
-      </c>
-      <c r="G29" s="2" t="s">
-        <v>413</v>
-      </c>
-      <c r="H29" s="2">
-        <v>1</v>
-      </c>
-      <c r="I29" s="2">
-        <v>1</v>
-      </c>
-      <c r="J29" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>DateVente1600012</v>
-      </c>
-      <c r="K29" s="2" t="s">
-        <v>413</v>
-      </c>
-      <c r="L29" s="2" t="s">
-        <v>281</v>
       </c>
       <c r="M29" s="2" t="str">
         <f t="shared" si="0"/>
@@ -5948,16 +6232,16 @@
         <v>1002</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="H30" s="2">
         <v>1</v>
@@ -5970,10 +6254,10 @@
         <v>DateVente1600013</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="L30" s="2" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="M30" s="2" t="str">
         <f t="shared" si="0"/>
@@ -6000,10 +6284,10 @@
         <v>241</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>556</v>
+        <v>544</v>
       </c>
       <c r="H31" s="2">
         <v>1</v>
@@ -6016,7 +6300,7 @@
         <v>DateVente1100002</v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>556</v>
+        <v>544</v>
       </c>
       <c r="L31" s="2" t="s">
         <v>242</v>
@@ -6040,32 +6324,32 @@
         <v>1003</v>
       </c>
       <c r="D32" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>545</v>
+      </c>
+      <c r="H32" s="2">
+        <v>1</v>
+      </c>
+      <c r="I32" s="2">
+        <v>1</v>
+      </c>
+      <c r="J32" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>DateVente1100003</v>
+      </c>
+      <c r="K32" s="2" t="s">
+        <v>545</v>
+      </c>
+      <c r="L32" s="2" t="s">
         <v>252</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>375</v>
-      </c>
-      <c r="G32" s="2" t="s">
-        <v>557</v>
-      </c>
-      <c r="H32" s="2">
-        <v>1</v>
-      </c>
-      <c r="I32" s="2">
-        <v>1</v>
-      </c>
-      <c r="J32" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>DateVente1100003</v>
-      </c>
-      <c r="K32" s="2" t="s">
-        <v>557</v>
-      </c>
-      <c r="L32" s="2" t="s">
-        <v>254</v>
       </c>
       <c r="M32" s="2" t="str">
         <f t="shared" si="0"/>
@@ -6086,13 +6370,13 @@
         <v>1003</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="G33" s="2" t="s">
         <v>74</v>
@@ -6111,7 +6395,7 @@
         <v>74</v>
       </c>
       <c r="L33" s="2" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="M33" s="2" t="str">
         <f t="shared" si="0"/>
@@ -6132,13 +6416,13 @@
         <v>1003</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="G34" s="2" t="s">
         <v>74</v>
@@ -6178,32 +6462,32 @@
         <v>1003</v>
       </c>
       <c r="D35" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>554</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>546</v>
+      </c>
+      <c r="H35" s="2">
+        <v>1</v>
+      </c>
+      <c r="I35" s="2">
+        <v>1</v>
+      </c>
+      <c r="J35" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>DateVente1100006</v>
+      </c>
+      <c r="K35" s="2" t="s">
+        <v>546</v>
+      </c>
+      <c r="L35" s="2" t="s">
         <v>282</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="F35" s="2" t="s">
-        <v>568</v>
-      </c>
-      <c r="G35" s="2" t="s">
-        <v>558</v>
-      </c>
-      <c r="H35" s="2">
-        <v>1</v>
-      </c>
-      <c r="I35" s="2">
-        <v>1</v>
-      </c>
-      <c r="J35" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>DateVente1100006</v>
-      </c>
-      <c r="K35" s="2" t="s">
-        <v>558</v>
-      </c>
-      <c r="L35" s="2" t="s">
-        <v>284</v>
       </c>
       <c r="M35" s="2" t="str">
         <f t="shared" si="0"/>
@@ -6224,16 +6508,16 @@
         <v>1003</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>393</v>
+        <v>381</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>559</v>
+        <v>547</v>
       </c>
       <c r="H36" s="2">
         <v>1</v>
@@ -6246,10 +6530,10 @@
         <v>DateVente1600014</v>
       </c>
       <c r="K36" s="2" t="s">
-        <v>559</v>
+        <v>547</v>
       </c>
       <c r="L36" s="2" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="M36" s="2" t="str">
         <f t="shared" si="0"/>
@@ -6270,16 +6554,16 @@
         <v>1003</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>422</v>
+        <v>410</v>
       </c>
       <c r="H37" s="2">
         <v>1</v>
@@ -6292,10 +6576,10 @@
         <v>DateVente1600015</v>
       </c>
       <c r="K37" s="2" t="s">
-        <v>422</v>
+        <v>410</v>
       </c>
       <c r="L37" s="2" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="M37" s="2" t="str">
         <f t="shared" si="0"/>
@@ -6316,16 +6600,16 @@
         <v>1003</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>569</v>
+        <v>555</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>576</v>
+        <v>562</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>574</v>
+        <v>560</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>572</v>
+        <v>558</v>
       </c>
       <c r="H38" s="2">
         <v>1</v>
@@ -6337,10 +6621,10 @@
         <v>43496.999988425923</v>
       </c>
       <c r="K38" s="2" t="s">
-        <v>573</v>
+        <v>559</v>
       </c>
       <c r="L38" s="2" t="s">
-        <v>531</v>
+        <v>519</v>
       </c>
       <c r="M38" s="2" t="str">
         <f t="shared" si="0"/>
@@ -6361,16 +6645,16 @@
         <v>1003</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>570</v>
+        <v>556</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>577</v>
+        <v>563</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>575</v>
+        <v>561</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>571</v>
+        <v>557</v>
       </c>
       <c r="H39" s="2">
         <v>1</v>
@@ -6383,10 +6667,10 @@
         <v>DateVente1600017</v>
       </c>
       <c r="K39" s="2" t="s">
-        <v>571</v>
+        <v>557</v>
       </c>
       <c r="L39" s="2" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="M39" s="2" t="str">
         <f t="shared" si="0"/>
@@ -6407,16 +6691,16 @@
         <v>1004</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>289</v>
+        <v>234</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>290</v>
+        <v>235</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>379</v>
+        <v>605</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>560</v>
+        <v>543</v>
       </c>
       <c r="H40" s="2">
         <v>1</v>
@@ -6429,10 +6713,10 @@
         <v>DateVente1100007</v>
       </c>
       <c r="K40" s="2" t="s">
-        <v>560</v>
+        <v>543</v>
       </c>
       <c r="L40" s="2" t="s">
-        <v>291</v>
+        <v>236</v>
       </c>
       <c r="M40" s="2" t="str">
         <f t="shared" si="0"/>
@@ -6453,16 +6737,16 @@
         <v>1004</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>292</v>
+        <v>609</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>293</v>
+        <v>610</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>380</v>
+        <v>611</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>561</v>
+        <v>612</v>
       </c>
       <c r="H41" s="2">
         <v>1</v>
@@ -6471,14 +6755,14 @@
         <v>1</v>
       </c>
       <c r="J41" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>DateVente1100008</v>
       </c>
       <c r="K41" s="2" t="s">
-        <v>561</v>
+        <v>612</v>
       </c>
       <c r="L41" s="2" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="M41" s="2" t="str">
         <f t="shared" si="0"/>
@@ -6488,7 +6772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:14" ht="90" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>1100009</v>
       </c>
@@ -6499,16 +6783,16 @@
         <v>1004</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>295</v>
+        <v>613</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>614</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>381</v>
+        <v>615</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>558</v>
+        <v>617</v>
       </c>
       <c r="H42" s="2">
         <v>1</v>
@@ -6517,14 +6801,14 @@
         <v>1</v>
       </c>
       <c r="J42" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>DateVente1100009</v>
       </c>
       <c r="K42" s="2" t="s">
-        <v>558</v>
+        <v>617</v>
       </c>
       <c r="L42" s="2" t="s">
-        <v>296</v>
+        <v>616</v>
       </c>
       <c r="M42" s="2" t="str">
         <f t="shared" si="0"/>
@@ -6545,16 +6829,16 @@
         <v>1004</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>234</v>
+        <v>287</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>235</v>
+        <v>288</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>567</v>
+        <v>606</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>555</v>
+        <v>548</v>
       </c>
       <c r="H43" s="2">
         <v>1</v>
@@ -6563,14 +6847,14 @@
         <v>1</v>
       </c>
       <c r="J43" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>DateVente1400004</v>
+        <f>J$1&amp;$A40</f>
+        <v>DateVente1100007</v>
       </c>
       <c r="K43" s="2" t="s">
-        <v>555</v>
+        <v>548</v>
       </c>
       <c r="L43" s="2" t="s">
-        <v>236</v>
+        <v>289</v>
       </c>
       <c r="M43" s="2" t="str">
         <f t="shared" si="0"/>
@@ -6590,41 +6874,33 @@
       <c r="C44" s="2">
         <v>1004</v>
       </c>
-      <c r="D44" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>Nom1400005</v>
-      </c>
-      <c r="E44" s="2" t="str">
-        <f t="shared" ref="E44:L53" si="3">E$1&amp;$A44</f>
-        <v>Description1400005</v>
-      </c>
-      <c r="F44" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>Photo1400005</v>
-      </c>
-      <c r="G44" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>PrixDemande1400005</v>
-      </c>
-      <c r="H44" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>NombreItems1400005</v>
-      </c>
-      <c r="I44" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>Disponibilité1400005</v>
+      <c r="D44" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>607</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>549</v>
+      </c>
+      <c r="H44" s="2">
+        <v>1</v>
+      </c>
+      <c r="I44" s="2">
+        <v>1</v>
       </c>
       <c r="J44" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>DateVente1400005</v>
-      </c>
-      <c r="K44" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>PrixVente1400005</v>
-      </c>
-      <c r="L44" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>Poids1400005</v>
+        <f>J$1&amp;$A41</f>
+        <v>DateVente1100008</v>
+      </c>
+      <c r="K44" s="2" t="s">
+        <v>549</v>
+      </c>
+      <c r="L44" s="2" t="s">
+        <v>242</v>
       </c>
       <c r="M44" s="2" t="str">
         <f t="shared" si="0"/>
@@ -6644,41 +6920,33 @@
       <c r="C45" s="2">
         <v>1004</v>
       </c>
-      <c r="D45" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>Nom1400006</v>
-      </c>
-      <c r="E45" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>Description1400006</v>
-      </c>
-      <c r="F45" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>Photo1400006</v>
-      </c>
-      <c r="G45" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>PrixDemande1400006</v>
-      </c>
-      <c r="H45" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>NombreItems1400006</v>
-      </c>
-      <c r="I45" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>Disponibilité1400006</v>
+      <c r="D45" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>608</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>546</v>
+      </c>
+      <c r="H45" s="2">
+        <v>1</v>
+      </c>
+      <c r="I45" s="2">
+        <v>1</v>
       </c>
       <c r="J45" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>DateVente1400006</v>
-      </c>
-      <c r="K45" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>PrixVente1400006</v>
-      </c>
-      <c r="L45" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>Poids1400006</v>
+        <f>J$1&amp;$A42</f>
+        <v>DateVente1100009</v>
+      </c>
+      <c r="K45" s="2" t="s">
+        <v>546</v>
+      </c>
+      <c r="L45" s="2" t="s">
+        <v>294</v>
       </c>
       <c r="M45" s="2" t="str">
         <f t="shared" si="0"/>
@@ -6688,7 +6956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>1400007</v>
       </c>
@@ -6698,41 +6966,33 @@
       <c r="C46" s="2">
         <v>1004</v>
       </c>
-      <c r="D46" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>Nom1400007</v>
-      </c>
-      <c r="E46" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>Description1400007</v>
-      </c>
-      <c r="F46" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>Photo1400007</v>
-      </c>
-      <c r="G46" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>PrixDemande1400007</v>
-      </c>
-      <c r="H46" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>NombreItems1400007</v>
-      </c>
-      <c r="I46" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>Disponibilité1400007</v>
+      <c r="D46" s="2" t="s">
+        <v>621</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>622</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>623</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="H46" s="2">
+        <v>1</v>
+      </c>
+      <c r="I46" s="2">
+        <v>1</v>
       </c>
       <c r="J46" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>DateVente1400007</v>
       </c>
-      <c r="K46" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>PrixVente1400007</v>
-      </c>
-      <c r="L46" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>Poids1400007</v>
+      <c r="K46" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="L46" s="2" t="s">
+        <v>233</v>
       </c>
       <c r="M46" s="2" t="str">
         <f t="shared" si="0"/>
@@ -6752,41 +7012,33 @@
       <c r="C47" s="2">
         <v>1004</v>
       </c>
-      <c r="D47" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>Nom1600018</v>
-      </c>
-      <c r="E47" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>Description1600018</v>
-      </c>
-      <c r="F47" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>Photo1600018</v>
-      </c>
-      <c r="G47" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>PrixDemande1600018</v>
-      </c>
-      <c r="H47" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>NombreItems1600018</v>
-      </c>
-      <c r="I47" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>Disponibilité1600018</v>
+      <c r="D47" s="2" t="s">
+        <v>624</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>625</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>627</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>626</v>
+      </c>
+      <c r="H47" s="2">
+        <v>1</v>
+      </c>
+      <c r="I47" s="2">
+        <v>1</v>
       </c>
       <c r="J47" s="2" t="str">
         <f t="shared" si="2"/>
         <v>DateVente1600018</v>
       </c>
-      <c r="K47" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>PrixVente1600018</v>
-      </c>
-      <c r="L47" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>Poids1600018</v>
+      <c r="K47" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="L47" s="2" t="s">
+        <v>530</v>
       </c>
       <c r="M47" s="2" t="str">
         <f t="shared" si="0"/>
@@ -6806,41 +7058,33 @@
       <c r="C48" s="2">
         <v>1004</v>
       </c>
-      <c r="D48" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>Nom1600019</v>
-      </c>
-      <c r="E48" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>Description1600019</v>
-      </c>
-      <c r="F48" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>Photo1600019</v>
-      </c>
-      <c r="G48" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>PrixDemande1600019</v>
-      </c>
-      <c r="H48" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>NombreItems1600019</v>
-      </c>
-      <c r="I48" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>Disponibilité1600019</v>
+      <c r="D48" s="2" t="s">
+        <v>628</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>629</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>630</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>632</v>
+      </c>
+      <c r="H48" s="2">
+        <v>1</v>
+      </c>
+      <c r="I48" s="2">
+        <v>1</v>
       </c>
       <c r="J48" s="2" t="str">
         <f t="shared" si="2"/>
         <v>DateVente1600019</v>
       </c>
-      <c r="K48" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>PrixVente1600019</v>
-      </c>
-      <c r="L48" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>Poids1600019</v>
+      <c r="K48" s="2" t="s">
+        <v>633</v>
+      </c>
+      <c r="L48" s="2" t="s">
+        <v>631</v>
       </c>
       <c r="M48" s="2" t="str">
         <f t="shared" si="0"/>
@@ -6860,41 +7104,33 @@
       <c r="C49" s="2">
         <v>1004</v>
       </c>
-      <c r="D49" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>Nom1600020</v>
-      </c>
-      <c r="E49" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>Description1600020</v>
-      </c>
-      <c r="F49" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>Photo1600020</v>
-      </c>
-      <c r="G49" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>PrixDemande1600020</v>
-      </c>
-      <c r="H49" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>NombreItems1600020</v>
-      </c>
-      <c r="I49" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>Disponibilité1600020</v>
+      <c r="D49" s="2" t="s">
+        <v>634</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>635</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>637</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>638</v>
+      </c>
+      <c r="H49" s="2">
+        <v>1</v>
+      </c>
+      <c r="I49" s="2">
+        <v>1</v>
       </c>
       <c r="J49" s="2" t="str">
         <f t="shared" si="2"/>
         <v>DateVente1600020</v>
       </c>
-      <c r="K49" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>PrixVente1600020</v>
-      </c>
-      <c r="L49" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>Poids1600020</v>
+      <c r="K49" s="2" t="s">
+        <v>639</v>
+      </c>
+      <c r="L49" s="2" t="s">
+        <v>636</v>
       </c>
       <c r="M49" s="2" t="str">
         <f t="shared" si="0"/>
@@ -6914,41 +7150,33 @@
       <c r="C50" s="2">
         <v>1004</v>
       </c>
-      <c r="D50" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>Nom1600021</v>
-      </c>
-      <c r="E50" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>Description1600021</v>
-      </c>
-      <c r="F50" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>Photo1600021</v>
-      </c>
-      <c r="G50" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>PrixDemande1600021</v>
-      </c>
-      <c r="H50" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>NombreItems1600021</v>
-      </c>
-      <c r="I50" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>Disponibilité1600021</v>
+      <c r="D50" s="2" t="s">
+        <v>640</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>641</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>643</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>644</v>
+      </c>
+      <c r="H50" s="2">
+        <v>1</v>
+      </c>
+      <c r="I50" s="2">
+        <v>1</v>
       </c>
       <c r="J50" s="2" t="str">
         <f t="shared" si="2"/>
         <v>DateVente1600021</v>
       </c>
-      <c r="K50" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>PrixVente1600021</v>
-      </c>
-      <c r="L50" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>Poids1600021</v>
+      <c r="K50" s="2" t="s">
+        <v>645</v>
+      </c>
+      <c r="L50" s="2" t="s">
+        <v>642</v>
       </c>
       <c r="M50" s="2" t="str">
         <f t="shared" si="0"/>
@@ -6968,41 +7196,33 @@
       <c r="C51" s="2">
         <v>1004</v>
       </c>
-      <c r="D51" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>Nom1600022</v>
-      </c>
-      <c r="E51" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>Description1600022</v>
-      </c>
-      <c r="F51" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>Photo1600022</v>
-      </c>
-      <c r="G51" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>PrixDemande1600022</v>
-      </c>
-      <c r="H51" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>NombreItems1600022</v>
-      </c>
-      <c r="I51" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>Disponibilité1600022</v>
+      <c r="D51" s="2" t="s">
+        <v>646</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>647</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>649</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="H51" s="2">
+        <v>1</v>
+      </c>
+      <c r="I51" s="2">
+        <v>1</v>
       </c>
       <c r="J51" s="2" t="str">
         <f t="shared" si="2"/>
         <v>DateVente1600022</v>
       </c>
-      <c r="K51" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>PrixVente1600022</v>
-      </c>
-      <c r="L51" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>Poids1600022</v>
+      <c r="K51" s="2" t="s">
+        <v>648</v>
+      </c>
+      <c r="L51" s="2" t="s">
+        <v>587</v>
       </c>
       <c r="M51" s="2" t="str">
         <f t="shared" si="0"/>
@@ -7022,41 +7242,33 @@
       <c r="C52" s="2">
         <v>1004</v>
       </c>
-      <c r="D52" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>Nom1600023</v>
-      </c>
-      <c r="E52" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>Description1600023</v>
-      </c>
-      <c r="F52" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>Photo1600023</v>
-      </c>
-      <c r="G52" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>PrixDemande1600023</v>
-      </c>
-      <c r="H52" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>NombreItems1600023</v>
-      </c>
-      <c r="I52" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>Disponibilité1600023</v>
+      <c r="D52" s="2" t="s">
+        <v>651</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>650</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>658</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>653</v>
+      </c>
+      <c r="H52" s="2">
+        <v>1</v>
+      </c>
+      <c r="I52" s="2">
+        <v>1</v>
       </c>
       <c r="J52" s="2" t="str">
         <f t="shared" si="2"/>
         <v>DateVente1600023</v>
       </c>
-      <c r="K52" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>PrixVente1600023</v>
-      </c>
-      <c r="L52" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>Poids1600023</v>
+      <c r="K52" s="2" t="s">
+        <v>654</v>
+      </c>
+      <c r="L52" s="2" t="s">
+        <v>652</v>
       </c>
       <c r="M52" s="2" t="str">
         <f t="shared" si="0"/>
@@ -7076,41 +7288,33 @@
       <c r="C53" s="2">
         <v>1004</v>
       </c>
-      <c r="D53" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>Nom1600024</v>
-      </c>
-      <c r="E53" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>Description1600024</v>
-      </c>
-      <c r="F53" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>Photo1600024</v>
-      </c>
-      <c r="G53" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>PrixDemande1600024</v>
-      </c>
-      <c r="H53" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>NombreItems1600024</v>
-      </c>
-      <c r="I53" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>Disponibilité1600024</v>
+      <c r="D53" s="2" t="s">
+        <v>656</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>657</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>655</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>660</v>
+      </c>
+      <c r="H53" s="2">
+        <v>2</v>
+      </c>
+      <c r="I53" s="2">
+        <v>1</v>
       </c>
       <c r="J53" s="2" t="str">
         <f t="shared" si="2"/>
         <v>DateVente1600024</v>
       </c>
-      <c r="K53" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>PrixVente1600024</v>
-      </c>
-      <c r="L53" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>Poids1600024</v>
+      <c r="K53" s="2" t="s">
+        <v>661</v>
+      </c>
+      <c r="L53" s="2" t="s">
+        <v>659</v>
       </c>
       <c r="M53" s="2" t="str">
         <f t="shared" si="0"/>
@@ -7130,41 +7334,33 @@
       <c r="C54" s="2">
         <v>1004</v>
       </c>
-      <c r="D54" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>Nom1600025</v>
-      </c>
-      <c r="E54" s="2" t="str">
-        <f t="shared" ref="E54:L66" si="4">E$1&amp;$A54</f>
-        <v>Description1600025</v>
-      </c>
-      <c r="F54" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>Photo1600025</v>
-      </c>
-      <c r="G54" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>PrixDemande1600025</v>
-      </c>
-      <c r="H54" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>NombreItems1600025</v>
-      </c>
-      <c r="I54" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>Disponibilité1600025</v>
+      <c r="D54" s="2" t="s">
+        <v>663</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>662</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>668</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="H54" s="2">
+        <v>1</v>
+      </c>
+      <c r="I54" s="2">
+        <v>1</v>
       </c>
       <c r="J54" s="2" t="str">
         <f t="shared" si="2"/>
         <v>DateVente1600025</v>
       </c>
-      <c r="K54" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>PrixVente1600025</v>
-      </c>
-      <c r="L54" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>Poids1600025</v>
+      <c r="K54" s="2" t="s">
+        <v>665</v>
+      </c>
+      <c r="L54" s="2" t="s">
+        <v>664</v>
       </c>
       <c r="M54" s="2" t="str">
         <f t="shared" si="0"/>
@@ -7185,32 +7381,32 @@
         <v>1005</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>297</v>
+        <v>666</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>298</v>
+        <v>667</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>562</v>
+        <v>669</v>
       </c>
       <c r="H55" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I55" s="2">
         <v>1</v>
       </c>
       <c r="J55" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>DateVente1100010</v>
       </c>
       <c r="K55" s="2" t="s">
-        <v>562</v>
+        <v>669</v>
       </c>
       <c r="L55" s="2" t="s">
-        <v>299</v>
+        <v>270</v>
       </c>
       <c r="M55" s="2" t="str">
         <f t="shared" si="0"/>
@@ -7231,16 +7427,16 @@
         <v>1005</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>300</v>
+        <v>670</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>301</v>
+        <v>671</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>556</v>
+        <v>672</v>
       </c>
       <c r="H56" s="2">
         <v>1</v>
@@ -7249,14 +7445,14 @@
         <v>1</v>
       </c>
       <c r="J56" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>DateVente1100011</v>
       </c>
       <c r="K56" s="2" t="s">
-        <v>556</v>
+        <v>672</v>
       </c>
       <c r="L56" s="2" t="s">
-        <v>302</v>
+        <v>659</v>
       </c>
       <c r="M56" s="2" t="str">
         <f t="shared" si="0"/>
@@ -7277,16 +7473,16 @@
         <v>1005</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>303</v>
+        <v>673</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>304</v>
+        <v>674</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>422</v>
+        <v>676</v>
       </c>
       <c r="H57" s="2">
         <v>1</v>
@@ -7295,14 +7491,14 @@
         <v>1</v>
       </c>
       <c r="J57" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>DateVente1100012</v>
       </c>
       <c r="K57" s="2" t="s">
-        <v>422</v>
+        <v>676</v>
       </c>
       <c r="L57" s="2" t="s">
-        <v>305</v>
+        <v>675</v>
       </c>
       <c r="M57" s="2" t="str">
         <f t="shared" si="0"/>
@@ -7322,41 +7518,33 @@
       <c r="C58" s="2">
         <v>1005</v>
       </c>
-      <c r="D58" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>Nom1100013</v>
-      </c>
-      <c r="E58" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>Description1100013</v>
-      </c>
-      <c r="F58" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>Photo1100013</v>
-      </c>
-      <c r="G58" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>PrixDemande1100013</v>
-      </c>
-      <c r="H58" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>NombreItems1100013</v>
-      </c>
-      <c r="I58" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>Disponibilité1100013</v>
+      <c r="D58" s="2" t="s">
+        <v>677</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>678</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>679</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>680</v>
+      </c>
+      <c r="H58" s="2">
+        <v>1</v>
+      </c>
+      <c r="I58" s="2">
+        <v>1</v>
       </c>
       <c r="J58" s="2" t="str">
         <f t="shared" si="2"/>
         <v>DateVente1100013</v>
       </c>
-      <c r="K58" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>PrixVente1100013</v>
-      </c>
-      <c r="L58" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>Poids1100013</v>
+      <c r="K58" s="2" t="s">
+        <v>681</v>
+      </c>
+      <c r="L58" s="2" t="s">
+        <v>337</v>
       </c>
       <c r="M58" s="2" t="str">
         <f t="shared" si="0"/>
@@ -7377,16 +7565,16 @@
         <v>1005</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>608</v>
+        <v>594</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>609</v>
+        <v>595</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>611</v>
+        <v>597</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>610</v>
+        <v>596</v>
       </c>
       <c r="H59" s="2">
         <v>10</v>
@@ -7399,10 +7587,10 @@
         <v>DateVente1200013</v>
       </c>
       <c r="K59" s="2" t="s">
-        <v>610</v>
+        <v>596</v>
       </c>
       <c r="L59" s="2" t="s">
-        <v>531</v>
+        <v>519</v>
       </c>
       <c r="M59" s="2" t="str">
         <f t="shared" si="0"/>
@@ -7422,41 +7610,33 @@
       <c r="C60" s="2">
         <v>1005</v>
       </c>
-      <c r="D60" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>Nom1400008</v>
-      </c>
-      <c r="E60" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>Description1400008</v>
-      </c>
-      <c r="F60" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>Photo1400008</v>
-      </c>
-      <c r="G60" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>PrixDemande1400008</v>
-      </c>
-      <c r="H60" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>NombreItems1400008</v>
-      </c>
-      <c r="I60" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>Disponibilité1400008</v>
+      <c r="D60" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>618</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>544</v>
+      </c>
+      <c r="H60" s="2">
+        <v>1</v>
+      </c>
+      <c r="I60" s="2">
+        <v>1</v>
       </c>
       <c r="J60" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>DateVente1400008</v>
-      </c>
-      <c r="K60" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>PrixVente1400008</v>
-      </c>
-      <c r="L60" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>Poids1400008</v>
+        <f>J$1&amp;$A56</f>
+        <v>DateVente1100011</v>
+      </c>
+      <c r="K60" s="2" t="s">
+        <v>544</v>
+      </c>
+      <c r="L60" s="2" t="s">
+        <v>297</v>
       </c>
       <c r="M60" s="2" t="str">
         <f t="shared" si="0"/>
@@ -7476,41 +7656,33 @@
       <c r="C61" s="2">
         <v>1005</v>
       </c>
-      <c r="D61" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>Nom1400009</v>
-      </c>
-      <c r="E61" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>Description1400009</v>
-      </c>
-      <c r="F61" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>Photo1400009</v>
-      </c>
-      <c r="G61" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>PrixDemande1400009</v>
-      </c>
-      <c r="H61" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>NombreItems1400009</v>
-      </c>
-      <c r="I61" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>Disponibilité1400009</v>
+      <c r="D61" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>619</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="H61" s="2">
+        <v>1</v>
+      </c>
+      <c r="I61" s="2">
+        <v>1</v>
       </c>
       <c r="J61" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>DateVente1400009</v>
-      </c>
-      <c r="K61" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>PrixVente1400009</v>
-      </c>
-      <c r="L61" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>Poids1400009</v>
+        <f>J$1&amp;$A57</f>
+        <v>DateVente1100012</v>
+      </c>
+      <c r="K61" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="L61" s="2" t="s">
+        <v>300</v>
       </c>
       <c r="M61" s="2" t="str">
         <f t="shared" si="0"/>
@@ -7530,41 +7702,33 @@
       <c r="C62" s="2">
         <v>1005</v>
       </c>
-      <c r="D62" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>Nom1600026</v>
-      </c>
-      <c r="E62" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>Description1600026</v>
-      </c>
-      <c r="F62" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>Photo1600026</v>
-      </c>
-      <c r="G62" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>PrixDemande1600026</v>
-      </c>
-      <c r="H62" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>NombreItems1600026</v>
-      </c>
-      <c r="I62" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>Disponibilité1600026</v>
+      <c r="D62" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>707</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>620</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>708</v>
+      </c>
+      <c r="H62" s="2">
+        <v>5</v>
+      </c>
+      <c r="I62" s="2">
+        <v>1</v>
       </c>
       <c r="J62" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>DateVente1600026</v>
-      </c>
-      <c r="K62" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>PrixVente1600026</v>
-      </c>
-      <c r="L62" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>Poids1600026</v>
+        <f>J$1&amp;$A55</f>
+        <v>DateVente1100010</v>
+      </c>
+      <c r="K62" s="2" t="s">
+        <v>708</v>
+      </c>
+      <c r="L62" s="2" t="s">
+        <v>270</v>
       </c>
       <c r="M62" s="2" t="str">
         <f t="shared" si="0"/>
@@ -7584,41 +7748,33 @@
       <c r="C63" s="2">
         <v>1005</v>
       </c>
-      <c r="D63" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>Nom1600027</v>
-      </c>
-      <c r="E63" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>Description1600027</v>
-      </c>
-      <c r="F63" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>Photo1600027</v>
-      </c>
-      <c r="G63" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>PrixDemande1600027</v>
-      </c>
-      <c r="H63" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>NombreItems1600027</v>
-      </c>
-      <c r="I63" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>Disponibilité1600027</v>
+      <c r="D63" s="2" t="s">
+        <v>682</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>683</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>685</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>684</v>
+      </c>
+      <c r="H63" s="2">
+        <v>2</v>
+      </c>
+      <c r="I63" s="2">
+        <v>1</v>
       </c>
       <c r="J63" s="2" t="str">
         <f t="shared" si="2"/>
         <v>DateVente1600027</v>
       </c>
-      <c r="K63" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>PrixVente1600027</v>
-      </c>
-      <c r="L63" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>Poids1600027</v>
+      <c r="K63" s="2" t="s">
+        <v>684</v>
+      </c>
+      <c r="L63" s="2" t="s">
+        <v>519</v>
       </c>
       <c r="M63" s="2" t="str">
         <f t="shared" si="0"/>
@@ -7638,41 +7794,33 @@
       <c r="C64" s="2">
         <v>1005</v>
       </c>
-      <c r="D64" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>Nom1600028</v>
-      </c>
-      <c r="E64" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>Description1600028</v>
-      </c>
-      <c r="F64" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>Photo1600028</v>
-      </c>
-      <c r="G64" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>PrixDemande1600028</v>
-      </c>
-      <c r="H64" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>NombreItems1600028</v>
-      </c>
-      <c r="I64" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>Disponibilité1600028</v>
+      <c r="D64" s="2" t="s">
+        <v>686</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>687</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>689</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>688</v>
+      </c>
+      <c r="H64" s="2">
+        <v>2</v>
+      </c>
+      <c r="I64" s="2">
+        <v>1</v>
       </c>
       <c r="J64" s="2" t="str">
         <f t="shared" si="2"/>
         <v>DateVente1600028</v>
       </c>
-      <c r="K64" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>PrixVente1600028</v>
-      </c>
-      <c r="L64" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>Poids1600028</v>
+      <c r="K64" s="2" t="s">
+        <v>688</v>
+      </c>
+      <c r="L64" s="2" t="s">
+        <v>519</v>
       </c>
       <c r="M64" s="2" t="str">
         <f t="shared" si="0"/>
@@ -7692,41 +7840,33 @@
       <c r="C65" s="2">
         <v>1005</v>
       </c>
-      <c r="D65" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>Nom1600029</v>
-      </c>
-      <c r="E65" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>Description1600029</v>
-      </c>
-      <c r="F65" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>Photo1600029</v>
-      </c>
-      <c r="G65" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>PrixDemande1600029</v>
-      </c>
-      <c r="H65" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>NombreItems1600029</v>
-      </c>
-      <c r="I65" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>Disponibilité1600029</v>
+      <c r="D65" s="2" t="s">
+        <v>690</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>691</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>693</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>692</v>
+      </c>
+      <c r="H65" s="2">
+        <v>2</v>
+      </c>
+      <c r="I65" s="2">
+        <v>1</v>
       </c>
       <c r="J65" s="2" t="str">
         <f t="shared" si="2"/>
         <v>DateVente1600029</v>
       </c>
-      <c r="K65" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>PrixVente1600029</v>
-      </c>
-      <c r="L65" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>Poids1600029</v>
+      <c r="K65" s="2" t="s">
+        <v>692</v>
+      </c>
+      <c r="L65" s="2" t="s">
+        <v>270</v>
       </c>
       <c r="M65" s="2" t="str">
         <f t="shared" si="0"/>
@@ -7746,41 +7886,33 @@
       <c r="C66" s="2">
         <v>1005</v>
       </c>
-      <c r="D66" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>Nom1600030</v>
-      </c>
-      <c r="E66" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>Description1600030</v>
-      </c>
-      <c r="F66" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>Photo1600030</v>
-      </c>
-      <c r="G66" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>PrixDemande1600030</v>
-      </c>
-      <c r="H66" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>NombreItems1600030</v>
-      </c>
-      <c r="I66" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>Disponibilité1600030</v>
+      <c r="D66" s="2" t="s">
+        <v>694</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>695</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>697</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>696</v>
+      </c>
+      <c r="H66" s="2">
+        <v>5</v>
+      </c>
+      <c r="I66" s="2">
+        <v>1</v>
       </c>
       <c r="J66" s="2" t="str">
         <f t="shared" si="2"/>
         <v>DateVente1600030</v>
       </c>
-      <c r="K66" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>PrixVente1600030</v>
-      </c>
-      <c r="L66" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>Poids1600030</v>
+      <c r="K66" s="2" t="s">
+        <v>696</v>
+      </c>
+      <c r="L66" s="2" t="s">
+        <v>519</v>
       </c>
       <c r="M66" s="2" t="str">
         <f t="shared" si="0"/>
@@ -7800,44 +7932,36 @@
       <c r="C67" s="2">
         <v>1005</v>
       </c>
-      <c r="D67" s="2" t="str">
-        <f t="shared" ref="D67:M105" si="5">D$1&amp;$A67</f>
-        <v>Nom1600031</v>
-      </c>
-      <c r="E67" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>Description1600031</v>
-      </c>
-      <c r="F67" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>Photo1600031</v>
-      </c>
-      <c r="G67" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>PrixDemande1600031</v>
-      </c>
-      <c r="H67" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>NombreItems1600031</v>
-      </c>
-      <c r="I67" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>Disponibilité1600031</v>
+      <c r="D67" s="2" t="s">
+        <v>698</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>699</v>
+      </c>
+      <c r="F67" s="2" t="s">
+        <v>701</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>700</v>
+      </c>
+      <c r="H67" s="2">
+        <v>2</v>
+      </c>
+      <c r="I67" s="2">
+        <v>1</v>
       </c>
       <c r="J67" s="2" t="str">
         <f t="shared" si="2"/>
         <v>DateVente1600031</v>
       </c>
-      <c r="K67" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>PrixVente1600031</v>
-      </c>
-      <c r="L67" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>Poids1600031</v>
+      <c r="K67" s="2" t="s">
+        <v>700</v>
+      </c>
+      <c r="L67" s="2" t="s">
+        <v>519</v>
       </c>
       <c r="M67" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="D67:M105" si="3">M$1&amp;$A67</f>
         <v>DateCreation1600031</v>
       </c>
       <c r="N67" s="2" t="s">
@@ -7854,44 +7978,36 @@
       <c r="C68" s="2">
         <v>1005</v>
       </c>
-      <c r="D68" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>Nom1600032</v>
-      </c>
-      <c r="E68" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>Description1600032</v>
-      </c>
-      <c r="F68" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>Photo1600032</v>
-      </c>
-      <c r="G68" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>PrixDemande1600032</v>
-      </c>
-      <c r="H68" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>NombreItems1600032</v>
-      </c>
-      <c r="I68" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>Disponibilité1600032</v>
+      <c r="D68" s="2" t="s">
+        <v>702</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>703</v>
+      </c>
+      <c r="F68" s="2" t="s">
+        <v>705</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>704</v>
+      </c>
+      <c r="H68" s="2">
+        <v>10</v>
+      </c>
+      <c r="I68" s="2">
+        <v>1</v>
       </c>
       <c r="J68" s="2" t="str">
         <f t="shared" si="2"/>
         <v>DateVente1600032</v>
       </c>
-      <c r="K68" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>PrixVente1600032</v>
-      </c>
-      <c r="L68" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>Poids1600032</v>
+      <c r="K68" s="2" t="s">
+        <v>704</v>
+      </c>
+      <c r="L68" s="2" t="s">
+        <v>519</v>
       </c>
       <c r="M68" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>DateCreation1600032</v>
       </c>
       <c r="N68" s="2" t="s">
@@ -7909,16 +8025,16 @@
         <v>1006</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="H69" s="2">
         <v>1</v>
@@ -7931,13 +8047,13 @@
         <v>DateVente1100014</v>
       </c>
       <c r="K69" s="2" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="L69" s="2" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="M69" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>DateCreation1100014</v>
       </c>
       <c r="N69" s="2" t="s">
@@ -7954,36 +8070,44 @@
       <c r="C70" s="2">
         <v>1006</v>
       </c>
-      <c r="D70" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="E70" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="F70" s="2" t="s">
-        <v>386</v>
-      </c>
-      <c r="G70" s="2" t="s">
-        <v>563</v>
-      </c>
-      <c r="H70" s="2">
-        <v>1</v>
-      </c>
-      <c r="I70" s="2">
-        <v>1</v>
+      <c r="D70" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>Nom1100015</v>
+      </c>
+      <c r="E70" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>Description1100015</v>
+      </c>
+      <c r="F70" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>Photo1100015</v>
+      </c>
+      <c r="G70" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>PrixDemande1100015</v>
+      </c>
+      <c r="H70" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>NombreItems1100015</v>
+      </c>
+      <c r="I70" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>Disponibilité1100015</v>
       </c>
       <c r="J70" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>DateVente1100015</v>
       </c>
-      <c r="K70" s="2" t="s">
-        <v>563</v>
-      </c>
-      <c r="L70" s="2" t="s">
-        <v>257</v>
+      <c r="K70" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>PrixVente1100015</v>
+      </c>
+      <c r="L70" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>Poids1100015</v>
       </c>
       <c r="M70" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>DateCreation1100015</v>
       </c>
       <c r="N70" s="2" t="s">
@@ -8000,36 +8124,44 @@
       <c r="C71" s="2">
         <v>1006</v>
       </c>
-      <c r="D71" s="2" t="s">
-        <v>306</v>
-      </c>
-      <c r="E71" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="F71" s="2" t="s">
-        <v>387</v>
-      </c>
-      <c r="G71" s="2" t="s">
-        <v>564</v>
-      </c>
-      <c r="H71" s="2">
-        <v>1</v>
-      </c>
-      <c r="I71" s="2">
-        <v>1</v>
+      <c r="D71" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>Nom1100016</v>
+      </c>
+      <c r="E71" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>Description1100016</v>
+      </c>
+      <c r="F71" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>Photo1100016</v>
+      </c>
+      <c r="G71" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>PrixDemande1100016</v>
+      </c>
+      <c r="H71" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>NombreItems1100016</v>
+      </c>
+      <c r="I71" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>Disponibilité1100016</v>
       </c>
       <c r="J71" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>DateVente1100016</v>
       </c>
-      <c r="K71" s="2" t="s">
-        <v>564</v>
-      </c>
-      <c r="L71" s="2" t="s">
-        <v>308</v>
+      <c r="K71" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>PrixVente1100016</v>
+      </c>
+      <c r="L71" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>Poids1100016</v>
       </c>
       <c r="M71" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>DateCreation1100016</v>
       </c>
       <c r="N71" s="2" t="s">
@@ -8046,36 +8178,44 @@
       <c r="C72" s="2">
         <v>1006</v>
       </c>
-      <c r="D72" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="E72" s="2" t="s">
-        <v>310</v>
-      </c>
-      <c r="F72" s="2" t="s">
-        <v>388</v>
-      </c>
-      <c r="G72" s="2" t="s">
-        <v>548</v>
-      </c>
-      <c r="H72" s="2">
-        <v>1</v>
-      </c>
-      <c r="I72" s="2">
-        <v>1</v>
+      <c r="D72" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>Nom1100017</v>
+      </c>
+      <c r="E72" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>Description1100017</v>
+      </c>
+      <c r="F72" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>Photo1100017</v>
+      </c>
+      <c r="G72" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>PrixDemande1100017</v>
+      </c>
+      <c r="H72" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>NombreItems1100017</v>
+      </c>
+      <c r="I72" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>Disponibilité1100017</v>
       </c>
       <c r="J72" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>DateVente1100017</v>
       </c>
-      <c r="K72" s="2" t="s">
-        <v>548</v>
-      </c>
-      <c r="L72" s="2" t="s">
-        <v>284</v>
+      <c r="K72" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>PrixVente1100017</v>
+      </c>
+      <c r="L72" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>Poids1100017</v>
       </c>
       <c r="M72" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>DateCreation1100017</v>
       </c>
       <c r="N72" s="2" t="s">
@@ -8092,36 +8232,44 @@
       <c r="C73" s="2">
         <v>1006</v>
       </c>
-      <c r="D73" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="E73" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="F73" s="2" t="s">
-        <v>389</v>
-      </c>
-      <c r="G73" s="2" t="s">
-        <v>565</v>
-      </c>
-      <c r="H73" s="2">
-        <v>1</v>
-      </c>
-      <c r="I73" s="2">
-        <v>1</v>
+      <c r="D73" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>Nom1100018</v>
+      </c>
+      <c r="E73" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>Description1100018</v>
+      </c>
+      <c r="F73" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>Photo1100018</v>
+      </c>
+      <c r="G73" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>PrixDemande1100018</v>
+      </c>
+      <c r="H73" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>NombreItems1100018</v>
+      </c>
+      <c r="I73" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>Disponibilité1100018</v>
       </c>
       <c r="J73" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>DateVente1100018</v>
       </c>
-      <c r="K73" s="2" t="s">
-        <v>565</v>
-      </c>
-      <c r="L73" s="2" t="s">
-        <v>272</v>
+      <c r="K73" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>PrixVente1100018</v>
+      </c>
+      <c r="L73" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>Poids1100018</v>
       </c>
       <c r="M73" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>DateCreation1100018</v>
       </c>
       <c r="N73" s="2" t="s">
@@ -8139,27 +8287,27 @@
         <v>1006</v>
       </c>
       <c r="D74" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>Nom1100019</v>
       </c>
       <c r="E74" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>Description1100019</v>
       </c>
       <c r="F74" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>Photo1100019</v>
       </c>
       <c r="G74" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>PrixDemande1100019</v>
       </c>
       <c r="H74" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>NombreItems1100019</v>
       </c>
       <c r="I74" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>Disponibilité1100019</v>
       </c>
       <c r="J74" s="2" t="str">
@@ -8167,15 +8315,15 @@
         <v>DateVente1100019</v>
       </c>
       <c r="K74" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>PrixVente1100019</v>
       </c>
       <c r="L74" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>Poids1100019</v>
       </c>
       <c r="M74" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>DateCreation1100019</v>
       </c>
       <c r="N74" s="2" t="s">
@@ -8193,27 +8341,27 @@
         <v>1006</v>
       </c>
       <c r="D75" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>Nom1100020</v>
       </c>
       <c r="E75" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>Description1100020</v>
       </c>
       <c r="F75" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>Photo1100020</v>
       </c>
       <c r="G75" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>PrixDemande1100020</v>
       </c>
       <c r="H75" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>NombreItems1100020</v>
       </c>
       <c r="I75" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>Disponibilité1100020</v>
       </c>
       <c r="J75" s="2" t="str">
@@ -8221,15 +8369,15 @@
         <v>DateVente1100020</v>
       </c>
       <c r="K75" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>PrixVente1100020</v>
       </c>
       <c r="L75" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>Poids1100020</v>
       </c>
       <c r="M75" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>DateCreation1100020</v>
       </c>
       <c r="N75" s="2" t="s">
@@ -8247,27 +8395,27 @@
         <v>1006</v>
       </c>
       <c r="D76" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>Nom1100021</v>
       </c>
       <c r="E76" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>Description1100021</v>
       </c>
       <c r="F76" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>Photo1100021</v>
       </c>
       <c r="G76" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>PrixDemande1100021</v>
       </c>
       <c r="H76" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>NombreItems1100021</v>
       </c>
       <c r="I76" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>Disponibilité1100021</v>
       </c>
       <c r="J76" s="2" t="str">
@@ -8275,15 +8423,15 @@
         <v>DateVente1100021</v>
       </c>
       <c r="K76" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>PrixVente1100021</v>
       </c>
       <c r="L76" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>Poids1100021</v>
       </c>
       <c r="M76" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>DateCreation1100021</v>
       </c>
       <c r="N76" s="2" t="s">
@@ -8301,27 +8449,27 @@
         <v>1006</v>
       </c>
       <c r="D77" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>Nom1100022</v>
       </c>
       <c r="E77" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>Description1100022</v>
       </c>
       <c r="F77" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>Photo1100022</v>
       </c>
       <c r="G77" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>PrixDemande1100022</v>
       </c>
       <c r="H77" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>NombreItems1100022</v>
       </c>
       <c r="I77" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>Disponibilité1100022</v>
       </c>
       <c r="J77" s="2" t="str">
@@ -8329,15 +8477,15 @@
         <v>DateVente1100022</v>
       </c>
       <c r="K77" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>PrixVente1100022</v>
       </c>
       <c r="L77" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>Poids1100022</v>
       </c>
       <c r="M77" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>DateCreation1100022</v>
       </c>
       <c r="N77" s="2" t="s">
@@ -8355,27 +8503,27 @@
         <v>1006</v>
       </c>
       <c r="D78" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>Nom1100023</v>
       </c>
       <c r="E78" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>Description1100023</v>
       </c>
       <c r="F78" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>Photo1100023</v>
       </c>
       <c r="G78" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>PrixDemande1100023</v>
       </c>
       <c r="H78" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>NombreItems1100023</v>
       </c>
       <c r="I78" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>Disponibilité1100023</v>
       </c>
       <c r="J78" s="2" t="str">
@@ -8383,15 +8531,15 @@
         <v>DateVente1100023</v>
       </c>
       <c r="K78" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>PrixVente1100023</v>
       </c>
       <c r="L78" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>Poids1100023</v>
       </c>
       <c r="M78" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>DateCreation1100023</v>
       </c>
       <c r="N78" s="2" t="s">
@@ -8409,27 +8557,27 @@
         <v>1006</v>
       </c>
       <c r="D79" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>Nom1100024</v>
       </c>
       <c r="E79" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>Description1100024</v>
       </c>
       <c r="F79" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>Photo1100024</v>
       </c>
       <c r="G79" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>PrixDemande1100024</v>
       </c>
       <c r="H79" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>NombreItems1100024</v>
       </c>
       <c r="I79" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>Disponibilité1100024</v>
       </c>
       <c r="J79" s="2" t="str">
@@ -8437,15 +8585,15 @@
         <v>DateVente1100024</v>
       </c>
       <c r="K79" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>PrixVente1100024</v>
       </c>
       <c r="L79" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>Poids1100024</v>
       </c>
       <c r="M79" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>DateCreation1100024</v>
       </c>
       <c r="N79" s="2" t="s">
@@ -8463,27 +8611,27 @@
         <v>1006</v>
       </c>
       <c r="D80" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>Nom1100025</v>
       </c>
       <c r="E80" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>Description1100025</v>
       </c>
       <c r="F80" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>Photo1100025</v>
       </c>
       <c r="G80" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>PrixDemande1100025</v>
       </c>
       <c r="H80" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>NombreItems1100025</v>
       </c>
       <c r="I80" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>Disponibilité1100025</v>
       </c>
       <c r="J80" s="2" t="str">
@@ -8491,15 +8639,15 @@
         <v>DateVente1100025</v>
       </c>
       <c r="K80" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>PrixVente1100025</v>
       </c>
       <c r="L80" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>Poids1100025</v>
       </c>
       <c r="M80" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>DateCreation1100025</v>
       </c>
       <c r="N80" s="2" t="s">
@@ -8517,27 +8665,27 @@
         <v>1006</v>
       </c>
       <c r="D81" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>Nom1100026</v>
       </c>
       <c r="E81" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>Description1100026</v>
       </c>
       <c r="F81" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>Photo1100026</v>
       </c>
       <c r="G81" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>PrixDemande1100026</v>
       </c>
       <c r="H81" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>NombreItems1100026</v>
       </c>
       <c r="I81" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>Disponibilité1100026</v>
       </c>
       <c r="J81" s="2" t="str">
@@ -8545,15 +8693,15 @@
         <v>DateVente1100026</v>
       </c>
       <c r="K81" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>PrixVente1100026</v>
       </c>
       <c r="L81" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>Poids1100026</v>
       </c>
       <c r="M81" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>DateCreation1100026</v>
       </c>
       <c r="N81" s="2" t="s">
@@ -8571,27 +8719,27 @@
         <v>1006</v>
       </c>
       <c r="D82" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>Nom1100027</v>
       </c>
       <c r="E82" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>Description1100027</v>
       </c>
       <c r="F82" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>Photo1100027</v>
       </c>
       <c r="G82" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>PrixDemande1100027</v>
       </c>
       <c r="H82" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>NombreItems1100027</v>
       </c>
       <c r="I82" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>Disponibilité1100027</v>
       </c>
       <c r="J82" s="2" t="str">
@@ -8599,15 +8747,15 @@
         <v>DateVente1100027</v>
       </c>
       <c r="K82" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>PrixVente1100027</v>
       </c>
       <c r="L82" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>Poids1100027</v>
       </c>
       <c r="M82" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>DateCreation1100027</v>
       </c>
       <c r="N82" s="2" t="s">
@@ -8624,44 +8772,36 @@
       <c r="C83" s="2">
         <v>1006</v>
       </c>
-      <c r="D83" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>Nom1400010</v>
-      </c>
-      <c r="E83" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>Description1400010</v>
-      </c>
-      <c r="F83" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>Photo1400010</v>
-      </c>
-      <c r="G83" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>PrixDemande1400010</v>
-      </c>
-      <c r="H83" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>NombreItems1400010</v>
-      </c>
-      <c r="I83" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>Disponibilité1400010</v>
+      <c r="D83" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="E83" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="F83" s="2" t="s">
+        <v>602</v>
+      </c>
+      <c r="G83" s="2" t="s">
+        <v>551</v>
+      </c>
+      <c r="H83" s="2">
+        <v>1</v>
+      </c>
+      <c r="I83" s="2">
+        <v>1</v>
       </c>
       <c r="J83" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>DateVente1400010</v>
-      </c>
-      <c r="K83" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>PrixVente1400010</v>
-      </c>
-      <c r="L83" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>Poids1400010</v>
+        <f>J$1&amp;$A71</f>
+        <v>DateVente1100016</v>
+      </c>
+      <c r="K83" s="2" t="s">
+        <v>551</v>
+      </c>
+      <c r="L83" s="2" t="s">
+        <v>303</v>
       </c>
       <c r="M83" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>DateCreation1400010</v>
       </c>
       <c r="N83" s="2" t="s">
@@ -8678,44 +8818,36 @@
       <c r="C84" s="2">
         <v>1006</v>
       </c>
-      <c r="D84" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>Nom1400011</v>
-      </c>
-      <c r="E84" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>Description1400011</v>
-      </c>
-      <c r="F84" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>Photo1400011</v>
-      </c>
-      <c r="G84" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>PrixDemande1400011</v>
-      </c>
-      <c r="H84" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>NombreItems1400011</v>
-      </c>
-      <c r="I84" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>Disponibilité1400011</v>
+      <c r="D84" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="E84" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="F84" s="2" t="s">
+        <v>603</v>
+      </c>
+      <c r="G84" s="2" t="s">
+        <v>536</v>
+      </c>
+      <c r="H84" s="2">
+        <v>1</v>
+      </c>
+      <c r="I84" s="2">
+        <v>1</v>
       </c>
       <c r="J84" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>DateVente1400011</v>
-      </c>
-      <c r="K84" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>PrixVente1400011</v>
-      </c>
-      <c r="L84" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>Poids1400011</v>
+        <f>J$1&amp;$A72</f>
+        <v>DateVente1100017</v>
+      </c>
+      <c r="K84" s="2" t="s">
+        <v>536</v>
+      </c>
+      <c r="L84" s="2" t="s">
+        <v>282</v>
       </c>
       <c r="M84" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>DateCreation1400011</v>
       </c>
       <c r="N84" s="2" t="s">
@@ -8732,44 +8864,36 @@
       <c r="C85" s="2">
         <v>1006</v>
       </c>
-      <c r="D85" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>Nom1400012</v>
-      </c>
-      <c r="E85" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>Description1400012</v>
-      </c>
-      <c r="F85" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>Photo1400012</v>
-      </c>
-      <c r="G85" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>PrixDemande1400012</v>
-      </c>
-      <c r="H85" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>NombreItems1400012</v>
-      </c>
-      <c r="I85" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>Disponibilité1400012</v>
+      <c r="D85" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="E85" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="F85" s="2" t="s">
+        <v>604</v>
+      </c>
+      <c r="G85" s="2" t="s">
+        <v>552</v>
+      </c>
+      <c r="H85" s="2">
+        <v>1</v>
+      </c>
+      <c r="I85" s="2">
+        <v>1</v>
       </c>
       <c r="J85" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>DateVente1400012</v>
-      </c>
-      <c r="K85" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>PrixVente1400012</v>
-      </c>
-      <c r="L85" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>Poids1400012</v>
+        <f>J$1&amp;$A73</f>
+        <v>DateVente1100018</v>
+      </c>
+      <c r="K85" s="2" t="s">
+        <v>552</v>
+      </c>
+      <c r="L85" s="2" t="s">
+        <v>270</v>
       </c>
       <c r="M85" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>DateCreation1400012</v>
       </c>
       <c r="N85" s="2" t="s">
@@ -8787,27 +8911,27 @@
         <v>1006</v>
       </c>
       <c r="D86" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>Nom1400013</v>
       </c>
       <c r="E86" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>Description1400013</v>
       </c>
       <c r="F86" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>Photo1400013</v>
       </c>
       <c r="G86" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>PrixDemande1400013</v>
       </c>
       <c r="H86" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>NombreItems1400013</v>
       </c>
       <c r="I86" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>Disponibilité1400013</v>
       </c>
       <c r="J86" s="2" t="str">
@@ -8815,15 +8939,15 @@
         <v>DateVente1400013</v>
       </c>
       <c r="K86" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>PrixVente1400013</v>
       </c>
       <c r="L86" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>Poids1400013</v>
       </c>
       <c r="M86" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>DateCreation1400013</v>
       </c>
       <c r="N86" s="2" t="s">
@@ -8841,27 +8965,27 @@
         <v>1006</v>
       </c>
       <c r="D87" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>Nom1600033</v>
       </c>
       <c r="E87" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>Description1600033</v>
       </c>
       <c r="F87" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>Photo1600033</v>
       </c>
       <c r="G87" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>PrixDemande1600033</v>
       </c>
       <c r="H87" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>NombreItems1600033</v>
       </c>
       <c r="I87" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>Disponibilité1600033</v>
       </c>
       <c r="J87" s="2" t="str">
@@ -8869,15 +8993,15 @@
         <v>DateVente1600033</v>
       </c>
       <c r="K87" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>PrixVente1600033</v>
       </c>
       <c r="L87" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>Poids1600033</v>
       </c>
       <c r="M87" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>DateCreation1600033</v>
       </c>
       <c r="N87" s="2" t="s">
@@ -8895,27 +9019,27 @@
         <v>1006</v>
       </c>
       <c r="D88" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>Nom1600034</v>
       </c>
       <c r="E88" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>Description1600034</v>
       </c>
       <c r="F88" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>Photo1600034</v>
       </c>
       <c r="G88" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>PrixDemande1600034</v>
       </c>
       <c r="H88" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>NombreItems1600034</v>
       </c>
       <c r="I88" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>Disponibilité1600034</v>
       </c>
       <c r="J88" s="2" t="str">
@@ -8923,15 +9047,15 @@
         <v>DateVente1600034</v>
       </c>
       <c r="K88" s="2" t="str">
-        <f t="shared" ref="E88:L103" si="6">K$1&amp;$A88</f>
+        <f t="shared" ref="E88:L103" si="4">K$1&amp;$A88</f>
         <v>PrixVente1600034</v>
       </c>
       <c r="L88" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>Poids1600034</v>
       </c>
       <c r="M88" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>DateCreation1600034</v>
       </c>
       <c r="N88" s="2" t="s">
@@ -8949,27 +9073,27 @@
         <v>1006</v>
       </c>
       <c r="D89" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>Nom1600035</v>
       </c>
       <c r="E89" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>Description1600035</v>
       </c>
       <c r="F89" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>Photo1600035</v>
       </c>
       <c r="G89" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>PrixDemande1600035</v>
       </c>
       <c r="H89" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>NombreItems1600035</v>
       </c>
       <c r="I89" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>Disponibilité1600035</v>
       </c>
       <c r="J89" s="2" t="str">
@@ -8977,15 +9101,15 @@
         <v>DateVente1600035</v>
       </c>
       <c r="K89" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>PrixVente1600035</v>
       </c>
       <c r="L89" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>Poids1600035</v>
       </c>
       <c r="M89" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>DateCreation1600035</v>
       </c>
       <c r="N89" s="2" t="s">
@@ -9003,27 +9127,27 @@
         <v>1006</v>
       </c>
       <c r="D90" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>Nom1600036</v>
       </c>
       <c r="E90" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>Description1600036</v>
       </c>
       <c r="F90" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>Photo1600036</v>
       </c>
       <c r="G90" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>PrixDemande1600036</v>
       </c>
       <c r="H90" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>NombreItems1600036</v>
       </c>
       <c r="I90" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>Disponibilité1600036</v>
       </c>
       <c r="J90" s="2" t="str">
@@ -9031,15 +9155,15 @@
         <v>DateVente1600036</v>
       </c>
       <c r="K90" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>PrixVente1600036</v>
       </c>
       <c r="L90" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>Poids1600036</v>
       </c>
       <c r="M90" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>DateCreation1600036</v>
       </c>
       <c r="N90" s="2" t="s">
@@ -9063,10 +9187,10 @@
         <v>232</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>390</v>
+        <v>378</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>558</v>
+        <v>546</v>
       </c>
       <c r="H91" s="2">
         <v>1</v>
@@ -9079,13 +9203,13 @@
         <v>DateVente1100028</v>
       </c>
       <c r="K91" s="2" t="s">
-        <v>558</v>
+        <v>546</v>
       </c>
       <c r="L91" s="2" t="s">
         <v>233</v>
       </c>
       <c r="M91" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>DateCreation1100028</v>
       </c>
       <c r="N91" s="2" t="s">
@@ -9109,10 +9233,10 @@
         <v>244</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>391</v>
+        <v>379</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>563</v>
+        <v>550</v>
       </c>
       <c r="H92" s="2">
         <v>1</v>
@@ -9125,13 +9249,13 @@
         <v>DateVente1100029</v>
       </c>
       <c r="K92" s="2" t="s">
-        <v>563</v>
+        <v>550</v>
       </c>
       <c r="L92" s="2" t="s">
         <v>245</v>
       </c>
       <c r="M92" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>DateCreation1100029</v>
       </c>
       <c r="N92" s="2" t="s">
@@ -9155,10 +9279,10 @@
         <v>247</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>392</v>
+        <v>380</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>566</v>
+        <v>553</v>
       </c>
       <c r="H93" s="2">
         <v>1</v>
@@ -9171,13 +9295,13 @@
         <v>DateVente1100030</v>
       </c>
       <c r="K93" s="2" t="s">
-        <v>566</v>
+        <v>553</v>
       </c>
       <c r="L93" s="2" t="s">
         <v>248</v>
       </c>
       <c r="M93" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>DateCreation1100030</v>
       </c>
       <c r="N93" s="2" t="s">
@@ -9195,27 +9319,27 @@
         <v>1007</v>
       </c>
       <c r="D94" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>Nom1600037</v>
       </c>
       <c r="E94" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>Description1600037</v>
       </c>
       <c r="F94" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>Photo1600037</v>
       </c>
       <c r="G94" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>PrixDemande1600037</v>
       </c>
       <c r="H94" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>NombreItems1600037</v>
       </c>
       <c r="I94" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>Disponibilité1600037</v>
       </c>
       <c r="J94" s="2" t="str">
@@ -9223,15 +9347,15 @@
         <v>DateVente1600037</v>
       </c>
       <c r="K94" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>PrixVente1600037</v>
       </c>
       <c r="L94" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>Poids1600037</v>
       </c>
       <c r="M94" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>DateCreation1600037</v>
       </c>
       <c r="N94" s="2" t="s">
@@ -9249,27 +9373,27 @@
         <v>1007</v>
       </c>
       <c r="D95" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>Nom1600038</v>
       </c>
       <c r="E95" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>Description1600038</v>
       </c>
       <c r="F95" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>Photo1600038</v>
       </c>
       <c r="G95" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>PrixDemande1600038</v>
       </c>
       <c r="H95" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>NombreItems1600038</v>
       </c>
       <c r="I95" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>Disponibilité1600038</v>
       </c>
       <c r="J95" s="2" t="str">
@@ -9277,15 +9401,15 @@
         <v>DateVente1600038</v>
       </c>
       <c r="K95" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>PrixVente1600038</v>
       </c>
       <c r="L95" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>Poids1600038</v>
       </c>
       <c r="M95" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>DateCreation1600038</v>
       </c>
       <c r="N95" s="2" t="s">
@@ -9303,27 +9427,27 @@
         <v>1007</v>
       </c>
       <c r="D96" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>Nom1600039</v>
       </c>
       <c r="E96" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>Description1600039</v>
       </c>
       <c r="F96" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>Photo1600039</v>
       </c>
       <c r="G96" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>PrixDemande1600039</v>
       </c>
       <c r="H96" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>NombreItems1600039</v>
       </c>
       <c r="I96" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>Disponibilité1600039</v>
       </c>
       <c r="J96" s="2" t="str">
@@ -9331,15 +9455,15 @@
         <v>DateVente1600039</v>
       </c>
       <c r="K96" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>PrixVente1600039</v>
       </c>
       <c r="L96" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>Poids1600039</v>
       </c>
       <c r="M96" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>DateCreation1600039</v>
       </c>
       <c r="N96" s="2" t="s">
@@ -9357,27 +9481,27 @@
         <v>1008</v>
       </c>
       <c r="D97" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>Nom1100031</v>
       </c>
       <c r="E97" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>Description1100031</v>
       </c>
       <c r="F97" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>Photo1100031</v>
       </c>
       <c r="G97" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>PrixDemande1100031</v>
       </c>
       <c r="H97" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>NombreItems1100031</v>
       </c>
       <c r="I97" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>Disponibilité1100031</v>
       </c>
       <c r="J97" s="2" t="str">
@@ -9385,15 +9509,15 @@
         <v>DateVente1100031</v>
       </c>
       <c r="K97" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>PrixVente1100031</v>
       </c>
       <c r="L97" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>Poids1100031</v>
       </c>
       <c r="M97" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>DateCreation1100031</v>
       </c>
       <c r="N97" s="2" t="s">
@@ -9411,27 +9535,27 @@
         <v>1008</v>
       </c>
       <c r="D98" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>Nom1100032</v>
       </c>
       <c r="E98" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>Description1100032</v>
       </c>
       <c r="F98" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>Photo1100032</v>
       </c>
       <c r="G98" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>PrixDemande1100032</v>
       </c>
       <c r="H98" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>NombreItems1100032</v>
       </c>
       <c r="I98" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>Disponibilité1100032</v>
       </c>
       <c r="J98" s="2" t="str">
@@ -9439,15 +9563,15 @@
         <v>DateVente1100032</v>
       </c>
       <c r="K98" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>PrixVente1100032</v>
       </c>
       <c r="L98" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>Poids1100032</v>
       </c>
       <c r="M98" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>DateCreation1100032</v>
       </c>
       <c r="N98" s="2" t="s">
@@ -9465,27 +9589,27 @@
         <v>1008</v>
       </c>
       <c r="D99" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>Nom1400014</v>
       </c>
       <c r="E99" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>Description1400014</v>
       </c>
       <c r="F99" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>Photo1400014</v>
       </c>
       <c r="G99" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>PrixDemande1400014</v>
       </c>
       <c r="H99" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>NombreItems1400014</v>
       </c>
       <c r="I99" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>Disponibilité1400014</v>
       </c>
       <c r="J99" s="2" t="str">
@@ -9493,15 +9617,15 @@
         <v>DateVente1400014</v>
       </c>
       <c r="K99" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>PrixVente1400014</v>
       </c>
       <c r="L99" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>Poids1400014</v>
       </c>
       <c r="M99" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>DateCreation1400014</v>
       </c>
       <c r="N99" s="2" t="s">
@@ -9519,43 +9643,43 @@
         <v>1008</v>
       </c>
       <c r="D100" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>Nom1400015</v>
       </c>
       <c r="E100" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>Description1400015</v>
       </c>
       <c r="F100" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>Photo1400015</v>
       </c>
       <c r="G100" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>PrixDemande1400015</v>
       </c>
       <c r="H100" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>NombreItems1400015</v>
       </c>
       <c r="I100" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>Disponibilité1400015</v>
       </c>
       <c r="J100" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>DateVente1400015</v>
       </c>
       <c r="K100" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>PrixVente1400015</v>
       </c>
       <c r="L100" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>Poids1400015</v>
       </c>
       <c r="M100" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>DateCreation1400015</v>
       </c>
       <c r="N100" s="2" t="s">
@@ -9573,43 +9697,43 @@
         <v>1008</v>
       </c>
       <c r="D101" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>Nom1400016</v>
       </c>
       <c r="E101" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>Description1400016</v>
       </c>
       <c r="F101" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>Photo1400016</v>
       </c>
       <c r="G101" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>PrixDemande1400016</v>
       </c>
       <c r="H101" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>NombreItems1400016</v>
       </c>
       <c r="I101" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>Disponibilité1400016</v>
       </c>
       <c r="J101" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>DateVente1400016</v>
       </c>
       <c r="K101" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>PrixVente1400016</v>
       </c>
       <c r="L101" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>Poids1400016</v>
       </c>
       <c r="M101" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>DateCreation1400016</v>
       </c>
       <c r="N101" s="2" t="s">
@@ -9627,43 +9751,43 @@
         <v>1008</v>
       </c>
       <c r="D102" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>Nom1400017</v>
       </c>
       <c r="E102" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>Description1400017</v>
       </c>
       <c r="F102" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>Photo1400017</v>
       </c>
       <c r="G102" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>PrixDemande1400017</v>
       </c>
       <c r="H102" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>NombreItems1400017</v>
       </c>
       <c r="I102" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>Disponibilité1400017</v>
       </c>
       <c r="J102" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>DateVente1400017</v>
       </c>
       <c r="K102" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>PrixVente1400017</v>
       </c>
       <c r="L102" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>Poids1400017</v>
       </c>
       <c r="M102" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>DateCreation1400017</v>
       </c>
       <c r="N102" s="2" t="s">
@@ -9681,43 +9805,43 @@
         <v>1008</v>
       </c>
       <c r="D103" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>Nom1400018</v>
       </c>
       <c r="E103" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>Description1400018</v>
       </c>
       <c r="F103" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>Photo1400018</v>
       </c>
       <c r="G103" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>PrixDemande1400018</v>
       </c>
       <c r="H103" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>NombreItems1400018</v>
       </c>
       <c r="I103" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>Disponibilité1400018</v>
       </c>
       <c r="J103" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>DateVente1400018</v>
       </c>
       <c r="K103" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>PrixVente1400018</v>
       </c>
       <c r="L103" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>Poids1400018</v>
       </c>
       <c r="M103" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>DateCreation1400018</v>
       </c>
       <c r="N103" s="2" t="s">
@@ -9735,43 +9859,43 @@
         <v>1008</v>
       </c>
       <c r="D104" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>Nom1400019</v>
+      </c>
+      <c r="E104" s="2" t="str">
+        <f t="shared" ref="E104:L105" si="5">E$1&amp;$A104</f>
+        <v>Description1400019</v>
+      </c>
+      <c r="F104" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>Nom1400019</v>
-      </c>
-      <c r="E104" s="2" t="str">
-        <f t="shared" ref="E104:L105" si="7">E$1&amp;$A104</f>
-        <v>Description1400019</v>
-      </c>
-      <c r="F104" s="2" t="str">
-        <f t="shared" si="7"/>
         <v>Photo1400019</v>
       </c>
       <c r="G104" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>PrixDemande1400019</v>
       </c>
       <c r="H104" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>NombreItems1400019</v>
       </c>
       <c r="I104" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>Disponibilité1400019</v>
       </c>
       <c r="J104" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>DateVente1400019</v>
       </c>
       <c r="K104" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>PrixVente1400019</v>
       </c>
       <c r="L104" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>Poids1400019</v>
       </c>
       <c r="M104" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>DateCreation1400019</v>
       </c>
       <c r="N104" s="2" t="s">
@@ -9789,43 +9913,43 @@
         <v>1008</v>
       </c>
       <c r="D105" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>Nom1600040</v>
+      </c>
+      <c r="E105" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>Nom1600040</v>
-      </c>
-      <c r="E105" s="2" t="str">
-        <f t="shared" si="7"/>
         <v>Description1600040</v>
       </c>
       <c r="F105" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>Photo1600040</v>
       </c>
       <c r="G105" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>PrixDemande1600040</v>
       </c>
       <c r="H105" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>NombreItems1600040</v>
       </c>
       <c r="I105" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>Disponibilité1600040</v>
       </c>
       <c r="J105" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>DateVente1600040</v>
       </c>
       <c r="K105" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>PrixVente1600040</v>
       </c>
       <c r="L105" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>Poids1600040</v>
       </c>
       <c r="M105" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>DateCreation1600040</v>
       </c>
       <c r="N105" s="2" t="s">

--- a/Jeu d'essai (Valeurs).xlsx
+++ b/Jeu d'essai (Valeurs).xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="1623" documentId="14_{E952B2A6-1070-47AA-ABAD-4591E8C72938}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{8F1C78BB-C4AE-447D-9565-19FB7AC4DEEB}"/>
+  <xr:revisionPtr revIDLastSave="1850" documentId="14_{E952B2A6-1070-47AA-ABAD-4591E8C72938}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{5CF83F7C-A850-4189-B82F-8697B36DABCC}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PPVendeurs" sheetId="13" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1127" uniqueCount="709">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1253" uniqueCount="802">
   <si>
     <t>NULL</t>
   </si>
@@ -738,9 +738,6 @@
     <t>Djembé</t>
   </si>
   <si>
-    <t>Djembé, un an d'usure.  A très peu servi.  Construction solide.  Finition bois clair.  payé 500.00$.</t>
-  </si>
-  <si>
     <t>35.0</t>
   </si>
   <si>
@@ -771,21 +768,12 @@
     <t>7.5</t>
   </si>
   <si>
-    <t>Guitare</t>
-  </si>
-  <si>
-    <t>Guitare électrique avec étui.  Utilisé très peu.  Comme neuve.  Pas d'amplificateur.</t>
-  </si>
-  <si>
     <t>22.0</t>
   </si>
   <si>
     <t>Piano</t>
   </si>
   <si>
-    <t>Piano d'appartement.  En cerisier. Vieux de plus de 40 ans.  Encore en tr`s bon état. Besoin d'être accordé.</t>
-  </si>
-  <si>
     <t>450.0</t>
   </si>
   <si>
@@ -801,15 +789,6 @@
     <t>6.5</t>
   </si>
   <si>
-    <t>Bottes de ski</t>
-  </si>
-  <si>
-    <t>Couleur vertes, Comme neuves. Payé 250.00$.</t>
-  </si>
-  <si>
-    <t>15.0</t>
-  </si>
-  <si>
     <t>Scanner FUTJITSU</t>
   </si>
   <si>
@@ -943,9 +922,6 @@
   </si>
   <si>
     <t>56.0</t>
-  </si>
-  <si>
-    <t>Ski ELAN 144 cm</t>
   </si>
   <si>
     <t>A vendre ensemble de ski alpin: Ski ELAN 144 cm avec bottes pointure 26, plus bâtons.</t>
@@ -2207,6 +2183,323 @@
   </si>
   <si>
     <t>2.59</t>
+  </si>
+  <si>
+    <t>Skis Smash 7 avec fixations de Rossignol</t>
+  </si>
+  <si>
+    <t>Pour les experts en devenir. Les skis Smash 7 sont parfaits pour les descentes en centre de ski et les escapades occasionnelles dans la poudreuse. Ils combinent polyvalence et flottabilité tout en étant durables et agiles, convenant ainsi aux skieurs intermédiaires à la recherche d'un véritable ski tout-terrain qui les préparera à entreprendre des descentes en puissance. La forme relevée à la spatule est bien adaptée à la poudreuse pour combattre la fatigue dans la neige profonde, tandis que le profil latéral assure une sensation de puissance et de contrôle sur les pistes damées. Ils sont montés de fixations Look Xpress 11 maintenant fermement vos pieds pour que vous puissiez vous donner à fond.</t>
+  </si>
+  <si>
+    <t>1100015.jpg</t>
+  </si>
+  <si>
+    <t>11.9</t>
+  </si>
+  <si>
+    <t>Bâtons Via de G3</t>
+  </si>
+  <si>
+    <t>Des bâtons robustes, ajustables et assez légers pour toutes les aventures que vous avez en vue. La tige en deux sections est faite d'aluminium léger et solide qui répond toujours bien à la demande.</t>
+  </si>
+  <si>
+    <t>1.4</t>
+  </si>
+  <si>
+    <t>1100016.jpg</t>
+  </si>
+  <si>
+    <t>Skis ELAN 144 cm</t>
+  </si>
+  <si>
+    <t>Casque de ski Verdict de K2</t>
+  </si>
+  <si>
+    <t>Un seul et même casque pour toute l'année : il est homologué pour les sports d'hiver et le vélo. Le système d'aération assure une bonne circulation d'air dans le casque pour vous garder au frais et bien concentré, que vous dévaliez les pentes en skis ou que vous vous baladiez en ville sur deux roues.</t>
+  </si>
+  <si>
+    <t>1100017.jpg</t>
+  </si>
+  <si>
+    <t>84.00</t>
+  </si>
+  <si>
+    <t>Lunettes de ski Classic Crest de Gordini</t>
+  </si>
+  <si>
+    <t>Des lunettes de ski qui se démarquent par leur merveilleuse simplicité. Faisant partie de la gamme Classic de Gordini, ce modèle simple de style rétro se caractérise par l’absence de stabilisateurs, d'aimants et d’autres gadgets technologiques qui abondent sur les lunettes de ski modernes. Le grand verre Pro de forme cylindrique offre une vision nette sous tous les angles, tandis que la monture aérée diminue le risque de formation de buée.</t>
+  </si>
+  <si>
+    <t>1100018.jpg</t>
+  </si>
+  <si>
+    <t>0.6</t>
+  </si>
+  <si>
+    <t>Manteau isolant Centre Point de MEC</t>
+  </si>
+  <si>
+    <t>Une imperméabilité complète et une bonne couche d'isolant sont en général synonymes d'une journée réussie sur les pentes. Profitez de toutes les caractéristiques pratiques d'un manteau conçu pour le centre de ski (poche pour lunettes de ski, bord pare-neige, glissière aux aisselles et design qui ne fait pas sourciller en ville), en plus d'une fantastique protection contre les intempéries grâce à une étoffe imper-respirante deux couches et à des coutures entièrement scellées. L'isolant Hyperloft et le protège-menton molletonné assurent confort et chaleur pendant la remontée, tandis que le système de secours RECCO vous permet d'être détecté par les patrouilleurs en cas de pépin.</t>
+  </si>
+  <si>
+    <t>1100019.jpg</t>
+  </si>
+  <si>
+    <t>325.00</t>
+  </si>
+  <si>
+    <t>2.1</t>
+  </si>
+  <si>
+    <t>Une triple armure pour affronter des conditions extrêmes dans l'arrière-pays. La construction trois couches est imper-respirante pour maximiser le temps que vous passez à jouer dans la neige, et la doublure en tricot repousse l'humidité, ce qui vous garde au chaud sans toutefois vous faire surchauffer. Faite d'un mélange de nylon et de polyester, l'étoffe offre une extensibilité naturelle qui ne restreint pas vos mouvements. De plus, la coupe préformée ajoute à la mobilité pour que vous descendiez les pentes encore plus vite. Équipé de caractéristiques pratiques pour les skieurs, ce pantalon comporte des guêtres internes, un renfort antiabrasion dans le bas des jambes et des ouvertures d'aération pour laisser sortir la chaleur.</t>
+  </si>
+  <si>
+    <t>Pantalon Descentionist de Patagonia</t>
+  </si>
+  <si>
+    <t>425.00</t>
+  </si>
+  <si>
+    <t>1100020.jpg</t>
+  </si>
+  <si>
+    <t>319.00</t>
+  </si>
+  <si>
+    <t>Bottes de ski QST Access 90 de Salomon</t>
+  </si>
+  <si>
+    <t>Défiez le vieil adage selon lequel il est impossible de marcher confortablement avec des bottes de ski, et facilitez vos déplacements entre le chalet et la remontée mécanique. Les bottes QST Access 90 sont dotées d'un mécanisme de passage du mode marche au mode ski et d'une coque inférieure en forme de V à l'arrière qui facilitent la marche. En descente, le pivot surdimensionné procure un solide transfert de puissance et une grande précision.</t>
+  </si>
+  <si>
+    <t>349.00</t>
+  </si>
+  <si>
+    <t>8.6</t>
+  </si>
+  <si>
+    <t>Raquettes Evo 22 de MSR</t>
+  </si>
+  <si>
+    <t>Elles sont conçues pour assurer une grande traction pour toutes les conditions ainsi qu'une efficacité remarquable sur les terrains vallonneux.</t>
+  </si>
+  <si>
+    <t>1100021.jpg</t>
+  </si>
+  <si>
+    <t>169.00</t>
+  </si>
+  <si>
+    <t>3.4</t>
+  </si>
+  <si>
+    <t>Mitaines Nordique de MEC</t>
+  </si>
+  <si>
+    <t>Gardez vos petites pattes au chaud lorsque la température baisse. Équipées d'un isolant Primaloft Gold et d'empiècements imper-respirants, ces mitaines légères protégeront vos mains sans les rendre moites.</t>
+  </si>
+  <si>
+    <t>69.00</t>
+  </si>
+  <si>
+    <t>1100022.jpg</t>
+  </si>
+  <si>
+    <t>Skis de fond Evo First 49 avec fixations de Rossignol</t>
+  </si>
+  <si>
+    <t>Apprenez la bonne technique et le contrôle sur ces skis conçus spécifiquement pour les débutants. Grâce à leurs dimensions réduites, ils sont plus faciles à manœuvrer et à contrôler dans les pentes et les sections glacées.</t>
+  </si>
+  <si>
+    <t>189.00</t>
+  </si>
+  <si>
+    <t>1100023.jpg</t>
+  </si>
+  <si>
+    <t>3.1</t>
+  </si>
+  <si>
+    <t>Bâtons Nordic Classic de Komperdell</t>
+  </si>
+  <si>
+    <t>Bâtons de ski de fond classique pour les sorties tranquilles.</t>
+  </si>
+  <si>
+    <t>29.00</t>
+  </si>
+  <si>
+    <t>1100024.jpg</t>
+  </si>
+  <si>
+    <t>0.8</t>
+  </si>
+  <si>
+    <t>Bottes de ski X3 de Rossignol</t>
+  </si>
+  <si>
+    <t>Des bottes polyvalentes pour le ski de fond récréatif. Elles favorisent avant tout le confort et la chaleur, tout en assurant une bonne liberté de mouvement, une grande stabilité, ainsi qu'un bon contrôle. Le design à flexion libre procure un maximum d'énergie à chaque poussée pour une puissance optimale en ski classique.</t>
+  </si>
+  <si>
+    <t>129.00</t>
+  </si>
+  <si>
+    <t>2.4</t>
+  </si>
+  <si>
+    <t>1100025.jpg</t>
+  </si>
+  <si>
+    <t>Bottes de randonnée Quest 4D 3 GTX de Salomon</t>
+  </si>
+  <si>
+    <t>Affrontez les sentiers complexes en tout confort. Le design progressif emprunte des caractéristiques des chaussures de course sur sentier de Salomon pour créer des bottes robustes prêtes pour les randonnées éprouvantes d’une journée ou de plusieurs jours, sur des sentiers pentus, rocailleux ou pratiquement absents.</t>
+  </si>
+  <si>
+    <t>1100026.jpg</t>
+  </si>
+  <si>
+    <t>279.95</t>
+  </si>
+  <si>
+    <t>2.8</t>
+  </si>
+  <si>
+    <t>Guêtres en nylon de MEC</t>
+  </si>
+  <si>
+    <t>Protégez le bas de vos jambes. La prochaine fois que vous partez en randonnée ou en alpinisme, utilisez ces guêtres hydrorésistantes et marchez confortablement dans les broussailles, la boue ou le sable. La fermeture à bande autoagrippante demeure bien en place même lorsqu'elle est couverte de boue (contrairement à une fermeture à glissière).</t>
+  </si>
+  <si>
+    <t>1100027.jpg</t>
+  </si>
+  <si>
+    <t>Épaulière de hockey</t>
+  </si>
+  <si>
+    <t>Épaulière de hockey senior, de la marque Reebok, modèle KFS 7K. Pour les personnes de grandeur 170 cm à 180 cm (5'7 pied à 5'10 pied) et ayant un tour de torse entre 94 cm à 102 cm (37 pouces à 40 pouces). En parfait condition.</t>
+  </si>
+  <si>
+    <t>24.00</t>
+  </si>
+  <si>
+    <t>1400013.JPG</t>
+  </si>
+  <si>
+    <t>Chaussures de soccer extérieur pour homme</t>
+  </si>
+  <si>
+    <t>Chaussures de soccer extérieur
+Empeigne : matériau synthétique
+Semelle intercalaire : coussinage EVA amovible absorbant les chocs
+Semelle d'usure : 15 crampons en caoutchouc offrant maintien et équilibre</t>
+  </si>
+  <si>
+    <t>1600033.jpg</t>
+  </si>
+  <si>
+    <t>Protège-tibias de soccer</t>
+  </si>
+  <si>
+    <t>Protège-tibias de soccer
+Coque de protection très résistante
+Fermeture à l'avant avec sangle unique
+Doublure en matériau synthétique souple
+Rembourrage en EVA pour un meilleur amorti des chocs
+Protège-chevilles fixes</t>
+  </si>
+  <si>
+    <t>29.99</t>
+  </si>
+  <si>
+    <t>14.99</t>
+  </si>
+  <si>
+    <t>1.6</t>
+  </si>
+  <si>
+    <t>1600034.jpg</t>
+  </si>
+  <si>
+    <t>Gants de gardien de but de soccer pour adulte</t>
+  </si>
+  <si>
+    <t>Gants de gardien de but de soccer
+Mousse de latex pour une excellente adhérence dans des conditions variées
+Fermeture ajustable avec velcro pour un ajustement personnalisé
+Perforations aux doigts pour une meilleure respirabilité</t>
+  </si>
+  <si>
+    <t>27.99</t>
+  </si>
+  <si>
+    <t>1600035.jpg</t>
+  </si>
+  <si>
+    <t>Ballon de soccer</t>
+  </si>
+  <si>
+    <t>Ballon de soccer
+PU texturé cousu à la machine
+12 panneaux
+Vessie en caoutchouc renforcé pour un toucher uniforme et une conservation de la forme exceptionnelle</t>
+  </si>
+  <si>
+    <t>1600036.jpg</t>
+  </si>
+  <si>
+    <t>1.2</t>
+  </si>
+  <si>
+    <t>Batterie acoustique 10-12-16-22</t>
+  </si>
+  <si>
+    <t>L'ensemble de batterie Fusion 5 morceaux Roadshow de Pearl vous offre tout ce dont vous avez besoin pour prendre possession votre première batterie acoustique, de la quincaillerie aux fûts, ainsi que la pédale et le banc.</t>
+  </si>
+  <si>
+    <t>649.00</t>
+  </si>
+  <si>
+    <t>77.0</t>
+  </si>
+  <si>
+    <t>1600037.jpg</t>
+  </si>
+  <si>
+    <t>Guitare acoustique avec étui. Utilisé très peu. Comme neuve.</t>
+  </si>
+  <si>
+    <t>Piano d'appartement. En cerisier. Vieux de plus de 40 ans. Encore en très bon état. Besoin d'être accordé.</t>
+  </si>
+  <si>
+    <t>Djembé, un an d'usure. A très peu servi. Construction solide. Finition bois clair. payé 500.00$.</t>
+  </si>
+  <si>
+    <t>Guitare acoustique</t>
+  </si>
+  <si>
+    <t>Parmi les meilleures affaires des dix dernières années sur le marché des guitares électriques, les guitares Pacifica de Yamaha sont réputées pour leur son superbe et leur exceptionnelle jouabilité. La série Pacifica propose des corps sculptés pour plus de confort, des manches vissés, des vibratos de style vintage et un sélecteur à 5 positions pour la configuration des capteurs H-S-S.</t>
+  </si>
+  <si>
+    <t>Guitare électrique pacifica rouge</t>
+  </si>
+  <si>
+    <t>1600038.jpg</t>
+  </si>
+  <si>
+    <t>La basse SG originale est de retour et prête pour le rock avec le EB-0 Player Pack. Il dispose de la forme courte SG EB-0 avec un pick-up Sidewinder unique au cou pour un ton vintage puissant et chaleureux.</t>
+  </si>
+  <si>
+    <t>Basse électrique cherry</t>
+  </si>
+  <si>
+    <t>1600039.jpg</t>
+  </si>
+  <si>
+    <t>389.00</t>
+  </si>
+  <si>
+    <t>7.7</t>
   </si>
 </sst>
 </file>
@@ -2541,30 +2834,30 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.6640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.44140625" bestFit="1" customWidth="1"/>
     <col min="10" max="11" width="11" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="29" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="12" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.33203125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="8" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="8.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -2629,33 +2922,33 @@
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="C2" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="D2" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
       <c r="E2" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
       <c r="F2" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="G2" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="H2" t="s">
-        <v>388</v>
+        <v>380</v>
       </c>
       <c r="I2" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="J2">
         <v>4503548575</v>
@@ -2664,10 +2957,10 @@
         <v>0</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>390</v>
+        <v>382</v>
       </c>
       <c r="M2" t="s">
-        <v>391</v>
+        <v>383</v>
       </c>
       <c r="N2">
         <v>100</v>
@@ -2679,10 +2972,10 @@
         <v>1</v>
       </c>
       <c r="Q2" t="s">
-        <v>517</v>
+        <v>509</v>
       </c>
       <c r="R2" t="s">
-        <v>520</v>
+        <v>512</v>
       </c>
       <c r="S2" s="1">
         <v>43466.224826388891</v>
@@ -2694,33 +2987,33 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="C3" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
       <c r="D3" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="E3" t="s">
-        <v>396</v>
+        <v>388</v>
       </c>
       <c r="F3" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
       <c r="G3" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="H3" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
       <c r="I3" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="J3">
         <v>5146336473</v>
@@ -2729,10 +3022,10 @@
         <v>0</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="M3" t="s">
-        <v>400</v>
+        <v>392</v>
       </c>
       <c r="N3">
         <v>50</v>
@@ -2744,10 +3037,10 @@
         <v>0</v>
       </c>
       <c r="Q3" t="s">
-        <v>518</v>
+        <v>510</v>
       </c>
       <c r="R3" t="s">
-        <v>521</v>
+        <v>513</v>
       </c>
       <c r="S3" s="1">
         <v>43468.322939814818</v>
@@ -2759,33 +3052,33 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>402</v>
+        <v>394</v>
       </c>
       <c r="C4" t="s">
-        <v>403</v>
+        <v>395</v>
       </c>
       <c r="D4" t="s">
-        <v>404</v>
+        <v>396</v>
       </c>
       <c r="E4" t="s">
-        <v>405</v>
+        <v>397</v>
       </c>
       <c r="F4" t="s">
-        <v>406</v>
+        <v>398</v>
       </c>
       <c r="G4" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="H4" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="I4" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="J4">
         <v>5147773847</v>
@@ -2794,10 +3087,10 @@
         <v>4505658849</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="M4" t="s">
-        <v>409</v>
+        <v>401</v>
       </c>
       <c r="N4">
         <v>75</v>
@@ -2812,7 +3105,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="s">
-        <v>522</v>
+        <v>514</v>
       </c>
       <c r="S4" s="1">
         <v>43472.385462962964</v>
@@ -2824,33 +3117,33 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>411</v>
+        <v>403</v>
       </c>
       <c r="C5" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="D5" t="s">
-        <v>413</v>
+        <v>405</v>
       </c>
       <c r="E5" t="s">
-        <v>414</v>
+        <v>406</v>
       </c>
       <c r="F5" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
       <c r="G5" t="s">
-        <v>416</v>
+        <v>408</v>
       </c>
       <c r="H5" t="s">
-        <v>417</v>
+        <v>409</v>
       </c>
       <c r="I5" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="J5">
         <v>6133496675</v>
@@ -2859,10 +3152,10 @@
         <v>0</v>
       </c>
       <c r="L5" s="4" t="s">
-        <v>418</v>
+        <v>410</v>
       </c>
       <c r="M5" t="s">
-        <v>419</v>
+        <v>411</v>
       </c>
       <c r="N5">
         <v>100</v>
@@ -2874,10 +3167,10 @@
         <v>1</v>
       </c>
       <c r="Q5" t="s">
-        <v>519</v>
+        <v>511</v>
       </c>
       <c r="R5" t="s">
-        <v>523</v>
+        <v>515</v>
       </c>
       <c r="S5" s="1">
         <v>43476.262372685182</v>
@@ -2889,33 +3182,33 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="C6" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="D6" t="s">
-        <v>422</v>
+        <v>414</v>
       </c>
       <c r="E6" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="F6" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="G6" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="H6" t="s">
-        <v>425</v>
+        <v>417</v>
       </c>
       <c r="I6" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="J6">
         <v>4508889483</v>
@@ -2924,10 +3217,10 @@
         <v>5149938373</v>
       </c>
       <c r="L6" s="4" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="M6" t="s">
-        <v>427</v>
+        <v>419</v>
       </c>
       <c r="N6">
         <v>30</v>
@@ -2942,7 +3235,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="s">
-        <v>524</v>
+        <v>516</v>
       </c>
       <c r="S6" s="1">
         <v>43481.492337962962</v>
@@ -2954,33 +3247,33 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>16</v>
       </c>
       <c r="B7" t="s">
-        <v>428</v>
+        <v>420</v>
       </c>
       <c r="C7" t="s">
-        <v>429</v>
+        <v>421</v>
       </c>
       <c r="D7" t="s">
-        <v>430</v>
+        <v>422</v>
       </c>
       <c r="E7" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="F7" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
       <c r="G7" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="H7" t="s">
-        <v>432</v>
+        <v>424</v>
       </c>
       <c r="I7" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="J7">
         <v>5146337748</v>
@@ -2989,10 +3282,10 @@
         <v>0</v>
       </c>
       <c r="L7" s="4" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="M7" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
       <c r="N7">
         <v>40</v>
@@ -3004,10 +3297,10 @@
         <v>1</v>
       </c>
       <c r="Q7" t="s">
+        <v>509</v>
+      </c>
+      <c r="R7" t="s">
         <v>517</v>
-      </c>
-      <c r="R7" t="s">
-        <v>525</v>
       </c>
       <c r="S7" s="1">
         <v>43487.357361111113</v>
@@ -3019,33 +3312,33 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>17</v>
       </c>
       <c r="B8" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
       <c r="C8" t="s">
-        <v>436</v>
+        <v>428</v>
       </c>
       <c r="D8" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
       <c r="E8" t="s">
-        <v>438</v>
+        <v>430</v>
       </c>
       <c r="F8" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="G8" t="s">
-        <v>440</v>
+        <v>432</v>
       </c>
       <c r="H8" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
       <c r="I8" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="J8">
         <v>5066378822</v>
@@ -3054,10 +3347,10 @@
         <v>0</v>
       </c>
       <c r="L8" s="4" t="s">
-        <v>442</v>
+        <v>434</v>
       </c>
       <c r="M8" t="s">
-        <v>443</v>
+        <v>435</v>
       </c>
       <c r="N8">
         <v>50</v>
@@ -3069,10 +3362,10 @@
         <v>1</v>
       </c>
       <c r="Q8" t="s">
-        <v>519</v>
+        <v>511</v>
       </c>
       <c r="R8" t="s">
-        <v>526</v>
+        <v>518</v>
       </c>
       <c r="S8" s="1">
         <v>43493.244884259257</v>
@@ -3096,14 +3389,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>67</v>
       </c>
@@ -3114,7 +3407,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2001</v>
       </c>
@@ -3125,7 +3418,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2002</v>
       </c>
@@ -3136,7 +3429,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2003</v>
       </c>
@@ -3147,7 +3440,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2004</v>
       </c>
@@ -3169,13 +3462,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>66</v>
       </c>
@@ -3183,7 +3476,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>3001</v>
       </c>
@@ -3191,7 +3484,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>3002</v>
       </c>
@@ -3199,7 +3492,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3003</v>
       </c>
@@ -3218,14 +3511,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.44140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>66</v>
       </c>
@@ -3236,7 +3529,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>3001</v>
       </c>
@@ -3247,7 +3540,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>3001</v>
       </c>
@@ -3258,7 +3551,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3001</v>
       </c>
@@ -3269,7 +3562,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3001</v>
       </c>
@@ -3280,7 +3573,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>3002</v>
       </c>
@@ -3291,7 +3584,7 @@
         <v>6.75</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>3002</v>
       </c>
@@ -3302,7 +3595,7 @@
         <v>15.75</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>3002</v>
       </c>
@@ -3313,7 +3606,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>3002</v>
       </c>
@@ -3324,7 +3617,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>3003</v>
       </c>
@@ -3335,7 +3628,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>3003</v>
       </c>
@@ -3346,7 +3639,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>3003</v>
       </c>
@@ -3357,7 +3650,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>3003</v>
       </c>
@@ -3379,14 +3672,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>75</v>
       </c>
@@ -3397,7 +3690,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>4001</v>
       </c>
@@ -3408,7 +3701,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>4002</v>
       </c>
@@ -3419,7 +3712,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>4003</v>
       </c>
@@ -3430,7 +3723,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4004</v>
       </c>
@@ -3452,14 +3745,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>69</v>
       </c>
@@ -3470,7 +3763,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>5001</v>
       </c>
@@ -3481,7 +3774,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>5002</v>
       </c>
@@ -3492,7 +3785,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>5003</v>
       </c>
@@ -3514,14 +3807,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.88671875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>228</v>
       </c>
@@ -3532,7 +3825,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3556,27 +3849,27 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.44140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.6640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.44140625" bestFit="1" customWidth="1"/>
     <col min="11" max="12" width="11" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="17.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="25.85546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="25.88671875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>33</v>
       </c>
@@ -3629,36 +3922,36 @@
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>101</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>444</v>
+        <v>436</v>
       </c>
       <c r="C2" t="s">
-        <v>445</v>
+        <v>437</v>
       </c>
       <c r="D2" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="E2" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="F2" t="s">
-        <v>448</v>
+        <v>440</v>
       </c>
       <c r="G2" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
       <c r="H2" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="I2" t="s">
-        <v>450</v>
+        <v>442</v>
       </c>
       <c r="J2" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="K2">
         <v>5147583737</v>
@@ -3685,36 +3978,36 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>102</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>451</v>
+        <v>443</v>
       </c>
       <c r="C3" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="D3" t="s">
-        <v>453</v>
+        <v>445</v>
       </c>
       <c r="E3" t="s">
-        <v>454</v>
+        <v>446</v>
       </c>
       <c r="F3" t="s">
-        <v>455</v>
+        <v>447</v>
       </c>
       <c r="G3" t="s">
-        <v>456</v>
+        <v>448</v>
       </c>
       <c r="H3" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="I3" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
       <c r="J3" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="K3">
         <v>5145537272</v>
@@ -3741,15 +4034,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>103</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>458</v>
+        <v>450</v>
       </c>
       <c r="C4" t="s">
-        <v>459</v>
+        <v>451</v>
       </c>
       <c r="D4" t="s">
         <v>0</v>
@@ -3796,36 +4089,36 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>104</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>460</v>
+        <v>452</v>
       </c>
       <c r="C5" t="s">
-        <v>461</v>
+        <v>453</v>
       </c>
       <c r="D5" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="E5" t="s">
-        <v>462</v>
+        <v>454</v>
       </c>
       <c r="F5" t="s">
-        <v>463</v>
+        <v>455</v>
       </c>
       <c r="G5" t="s">
+        <v>448</v>
+      </c>
+      <c r="H5" t="s">
+        <v>379</v>
+      </c>
+      <c r="I5" t="s">
         <v>456</v>
       </c>
-      <c r="H5" t="s">
-        <v>387</v>
-      </c>
-      <c r="I5" t="s">
-        <v>464</v>
-      </c>
       <c r="J5" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="K5">
         <v>5143738890</v>
@@ -3852,15 +4145,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>105</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>465</v>
+        <v>457</v>
       </c>
       <c r="C6" t="s">
-        <v>466</v>
+        <v>458</v>
       </c>
       <c r="D6" t="s">
         <v>0</v>
@@ -3907,15 +4200,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>106</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>467</v>
+        <v>459</v>
       </c>
       <c r="C7" t="s">
-        <v>468</v>
+        <v>460</v>
       </c>
       <c r="D7" t="s">
         <v>0</v>
@@ -3962,15 +4255,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>107</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>469</v>
+        <v>461</v>
       </c>
       <c r="C8" t="s">
-        <v>470</v>
+        <v>462</v>
       </c>
       <c r="D8" t="s">
         <v>0</v>
@@ -4017,36 +4310,36 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>108</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>471</v>
+        <v>463</v>
       </c>
       <c r="C9" t="s">
-        <v>472</v>
+        <v>464</v>
       </c>
       <c r="D9" t="s">
-        <v>473</v>
+        <v>465</v>
       </c>
       <c r="E9" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
       <c r="F9" t="s">
-        <v>475</v>
+        <v>467</v>
       </c>
       <c r="G9" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
       <c r="H9" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="I9" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
       <c r="J9" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="K9">
         <v>5143736663</v>
@@ -4073,15 +4366,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>109</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
       <c r="C10" t="s">
-        <v>477</v>
+        <v>469</v>
       </c>
       <c r="D10" t="s">
         <v>0</v>
@@ -4128,15 +4421,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>110</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>478</v>
+        <v>470</v>
       </c>
       <c r="C11" t="s">
-        <v>479</v>
+        <v>471</v>
       </c>
       <c r="D11" t="s">
         <v>0</v>
@@ -4183,15 +4476,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>111</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
       <c r="C12" t="s">
-        <v>481</v>
+        <v>473</v>
       </c>
       <c r="D12" t="s">
         <v>0</v>
@@ -4238,15 +4531,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>112</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>482</v>
+        <v>474</v>
       </c>
       <c r="C13" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="D13" t="s">
         <v>0</v>
@@ -4293,15 +4586,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>113</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>484</v>
+        <v>476</v>
       </c>
       <c r="C14" t="s">
-        <v>485</v>
+        <v>477</v>
       </c>
       <c r="D14" t="s">
         <v>0</v>
@@ -4348,36 +4641,36 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>114</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>486</v>
+        <v>478</v>
       </c>
       <c r="C15" t="s">
-        <v>487</v>
+        <v>479</v>
       </c>
       <c r="D15" t="s">
-        <v>488</v>
+        <v>480</v>
       </c>
       <c r="E15" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
       <c r="F15" t="s">
-        <v>489</v>
+        <v>481</v>
       </c>
       <c r="G15" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="H15" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="I15" t="s">
-        <v>490</v>
+        <v>482</v>
       </c>
       <c r="J15" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="K15">
         <v>4507892020</v>
@@ -4404,15 +4697,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>115</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="C16" t="s">
-        <v>492</v>
+        <v>484</v>
       </c>
       <c r="D16" t="s">
         <v>0</v>
@@ -4459,15 +4752,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>116</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>493</v>
+        <v>485</v>
       </c>
       <c r="C17" t="s">
-        <v>494</v>
+        <v>486</v>
       </c>
       <c r="D17" t="s">
         <v>0</v>
@@ -4514,15 +4807,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>117</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>495</v>
+        <v>487</v>
       </c>
       <c r="C18" t="s">
-        <v>496</v>
+        <v>488</v>
       </c>
       <c r="D18" t="s">
         <v>0</v>
@@ -4569,36 +4862,36 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>118</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>497</v>
+        <v>489</v>
       </c>
       <c r="C19" t="s">
-        <v>498</v>
+        <v>490</v>
       </c>
       <c r="D19" t="s">
-        <v>499</v>
+        <v>491</v>
       </c>
       <c r="E19" t="s">
-        <v>500</v>
+        <v>492</v>
       </c>
       <c r="F19" t="s">
-        <v>501</v>
+        <v>493</v>
       </c>
       <c r="G19" t="s">
-        <v>502</v>
+        <v>494</v>
       </c>
       <c r="H19" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="I19" t="s">
-        <v>503</v>
+        <v>495</v>
       </c>
       <c r="J19" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="K19">
         <v>5142325333</v>
@@ -4625,36 +4918,36 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>119</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>504</v>
+        <v>496</v>
       </c>
       <c r="C20" t="s">
-        <v>505</v>
+        <v>497</v>
       </c>
       <c r="D20" t="s">
-        <v>506</v>
+        <v>498</v>
       </c>
       <c r="E20" t="s">
-        <v>507</v>
+        <v>499</v>
       </c>
       <c r="F20" t="s">
-        <v>508</v>
+        <v>500</v>
       </c>
       <c r="G20" t="s">
-        <v>509</v>
+        <v>501</v>
       </c>
       <c r="H20" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="I20" t="s">
-        <v>510</v>
+        <v>502</v>
       </c>
       <c r="J20" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="K20">
         <v>4508934747</v>
@@ -4681,36 +4974,36 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>120</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>511</v>
+        <v>503</v>
       </c>
       <c r="C21" t="s">
-        <v>512</v>
+        <v>504</v>
       </c>
       <c r="D21" t="s">
-        <v>513</v>
+        <v>505</v>
       </c>
       <c r="E21" t="s">
-        <v>514</v>
+        <v>506</v>
       </c>
       <c r="F21" t="s">
-        <v>515</v>
+        <v>507</v>
       </c>
       <c r="G21" t="s">
-        <v>406</v>
+        <v>398</v>
       </c>
       <c r="H21" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="I21" t="s">
-        <v>516</v>
+        <v>508</v>
       </c>
       <c r="J21" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="K21">
         <v>4507382929</v>
@@ -4750,14 +5043,14 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="29" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="66.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="66.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -4768,7 +5061,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1001</v>
       </c>
@@ -4779,7 +5072,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1002</v>
       </c>
@@ -4790,7 +5083,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1003</v>
       </c>
@@ -4801,7 +5094,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1004</v>
       </c>
@@ -4812,7 +5105,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1005</v>
       </c>
@@ -4823,7 +5116,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1006</v>
       </c>
@@ -4834,7 +5127,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>1007</v>
       </c>
@@ -4845,7 +5138,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>1008</v>
       </c>
@@ -4865,31 +5158,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="A19" sqref="A19"/>
-      <selection pane="topRight" activeCell="A69" sqref="A69"/>
+      <selection pane="topRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="46.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="208.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="46.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="208.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.6640625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="17" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -4933,7 +5226,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>1100001</v>
       </c>
@@ -4944,33 +5237,33 @@
         <v>1001</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="H2" s="2">
+        <v>1</v>
+      </c>
+      <c r="I2" s="2">
+        <v>1</v>
+      </c>
+      <c r="J2" s="2" t="str">
+        <f t="shared" ref="J2:M66" si="0">J$1&amp;$A2</f>
+        <v>DateVente1100001</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="L2" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>365</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>410</v>
-      </c>
-      <c r="H2" s="2">
-        <v>1</v>
-      </c>
-      <c r="I2" s="2">
-        <v>1</v>
-      </c>
-      <c r="J2" s="2" t="str">
-        <f t="shared" ref="D2:M66" si="0">J$1&amp;$A2</f>
-        <v>DateVente1100001</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>410</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>239</v>
-      </c>
       <c r="M2" s="2" t="str">
         <f t="shared" si="0"/>
         <v>DateCreation1100001</v>
@@ -4979,7 +5272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>1400001</v>
       </c>
@@ -4990,16 +5283,16 @@
         <v>1001</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>536</v>
+        <v>528</v>
       </c>
       <c r="H3" s="2">
         <v>1</v>
@@ -5012,10 +5305,10 @@
         <v>DateVente1400001</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>536</v>
+        <v>528</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="M3" s="2" t="str">
         <f t="shared" si="0"/>
@@ -5025,7 +5318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>1400002</v>
       </c>
@@ -5036,16 +5329,16 @@
         <v>1001</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>536</v>
+        <v>528</v>
       </c>
       <c r="H4" s="2">
         <v>1</v>
@@ -5058,10 +5351,10 @@
         <v>DateVente1400002</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>536</v>
+        <v>528</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="M4" s="2" t="str">
         <f t="shared" si="0"/>
@@ -5071,7 +5364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>1600001</v>
       </c>
@@ -5082,13 +5375,13 @@
         <v>1001</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>74</v>
@@ -5107,7 +5400,7 @@
         <v>74</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="M5" s="2" t="str">
         <f t="shared" si="0"/>
@@ -5117,7 +5410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="60" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>1600002</v>
       </c>
@@ -5128,16 +5421,16 @@
         <v>1001</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="H6" s="2">
         <v>2</v>
@@ -5150,10 +5443,10 @@
         <v>DateVente1600002</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="M6" s="2" t="str">
         <f t="shared" si="0"/>
@@ -5163,7 +5456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>1600003</v>
       </c>
@@ -5174,16 +5467,16 @@
         <v>1001</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>527</v>
+        <v>519</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>528</v>
+        <v>520</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>529</v>
+        <v>521</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>531</v>
+        <v>523</v>
       </c>
       <c r="H7" s="2">
         <v>5</v>
@@ -5196,10 +5489,10 @@
         <v>DateVente1600003</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>531</v>
+        <v>523</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>530</v>
+        <v>522</v>
       </c>
       <c r="M7" s="2" t="str">
         <f t="shared" si="0"/>
@@ -5209,7 +5502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="120" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>1600004</v>
       </c>
@@ -5220,16 +5513,16 @@
         <v>1001</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="H8" s="2">
         <v>3</v>
@@ -5242,10 +5535,10 @@
         <v>DateVente1600004</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="M8" s="2" t="str">
         <f t="shared" si="0"/>
@@ -5255,7 +5548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="60" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>1600005</v>
       </c>
@@ -5266,16 +5559,16 @@
         <v>1001</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="H9" s="2">
         <v>1</v>
@@ -5288,10 +5581,10 @@
         <v>DateVente1600005</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="M9" s="2" t="str">
         <f t="shared" si="0"/>
@@ -5301,7 +5594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="60" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>1600006</v>
       </c>
@@ -5312,16 +5605,16 @@
         <v>1001</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>532</v>
+        <v>524</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>533</v>
+        <v>525</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>534</v>
+        <v>526</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>535</v>
+        <v>527</v>
       </c>
       <c r="H10" s="2">
         <v>1</v>
@@ -5334,10 +5627,10 @@
         <v>DateVente1600006</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>535</v>
+        <v>527</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="M10" s="2" t="str">
         <f t="shared" si="0"/>
@@ -5347,7 +5640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="60" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>1600007</v>
       </c>
@@ -5358,16 +5651,16 @@
         <v>1001</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="H11" s="2">
         <v>2</v>
@@ -5380,10 +5673,10 @@
         <v>DateVente1600007</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="M11" s="2" t="str">
         <f t="shared" si="0"/>
@@ -5393,7 +5686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" ht="72" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>1200001</v>
       </c>
@@ -5404,16 +5697,16 @@
         <v>1002</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="E12" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="F12" s="2" t="s">
         <v>339</v>
       </c>
-      <c r="F12" s="2" t="s">
-        <v>347</v>
-      </c>
       <c r="G12" s="2" t="s">
-        <v>539</v>
+        <v>531</v>
       </c>
       <c r="H12" s="2">
         <v>1</v>
@@ -5426,10 +5719,10 @@
         <v>DateVente1200005</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>542</v>
+        <v>534</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="M12" s="2" t="str">
         <f t="shared" si="0"/>
@@ -5439,7 +5732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>1200002</v>
       </c>
@@ -5450,16 +5743,16 @@
         <v>1002</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="H13" s="2">
         <v>2</v>
@@ -5472,10 +5765,10 @@
         <v>DateVente1200006</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="M13" s="2" t="str">
         <f t="shared" si="0"/>
@@ -5485,7 +5778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>1200003</v>
       </c>
@@ -5496,16 +5789,16 @@
         <v>1002</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="H14" s="2">
         <v>1</v>
@@ -5518,10 +5811,10 @@
         <v>DateVente1200007</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="M14" s="2" t="str">
         <f t="shared" si="0"/>
@@ -5531,7 +5824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>1200004</v>
       </c>
@@ -5542,16 +5835,16 @@
         <v>1002</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>540</v>
+        <v>532</v>
       </c>
       <c r="H15" s="2">
         <v>1</v>
@@ -5564,10 +5857,10 @@
         <v>DateVente1200008</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>540</v>
+        <v>532</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="M15" s="2" t="str">
         <f t="shared" si="0"/>
@@ -5577,7 +5870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>1200005</v>
       </c>
@@ -5588,16 +5881,16 @@
         <v>1002</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>541</v>
+        <v>533</v>
       </c>
       <c r="H16" s="2">
         <v>1</v>
@@ -5610,10 +5903,10 @@
         <v>DateVente1200009</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>541</v>
+        <v>533</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="M16" s="2" t="str">
         <f t="shared" si="0"/>
@@ -5623,7 +5916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>1200006</v>
       </c>
@@ -5634,16 +5927,16 @@
         <v>1002</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>564</v>
+        <v>556</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>565</v>
+        <v>557</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>566</v>
+        <v>558</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>567</v>
+        <v>559</v>
       </c>
       <c r="H17" s="2">
         <v>1</v>
@@ -5656,10 +5949,10 @@
         <v>DateVente1200006</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>567</v>
+        <v>559</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>568</v>
+        <v>560</v>
       </c>
       <c r="M17" s="2" t="str">
         <f>M$1&amp;$A10</f>
@@ -5669,7 +5962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>1200007</v>
       </c>
@@ -5680,16 +5973,16 @@
         <v>1002</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>569</v>
+        <v>561</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>570</v>
+        <v>562</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>571</v>
+        <v>563</v>
       </c>
       <c r="H18" s="2">
         <v>1</v>
@@ -5702,10 +5995,10 @@
         <v>DateVente1200007</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>571</v>
+        <v>563</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>572</v>
+        <v>564</v>
       </c>
       <c r="M18" s="2" t="str">
         <f>M$1&amp;$A17</f>
@@ -5715,7 +6008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>1200008</v>
       </c>
@@ -5726,16 +6019,16 @@
         <v>1002</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>573</v>
+        <v>565</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>575</v>
+        <v>567</v>
       </c>
       <c r="H19" s="2">
         <v>1</v>
@@ -5748,10 +6041,10 @@
         <v>DateVente1200008</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>575</v>
+        <v>567</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>576</v>
+        <v>568</v>
       </c>
       <c r="M19" s="2" t="str">
         <f>M$1&amp;$A18</f>
@@ -5761,7 +6054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>1200009</v>
       </c>
@@ -5772,16 +6065,16 @@
         <v>1002</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>577</v>
+        <v>569</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>578</v>
+        <v>570</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>579</v>
+        <v>571</v>
       </c>
       <c r="H20" s="2">
         <v>1</v>
@@ -5794,10 +6087,10 @@
         <v>DateVente1200009</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>579</v>
+        <v>571</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>580</v>
+        <v>572</v>
       </c>
       <c r="M20" s="2" t="str">
         <f>M$1&amp;$A19</f>
@@ -5807,7 +6100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>1200010</v>
       </c>
@@ -5818,16 +6111,16 @@
         <v>1002</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>581</v>
+        <v>573</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>582</v>
+        <v>574</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>583</v>
+        <v>575</v>
       </c>
       <c r="H21" s="2">
         <v>1</v>
@@ -5840,10 +6133,10 @@
         <v>DateVente1200010</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>583</v>
+        <v>575</v>
       </c>
       <c r="L21" s="2" t="s">
-        <v>584</v>
+        <v>576</v>
       </c>
       <c r="M21" s="2" t="str">
         <f>M$1&amp;$A20</f>
@@ -5853,7 +6146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>1200011</v>
       </c>
@@ -5864,16 +6157,16 @@
         <v>1002</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>585</v>
+        <v>577</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>586</v>
+        <v>578</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>588</v>
+        <v>580</v>
       </c>
       <c r="H22" s="2">
         <v>4</v>
@@ -5886,10 +6179,10 @@
         <v>DateVente1200011</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>588</v>
+        <v>580</v>
       </c>
       <c r="L22" s="2" t="s">
-        <v>587</v>
+        <v>579</v>
       </c>
       <c r="M22" s="2" t="str">
         <f>M$1&amp;$A21</f>
@@ -5899,7 +6192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>1200012</v>
       </c>
@@ -5910,16 +6203,16 @@
         <v>1002</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>589</v>
+        <v>581</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>590</v>
+        <v>582</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>591</v>
+        <v>583</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>592</v>
+        <v>584</v>
       </c>
       <c r="H23" s="2">
         <v>1</v>
@@ -5932,10 +6225,10 @@
         <v>DateVente1200012</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>592</v>
+        <v>584</v>
       </c>
       <c r="L23" s="2" t="s">
-        <v>593</v>
+        <v>585</v>
       </c>
       <c r="M23" s="2" t="str">
         <f t="shared" si="0"/>
@@ -5945,7 +6238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>1400003</v>
       </c>
@@ -5956,16 +6249,16 @@
         <v>1002</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>598</v>
+        <v>590</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>599</v>
+        <v>591</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>600</v>
+        <v>592</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>537</v>
+        <v>529</v>
       </c>
       <c r="H24" s="2">
         <v>1</v>
@@ -5978,10 +6271,10 @@
         <v>DateVente1400003</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>537</v>
+        <v>529</v>
       </c>
       <c r="L24" s="2" t="s">
-        <v>601</v>
+        <v>593</v>
       </c>
       <c r="M24" s="2" t="str">
         <f t="shared" si="0"/>
@@ -5991,7 +6284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>1600008</v>
       </c>
@@ -6002,16 +6295,16 @@
         <v>1002</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
       <c r="H25" s="2">
         <v>1</v>
@@ -6024,10 +6317,10 @@
         <v>DateVente1600008</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
       <c r="L25" s="2" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="M25" s="2" t="str">
         <f t="shared" si="0"/>
@@ -6037,7 +6330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:14" ht="75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" ht="72" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>1600009</v>
       </c>
@@ -6048,16 +6341,16 @@
         <v>1002</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="H26" s="2">
         <v>2</v>
@@ -6070,10 +6363,10 @@
         <v>DateVente1600009</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="L26" s="2" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="M26" s="2" t="str">
         <f t="shared" si="0"/>
@@ -6083,7 +6376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>1600010</v>
       </c>
@@ -6094,16 +6387,16 @@
         <v>1002</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>537</v>
+        <v>529</v>
       </c>
       <c r="H27" s="2">
         <v>1</v>
@@ -6116,10 +6409,10 @@
         <v>DateVente1600010</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>537</v>
+        <v>529</v>
       </c>
       <c r="L27" s="2" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="M27" s="2" t="str">
         <f t="shared" si="0"/>
@@ -6129,7 +6422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>1600011</v>
       </c>
@@ -6140,16 +6433,16 @@
         <v>1002</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
       <c r="H28" s="2">
         <v>1</v>
@@ -6162,10 +6455,10 @@
         <v>DateVente1600011</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
       <c r="L28" s="2" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="M28" s="2" t="str">
         <f t="shared" si="0"/>
@@ -6175,7 +6468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>1600012</v>
       </c>
@@ -6186,16 +6479,16 @@
         <v>1002</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>401</v>
+        <v>393</v>
       </c>
       <c r="H29" s="2">
         <v>1</v>
@@ -6208,10 +6501,10 @@
         <v>DateVente1600012</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>401</v>
+        <v>393</v>
       </c>
       <c r="L29" s="2" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="M29" s="2" t="str">
         <f t="shared" si="0"/>
@@ -6221,7 +6514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:14" ht="75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" ht="72" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>1600013</v>
       </c>
@@ -6232,16 +6525,16 @@
         <v>1002</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="H30" s="2">
         <v>1</v>
@@ -6254,10 +6547,10 @@
         <v>DateVente1600013</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="L30" s="2" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="M30" s="2" t="str">
         <f t="shared" si="0"/>
@@ -6267,7 +6560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>1100002</v>
       </c>
@@ -6278,33 +6571,33 @@
         <v>1003</v>
       </c>
       <c r="D31" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="E31" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="E31" s="2" t="s">
+      <c r="F31" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>536</v>
+      </c>
+      <c r="H31" s="2">
+        <v>1</v>
+      </c>
+      <c r="I31" s="2">
+        <v>1</v>
+      </c>
+      <c r="J31" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>DateVente1100002</v>
+      </c>
+      <c r="K31" s="2" t="s">
+        <v>536</v>
+      </c>
+      <c r="L31" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="F31" s="2" t="s">
-        <v>369</v>
-      </c>
-      <c r="G31" s="2" t="s">
-        <v>544</v>
-      </c>
-      <c r="H31" s="2">
-        <v>1</v>
-      </c>
-      <c r="I31" s="2">
-        <v>1</v>
-      </c>
-      <c r="J31" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>DateVente1100002</v>
-      </c>
-      <c r="K31" s="2" t="s">
-        <v>544</v>
-      </c>
-      <c r="L31" s="2" t="s">
-        <v>242</v>
-      </c>
       <c r="M31" s="2" t="str">
         <f t="shared" si="0"/>
         <v>DateCreation1100002</v>
@@ -6313,7 +6606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <v>1100003</v>
       </c>
@@ -6324,16 +6617,16 @@
         <v>1003</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>545</v>
+        <v>537</v>
       </c>
       <c r="H32" s="2">
         <v>1</v>
@@ -6346,10 +6639,10 @@
         <v>DateVente1100003</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>545</v>
+        <v>537</v>
       </c>
       <c r="L32" s="2" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="M32" s="2" t="str">
         <f t="shared" si="0"/>
@@ -6359,7 +6652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <v>1100004</v>
       </c>
@@ -6370,13 +6663,13 @@
         <v>1003</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="G33" s="2" t="s">
         <v>74</v>
@@ -6395,7 +6688,7 @@
         <v>74</v>
       </c>
       <c r="L33" s="2" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="M33" s="2" t="str">
         <f t="shared" si="0"/>
@@ -6405,7 +6698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <v>1100005</v>
       </c>
@@ -6416,13 +6709,13 @@
         <v>1003</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="G34" s="2" t="s">
         <v>74</v>
@@ -6441,7 +6734,7 @@
         <v>74</v>
       </c>
       <c r="L34" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="M34" s="2" t="str">
         <f t="shared" si="0"/>
@@ -6451,7 +6744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
         <v>1100006</v>
       </c>
@@ -6462,16 +6755,16 @@
         <v>1003</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>554</v>
+        <v>546</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>546</v>
+        <v>538</v>
       </c>
       <c r="H35" s="2">
         <v>1</v>
@@ -6484,10 +6777,10 @@
         <v>DateVente1100006</v>
       </c>
       <c r="K35" s="2" t="s">
-        <v>546</v>
+        <v>538</v>
       </c>
       <c r="L35" s="2" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="M35" s="2" t="str">
         <f t="shared" si="0"/>
@@ -6497,7 +6790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <v>1600014</v>
       </c>
@@ -6508,16 +6801,16 @@
         <v>1003</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>547</v>
+        <v>539</v>
       </c>
       <c r="H36" s="2">
         <v>1</v>
@@ -6530,10 +6823,10 @@
         <v>DateVente1600014</v>
       </c>
       <c r="K36" s="2" t="s">
-        <v>547</v>
+        <v>539</v>
       </c>
       <c r="L36" s="2" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="M36" s="2" t="str">
         <f t="shared" si="0"/>
@@ -6543,7 +6836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
         <v>1600015</v>
       </c>
@@ -6554,16 +6847,16 @@
         <v>1003</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>410</v>
+        <v>402</v>
       </c>
       <c r="H37" s="2">
         <v>1</v>
@@ -6576,10 +6869,10 @@
         <v>DateVente1600015</v>
       </c>
       <c r="K37" s="2" t="s">
-        <v>410</v>
+        <v>402</v>
       </c>
       <c r="L37" s="2" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="M37" s="2" t="str">
         <f t="shared" si="0"/>
@@ -6589,7 +6882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
         <v>1600016</v>
       </c>
@@ -6600,16 +6893,16 @@
         <v>1003</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>555</v>
+        <v>547</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>562</v>
+        <v>554</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>560</v>
+        <v>552</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>558</v>
+        <v>550</v>
       </c>
       <c r="H38" s="2">
         <v>1</v>
@@ -6621,10 +6914,10 @@
         <v>43496.999988425923</v>
       </c>
       <c r="K38" s="2" t="s">
-        <v>559</v>
+        <v>551</v>
       </c>
       <c r="L38" s="2" t="s">
-        <v>519</v>
+        <v>511</v>
       </c>
       <c r="M38" s="2" t="str">
         <f t="shared" si="0"/>
@@ -6634,7 +6927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
         <v>1600017</v>
       </c>
@@ -6645,16 +6938,16 @@
         <v>1003</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>556</v>
+        <v>548</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>563</v>
+        <v>555</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>561</v>
+        <v>553</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>557</v>
+        <v>549</v>
       </c>
       <c r="H39" s="2">
         <v>1</v>
@@ -6667,10 +6960,10 @@
         <v>DateVente1600017</v>
       </c>
       <c r="K39" s="2" t="s">
-        <v>557</v>
+        <v>549</v>
       </c>
       <c r="L39" s="2" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="M39" s="2" t="str">
         <f t="shared" si="0"/>
@@ -6680,7 +6973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
         <v>1100007</v>
       </c>
@@ -6691,33 +6984,33 @@
         <v>1004</v>
       </c>
       <c r="D40" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="E40" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="E40" s="2" t="s">
+      <c r="F40" s="2" t="s">
+        <v>597</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>535</v>
+      </c>
+      <c r="H40" s="2">
+        <v>1</v>
+      </c>
+      <c r="I40" s="2">
+        <v>1</v>
+      </c>
+      <c r="J40" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>DateVente1100007</v>
+      </c>
+      <c r="K40" s="2" t="s">
+        <v>535</v>
+      </c>
+      <c r="L40" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="F40" s="2" t="s">
-        <v>605</v>
-      </c>
-      <c r="G40" s="2" t="s">
-        <v>543</v>
-      </c>
-      <c r="H40" s="2">
-        <v>1</v>
-      </c>
-      <c r="I40" s="2">
-        <v>1</v>
-      </c>
-      <c r="J40" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>DateVente1100007</v>
-      </c>
-      <c r="K40" s="2" t="s">
-        <v>543</v>
-      </c>
-      <c r="L40" s="2" t="s">
-        <v>236</v>
-      </c>
       <c r="M40" s="2" t="str">
         <f t="shared" si="0"/>
         <v>DateCreation1100007</v>
@@ -6726,7 +7019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A41" s="2">
         <v>1100008</v>
       </c>
@@ -6737,16 +7030,16 @@
         <v>1004</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>609</v>
+        <v>601</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>610</v>
+        <v>602</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>611</v>
+        <v>603</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>612</v>
+        <v>604</v>
       </c>
       <c r="H41" s="2">
         <v>1</v>
@@ -6759,10 +7052,10 @@
         <v>DateVente1100008</v>
       </c>
       <c r="K41" s="2" t="s">
-        <v>612</v>
+        <v>604</v>
       </c>
       <c r="L41" s="2" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="M41" s="2" t="str">
         <f t="shared" si="0"/>
@@ -6772,7 +7065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:14" ht="90" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:14" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A42" s="2">
         <v>1100009</v>
       </c>
@@ -6783,16 +7076,16 @@
         <v>1004</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>613</v>
+        <v>605</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>614</v>
+        <v>606</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>615</v>
+        <v>607</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>617</v>
+        <v>609</v>
       </c>
       <c r="H42" s="2">
         <v>1</v>
@@ -6805,10 +7098,10 @@
         <v>DateVente1100009</v>
       </c>
       <c r="K42" s="2" t="s">
-        <v>617</v>
+        <v>609</v>
       </c>
       <c r="L42" s="2" t="s">
-        <v>616</v>
+        <v>608</v>
       </c>
       <c r="M42" s="2" t="str">
         <f t="shared" si="0"/>
@@ -6818,7 +7111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A43" s="2">
         <v>1400004</v>
       </c>
@@ -6829,16 +7122,16 @@
         <v>1004</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>606</v>
+        <v>598</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>548</v>
+        <v>540</v>
       </c>
       <c r="H43" s="2">
         <v>1</v>
@@ -6851,10 +7144,10 @@
         <v>DateVente1100007</v>
       </c>
       <c r="K43" s="2" t="s">
-        <v>548</v>
+        <v>540</v>
       </c>
       <c r="L43" s="2" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="M43" s="2" t="str">
         <f t="shared" si="0"/>
@@ -6864,7 +7157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A44" s="2">
         <v>1400005</v>
       </c>
@@ -6875,16 +7168,16 @@
         <v>1004</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>607</v>
+        <v>599</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>549</v>
+        <v>541</v>
       </c>
       <c r="H44" s="2">
         <v>1</v>
@@ -6897,10 +7190,10 @@
         <v>DateVente1100008</v>
       </c>
       <c r="K44" s="2" t="s">
-        <v>549</v>
+        <v>541</v>
       </c>
       <c r="L44" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="M44" s="2" t="str">
         <f t="shared" si="0"/>
@@ -6910,7 +7203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A45" s="2">
         <v>1400006</v>
       </c>
@@ -6921,16 +7214,16 @@
         <v>1004</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>546</v>
+        <v>538</v>
       </c>
       <c r="H45" s="2">
         <v>1</v>
@@ -6943,10 +7236,10 @@
         <v>DateVente1100009</v>
       </c>
       <c r="K45" s="2" t="s">
-        <v>546</v>
+        <v>538</v>
       </c>
       <c r="L45" s="2" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="M45" s="2" t="str">
         <f t="shared" si="0"/>
@@ -6956,7 +7249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A46" s="2">
         <v>1400007</v>
       </c>
@@ -6967,16 +7260,16 @@
         <v>1004</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>621</v>
+        <v>613</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>622</v>
+        <v>614</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>623</v>
+        <v>615</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
       <c r="H46" s="2">
         <v>1</v>
@@ -6989,10 +7282,10 @@
         <v>DateVente1400007</v>
       </c>
       <c r="K46" s="2" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
       <c r="L46" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="M46" s="2" t="str">
         <f t="shared" si="0"/>
@@ -7002,7 +7295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A47" s="2">
         <v>1600018</v>
       </c>
@@ -7013,16 +7306,16 @@
         <v>1004</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>624</v>
+        <v>616</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>625</v>
+        <v>617</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>627</v>
+        <v>619</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>626</v>
+        <v>618</v>
       </c>
       <c r="H47" s="2">
         <v>1</v>
@@ -7035,10 +7328,10 @@
         <v>DateVente1600018</v>
       </c>
       <c r="K47" s="2" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="L47" s="2" t="s">
-        <v>530</v>
+        <v>522</v>
       </c>
       <c r="M47" s="2" t="str">
         <f t="shared" si="0"/>
@@ -7048,7 +7341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A48" s="2">
         <v>1600019</v>
       </c>
@@ -7059,16 +7352,16 @@
         <v>1004</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>628</v>
+        <v>620</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>629</v>
+        <v>621</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>630</v>
+        <v>622</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>632</v>
+        <v>624</v>
       </c>
       <c r="H48" s="2">
         <v>1</v>
@@ -7081,10 +7374,10 @@
         <v>DateVente1600019</v>
       </c>
       <c r="K48" s="2" t="s">
-        <v>633</v>
+        <v>625</v>
       </c>
       <c r="L48" s="2" t="s">
-        <v>631</v>
+        <v>623</v>
       </c>
       <c r="M48" s="2" t="str">
         <f t="shared" si="0"/>
@@ -7094,7 +7387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A49" s="2">
         <v>1600020</v>
       </c>
@@ -7105,16 +7398,16 @@
         <v>1004</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>634</v>
+        <v>626</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>635</v>
+        <v>627</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>637</v>
+        <v>629</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>638</v>
+        <v>630</v>
       </c>
       <c r="H49" s="2">
         <v>1</v>
@@ -7127,10 +7420,10 @@
         <v>DateVente1600020</v>
       </c>
       <c r="K49" s="2" t="s">
-        <v>639</v>
+        <v>631</v>
       </c>
       <c r="L49" s="2" t="s">
-        <v>636</v>
+        <v>628</v>
       </c>
       <c r="M49" s="2" t="str">
         <f t="shared" si="0"/>
@@ -7140,7 +7433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A50" s="2">
         <v>1600021</v>
       </c>
@@ -7151,16 +7444,16 @@
         <v>1004</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>640</v>
+        <v>632</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>641</v>
+        <v>633</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>643</v>
+        <v>635</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>644</v>
+        <v>636</v>
       </c>
       <c r="H50" s="2">
         <v>1</v>
@@ -7173,10 +7466,10 @@
         <v>DateVente1600021</v>
       </c>
       <c r="K50" s="2" t="s">
-        <v>645</v>
+        <v>637</v>
       </c>
       <c r="L50" s="2" t="s">
-        <v>642</v>
+        <v>634</v>
       </c>
       <c r="M50" s="2" t="str">
         <f t="shared" si="0"/>
@@ -7186,7 +7479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A51" s="2">
         <v>1600022</v>
       </c>
@@ -7197,16 +7490,16 @@
         <v>1004</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>646</v>
+        <v>638</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>647</v>
+        <v>639</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>649</v>
+        <v>641</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="H51" s="2">
         <v>1</v>
@@ -7219,10 +7512,10 @@
         <v>DateVente1600022</v>
       </c>
       <c r="K51" s="2" t="s">
-        <v>648</v>
+        <v>640</v>
       </c>
       <c r="L51" s="2" t="s">
-        <v>587</v>
+        <v>579</v>
       </c>
       <c r="M51" s="2" t="str">
         <f t="shared" si="0"/>
@@ -7232,7 +7525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A52" s="2">
         <v>1600023</v>
       </c>
@@ -7243,16 +7536,16 @@
         <v>1004</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>651</v>
+        <v>643</v>
       </c>
       <c r="E52" s="2" t="s">
+        <v>642</v>
+      </c>
+      <c r="F52" s="2" t="s">
         <v>650</v>
       </c>
-      <c r="F52" s="2" t="s">
-        <v>658</v>
-      </c>
       <c r="G52" s="2" t="s">
-        <v>653</v>
+        <v>645</v>
       </c>
       <c r="H52" s="2">
         <v>1</v>
@@ -7265,10 +7558,10 @@
         <v>DateVente1600023</v>
       </c>
       <c r="K52" s="2" t="s">
-        <v>654</v>
+        <v>646</v>
       </c>
       <c r="L52" s="2" t="s">
-        <v>652</v>
+        <v>644</v>
       </c>
       <c r="M52" s="2" t="str">
         <f t="shared" si="0"/>
@@ -7278,7 +7571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A53" s="2">
         <v>1600024</v>
       </c>
@@ -7289,16 +7582,16 @@
         <v>1004</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>656</v>
+        <v>648</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>657</v>
+        <v>649</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>655</v>
+        <v>647</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>660</v>
+        <v>652</v>
       </c>
       <c r="H53" s="2">
         <v>2</v>
@@ -7311,10 +7604,10 @@
         <v>DateVente1600024</v>
       </c>
       <c r="K53" s="2" t="s">
-        <v>661</v>
+        <v>653</v>
       </c>
       <c r="L53" s="2" t="s">
-        <v>659</v>
+        <v>651</v>
       </c>
       <c r="M53" s="2" t="str">
         <f t="shared" si="0"/>
@@ -7324,7 +7617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A54" s="2">
         <v>1600025</v>
       </c>
@@ -7335,16 +7628,16 @@
         <v>1004</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>663</v>
+        <v>655</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>662</v>
+        <v>654</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>668</v>
+        <v>660</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="H54" s="2">
         <v>1</v>
@@ -7357,10 +7650,10 @@
         <v>DateVente1600025</v>
       </c>
       <c r="K54" s="2" t="s">
-        <v>665</v>
+        <v>657</v>
       </c>
       <c r="L54" s="2" t="s">
-        <v>664</v>
+        <v>656</v>
       </c>
       <c r="M54" s="2" t="str">
         <f t="shared" si="0"/>
@@ -7370,7 +7663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A55" s="2">
         <v>1100010</v>
       </c>
@@ -7381,16 +7674,16 @@
         <v>1005</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>666</v>
+        <v>658</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>667</v>
+        <v>659</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>669</v>
+        <v>661</v>
       </c>
       <c r="H55" s="2">
         <v>2</v>
@@ -7403,10 +7696,10 @@
         <v>DateVente1100010</v>
       </c>
       <c r="K55" s="2" t="s">
-        <v>669</v>
+        <v>661</v>
       </c>
       <c r="L55" s="2" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="M55" s="2" t="str">
         <f t="shared" si="0"/>
@@ -7416,7 +7709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A56" s="2">
         <v>1100011</v>
       </c>
@@ -7427,16 +7720,16 @@
         <v>1005</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>670</v>
+        <v>662</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>671</v>
+        <v>663</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>672</v>
+        <v>664</v>
       </c>
       <c r="H56" s="2">
         <v>1</v>
@@ -7449,10 +7742,10 @@
         <v>DateVente1100011</v>
       </c>
       <c r="K56" s="2" t="s">
-        <v>672</v>
+        <v>664</v>
       </c>
       <c r="L56" s="2" t="s">
-        <v>659</v>
+        <v>651</v>
       </c>
       <c r="M56" s="2" t="str">
         <f t="shared" si="0"/>
@@ -7462,7 +7755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A57" s="2">
         <v>1100012</v>
       </c>
@@ -7473,16 +7766,16 @@
         <v>1005</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>673</v>
+        <v>665</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>674</v>
+        <v>666</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>676</v>
+        <v>668</v>
       </c>
       <c r="H57" s="2">
         <v>1</v>
@@ -7495,10 +7788,10 @@
         <v>DateVente1100012</v>
       </c>
       <c r="K57" s="2" t="s">
-        <v>676</v>
+        <v>668</v>
       </c>
       <c r="L57" s="2" t="s">
-        <v>675</v>
+        <v>667</v>
       </c>
       <c r="M57" s="2" t="str">
         <f t="shared" si="0"/>
@@ -7508,7 +7801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A58" s="2">
         <v>1100013</v>
       </c>
@@ -7519,16 +7812,16 @@
         <v>1005</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>677</v>
+        <v>669</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>678</v>
+        <v>670</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>679</v>
+        <v>671</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>680</v>
+        <v>672</v>
       </c>
       <c r="H58" s="2">
         <v>1</v>
@@ -7541,10 +7834,10 @@
         <v>DateVente1100013</v>
       </c>
       <c r="K58" s="2" t="s">
-        <v>681</v>
+        <v>673</v>
       </c>
       <c r="L58" s="2" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="M58" s="2" t="str">
         <f t="shared" si="0"/>
@@ -7554,7 +7847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A59" s="2">
         <v>1200013</v>
       </c>
@@ -7565,16 +7858,16 @@
         <v>1005</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>594</v>
+        <v>586</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>595</v>
+        <v>587</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>597</v>
+        <v>589</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>596</v>
+        <v>588</v>
       </c>
       <c r="H59" s="2">
         <v>10</v>
@@ -7587,10 +7880,10 @@
         <v>DateVente1200013</v>
       </c>
       <c r="K59" s="2" t="s">
-        <v>596</v>
+        <v>588</v>
       </c>
       <c r="L59" s="2" t="s">
-        <v>519</v>
+        <v>511</v>
       </c>
       <c r="M59" s="2" t="str">
         <f t="shared" si="0"/>
@@ -7600,7 +7893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A60" s="2">
         <v>1400008</v>
       </c>
@@ -7611,16 +7904,16 @@
         <v>1005</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>618</v>
+        <v>610</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>544</v>
+        <v>536</v>
       </c>
       <c r="H60" s="2">
         <v>1</v>
@@ -7633,10 +7926,10 @@
         <v>DateVente1100011</v>
       </c>
       <c r="K60" s="2" t="s">
-        <v>544</v>
+        <v>536</v>
       </c>
       <c r="L60" s="2" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="M60" s="2" t="str">
         <f t="shared" si="0"/>
@@ -7646,7 +7939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A61" s="2">
         <v>1400009</v>
       </c>
@@ -7657,16 +7950,16 @@
         <v>1005</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>619</v>
+        <v>611</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>410</v>
+        <v>402</v>
       </c>
       <c r="H61" s="2">
         <v>1</v>
@@ -7679,10 +7972,10 @@
         <v>DateVente1100012</v>
       </c>
       <c r="K61" s="2" t="s">
-        <v>410</v>
+        <v>402</v>
       </c>
       <c r="L61" s="2" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="M61" s="2" t="str">
         <f t="shared" si="0"/>
@@ -7692,7 +7985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A62" s="2">
         <v>1600026</v>
       </c>
@@ -7703,16 +7996,16 @@
         <v>1005</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>706</v>
+        <v>698</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>707</v>
+        <v>699</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>620</v>
+        <v>612</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>708</v>
+        <v>700</v>
       </c>
       <c r="H62" s="2">
         <v>5</v>
@@ -7725,10 +8018,10 @@
         <v>DateVente1100010</v>
       </c>
       <c r="K62" s="2" t="s">
-        <v>708</v>
+        <v>700</v>
       </c>
       <c r="L62" s="2" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="M62" s="2" t="str">
         <f t="shared" si="0"/>
@@ -7738,7 +8031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A63" s="2">
         <v>1600027</v>
       </c>
@@ -7749,16 +8042,16 @@
         <v>1005</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>682</v>
+        <v>674</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>683</v>
+        <v>675</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>685</v>
+        <v>677</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>684</v>
+        <v>676</v>
       </c>
       <c r="H63" s="2">
         <v>2</v>
@@ -7771,10 +8064,10 @@
         <v>DateVente1600027</v>
       </c>
       <c r="K63" s="2" t="s">
-        <v>684</v>
+        <v>676</v>
       </c>
       <c r="L63" s="2" t="s">
-        <v>519</v>
+        <v>511</v>
       </c>
       <c r="M63" s="2" t="str">
         <f t="shared" si="0"/>
@@ -7784,7 +8077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A64" s="2">
         <v>1600028</v>
       </c>
@@ -7795,16 +8088,16 @@
         <v>1005</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>686</v>
+        <v>678</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>687</v>
+        <v>679</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>689</v>
+        <v>681</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>688</v>
+        <v>680</v>
       </c>
       <c r="H64" s="2">
         <v>2</v>
@@ -7817,10 +8110,10 @@
         <v>DateVente1600028</v>
       </c>
       <c r="K64" s="2" t="s">
-        <v>688</v>
+        <v>680</v>
       </c>
       <c r="L64" s="2" t="s">
-        <v>519</v>
+        <v>511</v>
       </c>
       <c r="M64" s="2" t="str">
         <f t="shared" si="0"/>
@@ -7830,7 +8123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A65" s="2">
         <v>1600029</v>
       </c>
@@ -7841,16 +8134,16 @@
         <v>1005</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>690</v>
+        <v>682</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>691</v>
+        <v>683</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>693</v>
+        <v>685</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>692</v>
+        <v>684</v>
       </c>
       <c r="H65" s="2">
         <v>2</v>
@@ -7863,10 +8156,10 @@
         <v>DateVente1600029</v>
       </c>
       <c r="K65" s="2" t="s">
-        <v>692</v>
+        <v>684</v>
       </c>
       <c r="L65" s="2" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="M65" s="2" t="str">
         <f t="shared" si="0"/>
@@ -7876,7 +8169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A66" s="2">
         <v>1600030</v>
       </c>
@@ -7887,16 +8180,16 @@
         <v>1005</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>694</v>
+        <v>686</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>695</v>
+        <v>687</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>697</v>
+        <v>689</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>696</v>
+        <v>688</v>
       </c>
       <c r="H66" s="2">
         <v>5</v>
@@ -7909,10 +8202,10 @@
         <v>DateVente1600030</v>
       </c>
       <c r="K66" s="2" t="s">
-        <v>696</v>
+        <v>688</v>
       </c>
       <c r="L66" s="2" t="s">
-        <v>519</v>
+        <v>511</v>
       </c>
       <c r="M66" s="2" t="str">
         <f t="shared" si="0"/>
@@ -7922,7 +8215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A67" s="2">
         <v>1600031</v>
       </c>
@@ -7933,16 +8226,16 @@
         <v>1005</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>698</v>
+        <v>690</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>699</v>
+        <v>691</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>701</v>
+        <v>693</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>700</v>
+        <v>692</v>
       </c>
       <c r="H67" s="2">
         <v>2</v>
@@ -7955,10 +8248,10 @@
         <v>DateVente1600031</v>
       </c>
       <c r="K67" s="2" t="s">
-        <v>700</v>
+        <v>692</v>
       </c>
       <c r="L67" s="2" t="s">
-        <v>519</v>
+        <v>511</v>
       </c>
       <c r="M67" s="2" t="str">
         <f t="shared" ref="D67:M105" si="3">M$1&amp;$A67</f>
@@ -7968,7 +8261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A68" s="2">
         <v>1600032</v>
       </c>
@@ -7979,16 +8272,16 @@
         <v>1005</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>702</v>
+        <v>694</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>703</v>
+        <v>695</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>705</v>
+        <v>697</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>704</v>
+        <v>696</v>
       </c>
       <c r="H68" s="2">
         <v>10</v>
@@ -8001,10 +8294,10 @@
         <v>DateVente1600032</v>
       </c>
       <c r="K68" s="2" t="s">
-        <v>704</v>
+        <v>696</v>
       </c>
       <c r="L68" s="2" t="s">
-        <v>519</v>
+        <v>511</v>
       </c>
       <c r="M68" s="2" t="str">
         <f t="shared" si="3"/>
@@ -8014,7 +8307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A69" s="2">
         <v>1100014</v>
       </c>
@@ -8025,16 +8318,16 @@
         <v>1006</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>253</v>
+        <v>701</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>254</v>
+        <v>702</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>550</v>
+        <v>534</v>
       </c>
       <c r="H69" s="2">
         <v>1</v>
@@ -8043,14 +8336,14 @@
         <v>1</v>
       </c>
       <c r="J69" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>DateVente1100014</v>
+        <f>J$1&amp;$A70</f>
+        <v>DateVente1100015</v>
       </c>
       <c r="K69" s="2" t="s">
-        <v>550</v>
+        <v>534</v>
       </c>
       <c r="L69" s="2" t="s">
-        <v>255</v>
+        <v>704</v>
       </c>
       <c r="M69" s="2" t="str">
         <f t="shared" si="3"/>
@@ -8060,7 +8353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A70" s="2">
         <v>1100015</v>
       </c>
@@ -8070,41 +8363,33 @@
       <c r="C70" s="2">
         <v>1006</v>
       </c>
-      <c r="D70" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>Nom1100015</v>
-      </c>
-      <c r="E70" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>Description1100015</v>
-      </c>
-      <c r="F70" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>Photo1100015</v>
-      </c>
-      <c r="G70" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>PrixDemande1100015</v>
-      </c>
-      <c r="H70" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>NombreItems1100015</v>
-      </c>
-      <c r="I70" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>Disponibilité1100015</v>
+      <c r="D70" s="2" t="s">
+        <v>705</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="F70" s="2" t="s">
+        <v>703</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>584</v>
+      </c>
+      <c r="H70" s="2">
+        <v>1</v>
+      </c>
+      <c r="I70" s="2">
+        <v>1</v>
       </c>
       <c r="J70" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>DateVente1100015</v>
-      </c>
-      <c r="K70" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>PrixVente1100015</v>
-      </c>
-      <c r="L70" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>Poids1100015</v>
+        <f>J$1&amp;$A71</f>
+        <v>DateVente1100016</v>
+      </c>
+      <c r="K70" s="2" t="s">
+        <v>584</v>
+      </c>
+      <c r="L70" s="2" t="s">
+        <v>707</v>
       </c>
       <c r="M70" s="2" t="str">
         <f t="shared" si="3"/>
@@ -8114,7 +8399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A71" s="2">
         <v>1100016</v>
       </c>
@@ -8124,41 +8409,33 @@
       <c r="C71" s="2">
         <v>1006</v>
       </c>
-      <c r="D71" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>Nom1100016</v>
-      </c>
-      <c r="E71" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>Description1100016</v>
-      </c>
-      <c r="F71" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>Photo1100016</v>
-      </c>
-      <c r="G71" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>PrixDemande1100016</v>
-      </c>
-      <c r="H71" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>NombreItems1100016</v>
-      </c>
-      <c r="I71" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>Disponibilité1100016</v>
+      <c r="D71" s="2" t="s">
+        <v>728</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>729</v>
+      </c>
+      <c r="F71" s="2" t="s">
+        <v>708</v>
+      </c>
+      <c r="G71" s="2" t="s">
+        <v>730</v>
+      </c>
+      <c r="H71" s="2">
+        <v>1</v>
+      </c>
+      <c r="I71" s="2">
+        <v>1</v>
       </c>
       <c r="J71" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>DateVente1100016</v>
-      </c>
-      <c r="K71" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>PrixVente1100016</v>
-      </c>
-      <c r="L71" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>Poids1100016</v>
+        <f>J$1&amp;$A69</f>
+        <v>DateVente1100014</v>
+      </c>
+      <c r="K71" s="2" t="s">
+        <v>730</v>
+      </c>
+      <c r="L71" s="2" t="s">
+        <v>731</v>
       </c>
       <c r="M71" s="2" t="str">
         <f t="shared" si="3"/>
@@ -8168,7 +8445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A72" s="2">
         <v>1100017</v>
       </c>
@@ -8178,41 +8455,33 @@
       <c r="C72" s="2">
         <v>1006</v>
       </c>
-      <c r="D72" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>Nom1100017</v>
-      </c>
-      <c r="E72" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>Description1100017</v>
-      </c>
-      <c r="F72" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>Photo1100017</v>
-      </c>
-      <c r="G72" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>PrixDemande1100017</v>
-      </c>
-      <c r="H72" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>NombreItems1100017</v>
-      </c>
-      <c r="I72" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>Disponibilité1100017</v>
+      <c r="D72" s="2" t="s">
+        <v>710</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>711</v>
+      </c>
+      <c r="F72" s="2" t="s">
+        <v>712</v>
+      </c>
+      <c r="G72" s="2" t="s">
+        <v>713</v>
+      </c>
+      <c r="H72" s="2">
+        <v>1</v>
+      </c>
+      <c r="I72" s="2">
+        <v>1</v>
       </c>
       <c r="J72" s="2" t="str">
         <f t="shared" si="3"/>
         <v>DateVente1100017</v>
       </c>
-      <c r="K72" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>PrixVente1100017</v>
-      </c>
-      <c r="L72" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>Poids1100017</v>
+      <c r="K72" s="2" t="s">
+        <v>713</v>
+      </c>
+      <c r="L72" s="2" t="s">
+        <v>263</v>
       </c>
       <c r="M72" s="2" t="str">
         <f t="shared" si="3"/>
@@ -8222,7 +8491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A73" s="2">
         <v>1100018</v>
       </c>
@@ -8232,41 +8501,33 @@
       <c r="C73" s="2">
         <v>1006</v>
       </c>
-      <c r="D73" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>Nom1100018</v>
-      </c>
-      <c r="E73" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>Description1100018</v>
-      </c>
-      <c r="F73" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>Photo1100018</v>
-      </c>
-      <c r="G73" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>PrixDemande1100018</v>
-      </c>
-      <c r="H73" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>NombreItems1100018</v>
-      </c>
-      <c r="I73" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>Disponibilité1100018</v>
+      <c r="D73" s="2" t="s">
+        <v>714</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>715</v>
+      </c>
+      <c r="F73" s="2" t="s">
+        <v>716</v>
+      </c>
+      <c r="G73" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="H73" s="2">
+        <v>1</v>
+      </c>
+      <c r="I73" s="2">
+        <v>1</v>
       </c>
       <c r="J73" s="2" t="str">
         <f t="shared" si="3"/>
         <v>DateVente1100018</v>
       </c>
-      <c r="K73" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>PrixVente1100018</v>
-      </c>
-      <c r="L73" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>Poids1100018</v>
+      <c r="K73" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="L73" s="2" t="s">
+        <v>717</v>
       </c>
       <c r="M73" s="2" t="str">
         <f t="shared" si="3"/>
@@ -8276,7 +8537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A74" s="2">
         <v>1100019</v>
       </c>
@@ -8286,41 +8547,33 @@
       <c r="C74" s="2">
         <v>1006</v>
       </c>
-      <c r="D74" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>Nom1100019</v>
-      </c>
-      <c r="E74" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>Description1100019</v>
-      </c>
-      <c r="F74" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>Photo1100019</v>
-      </c>
-      <c r="G74" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>PrixDemande1100019</v>
-      </c>
-      <c r="H74" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>NombreItems1100019</v>
-      </c>
-      <c r="I74" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>Disponibilité1100019</v>
+      <c r="D74" s="2" t="s">
+        <v>718</v>
+      </c>
+      <c r="E74" s="2" t="s">
+        <v>719</v>
+      </c>
+      <c r="F74" s="2" t="s">
+        <v>720</v>
+      </c>
+      <c r="G74" s="2" t="s">
+        <v>721</v>
+      </c>
+      <c r="H74" s="2">
+        <v>1</v>
+      </c>
+      <c r="I74" s="2">
+        <v>1</v>
       </c>
       <c r="J74" s="2" t="str">
         <f t="shared" si="2"/>
         <v>DateVente1100019</v>
       </c>
-      <c r="K74" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>PrixVente1100019</v>
-      </c>
-      <c r="L74" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>Poids1100019</v>
+      <c r="K74" s="2" t="s">
+        <v>567</v>
+      </c>
+      <c r="L74" s="2" t="s">
+        <v>722</v>
       </c>
       <c r="M74" s="2" t="str">
         <f t="shared" si="3"/>
@@ -8330,7 +8583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A75" s="2">
         <v>1100020</v>
       </c>
@@ -8340,41 +8593,33 @@
       <c r="C75" s="2">
         <v>1006</v>
       </c>
-      <c r="D75" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>Nom1100020</v>
-      </c>
-      <c r="E75" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>Description1100020</v>
-      </c>
-      <c r="F75" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>Photo1100020</v>
-      </c>
-      <c r="G75" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>PrixDemande1100020</v>
-      </c>
-      <c r="H75" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>NombreItems1100020</v>
-      </c>
-      <c r="I75" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>Disponibilité1100020</v>
+      <c r="D75" s="2" t="s">
+        <v>724</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>723</v>
+      </c>
+      <c r="F75" s="2" t="s">
+        <v>726</v>
+      </c>
+      <c r="G75" s="2" t="s">
+        <v>725</v>
+      </c>
+      <c r="H75" s="2">
+        <v>1</v>
+      </c>
+      <c r="I75" s="2">
+        <v>1</v>
       </c>
       <c r="J75" s="2" t="str">
         <f t="shared" si="2"/>
         <v>DateVente1100020</v>
       </c>
-      <c r="K75" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>PrixVente1100020</v>
-      </c>
-      <c r="L75" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>Poids1100020</v>
+      <c r="K75" s="2" t="s">
+        <v>727</v>
+      </c>
+      <c r="L75" s="2" t="s">
+        <v>667</v>
       </c>
       <c r="M75" s="2" t="str">
         <f t="shared" si="3"/>
@@ -8384,7 +8629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A76" s="2">
         <v>1100021</v>
       </c>
@@ -8394,41 +8639,33 @@
       <c r="C76" s="2">
         <v>1006</v>
       </c>
-      <c r="D76" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>Nom1100021</v>
-      </c>
-      <c r="E76" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>Description1100021</v>
-      </c>
-      <c r="F76" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>Photo1100021</v>
-      </c>
-      <c r="G76" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>PrixDemande1100021</v>
-      </c>
-      <c r="H76" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>NombreItems1100021</v>
-      </c>
-      <c r="I76" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>Disponibilité1100021</v>
+      <c r="D76" s="2" t="s">
+        <v>732</v>
+      </c>
+      <c r="E76" s="2" t="s">
+        <v>733</v>
+      </c>
+      <c r="F76" s="2" t="s">
+        <v>734</v>
+      </c>
+      <c r="G76" s="2" t="s">
+        <v>735</v>
+      </c>
+      <c r="H76" s="2">
+        <v>1</v>
+      </c>
+      <c r="I76" s="2">
+        <v>1</v>
       </c>
       <c r="J76" s="2" t="str">
         <f t="shared" si="2"/>
         <v>DateVente1100021</v>
       </c>
-      <c r="K76" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>PrixVente1100021</v>
-      </c>
-      <c r="L76" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>Poids1100021</v>
+      <c r="K76" s="2" t="s">
+        <v>735</v>
+      </c>
+      <c r="L76" s="2" t="s">
+        <v>736</v>
       </c>
       <c r="M76" s="2" t="str">
         <f t="shared" si="3"/>
@@ -8438,7 +8675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A77" s="2">
         <v>1100022</v>
       </c>
@@ -8448,41 +8685,33 @@
       <c r="C77" s="2">
         <v>1006</v>
       </c>
-      <c r="D77" s="2" t="str">
+      <c r="D77" s="2" t="s">
+        <v>737</v>
+      </c>
+      <c r="E77" s="2" t="s">
+        <v>738</v>
+      </c>
+      <c r="F77" s="2" t="s">
+        <v>740</v>
+      </c>
+      <c r="G77" s="2" t="s">
+        <v>739</v>
+      </c>
+      <c r="H77" s="2">
+        <v>1</v>
+      </c>
+      <c r="I77" s="2">
+        <v>1</v>
+      </c>
+      <c r="J77" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>Nom1100022</v>
-      </c>
-      <c r="E77" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>Description1100022</v>
-      </c>
-      <c r="F77" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>Photo1100022</v>
-      </c>
-      <c r="G77" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>PrixDemande1100022</v>
-      </c>
-      <c r="H77" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>NombreItems1100022</v>
-      </c>
-      <c r="I77" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>Disponibilité1100022</v>
-      </c>
-      <c r="J77" s="2" t="str">
-        <f t="shared" si="2"/>
         <v>DateVente1100022</v>
       </c>
-      <c r="K77" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>PrixVente1100022</v>
-      </c>
-      <c r="L77" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>Poids1100022</v>
+      <c r="K77" s="2" t="s">
+        <v>535</v>
+      </c>
+      <c r="L77" s="2" t="s">
+        <v>260</v>
       </c>
       <c r="M77" s="2" t="str">
         <f t="shared" si="3"/>
@@ -8492,7 +8721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A78" s="2">
         <v>1100023</v>
       </c>
@@ -8502,41 +8731,33 @@
       <c r="C78" s="2">
         <v>1006</v>
       </c>
-      <c r="D78" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>Nom1100023</v>
-      </c>
-      <c r="E78" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>Description1100023</v>
-      </c>
-      <c r="F78" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>Photo1100023</v>
-      </c>
-      <c r="G78" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>PrixDemande1100023</v>
-      </c>
-      <c r="H78" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>NombreItems1100023</v>
-      </c>
-      <c r="I78" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>Disponibilité1100023</v>
+      <c r="D78" s="2" t="s">
+        <v>741</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>742</v>
+      </c>
+      <c r="F78" s="2" t="s">
+        <v>744</v>
+      </c>
+      <c r="G78" s="2" t="s">
+        <v>743</v>
+      </c>
+      <c r="H78" s="2">
+        <v>1</v>
+      </c>
+      <c r="I78" s="2">
+        <v>1</v>
       </c>
       <c r="J78" s="2" t="str">
         <f t="shared" si="2"/>
         <v>DateVente1100023</v>
       </c>
-      <c r="K78" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>PrixVente1100023</v>
-      </c>
-      <c r="L78" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>Poids1100023</v>
+      <c r="K78" s="2" t="s">
+        <v>743</v>
+      </c>
+      <c r="L78" s="2" t="s">
+        <v>745</v>
       </c>
       <c r="M78" s="2" t="str">
         <f t="shared" si="3"/>
@@ -8546,7 +8767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A79" s="2">
         <v>1100024</v>
       </c>
@@ -8556,41 +8777,33 @@
       <c r="C79" s="2">
         <v>1006</v>
       </c>
-      <c r="D79" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>Nom1100024</v>
-      </c>
-      <c r="E79" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>Description1100024</v>
-      </c>
-      <c r="F79" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>Photo1100024</v>
-      </c>
-      <c r="G79" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>PrixDemande1100024</v>
-      </c>
-      <c r="H79" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>NombreItems1100024</v>
-      </c>
-      <c r="I79" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>Disponibilité1100024</v>
+      <c r="D79" s="2" t="s">
+        <v>746</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>747</v>
+      </c>
+      <c r="F79" s="2" t="s">
+        <v>749</v>
+      </c>
+      <c r="G79" s="2" t="s">
+        <v>748</v>
+      </c>
+      <c r="H79" s="2">
+        <v>1</v>
+      </c>
+      <c r="I79" s="2">
+        <v>1</v>
       </c>
       <c r="J79" s="2" t="str">
         <f t="shared" si="2"/>
         <v>DateVente1100024</v>
       </c>
-      <c r="K79" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>PrixVente1100024</v>
-      </c>
-      <c r="L79" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>Poids1100024</v>
+      <c r="K79" s="2" t="s">
+        <v>748</v>
+      </c>
+      <c r="L79" s="2" t="s">
+        <v>750</v>
       </c>
       <c r="M79" s="2" t="str">
         <f t="shared" si="3"/>
@@ -8600,7 +8813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A80" s="2">
         <v>1100025</v>
       </c>
@@ -8610,41 +8823,33 @@
       <c r="C80" s="2">
         <v>1006</v>
       </c>
-      <c r="D80" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>Nom1100025</v>
-      </c>
-      <c r="E80" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>Description1100025</v>
-      </c>
-      <c r="F80" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>Photo1100025</v>
-      </c>
-      <c r="G80" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>PrixDemande1100025</v>
-      </c>
-      <c r="H80" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>NombreItems1100025</v>
-      </c>
-      <c r="I80" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>Disponibilité1100025</v>
+      <c r="D80" s="2" t="s">
+        <v>751</v>
+      </c>
+      <c r="E80" s="2" t="s">
+        <v>752</v>
+      </c>
+      <c r="F80" s="2" t="s">
+        <v>755</v>
+      </c>
+      <c r="G80" s="2" t="s">
+        <v>753</v>
+      </c>
+      <c r="H80" s="2">
+        <v>1</v>
+      </c>
+      <c r="I80" s="2">
+        <v>1</v>
       </c>
       <c r="J80" s="2" t="str">
         <f t="shared" si="2"/>
         <v>DateVente1100025</v>
       </c>
-      <c r="K80" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>PrixVente1100025</v>
-      </c>
-      <c r="L80" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>Poids1100025</v>
+      <c r="K80" s="2" t="s">
+        <v>753</v>
+      </c>
+      <c r="L80" s="2" t="s">
+        <v>754</v>
       </c>
       <c r="M80" s="2" t="str">
         <f t="shared" si="3"/>
@@ -8654,7 +8859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A81" s="2">
         <v>1100026</v>
       </c>
@@ -8664,41 +8869,33 @@
       <c r="C81" s="2">
         <v>1006</v>
       </c>
-      <c r="D81" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>Nom1100026</v>
-      </c>
-      <c r="E81" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>Description1100026</v>
-      </c>
-      <c r="F81" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>Photo1100026</v>
-      </c>
-      <c r="G81" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>PrixDemande1100026</v>
-      </c>
-      <c r="H81" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>NombreItems1100026</v>
-      </c>
-      <c r="I81" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>Disponibilité1100026</v>
+      <c r="D81" s="2" t="s">
+        <v>756</v>
+      </c>
+      <c r="E81" s="2" t="s">
+        <v>757</v>
+      </c>
+      <c r="F81" s="2" t="s">
+        <v>758</v>
+      </c>
+      <c r="G81" s="2" t="s">
+        <v>759</v>
+      </c>
+      <c r="H81" s="2">
+        <v>1</v>
+      </c>
+      <c r="I81" s="2">
+        <v>1</v>
       </c>
       <c r="J81" s="2" t="str">
         <f t="shared" si="2"/>
         <v>DateVente1100026</v>
       </c>
-      <c r="K81" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>PrixVente1100026</v>
-      </c>
-      <c r="L81" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>Poids1100026</v>
+      <c r="K81" s="2" t="s">
+        <v>759</v>
+      </c>
+      <c r="L81" s="2" t="s">
+        <v>760</v>
       </c>
       <c r="M81" s="2" t="str">
         <f t="shared" si="3"/>
@@ -8708,7 +8905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A82" s="2">
         <v>1100027</v>
       </c>
@@ -8718,41 +8915,33 @@
       <c r="C82" s="2">
         <v>1006</v>
       </c>
-      <c r="D82" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>Nom1100027</v>
-      </c>
-      <c r="E82" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>Description1100027</v>
-      </c>
-      <c r="F82" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>Photo1100027</v>
-      </c>
-      <c r="G82" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>PrixDemande1100027</v>
-      </c>
-      <c r="H82" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>NombreItems1100027</v>
-      </c>
-      <c r="I82" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>Disponibilité1100027</v>
+      <c r="D82" s="2" t="s">
+        <v>761</v>
+      </c>
+      <c r="E82" s="2" t="s">
+        <v>762</v>
+      </c>
+      <c r="F82" s="2" t="s">
+        <v>763</v>
+      </c>
+      <c r="G82" s="2" t="s">
+        <v>748</v>
+      </c>
+      <c r="H82" s="2">
+        <v>1</v>
+      </c>
+      <c r="I82" s="2">
+        <v>1</v>
       </c>
       <c r="J82" s="2" t="str">
         <f t="shared" si="2"/>
         <v>DateVente1100027</v>
       </c>
-      <c r="K82" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>PrixVente1100027</v>
-      </c>
-      <c r="L82" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>Poids1100027</v>
+      <c r="K82" s="2" t="s">
+        <v>748</v>
+      </c>
+      <c r="L82" s="2" t="s">
+        <v>750</v>
       </c>
       <c r="M82" s="2" t="str">
         <f t="shared" si="3"/>
@@ -8762,7 +8951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A83" s="2">
         <v>1400010</v>
       </c>
@@ -8773,16 +8962,16 @@
         <v>1006</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>301</v>
+        <v>709</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>602</v>
+        <v>594</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>551</v>
+        <v>543</v>
       </c>
       <c r="H83" s="2">
         <v>1</v>
@@ -8795,10 +8984,10 @@
         <v>DateVente1100016</v>
       </c>
       <c r="K83" s="2" t="s">
-        <v>551</v>
+        <v>543</v>
       </c>
       <c r="L83" s="2" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="M83" s="2" t="str">
         <f t="shared" si="3"/>
@@ -8808,7 +8997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A84" s="2">
         <v>1400011</v>
       </c>
@@ -8819,16 +9008,16 @@
         <v>1006</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>603</v>
+        <v>595</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>536</v>
+        <v>528</v>
       </c>
       <c r="H84" s="2">
         <v>1</v>
@@ -8841,10 +9030,10 @@
         <v>DateVente1100017</v>
       </c>
       <c r="K84" s="2" t="s">
-        <v>536</v>
+        <v>528</v>
       </c>
       <c r="L84" s="2" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="M84" s="2" t="str">
         <f t="shared" si="3"/>
@@ -8854,7 +9043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A85" s="2">
         <v>1400012</v>
       </c>
@@ -8865,16 +9054,16 @@
         <v>1006</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>604</v>
+        <v>596</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>552</v>
+        <v>544</v>
       </c>
       <c r="H85" s="2">
         <v>1</v>
@@ -8887,10 +9076,10 @@
         <v>DateVente1100018</v>
       </c>
       <c r="K85" s="2" t="s">
-        <v>552</v>
+        <v>544</v>
       </c>
       <c r="L85" s="2" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="M85" s="2" t="str">
         <f t="shared" si="3"/>
@@ -8900,7 +9089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A86" s="2">
         <v>1400013</v>
       </c>
@@ -8910,41 +9099,33 @@
       <c r="C86" s="2">
         <v>1006</v>
       </c>
-      <c r="D86" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>Nom1400013</v>
-      </c>
-      <c r="E86" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>Description1400013</v>
-      </c>
-      <c r="F86" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>Photo1400013</v>
-      </c>
-      <c r="G86" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>PrixDemande1400013</v>
-      </c>
-      <c r="H86" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>NombreItems1400013</v>
-      </c>
-      <c r="I86" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>Disponibilité1400013</v>
+      <c r="D86" s="2" t="s">
+        <v>764</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>765</v>
+      </c>
+      <c r="F86" s="2" t="s">
+        <v>767</v>
+      </c>
+      <c r="G86" s="2" t="s">
+        <v>766</v>
+      </c>
+      <c r="H86" s="2">
+        <v>1</v>
+      </c>
+      <c r="I86" s="2">
+        <v>1</v>
       </c>
       <c r="J86" s="2" t="str">
         <f t="shared" si="2"/>
         <v>DateVente1400013</v>
       </c>
-      <c r="K86" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>PrixVente1400013</v>
-      </c>
-      <c r="L86" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>Poids1400013</v>
+      <c r="K86" s="2" t="s">
+        <v>766</v>
+      </c>
+      <c r="L86" s="2" t="s">
+        <v>263</v>
       </c>
       <c r="M86" s="2" t="str">
         <f t="shared" si="3"/>
@@ -8954,7 +9135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A87" s="2">
         <v>1600033</v>
       </c>
@@ -8964,41 +9145,33 @@
       <c r="C87" s="2">
         <v>1006</v>
       </c>
-      <c r="D87" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>Nom1600033</v>
-      </c>
-      <c r="E87" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>Description1600033</v>
-      </c>
-      <c r="F87" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>Photo1600033</v>
-      </c>
-      <c r="G87" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>PrixDemande1600033</v>
-      </c>
-      <c r="H87" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>NombreItems1600033</v>
-      </c>
-      <c r="I87" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>Disponibilité1600033</v>
+      <c r="D87" s="2" t="s">
+        <v>768</v>
+      </c>
+      <c r="E87" s="3" t="s">
+        <v>769</v>
+      </c>
+      <c r="F87" s="2" t="s">
+        <v>770</v>
+      </c>
+      <c r="G87" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="H87" s="2">
+        <v>1</v>
+      </c>
+      <c r="I87" s="2">
+        <v>1</v>
       </c>
       <c r="J87" s="2" t="str">
         <f t="shared" si="2"/>
         <v>DateVente1600033</v>
       </c>
-      <c r="K87" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>PrixVente1600033</v>
-      </c>
-      <c r="L87" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>Poids1600033</v>
+      <c r="K87" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="L87" s="2" t="s">
+        <v>314</v>
       </c>
       <c r="M87" s="2" t="str">
         <f t="shared" si="3"/>
@@ -9008,7 +9181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:14" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A88" s="2">
         <v>1600034</v>
       </c>
@@ -9018,41 +9191,33 @@
       <c r="C88" s="2">
         <v>1006</v>
       </c>
-      <c r="D88" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>Nom1600034</v>
-      </c>
-      <c r="E88" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>Description1600034</v>
-      </c>
-      <c r="F88" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>Photo1600034</v>
-      </c>
-      <c r="G88" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>PrixDemande1600034</v>
-      </c>
-      <c r="H88" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>NombreItems1600034</v>
-      </c>
-      <c r="I88" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>Disponibilité1600034</v>
+      <c r="D88" s="2" t="s">
+        <v>771</v>
+      </c>
+      <c r="E88" s="3" t="s">
+        <v>772</v>
+      </c>
+      <c r="F88" s="2" t="s">
+        <v>776</v>
+      </c>
+      <c r="G88" s="2" t="s">
+        <v>773</v>
+      </c>
+      <c r="H88" s="2">
+        <v>1</v>
+      </c>
+      <c r="I88" s="2">
+        <v>1</v>
       </c>
       <c r="J88" s="2" t="str">
         <f t="shared" si="2"/>
         <v>DateVente1600034</v>
       </c>
-      <c r="K88" s="2" t="str">
-        <f t="shared" ref="E88:L103" si="4">K$1&amp;$A88</f>
-        <v>PrixVente1600034</v>
-      </c>
-      <c r="L88" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>Poids1600034</v>
+      <c r="K88" s="2" t="s">
+        <v>774</v>
+      </c>
+      <c r="L88" s="2" t="s">
+        <v>775</v>
       </c>
       <c r="M88" s="2" t="str">
         <f t="shared" si="3"/>
@@ -9062,7 +9227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A89" s="2">
         <v>1600035</v>
       </c>
@@ -9072,41 +9237,33 @@
       <c r="C89" s="2">
         <v>1006</v>
       </c>
-      <c r="D89" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>Nom1600035</v>
-      </c>
-      <c r="E89" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>Description1600035</v>
-      </c>
-      <c r="F89" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>Photo1600035</v>
-      </c>
-      <c r="G89" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>PrixDemande1600035</v>
-      </c>
-      <c r="H89" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>NombreItems1600035</v>
-      </c>
-      <c r="I89" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>Disponibilité1600035</v>
+      <c r="D89" s="2" t="s">
+        <v>777</v>
+      </c>
+      <c r="E89" s="3" t="s">
+        <v>778</v>
+      </c>
+      <c r="F89" s="2" t="s">
+        <v>780</v>
+      </c>
+      <c r="G89" s="2" t="s">
+        <v>618</v>
+      </c>
+      <c r="H89" s="2">
+        <v>1</v>
+      </c>
+      <c r="I89" s="2">
+        <v>1</v>
       </c>
       <c r="J89" s="2" t="str">
         <f t="shared" si="2"/>
         <v>DateVente1600035</v>
       </c>
-      <c r="K89" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>PrixVente1600035</v>
-      </c>
-      <c r="L89" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>Poids1600035</v>
+      <c r="K89" s="2" t="s">
+        <v>779</v>
+      </c>
+      <c r="L89" s="2" t="s">
+        <v>784</v>
       </c>
       <c r="M89" s="2" t="str">
         <f t="shared" si="3"/>
@@ -9116,7 +9273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A90" s="2">
         <v>1600036</v>
       </c>
@@ -9126,41 +9283,33 @@
       <c r="C90" s="2">
         <v>1006</v>
       </c>
-      <c r="D90" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>Nom1600036</v>
-      </c>
-      <c r="E90" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>Description1600036</v>
-      </c>
-      <c r="F90" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>Photo1600036</v>
-      </c>
-      <c r="G90" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>PrixDemande1600036</v>
-      </c>
-      <c r="H90" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>NombreItems1600036</v>
-      </c>
-      <c r="I90" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>Disponibilité1600036</v>
+      <c r="D90" s="2" t="s">
+        <v>781</v>
+      </c>
+      <c r="E90" s="3" t="s">
+        <v>782</v>
+      </c>
+      <c r="F90" s="2" t="s">
+        <v>783</v>
+      </c>
+      <c r="G90" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="H90" s="2">
+        <v>1</v>
+      </c>
+      <c r="I90" s="2">
+        <v>1</v>
       </c>
       <c r="J90" s="2" t="str">
         <f t="shared" si="2"/>
         <v>DateVente1600036</v>
       </c>
-      <c r="K90" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>PrixVente1600036</v>
-      </c>
-      <c r="L90" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>Poids1600036</v>
+      <c r="K90" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="L90" s="2" t="s">
+        <v>263</v>
       </c>
       <c r="M90" s="2" t="str">
         <f t="shared" si="3"/>
@@ -9170,7 +9319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A91" s="2">
         <v>1100028</v>
       </c>
@@ -9184,29 +9333,29 @@
         <v>231</v>
       </c>
       <c r="E91" s="2" t="s">
+        <v>792</v>
+      </c>
+      <c r="F91" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="G91" s="2" t="s">
+        <v>538</v>
+      </c>
+      <c r="H91" s="2">
+        <v>1</v>
+      </c>
+      <c r="I91" s="2">
+        <v>1</v>
+      </c>
+      <c r="J91" s="2" t="str">
+        <f>J$1&amp;$A91</f>
+        <v>DateVente1100028</v>
+      </c>
+      <c r="K91" s="2" t="s">
+        <v>538</v>
+      </c>
+      <c r="L91" s="2" t="s">
         <v>232</v>
-      </c>
-      <c r="F91" s="2" t="s">
-        <v>378</v>
-      </c>
-      <c r="G91" s="2" t="s">
-        <v>546</v>
-      </c>
-      <c r="H91" s="2">
-        <v>1</v>
-      </c>
-      <c r="I91" s="2">
-        <v>1</v>
-      </c>
-      <c r="J91" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>DateVente1100028</v>
-      </c>
-      <c r="K91" s="2" t="s">
-        <v>546</v>
-      </c>
-      <c r="L91" s="2" t="s">
-        <v>233</v>
       </c>
       <c r="M91" s="2" t="str">
         <f t="shared" si="3"/>
@@ -9216,7 +9365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A92" s="2">
         <v>1100029</v>
       </c>
@@ -9227,16 +9376,16 @@
         <v>1007</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>243</v>
+        <v>793</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>244</v>
+        <v>790</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>550</v>
+        <v>542</v>
       </c>
       <c r="H92" s="2">
         <v>1</v>
@@ -9245,14 +9394,14 @@
         <v>1</v>
       </c>
       <c r="J92" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f>J$1&amp;$A92</f>
         <v>DateVente1100029</v>
       </c>
       <c r="K92" s="2" t="s">
-        <v>550</v>
+        <v>542</v>
       </c>
       <c r="L92" s="2" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="M92" s="2" t="str">
         <f t="shared" si="3"/>
@@ -9262,7 +9411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A93" s="2">
         <v>1100030</v>
       </c>
@@ -9273,16 +9422,16 @@
         <v>1007</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>247</v>
+        <v>791</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>553</v>
+        <v>545</v>
       </c>
       <c r="H93" s="2">
         <v>1</v>
@@ -9291,14 +9440,14 @@
         <v>1</v>
       </c>
       <c r="J93" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f>J$1&amp;$A93</f>
         <v>DateVente1100030</v>
       </c>
       <c r="K93" s="2" t="s">
-        <v>553</v>
+        <v>545</v>
       </c>
       <c r="L93" s="2" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="M93" s="2" t="str">
         <f t="shared" si="3"/>
@@ -9308,7 +9457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A94" s="2">
         <v>1600037</v>
       </c>
@@ -9318,41 +9467,33 @@
       <c r="C94" s="2">
         <v>1007</v>
       </c>
-      <c r="D94" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>Nom1600037</v>
-      </c>
-      <c r="E94" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>Description1600037</v>
-      </c>
-      <c r="F94" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>Photo1600037</v>
-      </c>
-      <c r="G94" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>PrixDemande1600037</v>
-      </c>
-      <c r="H94" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>NombreItems1600037</v>
-      </c>
-      <c r="I94" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>Disponibilité1600037</v>
+      <c r="D94" s="2" t="s">
+        <v>785</v>
+      </c>
+      <c r="E94" s="2" t="s">
+        <v>786</v>
+      </c>
+      <c r="F94" s="2" t="s">
+        <v>789</v>
+      </c>
+      <c r="G94" s="2" t="s">
+        <v>787</v>
+      </c>
+      <c r="H94" s="2">
+        <v>1</v>
+      </c>
+      <c r="I94" s="2">
+        <v>1</v>
       </c>
       <c r="J94" s="2" t="str">
         <f t="shared" si="2"/>
         <v>DateVente1600037</v>
       </c>
-      <c r="K94" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>PrixVente1600037</v>
-      </c>
-      <c r="L94" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>Poids1600037</v>
+      <c r="K94" s="2" t="s">
+        <v>787</v>
+      </c>
+      <c r="L94" s="2" t="s">
+        <v>788</v>
       </c>
       <c r="M94" s="2" t="str">
         <f t="shared" si="3"/>
@@ -9362,7 +9503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A95" s="2">
         <v>1600038</v>
       </c>
@@ -9372,41 +9513,33 @@
       <c r="C95" s="2">
         <v>1007</v>
       </c>
-      <c r="D95" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>Nom1600038</v>
-      </c>
-      <c r="E95" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>Description1600038</v>
-      </c>
-      <c r="F95" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>Photo1600038</v>
-      </c>
-      <c r="G95" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>PrixDemande1600038</v>
-      </c>
-      <c r="H95" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>NombreItems1600038</v>
-      </c>
-      <c r="I95" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>Disponibilité1600038</v>
+      <c r="D95" s="2" t="s">
+        <v>795</v>
+      </c>
+      <c r="E95" s="2" t="s">
+        <v>794</v>
+      </c>
+      <c r="F95" s="2" t="s">
+        <v>796</v>
+      </c>
+      <c r="G95" s="2" t="s">
+        <v>604</v>
+      </c>
+      <c r="H95" s="2">
+        <v>1</v>
+      </c>
+      <c r="I95" s="2">
+        <v>1</v>
       </c>
       <c r="J95" s="2" t="str">
         <f t="shared" si="2"/>
         <v>DateVente1600038</v>
       </c>
-      <c r="K95" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>PrixVente1600038</v>
-      </c>
-      <c r="L95" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>Poids1600038</v>
+      <c r="K95" s="2" t="s">
+        <v>604</v>
+      </c>
+      <c r="L95" s="2" t="s">
+        <v>241</v>
       </c>
       <c r="M95" s="2" t="str">
         <f t="shared" si="3"/>
@@ -9416,7 +9549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A96" s="2">
         <v>1600039</v>
       </c>
@@ -9426,41 +9559,33 @@
       <c r="C96" s="2">
         <v>1007</v>
       </c>
-      <c r="D96" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>Nom1600039</v>
-      </c>
-      <c r="E96" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>Description1600039</v>
-      </c>
-      <c r="F96" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>Photo1600039</v>
-      </c>
-      <c r="G96" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>PrixDemande1600039</v>
-      </c>
-      <c r="H96" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>NombreItems1600039</v>
-      </c>
-      <c r="I96" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>Disponibilité1600039</v>
+      <c r="D96" s="2" t="s">
+        <v>798</v>
+      </c>
+      <c r="E96" s="2" t="s">
+        <v>797</v>
+      </c>
+      <c r="F96" s="2" t="s">
+        <v>799</v>
+      </c>
+      <c r="G96" s="2" t="s">
+        <v>800</v>
+      </c>
+      <c r="H96" s="2">
+        <v>1</v>
+      </c>
+      <c r="I96" s="2">
+        <v>1</v>
       </c>
       <c r="J96" s="2" t="str">
         <f t="shared" si="2"/>
         <v>DateVente1600039</v>
       </c>
-      <c r="K96" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>PrixVente1600039</v>
-      </c>
-      <c r="L96" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>Poids1600039</v>
+      <c r="K96" s="2" t="s">
+        <v>800</v>
+      </c>
+      <c r="L96" s="2" t="s">
+        <v>801</v>
       </c>
       <c r="M96" s="2" t="str">
         <f t="shared" si="3"/>
@@ -9470,7 +9595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A97" s="2">
         <v>1100031</v>
       </c>
@@ -9485,7 +9610,7 @@
         <v>Nom1100031</v>
       </c>
       <c r="E97" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="E88:L103" si="4">E$1&amp;$A97</f>
         <v>Description1100031</v>
       </c>
       <c r="F97" s="2" t="str">
@@ -9524,7 +9649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A98" s="2">
         <v>1100032</v>
       </c>
@@ -9578,7 +9703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A99" s="2">
         <v>1400014</v>
       </c>
@@ -9632,7 +9757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A100" s="2">
         <v>1400015</v>
       </c>
@@ -9686,7 +9811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A101" s="2">
         <v>1400016</v>
       </c>
@@ -9740,7 +9865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A102" s="2">
         <v>1400017</v>
       </c>
@@ -9794,7 +9919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A103" s="2">
         <v>1400018</v>
       </c>
@@ -9848,7 +9973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A104" s="2">
         <v>1400019</v>
       </c>
@@ -9902,7 +10027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A105" s="2">
         <v>1600040</v>
       </c>
@@ -9968,17 +10093,17 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>32</v>
       </c>
@@ -9998,7 +10123,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -10020,7 +10145,7 @@
         <v>NbItems1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -10042,7 +10167,7 @@
         <v>NbItems2</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -10064,7 +10189,7 @@
         <v>NbItems3</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -10086,7 +10211,7 @@
         <v>NbItems4</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -10108,7 +10233,7 @@
         <v>NbItems5</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -10130,7 +10255,7 @@
         <v>NbItems6</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -10152,7 +10277,7 @@
         <v>NbItems7</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -10174,7 +10299,7 @@
         <v>NbItems8</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -10196,7 +10321,7 @@
         <v>NbItems9</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -10218,7 +10343,7 @@
         <v>NbItems10</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -10240,7 +10365,7 @@
         <v>NbItems11</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -10262,7 +10387,7 @@
         <v>NbItems12</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -10284,7 +10409,7 @@
         <v>NbItems13</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -10306,7 +10431,7 @@
         <v>NbItems14</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -10328,7 +10453,7 @@
         <v>NbItems15</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -10350,7 +10475,7 @@
         <v>NbItems16</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -10372,7 +10497,7 @@
         <v>NbItems17</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -10394,7 +10519,7 @@
         <v>NbItems18</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -10416,7 +10541,7 @@
         <v>NbItems19</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -10438,7 +10563,7 @@
         <v>NbItems20</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
@@ -10460,7 +10585,7 @@
         <v>NbItems21</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
@@ -10482,7 +10607,7 @@
         <v>NbItems22</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
@@ -10504,7 +10629,7 @@
         <v>NbItems23</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
@@ -10526,7 +10651,7 @@
         <v>NbItems24</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
@@ -10548,7 +10673,7 @@
         <v>NbItems25</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
@@ -10570,7 +10695,7 @@
         <v>NbItems26</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
@@ -10592,7 +10717,7 @@
         <v>NbItems27</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
@@ -10614,7 +10739,7 @@
         <v>NbItems28</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
@@ -10647,23 +10772,23 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.44140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="23.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>48</v>
       </c>
@@ -10701,7 +10826,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -10747,7 +10872,7 @@
         <v>NoAutorisation1</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -10793,7 +10918,7 @@
         <v>NoAutorisation2</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -10839,7 +10964,7 @@
         <v>NoAutorisation3</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -10885,7 +11010,7 @@
         <v>NoAutorisation4</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -10931,7 +11056,7 @@
         <v>NoAutorisation5</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -10977,7 +11102,7 @@
         <v>NoAutorisation6</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -11023,7 +11148,7 @@
         <v>NoAutorisation7</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -11069,7 +11194,7 @@
         <v>NoAutorisation8</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -11115,7 +11240,7 @@
         <v>NoAutorisation9</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -11161,7 +11286,7 @@
         <v>NoAutorisation10</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -11207,7 +11332,7 @@
         <v>NoAutorisation11</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -11253,7 +11378,7 @@
         <v>NoAutorisation12</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -11299,7 +11424,7 @@
         <v>NoAutorisation13</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -11345,7 +11470,7 @@
         <v>NoAutorisation14</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -11391,7 +11516,7 @@
         <v>NoAutorisation15</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -11437,7 +11562,7 @@
         <v>NoAutorisation16</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -11494,16 +11619,16 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>57</v>
       </c>
@@ -11520,7 +11645,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -11540,7 +11665,7 @@
         <v>Quantité1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -11560,7 +11685,7 @@
         <v>Quantité2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -11580,7 +11705,7 @@
         <v>Quantité3</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -11600,7 +11725,7 @@
         <v>Quantité4</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -11620,7 +11745,7 @@
         <v>Quantité5</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -11640,7 +11765,7 @@
         <v>Quantité6</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -11660,7 +11785,7 @@
         <v>Quantité7</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -11680,7 +11805,7 @@
         <v>Quantité8</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -11700,7 +11825,7 @@
         <v>Quantité9</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -11720,7 +11845,7 @@
         <v>Quantité10</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -11740,7 +11865,7 @@
         <v>Quantité11</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -11760,7 +11885,7 @@
         <v>Quantité12</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -11780,7 +11905,7 @@
         <v>Quantité13</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -11800,7 +11925,7 @@
         <v>Quantité14</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -11820,7 +11945,7 @@
         <v>Quantité15</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -11840,7 +11965,7 @@
         <v>Quantité16</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -11860,7 +11985,7 @@
         <v>Quantité17</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -11880,7 +12005,7 @@
         <v>Quantité18</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -11900,7 +12025,7 @@
         <v>Quantité19</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -11920,7 +12045,7 @@
         <v>Quantité20</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
@@ -11940,7 +12065,7 @@
         <v>Quantité21</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
@@ -11960,7 +12085,7 @@
         <v>Quantité22</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
@@ -11980,7 +12105,7 @@
         <v>Quantité23</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
@@ -12000,7 +12125,7 @@
         <v>Quantité24</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
@@ -12020,7 +12145,7 @@
         <v>Quantité25</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
@@ -12040,7 +12165,7 @@
         <v>Quantité26</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
@@ -12060,7 +12185,7 @@
         <v>Quantité27</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
@@ -12080,7 +12205,7 @@
         <v>Quantité28</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
@@ -12100,7 +12225,7 @@
         <v>Quantité29</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>
@@ -12120,7 +12245,7 @@
         <v>Quantité30</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>31</v>
       </c>
@@ -12140,7 +12265,7 @@
         <v>Quantité31</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>32</v>
       </c>
@@ -12160,7 +12285,7 @@
         <v>Quantité32</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>33</v>
       </c>
@@ -12180,7 +12305,7 @@
         <v>Quantité33</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>34</v>
       </c>
@@ -12200,7 +12325,7 @@
         <v>Quantité34</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>35</v>
       </c>
@@ -12220,7 +12345,7 @@
         <v>Quantité35</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>36</v>
       </c>
@@ -12240,7 +12365,7 @@
         <v>Quantité36</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>37</v>
       </c>
@@ -12260,7 +12385,7 @@
         <v>Quantité37</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>38</v>
       </c>
@@ -12280,7 +12405,7 @@
         <v>Quantité38</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>39</v>
       </c>
@@ -12300,7 +12425,7 @@
         <v>Quantité39</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>40</v>
       </c>
@@ -12320,7 +12445,7 @@
         <v>Quantité40</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>41</v>
       </c>
@@ -12340,7 +12465,7 @@
         <v>Quantité41</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>42</v>
       </c>
@@ -12371,14 +12496,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -12389,7 +12514,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>11</v>
       </c>
@@ -12400,7 +12525,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>11</v>
       </c>
@@ -12411,7 +12536,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>11</v>
       </c>
@@ -12422,7 +12547,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>11</v>
       </c>
@@ -12433,7 +12558,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>11</v>
       </c>
@@ -12444,7 +12569,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>11</v>
       </c>
@@ -12455,7 +12580,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>11</v>
       </c>
@@ -12466,7 +12591,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>11</v>
       </c>
@@ -12477,7 +12602,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>11</v>
       </c>
@@ -12488,7 +12613,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>11</v>
       </c>
@@ -12499,7 +12624,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -12510,7 +12635,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>11</v>
       </c>
@@ -12521,7 +12646,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>11</v>
       </c>
@@ -12532,7 +12657,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>11</v>
       </c>
@@ -12543,7 +12668,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>11</v>
       </c>
@@ -12554,7 +12679,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>11</v>
       </c>
@@ -12565,7 +12690,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>11</v>
       </c>
@@ -12576,7 +12701,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>11</v>
       </c>
@@ -12587,7 +12712,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>11</v>
       </c>
@@ -12598,7 +12723,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>11</v>
       </c>
@@ -12609,7 +12734,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>11</v>
       </c>
@@ -12620,7 +12745,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>11</v>
       </c>
@@ -12631,7 +12756,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>12</v>
       </c>
@@ -12642,7 +12767,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>12</v>
       </c>
@@ -12653,7 +12778,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>12</v>
       </c>
@@ -12664,7 +12789,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>12</v>
       </c>
@@ -12675,7 +12800,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>12</v>
       </c>
@@ -12686,7 +12811,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>12</v>
       </c>
@@ -12697,7 +12822,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>12</v>
       </c>
@@ -12708,7 +12833,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>12</v>
       </c>
@@ -12719,7 +12844,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>12</v>
       </c>
@@ -12730,7 +12855,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>12</v>
       </c>
@@ -12741,7 +12866,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>12</v>
       </c>
@@ -12752,7 +12877,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>12</v>
       </c>
@@ -12763,7 +12888,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>12</v>
       </c>
@@ -12774,7 +12899,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>12</v>
       </c>
@@ -12785,7 +12910,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>12</v>
       </c>
@@ -12796,7 +12921,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>12</v>
       </c>
@@ -12807,7 +12932,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>12</v>
       </c>
@@ -12818,7 +12943,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>12</v>
       </c>
@@ -12829,7 +12954,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>12</v>
       </c>
@@ -12840,7 +12965,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>12</v>
       </c>
@@ -12851,7 +12976,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>12</v>
       </c>
@@ -12862,7 +12987,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>12</v>
       </c>
@@ -12873,7 +12998,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>12</v>
       </c>
@@ -12884,7 +13009,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>12</v>
       </c>
@@ -12895,7 +13020,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>12</v>
       </c>
@@ -12906,7 +13031,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>12</v>
       </c>
@@ -12917,7 +13042,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>12</v>
       </c>
@@ -12928,7 +13053,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>12</v>
       </c>
@@ -12939,7 +13064,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>12</v>
       </c>
@@ -12950,7 +13075,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>12</v>
       </c>
@@ -12961,7 +13086,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>12</v>
       </c>
@@ -12972,7 +13097,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>12</v>
       </c>
@@ -12983,7 +13108,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>12</v>
       </c>
@@ -12994,7 +13119,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>12</v>
       </c>
@@ -13005,7 +13130,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>12</v>
       </c>
@@ -13016,7 +13141,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>12</v>
       </c>
@@ -13027,7 +13152,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>12</v>
       </c>
@@ -13038,7 +13163,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>12</v>
       </c>
@@ -13049,7 +13174,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>12</v>
       </c>
@@ -13060,7 +13185,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>12</v>
       </c>
@@ -13071,7 +13196,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>12</v>
       </c>
@@ -13082,7 +13207,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>12</v>
       </c>
@@ -13093,7 +13218,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>12</v>
       </c>
@@ -13104,7 +13229,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>12</v>
       </c>
@@ -13115,7 +13240,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>12</v>
       </c>
@@ -13126,7 +13251,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>12</v>
       </c>
@@ -13137,7 +13262,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>12</v>
       </c>
@@ -13148,7 +13273,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>12</v>
       </c>
@@ -13159,7 +13284,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>12</v>
       </c>
@@ -13170,7 +13295,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>12</v>
       </c>
@@ -13181,7 +13306,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>12</v>
       </c>
@@ -13192,7 +13317,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>12</v>
       </c>
@@ -13203,7 +13328,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>12</v>
       </c>
@@ -13214,7 +13339,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>12</v>
       </c>
@@ -13225,7 +13350,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>12</v>
       </c>
@@ -13236,7 +13361,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>12</v>
       </c>
@@ -13247,7 +13372,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>14</v>
       </c>
@@ -13258,7 +13383,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>14</v>
       </c>
@@ -13269,7 +13394,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>14</v>
       </c>
@@ -13280,7 +13405,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>14</v>
       </c>
@@ -13291,7 +13416,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>14</v>
       </c>
@@ -13302,7 +13427,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>14</v>
       </c>
@@ -13313,7 +13438,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>14</v>
       </c>
@@ -13324,7 +13449,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>14</v>
       </c>
@@ -13335,7 +13460,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>14</v>
       </c>
@@ -13346,7 +13471,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>14</v>
       </c>
@@ -13357,7 +13482,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>14</v>
       </c>
@@ -13368,7 +13493,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>14</v>
       </c>
@@ -13379,7 +13504,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>14</v>
       </c>
@@ -13390,7 +13515,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>14</v>
       </c>
@@ -13401,7 +13526,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>14</v>
       </c>
@@ -13412,7 +13537,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>14</v>
       </c>
@@ -13423,7 +13548,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>14</v>
       </c>
@@ -13434,7 +13559,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>14</v>
       </c>
@@ -13445,7 +13570,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>14</v>
       </c>
@@ -13456,7 +13581,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>14</v>
       </c>
@@ -13467,7 +13592,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>14</v>
       </c>
@@ -13478,7 +13603,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>14</v>
       </c>
@@ -13489,7 +13614,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>14</v>
       </c>
@@ -13500,7 +13625,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>14</v>
       </c>
@@ -13511,7 +13636,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>14</v>
       </c>
@@ -13522,7 +13647,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>14</v>
       </c>
@@ -13533,7 +13658,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>14</v>
       </c>
@@ -13544,7 +13669,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>16</v>
       </c>
@@ -13555,7 +13680,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>16</v>
       </c>
@@ -13566,7 +13691,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>16</v>
       </c>
@@ -13577,7 +13702,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>16</v>
       </c>
@@ -13588,7 +13713,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>16</v>
       </c>
@@ -13599,7 +13724,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>16</v>
       </c>
@@ -13610,7 +13735,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>16</v>
       </c>
@@ -13621,7 +13746,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>16</v>
       </c>
@@ -13632,7 +13757,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>16</v>
       </c>
@@ -13643,7 +13768,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>16</v>
       </c>
@@ -13654,7 +13779,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>16</v>
       </c>
@@ -13665,7 +13790,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>16</v>
       </c>
@@ -13676,7 +13801,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>16</v>
       </c>
@@ -13687,7 +13812,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>16</v>
       </c>
@@ -13698,7 +13823,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>16</v>
       </c>
@@ -13709,7 +13834,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>16</v>
       </c>
@@ -13720,7 +13845,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>16</v>
       </c>
@@ -13731,7 +13856,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>16</v>
       </c>
@@ -13742,7 +13867,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>16</v>
       </c>
@@ -13753,7 +13878,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>16</v>
       </c>
@@ -13764,7 +13889,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>16</v>
       </c>
@@ -13786,23 +13911,23 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="15" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>59</v>
       </c>
@@ -13840,7 +13965,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -13886,7 +14011,7 @@
         <v>FraisTVQ1</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -13932,7 +14057,7 @@
         <v>FraisTVQ2</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -13978,7 +14103,7 @@
         <v>FraisTVQ3</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -14024,7 +14149,7 @@
         <v>FraisTVQ4</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -14070,7 +14195,7 @@
         <v>FraisTVQ5</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -14116,7 +14241,7 @@
         <v>FraisTVQ6</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -14162,7 +14287,7 @@
         <v>FraisTVQ7</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -14208,7 +14333,7 @@
         <v>FraisTVQ8</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -14254,7 +14379,7 @@
         <v>FraisTVQ9</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -14300,7 +14425,7 @@
         <v>FraisTVQ10</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -14346,7 +14471,7 @@
         <v>FraisTVQ11</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -14392,7 +14517,7 @@
         <v>FraisTVQ12</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -14438,7 +14563,7 @@
         <v>FraisTVQ13</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -14484,7 +14609,7 @@
         <v>FraisTVQ14</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -14530,7 +14655,7 @@
         <v>FraisTVQ15</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -14576,7 +14701,7 @@
         <v>FraisTVQ16</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>

--- a/Jeu d'essai (Valeurs).xlsx
+++ b/Jeu d'essai (Valeurs).xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="5174" documentId="14_{E952B2A6-1070-47AA-ABAD-4591E8C72938}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{57AC4C48-BF5C-4C77-970E-07EFE4068472}"/>
+  <xr:revisionPtr revIDLastSave="5311" documentId="14_{E952B2A6-1070-47AA-ABAD-4591E8C72938}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{825D8430-A613-41A1-A7B1-812CB3BB2046}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PPVendeurs" sheetId="13" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1414" uniqueCount="787">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1433" uniqueCount="825">
   <si>
     <t>NULL</t>
   </si>
@@ -2455,6 +2455,120 @@
   </si>
   <si>
     <t>499.99</t>
+  </si>
+  <si>
+    <t>ppuces@gmail.com</t>
+  </si>
+  <si>
+    <t>Secret98112</t>
+  </si>
+  <si>
+    <t>203.99</t>
+  </si>
+  <si>
+    <t>2.58</t>
+  </si>
+  <si>
+    <t>20.94</t>
+  </si>
+  <si>
+    <t>74.25</t>
+  </si>
+  <si>
+    <t>27.57</t>
+  </si>
+  <si>
+    <t>117.15</t>
+  </si>
+  <si>
+    <t>54.45</t>
+  </si>
+  <si>
+    <t>10.20</t>
+  </si>
+  <si>
+    <t>90.45</t>
+  </si>
+  <si>
+    <t>0.39</t>
+  </si>
+  <si>
+    <t>1.05</t>
+  </si>
+  <si>
+    <t>7.43</t>
+  </si>
+  <si>
+    <t>10.62</t>
+  </si>
+  <si>
+    <t>4.14</t>
+  </si>
+  <si>
+    <t>26.25</t>
+  </si>
+  <si>
+    <t>14.85</t>
+  </si>
+  <si>
+    <t>41.41</t>
+  </si>
+  <si>
+    <t>46.06</t>
+  </si>
+  <si>
+    <t>76.70</t>
+  </si>
+  <si>
+    <t>22.08</t>
+  </si>
+  <si>
+    <t>14.62</t>
+  </si>
+  <si>
+    <t>35.85</t>
+  </si>
+  <si>
+    <t>42.93</t>
+  </si>
+  <si>
+    <t>4.18</t>
+  </si>
+  <si>
+    <t>1.66</t>
+  </si>
+  <si>
+    <t>2.71</t>
+  </si>
+  <si>
+    <t>5.50</t>
+  </si>
+  <si>
+    <t>113.19</t>
+  </si>
+  <si>
+    <t>6.82</t>
+  </si>
+  <si>
+    <t>4.27</t>
+  </si>
+  <si>
+    <t>11.29</t>
+  </si>
+  <si>
+    <t>8.59</t>
+  </si>
+  <si>
+    <t>4.29</t>
+  </si>
+  <si>
+    <t>12.50</t>
+  </si>
+  <si>
+    <t>15.75</t>
+  </si>
+  <si>
+    <t>15.00</t>
   </si>
 </sst>
 </file>
@@ -2793,32 +2907,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68577903-7E23-4CEF-B0E9-4DD8C1CA3581}">
   <dimension ref="A1:U8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.21875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.21875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.42578125" bestFit="1" customWidth="1"/>
     <col min="10" max="11" width="11" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="26.5546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.21875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16.21875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.21875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="5.88671875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="29" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="6" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="6.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -2883,7 +2997,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>11</v>
       </c>
@@ -2948,7 +3062,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>12</v>
       </c>
@@ -3013,7 +3127,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>13</v>
       </c>
@@ -3078,7 +3192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>14</v>
       </c>
@@ -3143,7 +3257,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>15</v>
       </c>
@@ -3208,7 +3322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>16</v>
       </c>
@@ -3273,7 +3387,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>17</v>
       </c>
@@ -3350,14 +3464,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>67</v>
       </c>
@@ -3368,7 +3482,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2001</v>
       </c>
@@ -3379,7 +3493,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2002</v>
       </c>
@@ -3390,7 +3504,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2003</v>
       </c>
@@ -3401,7 +3515,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2004</v>
       </c>
@@ -3423,13 +3537,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>66</v>
       </c>
@@ -3437,7 +3551,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>3001</v>
       </c>
@@ -3445,7 +3559,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>3002</v>
       </c>
@@ -3453,7 +3567,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3003</v>
       </c>
@@ -3472,14 +3586,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>66</v>
       </c>
@@ -3490,136 +3604,136 @@
         <v>68</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>3001</v>
       </c>
       <c r="B2">
         <v>2001</v>
       </c>
-      <c r="C2">
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C2" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>3001</v>
       </c>
       <c r="B3">
         <v>2002</v>
       </c>
-      <c r="C3">
-        <v>12.5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C3" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3001</v>
       </c>
       <c r="B4">
         <v>2003</v>
       </c>
-      <c r="C4">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C4" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3001</v>
       </c>
       <c r="B5">
         <v>2004</v>
       </c>
-      <c r="C5">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C5" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>3002</v>
       </c>
       <c r="B6">
         <v>2001</v>
       </c>
-      <c r="C6">
-        <v>6.75</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C6" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>3002</v>
       </c>
       <c r="B7">
         <v>2002</v>
       </c>
-      <c r="C7">
-        <v>15.75</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C7" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>3002</v>
       </c>
       <c r="B8">
         <v>2003</v>
       </c>
-      <c r="C8">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C8" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>3002</v>
       </c>
       <c r="B9">
         <v>2004</v>
       </c>
-      <c r="C9">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C9" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>3003</v>
       </c>
       <c r="B10">
         <v>2001</v>
       </c>
-      <c r="C10">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C10" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>3003</v>
       </c>
       <c r="B11">
         <v>2002</v>
       </c>
-      <c r="C11">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C11" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>3003</v>
       </c>
       <c r="B12">
         <v>2003</v>
       </c>
-      <c r="C12">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C12" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>3003</v>
       </c>
       <c r="B13">
         <v>2004</v>
       </c>
-      <c r="C13">
-        <v>50</v>
+      <c r="C13" t="s">
+        <v>264</v>
       </c>
     </row>
   </sheetData>
@@ -3633,14 +3747,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>75</v>
       </c>
@@ -3651,7 +3765,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>4001</v>
       </c>
@@ -3662,7 +3776,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>4002</v>
       </c>
@@ -3673,7 +3787,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>4003</v>
       </c>
@@ -3684,7 +3798,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4004</v>
       </c>
@@ -3706,14 +3820,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>69</v>
       </c>
@@ -3724,7 +3838,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>5001</v>
       </c>
@@ -3735,7 +3849,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>5002</v>
       </c>
@@ -3746,7 +3860,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>5003</v>
       </c>
@@ -3768,14 +3882,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>102</v>
       </c>
@@ -3786,17 +3900,15 @@
         <v>104</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" t="str">
-        <f>B$1&amp;$A2</f>
-        <v>courriel1</v>
-      </c>
-      <c r="C2" t="str">
-        <f>C$1&amp;$A2</f>
-        <v>motDePasse1</v>
+      <c r="B2" s="3" t="s">
+        <v>787</v>
+      </c>
+      <c r="C2" t="s">
+        <v>788</v>
       </c>
     </row>
   </sheetData>
@@ -3810,26 +3922,26 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.21875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.21875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.42578125" bestFit="1" customWidth="1"/>
     <col min="11" max="12" width="11" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="20.6640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="5.88671875" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="6.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>33</v>
       </c>
@@ -3882,7 +3994,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>101</v>
       </c>
@@ -3935,7 +4047,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>102</v>
       </c>
@@ -3988,7 +4100,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>103</v>
       </c>
@@ -4041,7 +4153,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>104</v>
       </c>
@@ -4094,7 +4206,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>105</v>
       </c>
@@ -4147,7 +4259,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>106</v>
       </c>
@@ -4200,7 +4312,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>107</v>
       </c>
@@ -4253,7 +4365,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>108</v>
       </c>
@@ -4306,7 +4418,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>109</v>
       </c>
@@ -4359,7 +4471,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>110</v>
       </c>
@@ -4412,7 +4524,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>111</v>
       </c>
@@ -4465,7 +4577,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>112</v>
       </c>
@@ -4518,7 +4630,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>113</v>
       </c>
@@ -4571,7 +4683,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>114</v>
       </c>
@@ -4624,7 +4736,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>115</v>
       </c>
@@ -4677,7 +4789,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>116</v>
       </c>
@@ -4730,7 +4842,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>117</v>
       </c>
@@ -4783,7 +4895,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>118</v>
       </c>
@@ -4836,7 +4948,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>119</v>
       </c>
@@ -4889,7 +5001,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>120</v>
       </c>
@@ -4953,14 +5065,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="60.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="66.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -4971,7 +5083,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1001</v>
       </c>
@@ -4982,7 +5094,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1002</v>
       </c>
@@ -4993,7 +5105,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1003</v>
       </c>
@@ -5004,7 +5116,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1004</v>
       </c>
@@ -5015,7 +5127,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1005</v>
       </c>
@@ -5026,7 +5138,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1006</v>
       </c>
@@ -5037,7 +5149,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1007</v>
       </c>
@@ -5048,7 +5160,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1008</v>
       </c>
@@ -5070,26 +5182,26 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.21875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="43.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="255.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.21875" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.33203125" style="2" customWidth="1"/>
-    <col min="14" max="14" width="8.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="8.6640625" style="2"/>
+    <col min="1" max="1" width="10.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="47.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="255.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="8.7109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -5133,7 +5245,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1100001</v>
       </c>
@@ -5177,7 +5289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>1100002</v>
       </c>
@@ -5221,7 +5333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>1100003</v>
       </c>
@@ -5265,7 +5377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>1100004</v>
       </c>
@@ -5309,7 +5421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>1100005</v>
       </c>
@@ -5353,7 +5465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>1100006</v>
       </c>
@@ -5397,7 +5509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>1100007</v>
       </c>
@@ -5441,7 +5553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>1100008</v>
       </c>
@@ -5485,7 +5597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>1100009</v>
       </c>
@@ -5529,7 +5641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>1100010</v>
       </c>
@@ -5573,7 +5685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>1100011</v>
       </c>
@@ -5617,7 +5729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>1100012</v>
       </c>
@@ -5661,7 +5773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>1100013</v>
       </c>
@@ -5705,7 +5817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>1100014</v>
       </c>
@@ -5749,7 +5861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>1100015</v>
       </c>
@@ -5793,7 +5905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>1100016</v>
       </c>
@@ -5837,7 +5949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>1100017</v>
       </c>
@@ -5881,7 +5993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>1100018</v>
       </c>
@@ -5925,7 +6037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>1100019</v>
       </c>
@@ -5969,7 +6081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>1100020</v>
       </c>
@@ -6013,7 +6125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>1100021</v>
       </c>
@@ -6057,7 +6169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>1100022</v>
       </c>
@@ -6101,7 +6213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>1100023</v>
       </c>
@@ -6145,7 +6257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>1100024</v>
       </c>
@@ -6189,7 +6301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>1100025</v>
       </c>
@@ -6233,7 +6345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>1100026</v>
       </c>
@@ -6277,7 +6389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>1100027</v>
       </c>
@@ -6321,7 +6433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>1100028</v>
       </c>
@@ -6365,7 +6477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>1100029</v>
       </c>
@@ -6409,7 +6521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>1100030</v>
       </c>
@@ -6453,7 +6565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>1100031</v>
       </c>
@@ -6497,7 +6609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>1100032</v>
       </c>
@@ -6541,7 +6653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>1200001</v>
       </c>
@@ -6585,7 +6697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>1200002</v>
       </c>
@@ -6629,7 +6741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>1200003</v>
       </c>
@@ -6673,7 +6785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>1200004</v>
       </c>
@@ -6717,7 +6829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>1200005</v>
       </c>
@@ -6761,7 +6873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>1200006</v>
       </c>
@@ -6805,7 +6917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>1200007</v>
       </c>
@@ -6849,7 +6961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>1200008</v>
       </c>
@@ -6893,7 +7005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>1200009</v>
       </c>
@@ -6937,7 +7049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>1200010</v>
       </c>
@@ -6981,7 +7093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>1200011</v>
       </c>
@@ -7025,7 +7137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>1200012</v>
       </c>
@@ -7069,7 +7181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>1200013</v>
       </c>
@@ -7113,7 +7225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>1400001</v>
       </c>
@@ -7157,7 +7269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>1400002</v>
       </c>
@@ -7201,7 +7313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>1400003</v>
       </c>
@@ -7245,7 +7357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>1400004</v>
       </c>
@@ -7289,7 +7401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>1400005</v>
       </c>
@@ -7333,7 +7445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
         <v>1400006</v>
       </c>
@@ -7377,7 +7489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
         <v>1400007</v>
       </c>
@@ -7421,7 +7533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
         <v>1400008</v>
       </c>
@@ -7465,7 +7577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
         <v>1400009</v>
       </c>
@@ -7509,7 +7621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
         <v>1400010</v>
       </c>
@@ -7553,7 +7665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
         <v>1400011</v>
       </c>
@@ -7597,7 +7709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
         <v>1400012</v>
       </c>
@@ -7641,7 +7753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
         <v>1400013</v>
       </c>
@@ -7685,7 +7797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
         <v>1400014</v>
       </c>
@@ -7729,7 +7841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
         <v>1400015</v>
       </c>
@@ -7773,7 +7885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
         <v>1400016</v>
       </c>
@@ -7817,7 +7929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
         <v>1400017</v>
       </c>
@@ -7861,7 +7973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
         <v>1400018</v>
       </c>
@@ -7905,7 +8017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
         <v>1400019</v>
       </c>
@@ -7949,7 +8061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
         <v>1600001</v>
       </c>
@@ -7993,7 +8105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
         <v>1600002</v>
       </c>
@@ -8037,7 +8149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
         <v>1600003</v>
       </c>
@@ -8081,7 +8193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
         <v>1600004</v>
       </c>
@@ -8125,7 +8237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
         <v>1600005</v>
       </c>
@@ -8169,7 +8281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
         <v>1600006</v>
       </c>
@@ -8213,7 +8325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
         <v>1600007</v>
       </c>
@@ -8257,7 +8369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
         <v>1600008</v>
       </c>
@@ -8301,7 +8413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
         <v>1600009</v>
       </c>
@@ -8345,7 +8457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
         <v>1600010</v>
       </c>
@@ -8389,7 +8501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
         <v>1600011</v>
       </c>
@@ -8433,7 +8545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
         <v>1600012</v>
       </c>
@@ -8477,7 +8589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A78" s="2">
         <v>1600013</v>
       </c>
@@ -8521,7 +8633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
         <v>1600014</v>
       </c>
@@ -8565,7 +8677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A80" s="2">
         <v>1600015</v>
       </c>
@@ -8609,7 +8721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A81" s="2">
         <v>1600016</v>
       </c>
@@ -8653,7 +8765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A82" s="2">
         <v>1600017</v>
       </c>
@@ -8697,7 +8809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A83" s="2">
         <v>1600018</v>
       </c>
@@ -8741,7 +8853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A84" s="2">
         <v>1600019</v>
       </c>
@@ -8785,7 +8897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A85" s="2">
         <v>1600020</v>
       </c>
@@ -8829,7 +8941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
         <v>1600021</v>
       </c>
@@ -8873,7 +8985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A87" s="2">
         <v>1600022</v>
       </c>
@@ -8917,7 +9029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A88" s="2">
         <v>1600023</v>
       </c>
@@ -8961,7 +9073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A89" s="2">
         <v>1600024</v>
       </c>
@@ -9005,7 +9117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A90" s="2">
         <v>1600025</v>
       </c>
@@ -9049,7 +9161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A91" s="2">
         <v>1600026</v>
       </c>
@@ -9093,7 +9205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A92" s="2">
         <v>1600027</v>
       </c>
@@ -9137,7 +9249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A93" s="2">
         <v>1600028</v>
       </c>
@@ -9181,7 +9293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A94" s="2">
         <v>1600029</v>
       </c>
@@ -9225,7 +9337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A95" s="2">
         <v>1600030</v>
       </c>
@@ -9269,7 +9381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A96" s="2">
         <v>1600031</v>
       </c>
@@ -9313,7 +9425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A97" s="2">
         <v>1600032</v>
       </c>
@@ -9357,7 +9469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A98" s="2">
         <v>1600033</v>
       </c>
@@ -9401,7 +9513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A99" s="2">
         <v>1600034</v>
       </c>
@@ -9445,7 +9557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A100" s="2">
         <v>1600035</v>
       </c>
@@ -9489,7 +9601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A101" s="2">
         <v>1600036</v>
       </c>
@@ -9533,7 +9645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A102" s="2">
         <v>1600037</v>
       </c>
@@ -9577,7 +9689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A103" s="2">
         <v>1600038</v>
       </c>
@@ -9621,7 +9733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A104" s="2">
         <v>1600039</v>
       </c>
@@ -9665,7 +9777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A105" s="2">
         <v>1600040</v>
       </c>
@@ -9721,17 +9833,17 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>32</v>
       </c>
@@ -9751,7 +9863,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -9771,7 +9883,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -9791,7 +9903,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -9811,7 +9923,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -9831,7 +9943,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -9851,7 +9963,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -9871,7 +9983,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -9891,7 +10003,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -9911,7 +10023,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -9931,7 +10043,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -9951,7 +10063,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -9971,7 +10083,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -9991,7 +10103,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -10011,7 +10123,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -10031,7 +10143,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -10051,7 +10163,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -10071,7 +10183,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -10091,7 +10203,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -10111,7 +10223,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -10131,7 +10243,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -10151,7 +10263,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -10171,7 +10283,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -10191,7 +10303,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -10211,7 +10323,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -10231,7 +10343,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -10251,7 +10363,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -10271,7 +10383,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -10291,7 +10403,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -10311,7 +10423,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -10342,22 +10454,23 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>48</v>
       </c>
@@ -10395,7 +10508,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -10430,10 +10543,10 @@
         <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -10468,10 +10581,10 @@
         <v>1</v>
       </c>
       <c r="L3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -10506,10 +10619,10 @@
         <v>1</v>
       </c>
       <c r="L4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -10544,10 +10657,10 @@
         <v>1</v>
       </c>
       <c r="L5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -10582,10 +10695,10 @@
         <v>1</v>
       </c>
       <c r="L6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -10620,10 +10733,10 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -10658,10 +10771,10 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -10696,10 +10809,10 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -10734,10 +10847,10 @@
         <v>1</v>
       </c>
       <c r="L10">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -10772,10 +10885,10 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -10810,10 +10923,10 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -10848,10 +10961,10 @@
         <v>1</v>
       </c>
       <c r="L13">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -10886,10 +10999,10 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -10924,10 +11037,10 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -10962,10 +11075,10 @@
         <v>1</v>
       </c>
       <c r="L16">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -11000,10 +11113,10 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -11038,7 +11151,7 @@
         <v>1</v>
       </c>
       <c r="L18">
-        <v>17</v>
+        <v>1000</v>
       </c>
     </row>
   </sheetData>
@@ -11053,16 +11166,16 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>57</v>
       </c>
@@ -11079,7 +11192,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -11096,7 +11209,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -11113,7 +11226,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -11130,7 +11243,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -11147,7 +11260,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -11164,7 +11277,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -11181,7 +11294,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -11198,7 +11311,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -11215,7 +11328,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -11232,7 +11345,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -11249,7 +11362,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -11266,7 +11379,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -11283,7 +11396,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -11300,7 +11413,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -11317,7 +11430,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -11334,7 +11447,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -11351,7 +11464,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -11368,7 +11481,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -11385,7 +11498,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -11402,7 +11515,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -11419,7 +11532,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -11436,7 +11549,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -11453,7 +11566,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -11470,7 +11583,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -11487,7 +11600,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -11504,7 +11617,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -11521,7 +11634,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -11538,7 +11651,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -11555,7 +11668,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -11572,7 +11685,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -11589,7 +11702,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -11606,7 +11719,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -11623,7 +11736,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -11640,7 +11753,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -11657,7 +11770,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -11674,7 +11787,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
@@ -11691,7 +11804,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
@@ -11708,7 +11821,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
@@ -11725,7 +11838,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
@@ -11742,7 +11855,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
@@ -11759,7 +11872,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
@@ -11776,7 +11889,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
@@ -11804,14 +11917,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -11822,7 +11935,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>11</v>
       </c>
@@ -11833,7 +11946,7 @@
         <v>43477.417071759257</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>11</v>
       </c>
@@ -11844,7 +11957,7 @@
         <v>43477.418182870373</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>11</v>
       </c>
@@ -11855,7 +11968,7 @@
         <v>43477.420694444445</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>11</v>
       </c>
@@ -11866,7 +11979,7 @@
         <v>43477.459050925929</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>11</v>
       </c>
@@ -11877,7 +11990,7 @@
         <v>43477.460497685184</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>11</v>
       </c>
@@ -11888,7 +12001,7 @@
         <v>43477.461770833332</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>11</v>
       </c>
@@ -11899,7 +12012,7 @@
         <v>43478.544317129628</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>11</v>
       </c>
@@ -11910,7 +12023,7 @@
         <v>43478.552187499998</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>11</v>
       </c>
@@ -11921,7 +12034,7 @@
         <v>43478.594386574077</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>11</v>
       </c>
@@ -11932,7 +12045,7 @@
         <v>43478.596458333333</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -11943,7 +12056,7 @@
         <v>43478.628842592596</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
@@ -11954,7 +12067,7 @@
         <v>43478.636087962965</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
@@ -11965,7 +12078,7 @@
         <v>43482.754201388889</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>11</v>
       </c>
@@ -11976,7 +12089,7 @@
         <v>43484.417743055557</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>11</v>
       </c>
@@ -11987,7 +12100,7 @@
         <v>43484.422546296293</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>11</v>
       </c>
@@ -11998,7 +12111,7 @@
         <v>43484.42291666667</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>12</v>
       </c>
@@ -12009,7 +12122,7 @@
         <v>43484.426423611112</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>12</v>
       </c>
@@ -12020,7 +12133,7 @@
         <v>43484.431192129632</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>12</v>
       </c>
@@ -12031,7 +12144,7 @@
         <v>43484.43241898148</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>12</v>
       </c>
@@ -12042,7 +12155,7 @@
         <v>43484.434259259258</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>12</v>
       </c>
@@ -12053,7 +12166,7 @@
         <v>43484.460717592592</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>12</v>
       </c>
@@ -12064,7 +12177,7 @@
         <v>43484.462060185186</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>12</v>
       </c>
@@ -12075,7 +12188,7 @@
         <v>43484.462858796294</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>12</v>
       </c>
@@ -12086,7 +12199,7 @@
         <v>43484.466307870367</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>12</v>
       </c>
@@ -12097,7 +12210,7 @@
         <v>43484.470775462964</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>12</v>
       </c>
@@ -12108,7 +12221,7 @@
         <v>43484.475682870368</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>12</v>
       </c>
@@ -12119,7 +12232,7 @@
         <v>43484.481122685182</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>12</v>
       </c>
@@ -12130,7 +12243,7 @@
         <v>43484.545046296298</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>14</v>
       </c>
@@ -12141,7 +12254,7 @@
         <v>43484.547118055554</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>14</v>
       </c>
@@ -12152,7 +12265,7 @@
         <v>43484.548460648148</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>14</v>
       </c>
@@ -12163,7 +12276,7 @@
         <v>43484.551631944443</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>14</v>
       </c>
@@ -12174,7 +12287,7 @@
         <v>43484.552407407406</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>14</v>
       </c>
@@ -12185,7 +12298,7 @@
         <v>43484.557893518519</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>14</v>
       </c>
@@ -12196,7 +12309,7 @@
         <v>43484.561956018515</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>11</v>
       </c>
@@ -12207,7 +12320,7 @@
         <v>43485.547951388886</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>11</v>
       </c>
@@ -12218,7 +12331,7 @@
         <v>43485.553495370368</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>12</v>
       </c>
@@ -12229,7 +12342,7 @@
         <v>43485.5546875</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>12</v>
       </c>
@@ -12240,7 +12353,7 @@
         <v>43485.557916666665</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>12</v>
       </c>
@@ -12251,7 +12364,7 @@
         <v>43485.560243055559</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>12</v>
       </c>
@@ -12262,7 +12375,7 @@
         <v>43485.56453703704</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>12</v>
       </c>
@@ -12273,7 +12386,7 @@
         <v>43485.565057870372</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>12</v>
       </c>
@@ -12284,7 +12397,7 @@
         <v>43485.587997685187</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>12</v>
       </c>
@@ -12295,7 +12408,7 @@
         <v>43485.590127314812</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>12</v>
       </c>
@@ -12306,7 +12419,7 @@
         <v>43485.59578703704</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>12</v>
       </c>
@@ -12317,7 +12430,7 @@
         <v>43485.601377314815</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>12</v>
       </c>
@@ -12328,7 +12441,7 @@
         <v>43485.60664351852</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>12</v>
       </c>
@@ -12339,7 +12452,7 @@
         <v>43485.609884259262</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>14</v>
       </c>
@@ -12350,7 +12463,7 @@
         <v>43485.614710648151</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>14</v>
       </c>
@@ -12361,7 +12474,7 @@
         <v>43485.61791666667</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>14</v>
       </c>
@@ -12372,7 +12485,7 @@
         <v>43485.626550925925</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>14</v>
       </c>
@@ -12383,7 +12496,7 @@
         <v>43485.629050925927</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>14</v>
       </c>
@@ -12394,7 +12507,7 @@
         <v>43485.63449074074</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>14</v>
       </c>
@@ -12405,7 +12518,7 @@
         <v>43485.638425925928</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>16</v>
       </c>
@@ -12416,7 +12529,7 @@
         <v>43485.64303240741</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>16</v>
       </c>
@@ -12427,7 +12540,7 @@
         <v>43485.647696759261</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>16</v>
       </c>
@@ -12438,7 +12551,7 @@
         <v>43485.651388888888</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>16</v>
       </c>
@@ -12449,7 +12562,7 @@
         <v>43485.653807870367</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>16</v>
       </c>
@@ -12460,7 +12573,7 @@
         <v>43485.659224537034</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>16</v>
       </c>
@@ -12471,7 +12584,7 @@
         <v>43486.750844907408</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>14</v>
       </c>
@@ -12482,7 +12595,7 @@
         <v>43486.767256944448</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>11</v>
       </c>
@@ -12494,7 +12607,7 @@
       </c>
       <c r="F62" s="1"/>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>14</v>
       </c>
@@ -12505,7 +12618,7 @@
         <v>43488.751446759263</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>12</v>
       </c>
@@ -12516,7 +12629,7 @@
         <v>43489.75099537037</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>12</v>
       </c>
@@ -12527,7 +12640,7 @@
         <v>43490.792407407411</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>12</v>
       </c>
@@ -12538,7 +12651,7 @@
         <v>43491.416898148149</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>11</v>
       </c>
@@ -12549,7 +12662,7 @@
         <v>43491.423159722224</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>12</v>
       </c>
@@ -12560,7 +12673,7 @@
         <v>43491.428483796299</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>12</v>
       </c>
@@ -12571,7 +12684,7 @@
         <v>43491.433634259258</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>12</v>
       </c>
@@ -12582,7 +12695,7 @@
         <v>43491.443773148145</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>12</v>
       </c>
@@ -12593,7 +12706,7 @@
         <v>43491.460578703707</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>12</v>
       </c>
@@ -12604,7 +12717,7 @@
         <v>43491.466435185182</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>12</v>
       </c>
@@ -12615,7 +12728,7 @@
         <v>43491.466863425929</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>12</v>
       </c>
@@ -12626,7 +12739,7 @@
         <v>43491.469293981485</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>12</v>
       </c>
@@ -12637,7 +12750,7 @@
         <v>43491.471574074072</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>14</v>
       </c>
@@ -12648,7 +12761,7 @@
         <v>43491.472384259258</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>14</v>
       </c>
@@ -12659,7 +12772,7 @@
         <v>43491.547118055554</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>14</v>
       </c>
@@ -12670,7 +12783,7 @@
         <v>43491.548460648148</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>14</v>
       </c>
@@ -12681,7 +12794,7 @@
         <v>43491.553715277776</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>14</v>
       </c>
@@ -12692,7 +12805,7 @@
         <v>43491.558009259257</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>16</v>
       </c>
@@ -12703,7 +12816,7 @@
         <v>43491.562002314815</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>16</v>
       </c>
@@ -12714,7 +12827,7 @@
         <v>43491.565486111111</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>16</v>
       </c>
@@ -12725,7 +12838,7 @@
         <v>43491.56690972222</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>16</v>
       </c>
@@ -12736,7 +12849,7 @@
         <v>43491.569699074076</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>11</v>
       </c>
@@ -12747,7 +12860,7 @@
         <v>43492.546018518522</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>12</v>
       </c>
@@ -12758,7 +12871,7 @@
         <v>43492.549930555557</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>12</v>
       </c>
@@ -12769,7 +12882,7 @@
         <v>43492.552430555559</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>12</v>
       </c>
@@ -12780,7 +12893,7 @@
         <v>43492.555543981478</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>12</v>
       </c>
@@ -12791,7 +12904,7 @@
         <v>43492.556539351855</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>12</v>
       </c>
@@ -12802,7 +12915,7 @@
         <v>43492.586678240739</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>12</v>
       </c>
@@ -12813,7 +12926,7 @@
         <v>43492.587060185186</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>12</v>
       </c>
@@ -12824,7 +12937,7 @@
         <v>43492.591527777775</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>12</v>
       </c>
@@ -12835,7 +12948,7 @@
         <v>43492.595983796295</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>14</v>
       </c>
@@ -12846,7 +12959,7 @@
         <v>43492.597268518519</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>14</v>
       </c>
@@ -12857,7 +12970,7 @@
         <v>43492.630497685182</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>16</v>
       </c>
@@ -12868,7 +12981,7 @@
         <v>43492.634293981479</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>16</v>
       </c>
@@ -12879,7 +12992,7 @@
         <v>43492.636354166665</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>16</v>
       </c>
@@ -12890,7 +13003,7 @@
         <v>43492.643391203703</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>16</v>
       </c>
@@ -12901,7 +13014,7 @@
         <v>43492.644317129627</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>16</v>
       </c>
@@ -12912,7 +13025,7 @@
         <v>43493.731493055559</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>16</v>
       </c>
@@ -12923,7 +13036,7 @@
         <v>43493.735914351855</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>16</v>
       </c>
@@ -12934,7 +13047,7 @@
         <v>43493.739560185182</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>14</v>
       </c>
@@ -12945,7 +13058,7 @@
         <v>43495.751099537039</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>12</v>
       </c>
@@ -12956,7 +13069,7 @@
         <v>43495.761493055557</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>12</v>
       </c>
@@ -12967,7 +13080,7 @@
         <v>43496.751493055555</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>12</v>
       </c>
@@ -12978,7 +13091,7 @@
         <v>43497.796087962961</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>12</v>
       </c>
@@ -12989,7 +13102,7 @@
         <v>43497.797615740739</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>11</v>
       </c>
@@ -13000,7 +13113,7 @@
         <v>43498.418240740742</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>12</v>
       </c>
@@ -13011,7 +13124,7 @@
         <v>43498.423067129632</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>11</v>
       </c>
@@ -13022,7 +13135,7 @@
         <v>43498.427372685182</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>12</v>
       </c>
@@ -13033,7 +13146,7 @@
         <v>43498.462719907409</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>12</v>
       </c>
@@ -13044,7 +13157,7 @@
         <v>43498.465057870373</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>12</v>
       </c>
@@ -13055,7 +13168,7 @@
         <v>43498.467199074075</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>12</v>
       </c>
@@ -13066,7 +13179,7 @@
         <v>43498.545405092591</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>14</v>
       </c>
@@ -13077,7 +13190,7 @@
         <v>43498.550034722219</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>14</v>
       </c>
@@ -13088,7 +13201,7 @@
         <v>43498.550763888888</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>16</v>
       </c>
@@ -13099,7 +13212,7 @@
         <v>43498.556620370371</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>16</v>
       </c>
@@ -13110,7 +13223,7 @@
         <v>43498.557615740741</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>14</v>
       </c>
@@ -13121,7 +13234,7 @@
         <v>43499.543877314813</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>12</v>
       </c>
@@ -13132,7 +13245,7 @@
         <v>43499.544965277775</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>12</v>
       </c>
@@ -13143,7 +13256,7 @@
         <v>43499.546701388892</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>12</v>
       </c>
@@ -13154,7 +13267,7 @@
         <v>43499.586701388886</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>12</v>
       </c>
@@ -13165,7 +13278,7 @@
         <v>43499.587500000001</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>14</v>
       </c>
@@ -13176,7 +13289,7 @@
         <v>43499.590636574074</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>14</v>
       </c>
@@ -13187,7 +13300,7 @@
         <v>43499.632280092592</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>16</v>
       </c>
@@ -13198,7 +13311,7 @@
         <v>43499.635312500002</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>16</v>
       </c>
@@ -13219,27 +13332,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAF50FD6-E75F-47AB-9710-BB0FD7ED764B}">
   <dimension ref="A1:L18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>59</v>
       </c>
@@ -13277,13 +13388,12 @@
         <v>65</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" t="str">
-        <f>B$1&amp;$A2</f>
-        <v>MontantVenteAvantLivraison1</v>
+      <c r="B2" t="s">
+        <v>733</v>
       </c>
       <c r="C2">
         <v>11</v>
@@ -13294,134 +13404,110 @@
       <c r="E2">
         <v>1</v>
       </c>
-      <c r="F2" t="str">
-        <f>F$1&amp;$A2</f>
-        <v>DateVente1</v>
-      </c>
-      <c r="G2" t="str">
-        <f t="shared" ref="G2:L2" si="0">G$1&amp;$A2</f>
-        <v>NoAutorisation1</v>
-      </c>
-      <c r="H2" t="str">
-        <f t="shared" si="0"/>
-        <v>FraisLesi1</v>
-      </c>
-      <c r="I2" t="str">
-        <f t="shared" si="0"/>
-        <v>Redevance1</v>
-      </c>
-      <c r="J2" t="str">
-        <f t="shared" si="0"/>
-        <v>FraisLivraison1</v>
-      </c>
-      <c r="K2" t="str">
-        <f t="shared" si="0"/>
-        <v>FraisTPS1</v>
-      </c>
-      <c r="L2" t="str">
-        <f t="shared" si="0"/>
-        <v>FraisTVQ1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="F2" s="1">
+        <v>43478.550694444442</v>
+      </c>
+      <c r="G2">
+        <v>1000</v>
+      </c>
+      <c r="H2" t="s">
+        <v>805</v>
+      </c>
+      <c r="I2" t="s">
+        <v>255</v>
+      </c>
+      <c r="J2" t="s">
+        <v>743</v>
+      </c>
+      <c r="K2" t="s">
+        <v>255</v>
+      </c>
+      <c r="L2" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" t="str">
-        <f t="shared" ref="B3:B18" si="1">B$1&amp;$A3</f>
-        <v>MontantVenteAvantLivraison2</v>
+      <c r="B3" t="s">
+        <v>734</v>
       </c>
       <c r="C3">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D3">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="E3">
         <v>2</v>
       </c>
-      <c r="F3" t="str">
-        <f t="shared" ref="F3:L18" si="2">F$1&amp;$A3</f>
-        <v>DateVente2</v>
-      </c>
-      <c r="G3" t="str">
-        <f t="shared" si="2"/>
-        <v>NoAutorisation2</v>
-      </c>
-      <c r="H3" t="str">
-        <f t="shared" si="2"/>
-        <v>FraisLesi2</v>
-      </c>
-      <c r="I3" t="str">
-        <f t="shared" si="2"/>
-        <v>Redevance2</v>
-      </c>
-      <c r="J3" t="str">
-        <f t="shared" si="2"/>
-        <v>FraisLivraison2</v>
-      </c>
-      <c r="K3" t="str">
-        <f t="shared" si="2"/>
-        <v>FraisTPS2</v>
-      </c>
-      <c r="L3" t="str">
-        <f t="shared" si="2"/>
-        <v>FraisTVQ2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="F3" s="1">
+        <v>43484.434664351851</v>
+      </c>
+      <c r="G3">
+        <v>1000</v>
+      </c>
+      <c r="H3" t="s">
+        <v>806</v>
+      </c>
+      <c r="I3" t="s">
+        <v>794</v>
+      </c>
+      <c r="J3" t="s">
+        <v>743</v>
+      </c>
+      <c r="K3" t="s">
+        <v>753</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" t="str">
-        <f t="shared" si="1"/>
-        <v>MontantVenteAvantLivraison3</v>
+      <c r="B4" t="s">
+        <v>732</v>
       </c>
       <c r="C4">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D4">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="E4">
         <v>3</v>
       </c>
-      <c r="F4" t="str">
-        <f t="shared" si="2"/>
-        <v>DateVente3</v>
-      </c>
-      <c r="G4" t="str">
-        <f t="shared" si="2"/>
-        <v>NoAutorisation3</v>
-      </c>
-      <c r="H4" t="str">
-        <f t="shared" si="2"/>
-        <v>FraisLesi3</v>
-      </c>
-      <c r="I4" t="str">
-        <f t="shared" si="2"/>
-        <v>Redevance3</v>
-      </c>
-      <c r="J4" t="str">
-        <f t="shared" si="2"/>
-        <v>FraisLivraison3</v>
-      </c>
-      <c r="K4" t="str">
-        <f t="shared" si="2"/>
-        <v>FraisTPS3</v>
-      </c>
-      <c r="L4" t="str">
-        <f t="shared" si="2"/>
-        <v>FraisTVQ3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="F4" s="1">
+        <v>43485.598611111112</v>
+      </c>
+      <c r="G4">
+        <v>1000</v>
+      </c>
+      <c r="H4" t="s">
+        <v>807</v>
+      </c>
+      <c r="I4" t="s">
+        <v>752</v>
+      </c>
+      <c r="J4" t="s">
+        <v>743</v>
+      </c>
+      <c r="K4" t="s">
+        <v>752</v>
+      </c>
+      <c r="L4" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" t="str">
-        <f t="shared" si="1"/>
-        <v>MontantVenteAvantLivraison4</v>
+      <c r="B5" t="s">
+        <v>735</v>
       </c>
       <c r="C5">
         <v>12</v>
@@ -13432,42 +13518,34 @@
       <c r="E5">
         <v>4</v>
       </c>
-      <c r="F5" t="str">
-        <f t="shared" si="2"/>
-        <v>DateVente4</v>
-      </c>
-      <c r="G5" t="str">
-        <f t="shared" si="2"/>
-        <v>NoAutorisation4</v>
-      </c>
-      <c r="H5" t="str">
-        <f t="shared" si="2"/>
-        <v>FraisLesi4</v>
-      </c>
-      <c r="I5" t="str">
-        <f t="shared" si="2"/>
-        <v>Redevance4</v>
-      </c>
-      <c r="J5" t="str">
-        <f t="shared" si="2"/>
-        <v>FraisLivraison4</v>
-      </c>
-      <c r="K5" t="str">
-        <f t="shared" si="2"/>
-        <v>FraisTPS4</v>
-      </c>
-      <c r="L5" t="str">
-        <f t="shared" si="2"/>
-        <v>FraisTVQ4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="F5" s="1">
+        <v>43487.803252314814</v>
+      </c>
+      <c r="G5">
+        <v>1000</v>
+      </c>
+      <c r="H5" t="s">
+        <v>808</v>
+      </c>
+      <c r="I5" t="s">
+        <v>795</v>
+      </c>
+      <c r="J5" t="s">
+        <v>743</v>
+      </c>
+      <c r="K5" t="s">
+        <v>754</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" t="str">
-        <f t="shared" si="1"/>
-        <v>MontantVenteAvantLivraison5</v>
+      <c r="B6" t="s">
+        <v>789</v>
       </c>
       <c r="C6">
         <v>16</v>
@@ -13478,180 +13556,148 @@
       <c r="E6">
         <v>5</v>
       </c>
-      <c r="F6" t="str">
-        <f t="shared" si="2"/>
-        <v>DateVente5</v>
-      </c>
-      <c r="G6" t="str">
-        <f t="shared" si="2"/>
-        <v>NoAutorisation5</v>
-      </c>
-      <c r="H6" t="str">
-        <f t="shared" si="2"/>
-        <v>FraisLesi5</v>
-      </c>
-      <c r="I6" t="str">
-        <f t="shared" si="2"/>
-        <v>Redevance5</v>
-      </c>
-      <c r="J6" t="str">
-        <f t="shared" si="2"/>
-        <v>FraisLivraison5</v>
-      </c>
-      <c r="K6" t="str">
-        <f t="shared" si="2"/>
-        <v>FraisTPS5</v>
-      </c>
-      <c r="L6" t="str">
-        <f t="shared" si="2"/>
-        <v>FraisTVQ5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="F6" s="1">
+        <v>43487.811307870368</v>
+      </c>
+      <c r="G6">
+        <v>1000</v>
+      </c>
+      <c r="H6" t="s">
+        <v>809</v>
+      </c>
+      <c r="I6" t="s">
+        <v>796</v>
+      </c>
+      <c r="J6" t="s">
+        <v>611</v>
+      </c>
+      <c r="K6" t="s">
+        <v>783</v>
+      </c>
+      <c r="L6" s="5" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" t="str">
-        <f t="shared" si="1"/>
-        <v>MontantVenteAvantLivraison6</v>
+      <c r="B7" t="s">
+        <v>736</v>
       </c>
       <c r="C7">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D7">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="E7">
         <v>6</v>
       </c>
-      <c r="F7" t="str">
-        <f t="shared" si="2"/>
-        <v>DateVente6</v>
-      </c>
-      <c r="G7" t="str">
-        <f t="shared" si="2"/>
-        <v>NoAutorisation6</v>
-      </c>
-      <c r="H7" t="str">
-        <f t="shared" si="2"/>
-        <v>FraisLesi6</v>
-      </c>
-      <c r="I7" t="str">
-        <f t="shared" si="2"/>
-        <v>Redevance6</v>
-      </c>
-      <c r="J7" t="str">
-        <f t="shared" si="2"/>
-        <v>FraisLivraison6</v>
-      </c>
-      <c r="K7" t="str">
-        <f t="shared" si="2"/>
-        <v>FraisTPS6</v>
-      </c>
-      <c r="L7" t="str">
-        <f t="shared" si="2"/>
-        <v>FraisTVQ6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="F7" s="1">
+        <v>43490.849861111114</v>
+      </c>
+      <c r="G7">
+        <v>1000</v>
+      </c>
+      <c r="H7" t="s">
+        <v>810</v>
+      </c>
+      <c r="I7" t="s">
+        <v>797</v>
+      </c>
+      <c r="J7" t="s">
+        <v>743</v>
+      </c>
+      <c r="K7" t="s">
+        <v>755</v>
+      </c>
+      <c r="L7" s="5" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" t="str">
-        <f t="shared" si="1"/>
-        <v>MontantVenteAvantLivraison7</v>
+      <c r="B8" t="s">
+        <v>737</v>
       </c>
       <c r="C8">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D8">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="E8">
         <v>7</v>
       </c>
-      <c r="F8" t="str">
-        <f t="shared" si="2"/>
-        <v>DateVente7</v>
-      </c>
-      <c r="G8" t="str">
-        <f t="shared" si="2"/>
-        <v>NoAutorisation7</v>
-      </c>
-      <c r="H8" t="str">
-        <f t="shared" si="2"/>
-        <v>FraisLesi7</v>
-      </c>
-      <c r="I8" t="str">
-        <f t="shared" si="2"/>
-        <v>Redevance7</v>
-      </c>
-      <c r="J8" t="str">
-        <f t="shared" si="2"/>
-        <v>FraisLivraison7</v>
-      </c>
-      <c r="K8" t="str">
-        <f t="shared" si="2"/>
-        <v>FraisTPS7</v>
-      </c>
-      <c r="L8" t="str">
-        <f t="shared" si="2"/>
-        <v>FraisTVQ7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="F8" s="1">
+        <v>43491.464502314811</v>
+      </c>
+      <c r="G8">
+        <v>1000</v>
+      </c>
+      <c r="H8" t="s">
+        <v>811</v>
+      </c>
+      <c r="I8" t="s">
+        <v>756</v>
+      </c>
+      <c r="J8" t="s">
+        <v>743</v>
+      </c>
+      <c r="K8" t="s">
+        <v>756</v>
+      </c>
+      <c r="L8" s="5" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" t="str">
-        <f t="shared" si="1"/>
-        <v>MontantVenteAvantLivraison8</v>
+      <c r="B9" t="s">
+        <v>738</v>
       </c>
       <c r="C9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D9">
-        <v>120</v>
+        <v>101</v>
       </c>
       <c r="E9">
         <v>8</v>
       </c>
-      <c r="F9" t="str">
-        <f t="shared" si="2"/>
-        <v>DateVente8</v>
-      </c>
-      <c r="G9" t="str">
-        <f t="shared" si="2"/>
-        <v>NoAutorisation8</v>
-      </c>
-      <c r="H9" t="str">
-        <f t="shared" si="2"/>
-        <v>FraisLesi8</v>
-      </c>
-      <c r="I9" t="str">
-        <f t="shared" si="2"/>
-        <v>Redevance8</v>
-      </c>
-      <c r="J9" t="str">
-        <f t="shared" si="2"/>
-        <v>FraisLivraison8</v>
-      </c>
-      <c r="K9" t="str">
-        <f t="shared" si="2"/>
-        <v>FraisTPS8</v>
-      </c>
-      <c r="L9" t="str">
-        <f t="shared" si="2"/>
-        <v>FraisTVQ8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="F9" s="1">
+        <v>43491.473738425928</v>
+      </c>
+      <c r="G9">
+        <v>1000</v>
+      </c>
+      <c r="H9" t="s">
+        <v>812</v>
+      </c>
+      <c r="I9" t="s">
+        <v>757</v>
+      </c>
+      <c r="J9" t="s">
+        <v>743</v>
+      </c>
+      <c r="K9" t="s">
+        <v>757</v>
+      </c>
+      <c r="L9" s="5" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" t="str">
-        <f t="shared" si="1"/>
-        <v>MontantVenteAvantLivraison9</v>
+      <c r="B10" t="s">
+        <v>790</v>
       </c>
       <c r="C10">
         <v>12</v>
@@ -13662,180 +13708,148 @@
       <c r="E10">
         <v>9</v>
       </c>
-      <c r="F10" t="str">
-        <f t="shared" si="2"/>
-        <v>DateVente9</v>
-      </c>
-      <c r="G10" t="str">
-        <f t="shared" si="2"/>
-        <v>NoAutorisation9</v>
-      </c>
-      <c r="H10" t="str">
-        <f t="shared" si="2"/>
-        <v>FraisLesi9</v>
-      </c>
-      <c r="I10" t="str">
-        <f t="shared" si="2"/>
-        <v>Redevance9</v>
-      </c>
-      <c r="J10" t="str">
-        <f t="shared" si="2"/>
-        <v>FraisLivraison9</v>
-      </c>
-      <c r="K10" t="str">
-        <f t="shared" si="2"/>
-        <v>FraisTPS9</v>
-      </c>
-      <c r="L10" t="str">
-        <f t="shared" si="2"/>
-        <v>FraisTVQ9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="F10" s="1">
+        <v>43492.551689814813</v>
+      </c>
+      <c r="G10">
+        <v>1000</v>
+      </c>
+      <c r="H10" t="s">
+        <v>813</v>
+      </c>
+      <c r="I10" t="s">
+        <v>798</v>
+      </c>
+      <c r="J10" t="s">
+        <v>744</v>
+      </c>
+      <c r="K10" t="s">
+        <v>758</v>
+      </c>
+      <c r="L10" s="5" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" t="str">
-        <f t="shared" si="1"/>
-        <v>MontantVenteAvantLivraison10</v>
+      <c r="B11" t="s">
+        <v>791</v>
       </c>
       <c r="C11">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D11">
-        <v>101</v>
+        <v>120</v>
       </c>
       <c r="E11">
         <v>10</v>
       </c>
-      <c r="F11" t="str">
-        <f t="shared" si="2"/>
-        <v>DateVente10</v>
-      </c>
-      <c r="G11" t="str">
-        <f t="shared" si="2"/>
-        <v>NoAutorisation10</v>
-      </c>
-      <c r="H11" t="str">
-        <f t="shared" si="2"/>
-        <v>FraisLesi10</v>
-      </c>
-      <c r="I11" t="str">
-        <f t="shared" si="2"/>
-        <v>Redevance10</v>
-      </c>
-      <c r="J11" t="str">
-        <f t="shared" si="2"/>
-        <v>FraisLivraison10</v>
-      </c>
-      <c r="K11" t="str">
-        <f t="shared" si="2"/>
-        <v>FraisTPS10</v>
-      </c>
-      <c r="L11" t="str">
-        <f t="shared" si="2"/>
-        <v>FraisTVQ10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="F11" s="1">
+        <v>43492.560844907406</v>
+      </c>
+      <c r="G11">
+        <v>1000</v>
+      </c>
+      <c r="H11" t="s">
+        <v>814</v>
+      </c>
+      <c r="I11" t="s">
+        <v>799</v>
+      </c>
+      <c r="J11" t="s">
+        <v>744</v>
+      </c>
+      <c r="K11" t="s">
+        <v>759</v>
+      </c>
+      <c r="L11" s="5" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" t="str">
-        <f t="shared" si="1"/>
-        <v>MontantVenteAvantLivraison11</v>
+      <c r="B12" t="s">
+        <v>792</v>
       </c>
       <c r="C12">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D12">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="E12">
         <v>11</v>
       </c>
-      <c r="F12" t="str">
-        <f t="shared" si="2"/>
-        <v>DateVente11</v>
-      </c>
-      <c r="G12" t="str">
-        <f t="shared" si="2"/>
-        <v>NoAutorisation11</v>
-      </c>
-      <c r="H12" t="str">
-        <f t="shared" si="2"/>
-        <v>FraisLesi11</v>
-      </c>
-      <c r="I12" t="str">
-        <f t="shared" si="2"/>
-        <v>Redevance11</v>
-      </c>
-      <c r="J12" t="str">
-        <f t="shared" si="2"/>
-        <v>FraisLivraison11</v>
-      </c>
-      <c r="K12" t="str">
-        <f t="shared" si="2"/>
-        <v>FraisTPS11</v>
-      </c>
-      <c r="L12" t="str">
-        <f t="shared" si="2"/>
-        <v>FraisTVQ11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="F12" s="1">
+        <v>43492.620648148149</v>
+      </c>
+      <c r="G12">
+        <v>1000</v>
+      </c>
+      <c r="H12" t="s">
+        <v>815</v>
+      </c>
+      <c r="I12" t="s">
+        <v>800</v>
+      </c>
+      <c r="J12" t="s">
+        <v>745</v>
+      </c>
+      <c r="K12" t="s">
+        <v>761</v>
+      </c>
+      <c r="L12" s="5" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" t="str">
-        <f t="shared" si="1"/>
-        <v>MontantVenteAvantLivraison12</v>
+      <c r="B13" t="s">
+        <v>739</v>
       </c>
       <c r="C13">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D13">
-        <v>102</v>
+        <v>114</v>
       </c>
       <c r="E13">
         <v>12</v>
       </c>
-      <c r="F13" t="str">
-        <f t="shared" si="2"/>
-        <v>DateVente12</v>
-      </c>
-      <c r="G13" t="str">
-        <f t="shared" si="2"/>
-        <v>NoAutorisation12</v>
-      </c>
-      <c r="H13" t="str">
-        <f t="shared" si="2"/>
-        <v>FraisLesi12</v>
-      </c>
-      <c r="I13" t="str">
-        <f t="shared" si="2"/>
-        <v>Redevance12</v>
-      </c>
-      <c r="J13" t="str">
-        <f t="shared" si="2"/>
-        <v>FraisLivraison12</v>
-      </c>
-      <c r="K13" t="str">
-        <f t="shared" si="2"/>
-        <v>FraisTPS12</v>
-      </c>
-      <c r="L13" t="str">
-        <f t="shared" si="2"/>
-        <v>FraisTVQ12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="F13" s="1">
+        <v>43492.628784722219</v>
+      </c>
+      <c r="G13">
+        <v>1000</v>
+      </c>
+      <c r="H13" t="s">
+        <v>816</v>
+      </c>
+      <c r="I13" t="s">
+        <v>760</v>
+      </c>
+      <c r="J13" t="s">
+        <v>743</v>
+      </c>
+      <c r="K13" t="s">
+        <v>760</v>
+      </c>
+      <c r="L13" s="5" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14" t="str">
-        <f t="shared" si="1"/>
-        <v>MontantVenteAvantLivraison13</v>
+      <c r="B14" t="s">
+        <v>740</v>
       </c>
       <c r="C14">
         <v>14</v>
@@ -13846,134 +13860,110 @@
       <c r="E14">
         <v>13</v>
       </c>
-      <c r="F14" t="str">
-        <f t="shared" si="2"/>
-        <v>DateVente13</v>
-      </c>
-      <c r="G14" t="str">
-        <f t="shared" si="2"/>
-        <v>NoAutorisation13</v>
-      </c>
-      <c r="H14" t="str">
-        <f t="shared" si="2"/>
-        <v>FraisLesi13</v>
-      </c>
-      <c r="I14" t="str">
-        <f t="shared" si="2"/>
-        <v>Redevance13</v>
-      </c>
-      <c r="J14" t="str">
-        <f t="shared" si="2"/>
-        <v>FraisLivraison13</v>
-      </c>
-      <c r="K14" t="str">
-        <f t="shared" si="2"/>
-        <v>FraisTPS13</v>
-      </c>
-      <c r="L14" t="str">
-        <f t="shared" si="2"/>
-        <v>FraisTVQ13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="F14" s="1">
+        <v>43493.750011574077</v>
+      </c>
+      <c r="G14">
+        <v>1000</v>
+      </c>
+      <c r="H14" t="s">
+        <v>817</v>
+      </c>
+      <c r="I14" t="s">
+        <v>801</v>
+      </c>
+      <c r="J14" t="s">
+        <v>743</v>
+      </c>
+      <c r="K14" t="s">
+        <v>762</v>
+      </c>
+      <c r="L14" s="5" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" t="str">
-        <f t="shared" si="1"/>
-        <v>MontantVenteAvantLivraison14</v>
+      <c r="B15" t="s">
+        <v>793</v>
       </c>
       <c r="C15">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D15">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="E15">
         <v>14</v>
       </c>
-      <c r="F15" t="str">
-        <f t="shared" si="2"/>
-        <v>DateVente14</v>
-      </c>
-      <c r="G15" t="str">
-        <f t="shared" si="2"/>
-        <v>NoAutorisation14</v>
-      </c>
-      <c r="H15" t="str">
-        <f t="shared" si="2"/>
-        <v>FraisLesi14</v>
-      </c>
-      <c r="I15" t="str">
-        <f t="shared" si="2"/>
-        <v>Redevance14</v>
-      </c>
-      <c r="J15" t="str">
-        <f t="shared" si="2"/>
-        <v>FraisLivraison14</v>
-      </c>
-      <c r="K15" t="str">
-        <f t="shared" si="2"/>
-        <v>FraisTPS14</v>
-      </c>
-      <c r="L15" t="str">
-        <f t="shared" si="2"/>
-        <v>FraisTVQ14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="F15" s="1">
+        <v>43494.813634259262</v>
+      </c>
+      <c r="G15">
+        <v>1000</v>
+      </c>
+      <c r="H15" t="s">
+        <v>818</v>
+      </c>
+      <c r="I15" t="s">
+        <v>802</v>
+      </c>
+      <c r="J15" t="s">
+        <v>746</v>
+      </c>
+      <c r="K15" t="s">
+        <v>763</v>
+      </c>
+      <c r="L15" s="5" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16" t="str">
-        <f t="shared" si="1"/>
-        <v>MontantVenteAvantLivraison15</v>
+      <c r="B16" t="s">
+        <v>741</v>
       </c>
       <c r="C16">
         <v>12</v>
       </c>
       <c r="D16">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E16">
         <v>15</v>
       </c>
-      <c r="F16" t="str">
-        <f t="shared" si="2"/>
-        <v>DateVente15</v>
-      </c>
-      <c r="G16" t="str">
-        <f t="shared" si="2"/>
-        <v>NoAutorisation15</v>
-      </c>
-      <c r="H16" t="str">
-        <f t="shared" si="2"/>
-        <v>FraisLesi15</v>
-      </c>
-      <c r="I16" t="str">
-        <f t="shared" si="2"/>
-        <v>Redevance15</v>
-      </c>
-      <c r="J16" t="str">
-        <f t="shared" si="2"/>
-        <v>FraisLivraison15</v>
-      </c>
-      <c r="K16" t="str">
-        <f t="shared" si="2"/>
-        <v>FraisTPS15</v>
-      </c>
-      <c r="L16" t="str">
-        <f t="shared" si="2"/>
-        <v>FraisTVQ15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="F16" s="1">
+        <v>43495.767314814817</v>
+      </c>
+      <c r="G16">
+        <v>1000</v>
+      </c>
+      <c r="H16" t="s">
+        <v>819</v>
+      </c>
+      <c r="I16" t="s">
+        <v>803</v>
+      </c>
+      <c r="J16" t="s">
+        <v>743</v>
+      </c>
+      <c r="K16" t="s">
+        <v>764</v>
+      </c>
+      <c r="L16" s="5" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17" t="str">
-        <f t="shared" si="1"/>
-        <v>MontantVenteAvantLivraison16</v>
+      <c r="B17" t="s">
+        <v>455</v>
       </c>
       <c r="C17">
         <v>12</v>
@@ -13984,79 +13974,64 @@
       <c r="E17">
         <v>16</v>
       </c>
-      <c r="F17" t="str">
-        <f t="shared" si="2"/>
-        <v>DateVente16</v>
-      </c>
-      <c r="G17" t="str">
-        <f t="shared" si="2"/>
-        <v>NoAutorisation16</v>
-      </c>
-      <c r="H17" t="str">
-        <f t="shared" si="2"/>
-        <v>FraisLesi16</v>
-      </c>
-      <c r="I17" t="str">
-        <f t="shared" si="2"/>
-        <v>Redevance16</v>
-      </c>
-      <c r="J17" t="str">
-        <f t="shared" si="2"/>
-        <v>FraisLivraison16</v>
-      </c>
-      <c r="K17" t="str">
-        <f t="shared" si="2"/>
-        <v>FraisTPS16</v>
-      </c>
-      <c r="L17" t="str">
-        <f t="shared" si="2"/>
-        <v>FraisTVQ16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="F17" s="1">
+        <v>43496.753333333334</v>
+      </c>
+      <c r="G17">
+        <v>1000</v>
+      </c>
+      <c r="H17" t="s">
+        <v>820</v>
+      </c>
+      <c r="I17" t="s">
+        <v>804</v>
+      </c>
+      <c r="J17" t="s">
+        <v>611</v>
+      </c>
+      <c r="K17" t="s">
+        <v>765</v>
+      </c>
+      <c r="L17" s="5" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
-      <c r="B18" t="str">
-        <f t="shared" si="1"/>
-        <v>MontantVenteAvantLivraison17</v>
+      <c r="B18" t="s">
+        <v>742</v>
       </c>
       <c r="C18">
         <v>16</v>
       </c>
       <c r="D18">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="E18">
         <v>17</v>
       </c>
-      <c r="F18" t="str">
-        <f t="shared" si="2"/>
-        <v>DateVente17</v>
-      </c>
-      <c r="G18" t="str">
-        <f t="shared" si="2"/>
-        <v>NoAutorisation17</v>
-      </c>
-      <c r="H18" t="str">
-        <f t="shared" si="2"/>
-        <v>FraisLesi17</v>
-      </c>
-      <c r="I18" t="str">
-        <f t="shared" si="2"/>
-        <v>Redevance17</v>
-      </c>
-      <c r="J18" t="str">
-        <f t="shared" si="2"/>
-        <v>FraisLivraison17</v>
-      </c>
-      <c r="K18" t="str">
-        <f t="shared" si="2"/>
-        <v>FraisTPS17</v>
-      </c>
-      <c r="L18" t="str">
-        <f t="shared" si="2"/>
-        <v>FraisTVQ17</v>
+      <c r="F18" s="1">
+        <v>43497.887604166666</v>
+      </c>
+      <c r="G18">
+        <v>1000</v>
+      </c>
+      <c r="H18" t="s">
+        <v>821</v>
+      </c>
+      <c r="I18" t="s">
+        <v>766</v>
+      </c>
+      <c r="J18" t="s">
+        <v>743</v>
+      </c>
+      <c r="K18" t="s">
+        <v>766</v>
+      </c>
+      <c r="L18" s="5" t="s">
+        <v>780</v>
       </c>
     </row>
   </sheetData>
